--- a/减脂增肌.xlsx
+++ b/减脂增肌.xlsx
@@ -1,22 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\健身\fitness\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21010E7A-EB5D-400D-A365-FBE7870F1421}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$C$16:$C$23</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="2">Sheet3!$F$23:$F$26</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="89">
   <si>
     <t>单位</t>
   </si>
@@ -129,118 +149,22 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>玉米</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>根</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>意大利面</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>把</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>小米粥</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>碗</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>米饭</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小碗</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>快餐盒</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>猪肉包</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -249,22 +173,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>片</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>1个</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -277,22 +185,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个（小）</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>米粉</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -301,22 +193,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>勺</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>黑米粥</t>
   </si>
   <si>
@@ -328,62 +204,14 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>块</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>鸡胸肉</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>快鸡胸肉</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>蛋清</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个鸡蛋清</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>煎鸡蛋</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -396,42 +224,10 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小杯</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>牛奶</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>杯</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>水果</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -480,22 +276,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>碗</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>绿豆粥</t>
   </si>
   <si>
@@ -503,95 +283,84 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>盘</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>煎饼</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0.1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>盘</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>快鸡胸肉</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <t>2碗</t>
+  </si>
+  <si>
+    <t>汤包</t>
+  </si>
+  <si>
+    <t>1个</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>总质量</t>
+  </si>
+  <si>
+    <t>1小碗</t>
+  </si>
+  <si>
+    <t>1张</t>
+  </si>
+  <si>
+    <t>1盘</t>
+  </si>
+  <si>
+    <t>1根</t>
+  </si>
+  <si>
+    <t>1把</t>
+  </si>
+  <si>
+    <t>1碗</t>
+  </si>
+  <si>
+    <t>1快餐盒</t>
+  </si>
+  <si>
+    <t>1片</t>
+  </si>
+  <si>
+    <t>1个（小）</t>
+  </si>
+  <si>
+    <t>1勺</t>
+  </si>
+  <si>
+    <t>1块</t>
+  </si>
+  <si>
+    <t>1快鸡胸肉</t>
+  </si>
+  <si>
+    <t>1个鸡蛋清</t>
+  </si>
+  <si>
+    <t>1小杯</t>
+  </si>
+  <si>
+    <t>1杯</t>
+  </si>
+  <si>
+    <t>0.1盘</t>
+  </si>
+  <si>
+    <t>1.2快鸡胸肉</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -602,7 +371,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -611,7 +380,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Cambria"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -620,7 +389,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -629,7 +398,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -638,7 +407,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -646,7 +415,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -654,7 +423,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -662,7 +431,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -670,7 +439,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -679,7 +448,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -688,7 +457,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -696,7 +465,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -705,7 +474,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -713,7 +482,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -722,7 +491,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -731,7 +500,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -739,7 +508,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -766,20 +535,29 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -973,12 +751,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1182,6 +966,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1312,15 +1105,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1360,63 +1149,149 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="18" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="22" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="26" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="30" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="19" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="23" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="27" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="35" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="39" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="20" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="24" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="28" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="32" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="36" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="40" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="41"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="16" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="15" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="21" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="25" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="29" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="33" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="37" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="注释 2" xfId="42"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="常规 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="注释 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1426,18 +1301,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="Picture 1" descr="http://s2.boohee.cn/food/star/mantou_junzhi-eebf1a1047a2c77b1611f7fa1530b522.png"/>
+        <xdr:cNvPr id="2049" name="Picture 1" descr="http://s2.boohee.cn/food/star/mantou_junzhi-eebf1a1047a2c77b1611f7fa1530b522.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1466,18 +1347,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2050" name="Picture 2" descr="http://s2.boohee.cn/food/star/mifen-5417640ffeef94b4890adc8f223575b6.png"/>
+        <xdr:cNvPr id="2050" name="Picture 2" descr="http://s2.boohee.cn/food/star/mifen-5417640ffeef94b4890adc8f223575b6.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1506,18 +1393,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2051" name="Picture 3" descr="http://s2.boohee.cn/food/star/lvdou-abb3662f6104fb8d05203374a6f71125.png"/>
+        <xdr:cNvPr id="2051" name="Picture 3" descr="http://s2.boohee.cn/food/star/lvdou-abb3662f6104fb8d05203374a6f71125.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1546,18 +1439,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2052" name="Picture 4" descr="http://s2.boohee.cn/food/star/heimizhou-96bc011520f5fa9c449a0c04f462933a.png"/>
+        <xdr:cNvPr id="2052" name="Picture 4" descr="http://s2.boohee.cn/food/star/heimizhou-96bc011520f5fa9c449a0c04f462933a.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1585,19 +1484,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>21166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>209549</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2053" name="Picture 5" descr="http://s2.boohee.cn/food/star/jixiongfurou-838288502b3a279a85e51959b2625cbb.png"/>
+        <xdr:cNvPr id="2053" name="Picture 5" descr="http://s2.boohee.cn/food/star/jixiongfurou-838288502b3a279a85e51959b2625cbb.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1611,8 +1516,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="57150" y="3219450"/>
-          <a:ext cx="1285875" cy="285750"/>
+          <a:off x="0" y="4640791"/>
+          <a:ext cx="847725" cy="188383"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1626,18 +1531,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>148167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2054" name="Picture 6" descr="http://s2.boohee.cn/food/star/hebaodan_youjian-ecdd3bc2083df7d4f3f16c3f73b46ad1.png"/>
+        <xdr:cNvPr id="2054" name="Picture 6" descr="http://s2.boohee.cn/food/star/hebaodan_youjian-ecdd3bc2083df7d4f3f16c3f73b46ad1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1665,19 +1576,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>55033</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>26458</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2055" name="Picture 7" descr="http://s2.boohee.cn/food/star/miantiao_fuqiangfen_zhu-f98e799ed60d85715309652831e34fb4.png"/>
+        <xdr:cNvPr id="2055" name="Picture 7" descr="http://s2.boohee.cn/food/star/miantiao_fuqiangfen_zhu-f98e799ed60d85715309652831e34fb4.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1691,7 +1608,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="200025" y="2733675"/>
+          <a:off x="0" y="4000500"/>
           <a:ext cx="1019175" cy="226483"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1706,18 +1623,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2056" name="Picture 8" descr="http://s2.boohee.cn/food/star/niuru_junzhi-a27fe2d98e468f5174cff506bd4ac30e.png"/>
+        <xdr:cNvPr id="2056" name="Picture 8" descr="http://s2.boohee.cn/food/star/niuru_junzhi-a27fe2d98e468f5174cff506bd4ac30e.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1746,18 +1669,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>150283</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2057" name="Picture 9" descr="http://s2.boohee.cn/food/star/pingguo_junzhi-8a4b1966ee455751bdabeba92fe6aea7.png"/>
+        <xdr:cNvPr id="2057" name="Picture 9" descr="http://s2.boohee.cn/food/star/pingguo_junzhi-8a4b1966ee455751bdabeba92fe6aea7.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1786,18 +1715,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>242889</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2058" name="Picture 10" descr="http://s2.boohee.cn/food/star/niurou_shou-35b252e8a7dc82545fd8d0c682ab7634.png"/>
+        <xdr:cNvPr id="2058" name="Picture 10" descr="http://s2.boohee.cn/food/star/niurou_shou-35b252e8a7dc82545fd8d0c682ab7634.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1826,18 +1761,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2059" name="Picture 11" descr="http://s2.boohee.cn/food/star/dounai-afbb33b4205be58a6579cef0075cc635.png"/>
+        <xdr:cNvPr id="2059" name="Picture 11" descr="http://s2.boohee.cn/food/star/dounai-afbb33b4205be58a6579cef0075cc635.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1866,18 +1807,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>148167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2060" name="Picture 12" descr="http://s2.boohee.cn/food/star/kuihuaziren-35ecdeccf4b3ab68b27ed7fa3f370c88.png"/>
+        <xdr:cNvPr id="2060" name="Picture 12" descr="http://s2.boohee.cn/food/star/kuihuaziren-35ecdeccf4b3ab68b27ed7fa3f370c88.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1906,18 +1853,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2061" name="Picture 13" descr="http://s2.boohee.cn/food/star/doufu_junzhi-c00d094a7a0e51393cb567814df97922.png"/>
+        <xdr:cNvPr id="2061" name="Picture 13" descr="http://s2.boohee.cn/food/star/doufu_junzhi-c00d094a7a0e51393cb567814df97922.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1952,12 +1905,18 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>442913</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2062" name="Picture 14" descr="http://s2.boohee.cn/food/star/lvdouzhou-a25d46fa0205ecd0a0f89b573bfc420d.png"/>
+        <xdr:cNvPr id="2062" name="Picture 14" descr="http://s2.boohee.cn/food/star/lvdouzhou-a25d46fa0205ecd0a0f89b573bfc420d.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1982,11 +1941,72 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15" descr="http://s2.boohee.cn/food/star/kaifengguantangbao-0c0a391c85d62d20f460de7ebd72d3fc.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4312ACCD-EF0B-4A94-B1CE-021C026EF154}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="733425"/>
+          <a:ext cx="1028700" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2028,7 +2048,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2060,9 +2080,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2094,6 +2132,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2269,25 +2325,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="13.375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="5" customWidth="1"/>
-    <col min="5" max="6" width="9" style="5"/>
-    <col min="7" max="7" width="11.5" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="13.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="3" customWidth="1"/>
+    <col min="5" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="11.5" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="4" customFormat="1" ht="15">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2301,7 +2357,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" ht="15">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2326,168 +2382,200 @@
       <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="32">
         <f>0.5*(B3-B7)</f>
         <v>750</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3">
+      <c r="C4" s="32"/>
+      <c r="D4" s="32">
         <v>350</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="32">
         <v>200</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="32">
         <v>50</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="32">
         <v>150</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="5">
+      <c r="H4" s="32"/>
+      <c r="I4" s="32">
         <f>SUM(D4:H4)</f>
         <v>750</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="32">
         <f>0.3*(B3-B7)</f>
         <v>450</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3">
+      <c r="C5" s="32"/>
+      <c r="D5" s="32">
         <v>150</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="32">
         <v>150</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="32">
         <v>50</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="32">
         <v>100</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="5">
+      <c r="H5" s="32"/>
+      <c r="I5" s="32">
         <f>SUM(D5:H5)</f>
         <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="32">
         <f>0.2*(B3-B7)</f>
         <v>300</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
+      <c r="C6" s="32"/>
+      <c r="D6" s="32">
         <v>100</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="32">
         <v>100</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3">
+      <c r="F6" s="32"/>
+      <c r="G6" s="32">
         <v>100</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="5">
+      <c r="H6" s="32"/>
+      <c r="I6" s="32">
         <f>SUM(D6:H6)</f>
         <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="32">
         <v>200</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" ht="15"/>
-    <row r="12" spans="1:9" s="4" customFormat="1" ht="15"/>
-    <row r="13" spans="1:9" s="4" customFormat="1" ht="15"/>
-    <row r="14" spans="1:9" s="4" customFormat="1" ht="15.75" thickBot="1"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
+        <f>SUM(D4:D7)</f>
+        <v>600</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" ref="E8:I8" si="0">SUM(E4:E7)</f>
+        <v>450</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="15"/>
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="15"/>
+    <row r="13" spans="1:9" s="2" customFormat="1" ht="15"/>
+    <row r="14" spans="1:9" s="2" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="15" spans="1:9">
-      <c r="B15" s="6"/>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="B16" s="9"/>
-      <c r="C16" s="10">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8">
         <v>1</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="8">
         <v>4.1859999999999999</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="9">
         <v>5</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8">
         <f>C17*F16</f>
         <v>20.93</v>
       </c>
-      <c r="G17" s="12"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="12">
         <f>F18/F16</f>
         <v>0.23889154323936934</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15">
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13">
         <v>1</v>
       </c>
-      <c r="G18" s="16"/>
+      <c r="G18" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
@@ -2497,1225 +2585,1857 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:J42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="C2:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:J26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="7" max="7" width="19.875" customWidth="1"/>
-    <col min="9" max="9" width="17.625" customWidth="1"/>
+    <col min="1" max="8" width="9" style="15"/>
+    <col min="9" max="9" width="19.875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="9" style="15"/>
+    <col min="11" max="11" width="17.625" style="15" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="3:12">
+      <c r="C2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
-      <c r="C3" s="18" t="s">
+    <row r="3" spans="3:12" s="16" customFormat="1" ht="17.25" thickBot="1">
+      <c r="C3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="19">
+      <c r="D3" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="16">
+        <v>1</v>
+      </c>
+      <c r="G3" s="16">
         <v>200</v>
       </c>
-      <c r="G3" s="19">
+      <c r="H3" s="16">
+        <f>F3*G3</f>
+        <v>200</v>
+      </c>
+      <c r="I3" s="16">
         <v>48.29</v>
       </c>
-      <c r="H3" s="19">
-        <f t="shared" ref="H3" si="0">F3*G3/100</f>
+      <c r="J3" s="16">
+        <f>H3*I3/100</f>
         <v>96.58</v>
       </c>
-      <c r="I3" s="19">
+      <c r="K3" s="16">
         <v>2.0699999999999998</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J19" si="1">F3*I3/100</f>
+      <c r="L3" s="16">
+        <f t="shared" ref="L3:L20" si="0">G3*K3/100</f>
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="C4" s="2" t="s">
+    <row r="4" spans="3:12" s="18" customFormat="1">
+      <c r="C4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="18">
+        <v>1</v>
+      </c>
+      <c r="G4" s="18">
         <v>40</v>
       </c>
-      <c r="G4">
+      <c r="H4" s="18">
+        <f t="shared" ref="H4:H43" si="1">F4*G4</f>
+        <v>40</v>
+      </c>
+      <c r="I4" s="18">
         <v>76</v>
       </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H9" si="2">F4*G4/100</f>
+      <c r="J4" s="18">
+        <f t="shared" ref="J4:J43" si="2">H4*I4/100</f>
         <v>30.4</v>
       </c>
-      <c r="J4">
+      <c r="L4" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" s="18" customFormat="1">
+      <c r="C5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="18">
+        <v>1</v>
+      </c>
+      <c r="G5" s="18">
+        <v>45</v>
+      </c>
+      <c r="H5" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="C5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="18">
+        <v>197</v>
+      </c>
+      <c r="J5" s="18">
+        <f t="shared" si="2"/>
+        <v>88.65</v>
+      </c>
+      <c r="K5" s="18">
+        <v>8.52</v>
+      </c>
+      <c r="L5" s="18">
+        <f t="shared" si="0"/>
+        <v>3.8339999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" s="18" customFormat="1">
+      <c r="C6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5">
+      <c r="D6" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="18">
+        <v>1</v>
+      </c>
+      <c r="G6" s="18">
         <v>80</v>
       </c>
-      <c r="G5">
+      <c r="H6" s="18">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="I6" s="18">
         <v>354</v>
       </c>
-      <c r="H5">
+      <c r="J6" s="18">
         <f t="shared" si="2"/>
         <v>283.2</v>
       </c>
-      <c r="J5">
+      <c r="L6" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" s="18" customFormat="1">
+      <c r="C7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="18">
+        <v>1</v>
+      </c>
+      <c r="G7" s="18">
+        <v>300</v>
+      </c>
+      <c r="H7" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6">
         <v>300</v>
       </c>
-      <c r="G6">
+      <c r="I7" s="18">
         <v>121.5</v>
       </c>
-      <c r="H6">
+      <c r="J7" s="18">
         <f t="shared" si="2"/>
         <v>364.5</v>
       </c>
-      <c r="I6">
+      <c r="K7" s="18">
         <v>2.25</v>
       </c>
-      <c r="J6">
+      <c r="L7" s="18">
+        <f t="shared" si="0"/>
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" s="18" customFormat="1">
+      <c r="C8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="18">
+        <v>1</v>
+      </c>
+      <c r="G8" s="18">
+        <v>140</v>
+      </c>
+      <c r="H8" s="18">
         <f t="shared" si="1"/>
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7">
         <v>140</v>
       </c>
-      <c r="G7">
+      <c r="I8" s="18">
         <v>106</v>
       </c>
-      <c r="H7">
+      <c r="J8" s="18">
         <f t="shared" si="2"/>
         <v>148.4</v>
       </c>
-      <c r="J7">
+      <c r="L8" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" s="18" customFormat="1">
+      <c r="C9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1</v>
+      </c>
+      <c r="G9" s="18">
+        <v>40</v>
+      </c>
+      <c r="H9" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8">
         <v>40</v>
       </c>
-      <c r="G8">
+      <c r="I9" s="18">
         <v>361</v>
       </c>
-      <c r="H8">
+      <c r="J9" s="18">
         <f t="shared" si="2"/>
         <v>144.4</v>
       </c>
-      <c r="J8">
+      <c r="L9" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" s="18" customFormat="1">
+      <c r="C10" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="18">
+        <v>1</v>
+      </c>
+      <c r="G10" s="18">
+        <v>300</v>
+      </c>
+      <c r="H10" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="19" customFormat="1">
-      <c r="C9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="19">
         <v>300</v>
       </c>
-      <c r="G9" s="19">
+      <c r="I10" s="18">
         <v>46</v>
       </c>
-      <c r="H9" s="19">
+      <c r="J10" s="18">
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="J9">
+      <c r="L10" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" s="18" customFormat="1">
+      <c r="C11" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="18">
+        <v>1</v>
+      </c>
+      <c r="G11" s="18">
+        <v>150</v>
+      </c>
+      <c r="H11" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="C10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I11" s="18">
+        <v>116</v>
+      </c>
+      <c r="J11" s="18">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="L11" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" s="18" customFormat="1">
+      <c r="C12" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10">
-        <v>150</v>
-      </c>
-      <c r="G10">
+      <c r="D12" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="18">
+        <v>1</v>
+      </c>
+      <c r="G12" s="18">
+        <v>280</v>
+      </c>
+      <c r="H12" s="18">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="I12" s="18">
         <v>116</v>
       </c>
-      <c r="H10" s="17">
-        <f t="shared" ref="H10:H42" si="3">F10*G10/100</f>
-        <v>174</v>
-      </c>
-      <c r="J10">
+      <c r="J12" s="18">
+        <f t="shared" si="2"/>
+        <v>324.8</v>
+      </c>
+      <c r="L12" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" s="18" customFormat="1">
+      <c r="C13" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="18">
+        <v>1</v>
+      </c>
+      <c r="G13" s="18">
+        <v>100</v>
+      </c>
+      <c r="H13" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="C11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="18">
+        <v>227</v>
+      </c>
+      <c r="J13" s="18">
+        <f t="shared" si="2"/>
+        <v>227</v>
+      </c>
+      <c r="L13" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" s="18" customFormat="1">
+      <c r="C14" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11">
-        <v>280</v>
-      </c>
-      <c r="G11">
-        <v>116</v>
-      </c>
-      <c r="H11" s="17">
-        <f t="shared" si="3"/>
-        <v>324.8</v>
-      </c>
-      <c r="J11">
+      <c r="D14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="18">
+        <v>1</v>
+      </c>
+      <c r="G14" s="18">
+        <v>36</v>
+      </c>
+      <c r="H14" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="C12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12">
-        <v>100</v>
-      </c>
-      <c r="G12">
-        <v>227</v>
-      </c>
-      <c r="H12" s="17">
-        <f t="shared" si="3"/>
-        <v>227</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13">
         <v>36</v>
       </c>
-      <c r="G13">
+      <c r="I14" s="18">
         <v>246</v>
       </c>
-      <c r="H13" s="17">
-        <f t="shared" si="3"/>
+      <c r="J14" s="18">
+        <f t="shared" si="2"/>
         <v>88.56</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14">
-        <v>100</v>
-      </c>
-      <c r="G14">
-        <v>223</v>
-      </c>
-      <c r="H14" s="17">
-        <f t="shared" si="3"/>
-        <v>223</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="19" customFormat="1">
+      <c r="L14" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" s="18" customFormat="1">
       <c r="C15" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="19">
+        <v>38</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="18">
+        <v>1</v>
+      </c>
+      <c r="G15" s="18">
+        <v>100</v>
+      </c>
+      <c r="H15" s="18">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I15" s="18">
+        <v>223</v>
+      </c>
+      <c r="J15" s="18">
+        <f t="shared" si="2"/>
+        <v>223</v>
+      </c>
+      <c r="L15" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" s="16" customFormat="1">
+      <c r="C16" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="16">
         <v>95</v>
       </c>
-      <c r="G15" s="19">
+      <c r="H16" s="16">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="I16" s="16">
         <v>106</v>
       </c>
-      <c r="H15" s="19">
-        <f t="shared" si="3"/>
+      <c r="J16" s="16">
+        <f t="shared" si="2"/>
         <v>100.7</v>
       </c>
-      <c r="J15">
+      <c r="L16" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" s="19" customFormat="1">
+      <c r="C17" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="19">
+        <v>1</v>
+      </c>
+      <c r="H17" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" s="21" customFormat="1">
-      <c r="A16"/>
-      <c r="C16" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="21">
+      <c r="I17" s="19">
         <v>349</v>
       </c>
-      <c r="H16" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10">
-      <c r="C17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17">
-        <v>20</v>
-      </c>
-      <c r="G17">
-        <v>329</v>
-      </c>
-      <c r="H17" s="17">
-        <f t="shared" si="3"/>
-        <v>65.8</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" s="19" customFormat="1" ht="15" thickBot="1">
+      <c r="J17" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" s="18" customFormat="1">
       <c r="C18" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="18">
+        <v>20</v>
+      </c>
+      <c r="H18" s="18">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I18" s="18">
+        <v>329</v>
+      </c>
+      <c r="J18" s="18">
+        <f t="shared" si="2"/>
+        <v>65.8</v>
+      </c>
+      <c r="L18" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" s="20" customFormat="1">
+      <c r="C19" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="20">
+        <v>1</v>
+      </c>
+      <c r="G19" s="20">
+        <v>350</v>
+      </c>
+      <c r="H19" s="20">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="I19" s="20">
+        <v>40</v>
+      </c>
+      <c r="J19" s="20">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="L19" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" s="18" customFormat="1">
+      <c r="C20" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="18">
+        <v>1</v>
+      </c>
+      <c r="G20" s="18">
+        <v>350</v>
+      </c>
+      <c r="H20" s="18">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="I20" s="18">
+        <v>110</v>
+      </c>
+      <c r="J20" s="18">
+        <f t="shared" si="2"/>
+        <v>385</v>
+      </c>
+      <c r="L20" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" s="18" customFormat="1">
+      <c r="C21" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" s="18">
+        <v>60</v>
+      </c>
+      <c r="H21" s="18">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="I21" s="18">
+        <v>151</v>
+      </c>
+      <c r="J21" s="18">
+        <f t="shared" si="2"/>
+        <v>90.6</v>
+      </c>
+      <c r="K21" s="18">
+        <v>12.1</v>
+      </c>
+      <c r="L21" s="18">
+        <f>G21*K21/100</f>
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" s="18" customFormat="1">
+      <c r="C22" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="18">
+        <v>1</v>
+      </c>
+      <c r="G22" s="18">
+        <v>50</v>
+      </c>
+      <c r="H22" s="18">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I22" s="18">
+        <v>143</v>
+      </c>
+      <c r="J22" s="18">
+        <f t="shared" si="2"/>
+        <v>71.5</v>
+      </c>
+      <c r="K22" s="18">
+        <v>20.3</v>
+      </c>
+      <c r="L22" s="18">
+        <f t="shared" ref="L22:L43" si="3">G22*K22/100</f>
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" s="16" customFormat="1">
+      <c r="C23" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="16">
+        <v>1</v>
+      </c>
+      <c r="G23" s="16">
+        <v>120</v>
+      </c>
+      <c r="H23" s="16">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="I23" s="16">
+        <v>133</v>
+      </c>
+      <c r="J23" s="16">
+        <f t="shared" si="2"/>
+        <v>159.6</v>
+      </c>
+      <c r="K23" s="16">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="L23" s="16">
+        <f t="shared" si="3"/>
+        <v>23.28</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" s="18" customFormat="1">
+      <c r="C24" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="18">
+        <v>1</v>
+      </c>
+      <c r="G24" s="18">
+        <v>30</v>
+      </c>
+      <c r="H24" s="18">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I24" s="18">
+        <v>60</v>
+      </c>
+      <c r="J24" s="18">
+        <f>H24*I24/100</f>
+        <v>18</v>
+      </c>
+      <c r="K24" s="18">
+        <v>11.6</v>
+      </c>
+      <c r="L24" s="18">
+        <f t="shared" si="3"/>
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" s="18" customFormat="1">
+      <c r="C25" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="18">
+        <v>1</v>
+      </c>
+      <c r="G25" s="18">
+        <v>60</v>
+      </c>
+      <c r="H25" s="18">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="I25" s="18">
+        <v>199</v>
+      </c>
+      <c r="J25" s="18">
+        <f t="shared" si="2"/>
+        <v>119.4</v>
+      </c>
+      <c r="K25" s="18">
+        <v>13.5</v>
+      </c>
+      <c r="L25" s="18">
+        <f t="shared" si="3"/>
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" s="18" customFormat="1">
+      <c r="C26" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="18">
+        <v>1</v>
+      </c>
+      <c r="G26" s="18">
+        <v>100</v>
+      </c>
+      <c r="H26" s="18">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I26" s="18">
+        <v>72</v>
+      </c>
+      <c r="J26" s="18">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="K26" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="L26" s="18">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" s="18" customFormat="1">
+      <c r="C27" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="18">
+        <v>1</v>
+      </c>
+      <c r="G27" s="18">
+        <v>200</v>
+      </c>
+      <c r="H27" s="18">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="I27" s="18">
+        <v>54</v>
+      </c>
+      <c r="J27" s="18">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="K27" s="18">
+        <v>3</v>
+      </c>
+      <c r="L27" s="18">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" s="18" customFormat="1">
+      <c r="C28" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="18">
+        <v>1</v>
+      </c>
+      <c r="G28" s="18">
+        <v>15</v>
+      </c>
+      <c r="H28" s="18">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I28" s="18">
+        <v>246</v>
+      </c>
+      <c r="J28" s="18">
+        <f t="shared" si="2"/>
+        <v>36.9</v>
+      </c>
+      <c r="K28" s="18">
+        <v>31.4</v>
+      </c>
+      <c r="L28" s="18">
+        <f t="shared" si="3"/>
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" s="16" customFormat="1">
+      <c r="D29" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="16">
+        <v>1</v>
+      </c>
+      <c r="G29" s="16">
+        <v>50</v>
+      </c>
+      <c r="H29" s="16">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I29" s="16">
+        <v>106</v>
+      </c>
+      <c r="J29" s="16">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="K29" s="16">
+        <v>20.2</v>
+      </c>
+      <c r="L29" s="16">
+        <f t="shared" si="3"/>
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" s="16" customFormat="1">
+      <c r="D30" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="16">
+        <v>1</v>
+      </c>
+      <c r="G30" s="16">
+        <v>450</v>
+      </c>
+      <c r="H30" s="16">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="I30" s="16">
+        <v>84</v>
+      </c>
+      <c r="J30" s="16">
+        <f t="shared" si="2"/>
+        <v>378</v>
+      </c>
+      <c r="K30" s="16">
+        <v>6.6</v>
+      </c>
+      <c r="L30" s="16">
+        <f t="shared" si="3"/>
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" s="18" customFormat="1">
+      <c r="D31" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="18">
+        <v>1</v>
+      </c>
+      <c r="G31" s="18">
+        <v>10</v>
+      </c>
+      <c r="H31" s="18">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I31" s="18">
+        <v>48</v>
+      </c>
+      <c r="J31" s="18">
+        <f t="shared" si="2"/>
+        <v>4.8</v>
+      </c>
+      <c r="K31" s="18">
+        <v>10.4</v>
+      </c>
+      <c r="L31" s="18">
+        <f t="shared" si="3"/>
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" s="16" customFormat="1">
+      <c r="C32" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="19">
-        <v>350</v>
-      </c>
-      <c r="G18" s="19">
-        <v>40</v>
-      </c>
-      <c r="H18" s="19">
+      <c r="D32" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="16">
+        <v>1</v>
+      </c>
+      <c r="G32" s="16">
+        <v>106</v>
+      </c>
+      <c r="H32" s="16">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="I32" s="16">
+        <v>53</v>
+      </c>
+      <c r="J32" s="16">
+        <f t="shared" si="2"/>
+        <v>56.18</v>
+      </c>
+      <c r="L32" s="16">
         <f t="shared" si="3"/>
-        <v>140</v>
-      </c>
-      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:12" s="18" customFormat="1">
+      <c r="F33" s="18">
+        <v>1</v>
+      </c>
+      <c r="H33" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:10">
-      <c r="C19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="J33" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:12" s="18" customFormat="1">
+      <c r="F34" s="18">
+        <v>1</v>
+      </c>
+      <c r="H34" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:12" s="18" customFormat="1">
+      <c r="D35" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="18">
+        <v>1</v>
+      </c>
+      <c r="H35" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="18">
+        <v>31</v>
+      </c>
+      <c r="J35" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="4:12" s="18" customFormat="1">
+      <c r="D36" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" s="18">
+        <v>1</v>
+      </c>
+      <c r="G36" s="18">
+        <v>200</v>
+      </c>
+      <c r="H36" s="18">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="I36" s="18">
+        <v>30</v>
+      </c>
+      <c r="J36" s="18">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="E19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19">
-        <v>350</v>
-      </c>
-      <c r="G19">
-        <v>110</v>
-      </c>
-      <c r="H19" s="17">
-        <f t="shared" si="3"/>
-        <v>385</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10">
-      <c r="C20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20">
-        <v>60</v>
-      </c>
-      <c r="G20">
-        <v>151</v>
-      </c>
-      <c r="H20" s="17">
-        <f t="shared" si="3"/>
-        <v>90.6</v>
-      </c>
-      <c r="I20">
-        <v>12.1</v>
-      </c>
-      <c r="J20">
-        <f>F20*I20/100</f>
-        <v>7.26</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10">
-      <c r="C21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21">
-        <v>50</v>
-      </c>
-      <c r="G21">
-        <v>143</v>
-      </c>
-      <c r="H21" s="17">
-        <f t="shared" si="3"/>
-        <v>71.5</v>
-      </c>
-      <c r="I21">
-        <v>20.3</v>
-      </c>
-      <c r="J21">
-        <f t="shared" ref="J21:J42" si="4">F21*I21/100</f>
-        <v>10.15</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" s="19" customFormat="1">
-      <c r="C22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="19">
-        <v>120</v>
-      </c>
-      <c r="G22" s="19">
-        <v>133</v>
-      </c>
-      <c r="H22" s="19">
-        <f t="shared" si="3"/>
-        <v>159.6</v>
-      </c>
-      <c r="I22" s="19">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="J22" s="19">
-        <f t="shared" si="4"/>
-        <v>23.28</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10">
-      <c r="C23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23">
-        <v>30</v>
-      </c>
-      <c r="G23">
-        <v>60</v>
-      </c>
-      <c r="H23" s="17">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="I23">
-        <v>11.6</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="4"/>
-        <v>3.48</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10">
-      <c r="C24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24">
-        <v>60</v>
-      </c>
-      <c r="G24">
-        <v>199</v>
-      </c>
-      <c r="H24" s="17">
-        <f t="shared" si="3"/>
-        <v>119.4</v>
-      </c>
-      <c r="I24">
-        <v>13.5</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="4"/>
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10">
-      <c r="C25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25">
-        <v>100</v>
-      </c>
-      <c r="G25">
-        <v>72</v>
-      </c>
-      <c r="H25" s="17">
-        <f t="shared" si="3"/>
-        <v>72</v>
-      </c>
-      <c r="I25">
-        <v>2.5</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="4"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10">
-      <c r="C26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26">
-        <v>200</v>
-      </c>
-      <c r="G26">
-        <v>54</v>
-      </c>
-      <c r="H26" s="17">
-        <f t="shared" si="3"/>
-        <v>108</v>
-      </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="3:10">
-      <c r="C27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27">
-        <v>15</v>
-      </c>
-      <c r="G27">
-        <v>246</v>
-      </c>
-      <c r="H27" s="17">
-        <f t="shared" si="3"/>
-        <v>36.9</v>
-      </c>
-      <c r="I27">
-        <v>31.4</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="4"/>
-        <v>4.71</v>
-      </c>
-    </row>
-    <row r="28" spans="3:10" s="19" customFormat="1">
-      <c r="D28" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="19">
-        <v>50</v>
-      </c>
-      <c r="G28" s="19">
-        <v>106</v>
-      </c>
-      <c r="H28" s="19">
-        <f t="shared" si="3"/>
-        <v>53</v>
-      </c>
-      <c r="I28" s="19">
-        <v>20.2</v>
-      </c>
-      <c r="J28" s="19">
-        <f t="shared" si="4"/>
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="29" spans="3:10" s="19" customFormat="1">
-      <c r="D29" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" s="19">
-        <v>450</v>
-      </c>
-      <c r="G29" s="19">
-        <v>84</v>
-      </c>
-      <c r="H29" s="19">
-        <f t="shared" si="3"/>
-        <v>378</v>
-      </c>
-      <c r="I29" s="19">
-        <v>6.6</v>
-      </c>
-      <c r="J29" s="19">
-        <f t="shared" si="4"/>
-        <v>29.7</v>
-      </c>
-    </row>
-    <row r="30" spans="3:10">
-      <c r="D30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30">
-        <v>10</v>
-      </c>
-      <c r="G30">
-        <v>48</v>
-      </c>
-      <c r="H30" s="17">
+      <c r="K36" s="18">
+        <v>2.4</v>
+      </c>
+      <c r="L36" s="18">
         <f t="shared" si="3"/>
         <v>4.8</v>
       </c>
-      <c r="I30">
-        <v>10.4</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="4"/>
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10" s="19" customFormat="1">
-      <c r="C31" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="19">
-        <v>106</v>
-      </c>
-      <c r="G31" s="19">
-        <v>53</v>
-      </c>
-      <c r="H31" s="19">
+    </row>
+    <row r="37" spans="4:12" s="18" customFormat="1">
+      <c r="F37" s="18">
+        <v>1</v>
+      </c>
+      <c r="H37" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="18">
         <f t="shared" si="3"/>
-        <v>56.18</v>
-      </c>
-      <c r="J31" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10">
-      <c r="H32" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="4:12" s="18" customFormat="1">
+      <c r="D38" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" s="18">
+        <v>1</v>
+      </c>
+      <c r="G38" s="18">
+        <v>30</v>
+      </c>
+      <c r="H38" s="18">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I38" s="18">
+        <v>615</v>
+      </c>
+      <c r="J38" s="18">
+        <f t="shared" si="2"/>
+        <v>184.5</v>
+      </c>
+      <c r="L38" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J32" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="4:10">
-      <c r="H33" s="17">
+    </row>
+    <row r="39" spans="4:12" s="18" customFormat="1">
+      <c r="F39" s="18">
+        <v>1</v>
+      </c>
+      <c r="H39" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="4:10">
-      <c r="D34" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34">
-        <v>31</v>
-      </c>
-      <c r="H34" s="17">
+    </row>
+    <row r="40" spans="4:12" s="18" customFormat="1">
+      <c r="F40" s="18">
+        <v>1</v>
+      </c>
+      <c r="H40" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J34">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="4:10">
-      <c r="D35" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35">
-        <v>200</v>
-      </c>
-      <c r="G35">
-        <v>30</v>
-      </c>
-      <c r="H35" s="17">
+    </row>
+    <row r="41" spans="4:12" s="18" customFormat="1">
+      <c r="F41" s="18">
+        <v>1</v>
+      </c>
+      <c r="H41" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="18">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="I35">
-        <v>2.4</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="4"/>
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="36" spans="4:10">
-      <c r="H36" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="4:12" s="18" customFormat="1">
+      <c r="F42" s="18">
+        <v>1</v>
+      </c>
+      <c r="H42" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="4:10">
-      <c r="D37" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" t="s">
-        <v>35</v>
-      </c>
-      <c r="F37">
-        <v>30</v>
-      </c>
-      <c r="G37">
-        <v>615</v>
-      </c>
-      <c r="H37" s="17">
+    </row>
+    <row r="43" spans="4:12" s="18" customFormat="1">
+      <c r="F43" s="18">
+        <v>1</v>
+      </c>
+      <c r="H43" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="18">
         <f t="shared" si="3"/>
-        <v>184.5</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="4:10">
-      <c r="H38" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="4:10">
-      <c r="H39" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="4:10">
-      <c r="H40" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="4:10">
-      <c r="H41" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="4:10">
-      <c r="H42" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:L11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A3:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="9" style="37"/>
+    <col min="2" max="2" width="10.5" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9" style="15"/>
+    <col min="6" max="6" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="15" customWidth="1"/>
+    <col min="8" max="8" width="15.875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="20.75" style="15" customWidth="1"/>
+    <col min="10" max="10" width="16.375" style="15" customWidth="1"/>
+    <col min="11" max="11" width="16.625" style="15" customWidth="1"/>
+    <col min="12" max="12" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12">
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="1:13">
+      <c r="C3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="23">
+    <row r="4" spans="1:13">
+      <c r="A4" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="41">
         <v>43612</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4">
+      <c r="D4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="15">
         <f>350*2</f>
         <v>700</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="15">
         <v>110</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="22">
         <f>F4*G4/100</f>
         <v>770</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1">
-      <c r="A5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:13" ht="17.25" thickBot="1">
+      <c r="A5" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="37">
         <f>SUM(H4:H13)</f>
         <v>1656.33</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="19">
+      <c r="D5" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="23">
         <v>200</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="23">
         <v>48.29</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="23">
         <f t="shared" ref="H5" si="0">F5*G5/100</f>
         <v>96.58</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="23">
         <v>2.0699999999999998</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="15">
         <f t="shared" ref="J5" si="1">F5*I5/100</f>
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:13">
+      <c r="A6" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="37">
         <f>SUM(H4:H7)</f>
         <v>1186.23</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6">
+      <c r="D6" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="15">
         <v>80</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="15">
         <v>354</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="15">
         <f>F6*G6/100</f>
         <v>283.2</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:13">
+      <c r="A7" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="37">
         <f>SUM(J4:J18)</f>
-        <v>49</v>
-      </c>
-      <c r="C7" s="2" t="s">
+        <v>598.71</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7">
+      <c r="D7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="15">
         <f>300*0.1</f>
         <v>30</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="15">
         <v>121.5</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="15">
         <f>F7*G7/100</f>
         <v>36.450000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8">
+    <row r="8" spans="1:13">
+      <c r="A8" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="15">
         <v>60</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="15">
         <v>151</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="22">
         <f>F8*G8/100</f>
         <v>90.6</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="15">
         <v>12.1</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="15">
         <f>F8*I8/100</f>
         <v>7.26</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="C9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9">
+    <row r="9" spans="1:13">
+      <c r="C9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="15">
         <v>100</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="15">
         <v>72</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="22">
         <f t="shared" ref="H9:H10" si="2">F9*G9/100</f>
         <v>72</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="15">
         <v>2.5</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="15">
         <f t="shared" ref="J9:J10" si="3">F9*I9/100</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="C10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10">
+    <row r="10" spans="1:13">
+      <c r="C10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="15">
         <v>200</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="15">
         <v>54</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="22">
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="15">
         <v>3</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="15">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="C11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="19">
+    <row r="11" spans="1:13">
+      <c r="C11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="23">
         <v>150</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="23">
         <v>133</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="23">
         <f t="shared" ref="H11" si="4">F11*G11/100</f>
         <v>199.5</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="23">
         <v>19.399999999999999</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="23">
         <f t="shared" ref="J11" si="5">F11*I11/100</f>
         <v>29.1</v>
       </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
+    </row>
+    <row r="14" spans="1:13" ht="17.25" thickBot="1"/>
+    <row r="15" spans="1:13" s="36" customFormat="1">
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="35"/>
+    </row>
+    <row r="16" spans="1:13" ht="17.25" thickBot="1">
+      <c r="A16" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="42">
+        <v>43613</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="25">
+        <v>2</v>
+      </c>
+      <c r="G16" s="25">
+        <v>200</v>
+      </c>
+      <c r="H16" s="25">
+        <f>F16*G16</f>
+        <v>400</v>
+      </c>
+      <c r="I16" s="25">
+        <v>48.29</v>
+      </c>
+      <c r="J16" s="25">
+        <f>H16*I16/100</f>
+        <v>193.16</v>
+      </c>
+      <c r="K16" s="25">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="L16" s="25">
+        <f t="shared" ref="L16:L17" si="6">G16*K16/100</f>
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="M16" s="26"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="36">
+        <f>SUM(J16:J24)</f>
+        <v>549.71</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="28">
+        <v>3</v>
+      </c>
+      <c r="G17" s="28">
+        <v>45</v>
+      </c>
+      <c r="H17" s="28">
+        <f t="shared" ref="H17:H18" si="7">F17*G17</f>
+        <v>135</v>
+      </c>
+      <c r="I17" s="28">
+        <v>197</v>
+      </c>
+      <c r="J17" s="28">
+        <f t="shared" ref="J17:J18" si="8">H17*I17/100</f>
+        <v>265.95</v>
+      </c>
+      <c r="K17" s="28">
+        <v>8.52</v>
+      </c>
+      <c r="L17" s="28">
+        <f t="shared" si="6"/>
+        <v>3.8339999999999996</v>
+      </c>
+      <c r="M17" s="26"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="36">
+        <f>SUMIF(C16:C26,A18,J16:J26)</f>
+        <v>459.11</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="28">
+        <v>1</v>
+      </c>
+      <c r="G18" s="28">
+        <v>60</v>
+      </c>
+      <c r="H18" s="28">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="I18" s="28">
+        <v>151</v>
+      </c>
+      <c r="J18" s="28">
+        <f t="shared" si="8"/>
+        <v>90.6</v>
+      </c>
+      <c r="K18" s="28">
+        <v>12.1</v>
+      </c>
+      <c r="L18" s="28">
+        <f>G18*K18/100</f>
+        <v>7.26</v>
+      </c>
+      <c r="M18" s="26"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="36">
+        <f>SUMIF(C16:C26,A19,J16:J26)</f>
+        <v>90.6</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="26"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="36">
+        <f>SUMIF(C16:C26,A20,J16:J26)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="26"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="39"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="26"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="36"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="26"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="36">
+        <f>SUM(L16:L26)</f>
+        <v>15.233999999999998</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="26"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="38"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="26"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="38"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="26"/>
+    </row>
+    <row r="26" spans="1:13" ht="17.25" thickBot="1">
+      <c r="A26" s="40"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/减脂增肌.xlsx
+++ b/减脂增肌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\健身\fitness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21010E7A-EB5D-400D-A365-FBE7870F1421}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525A2C1B-618F-48D8-A98C-3C5296F8B2A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="95">
   <si>
     <t>单位</t>
   </si>
@@ -354,6 +354,24 @@
   </si>
   <si>
     <t>g</t>
+  </si>
+  <si>
+    <t>香蕉</t>
+  </si>
+  <si>
+    <t>油桃</t>
+  </si>
+  <si>
+    <t>水果</t>
+  </si>
+  <si>
+    <t>米粥</t>
+  </si>
+  <si>
+    <t>酸菜鱼</t>
+  </si>
+  <si>
+    <t>燕麦</t>
   </si>
 </sst>
 </file>
@@ -557,7 +575,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -758,6 +776,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,7 +1129,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1185,9 +1209,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1234,6 +1255,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1301,13 +1327,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1347,13 +1373,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1393,13 +1419,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1439,13 +1465,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1485,13 +1511,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>21166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>209549</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1531,13 +1557,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>148167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1577,13 +1603,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>26458</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1623,13 +1649,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1669,13 +1695,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>150283</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1715,13 +1741,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>242889</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1761,13 +1787,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1807,13 +1833,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>148167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1853,13 +1879,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2002,6 +2028,169 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16" descr="http://s2.boohee.cn/food/star/xiangjiao-a02e0b0a9cc11382f89c023a0abe5c26.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FE50625-3D63-4967-8767-6A1B564C41AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6715125"/>
+          <a:ext cx="942975" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>20108</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17" descr="http://s2.boohee.cn/food/star/tao_junzhi-cfad8f99b49568df71206244fe6102a8.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0682AF74-6206-46CA-96E4-A2B234783D50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="47625" y="6953250"/>
+          <a:ext cx="904875" cy="201083"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1071563" cy="238125"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 14" descr="http://s2.boohee.cn/food/star/lvdouzhou-a25d46fa0205ecd0a0f89b573bfc420d.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05C010EF-15F0-4F6E-BB88-2CC87D5D4A19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="57150" y="352425"/>
+          <a:ext cx="1071563" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2329,7 +2518,7 @@
   <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2387,100 +2576,100 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="31">
         <f>0.5*(B3-B7)</f>
         <v>750</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32">
+      <c r="C4" s="31"/>
+      <c r="D4" s="31">
         <v>350</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="31">
         <v>200</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="31">
         <v>50</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="31">
         <v>150</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32">
+      <c r="H4" s="31"/>
+      <c r="I4" s="31">
         <f>SUM(D4:H4)</f>
         <v>750</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="31">
         <f>0.3*(B3-B7)</f>
         <v>450</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32">
+      <c r="C5" s="31"/>
+      <c r="D5" s="31">
         <v>150</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="31">
         <v>150</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="31">
         <v>50</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="31">
         <v>100</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32">
+      <c r="H5" s="31"/>
+      <c r="I5" s="31">
         <f>SUM(D5:H5)</f>
         <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="31">
         <f>0.2*(B3-B7)</f>
         <v>300</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31">
         <v>100</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="31">
         <v>100</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32">
+      <c r="F6" s="31"/>
+      <c r="G6" s="31">
         <v>100</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32">
+      <c r="H6" s="31"/>
+      <c r="I6" s="31">
         <f>SUM(D6:H6)</f>
         <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="31">
         <v>200</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
@@ -2568,12 +2757,12 @@
       </c>
       <c r="C18" s="12">
         <f>F18/F16</f>
-        <v>0.23889154323936934</v>
+        <v>96.751075011944579</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="G18" s="14"/>
     </row>
@@ -2586,10 +2775,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C2:L43"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L20" sqref="C20:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2601,6 +2791,38 @@
     <col min="12" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
+    <row r="1" spans="3:12">
+      <c r="C1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="2" spans="3:12">
       <c r="C2" s="15" t="s">
         <v>13</v>
@@ -2664,7 +2886,7 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="L3" s="16">
-        <f t="shared" ref="L3:L20" si="0">G3*K3/100</f>
+        <f t="shared" ref="L3:L22" si="0">G3*K3/100</f>
         <v>4.1399999999999997</v>
       </c>
     </row>
@@ -2685,14 +2907,14 @@
         <v>40</v>
       </c>
       <c r="H4" s="18">
-        <f t="shared" ref="H4:H43" si="1">F4*G4</f>
+        <f t="shared" ref="H4:H46" si="1">F4*G4</f>
         <v>40</v>
       </c>
       <c r="I4" s="18">
         <v>76</v>
       </c>
       <c r="J4" s="18">
-        <f t="shared" ref="J4:J43" si="2">H4*I4/100</f>
+        <f t="shared" ref="J4:J46" si="2">H4*I4/100</f>
         <v>30.4</v>
       </c>
       <c r="L4" s="18">
@@ -2903,31 +3125,34 @@
         <v>29</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F11" s="18">
         <v>1</v>
       </c>
       <c r="G11" s="18">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H11" s="18">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="I11" s="18">
-        <v>116</v>
+        <v>29.82</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" si="2"/>
-        <v>174</v>
+        <v>29.82</v>
+      </c>
+      <c r="K11" s="18">
+        <v>0.68</v>
       </c>
       <c r="L11" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="12" spans="3:12" s="18" customFormat="1">
@@ -2938,24 +3163,24 @@
         <v>34</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F12" s="18">
         <v>1</v>
       </c>
       <c r="G12" s="18">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="H12" s="18">
         <f t="shared" si="1"/>
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="I12" s="18">
         <v>116</v>
       </c>
       <c r="J12" s="18">
         <f t="shared" si="2"/>
-        <v>324.8</v>
+        <v>174</v>
       </c>
       <c r="L12" s="18">
         <f t="shared" si="0"/>
@@ -2967,27 +3192,27 @@
         <v>29</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F13" s="18">
         <v>1</v>
       </c>
       <c r="G13" s="18">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="H13" s="18">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="I13" s="18">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="J13" s="18">
         <f t="shared" si="2"/>
-        <v>227</v>
+        <v>324.8</v>
       </c>
       <c r="L13" s="18">
         <f t="shared" si="0"/>
@@ -2999,27 +3224,27 @@
         <v>29</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F14" s="18">
         <v>1</v>
       </c>
       <c r="G14" s="18">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="H14" s="18">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="I14" s="18">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="J14" s="18">
         <f t="shared" si="2"/>
-        <v>88.56</v>
+        <v>227</v>
       </c>
       <c r="L14" s="18">
         <f t="shared" si="0"/>
@@ -3031,290 +3256,287 @@
         <v>29</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="F15" s="18">
         <v>1</v>
       </c>
       <c r="G15" s="18">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="H15" s="18">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="I15" s="18">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="J15" s="18">
         <f t="shared" si="2"/>
-        <v>223</v>
+        <v>88.56</v>
       </c>
       <c r="L15" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:12" s="16" customFormat="1">
-      <c r="C16" s="16" t="s">
+    <row r="16" spans="3:12" s="18" customFormat="1">
+      <c r="C16" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="18">
+        <v>1</v>
+      </c>
+      <c r="G16" s="18">
+        <v>100</v>
+      </c>
+      <c r="H16" s="18">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I16" s="18">
+        <v>223</v>
+      </c>
+      <c r="J16" s="18">
+        <f t="shared" si="2"/>
+        <v>223</v>
+      </c>
+      <c r="L16" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" s="16" customFormat="1">
+      <c r="C17" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E17" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="16">
+      <c r="F17" s="16">
+        <v>1</v>
+      </c>
+      <c r="G17" s="16">
         <v>95</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H17" s="16">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I17" s="16">
         <v>106</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J17" s="16">
         <f t="shared" si="2"/>
         <v>100.7</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L17" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:12" s="19" customFormat="1">
-      <c r="C17" s="19" t="s">
+    <row r="18" spans="3:12" s="19" customFormat="1">
+      <c r="C18" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D18" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="19">
-        <v>1</v>
-      </c>
-      <c r="H17" s="19">
+      <c r="F18" s="19">
+        <v>1</v>
+      </c>
+      <c r="H18" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I18" s="19">
         <v>349</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J18" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L18" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="18" customFormat="1">
-      <c r="C18" s="18" t="s">
+    <row r="19" spans="3:12" s="18" customFormat="1">
+      <c r="C19" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D19" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E19" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="18">
-        <v>1</v>
-      </c>
-      <c r="G18" s="18">
+      <c r="F19" s="18">
+        <v>1</v>
+      </c>
+      <c r="G19" s="18">
         <v>20</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H19" s="18">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I19" s="18">
         <v>329</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J19" s="18">
         <f t="shared" si="2"/>
         <v>65.8</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L19" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="20" customFormat="1">
-      <c r="C19" s="20" t="s">
+    <row r="20" spans="3:12" s="18" customFormat="1">
+      <c r="C20" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="18">
+        <v>1</v>
+      </c>
+      <c r="G20" s="18">
+        <v>12</v>
+      </c>
+      <c r="H20" s="18">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I20" s="18">
+        <v>338</v>
+      </c>
+      <c r="J20" s="18">
+        <f t="shared" si="2"/>
+        <v>40.56</v>
+      </c>
+      <c r="K20" s="18">
+        <v>10.1</v>
+      </c>
+      <c r="L20" s="18">
+        <f t="shared" si="0"/>
+        <v>1.212</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" s="20" customFormat="1">
+      <c r="C21" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D21" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E21" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="20">
-        <v>1</v>
-      </c>
-      <c r="G19" s="20">
+      <c r="F21" s="20">
+        <v>1</v>
+      </c>
+      <c r="G21" s="20">
         <v>350</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H21" s="20">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I21" s="20">
         <v>40</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J21" s="20">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="L19" s="20">
+      <c r="L21" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="18" customFormat="1">
-      <c r="C20" s="18" t="s">
+    <row r="22" spans="3:12" s="18" customFormat="1">
+      <c r="C22" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D22" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E22" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="18">
-        <v>1</v>
-      </c>
-      <c r="G20" s="18">
+      <c r="F22" s="18">
+        <v>1</v>
+      </c>
+      <c r="G22" s="18">
         <v>350</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H22" s="18">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I22" s="18">
         <v>110</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J22" s="18">
         <f t="shared" si="2"/>
         <v>385</v>
       </c>
-      <c r="L20" s="18">
+      <c r="L22" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="18" customFormat="1">
-      <c r="C21" s="18" t="s">
+    <row r="23" spans="3:12" s="18" customFormat="1">
+      <c r="C23" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D23" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E23" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="18">
-        <v>1</v>
-      </c>
-      <c r="G21" s="18">
+      <c r="F23" s="18">
+        <v>1</v>
+      </c>
+      <c r="G23" s="18">
         <v>60</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H23" s="18">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I23" s="18">
         <v>151</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J23" s="18">
         <f t="shared" si="2"/>
         <v>90.6</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K23" s="18">
         <v>12.1</v>
       </c>
-      <c r="L21" s="18">
-        <f>G21*K21/100</f>
+      <c r="L23" s="18">
+        <f>G23*K23/100</f>
         <v>7.26</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" s="18" customFormat="1">
-      <c r="C22" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="18">
-        <v>1</v>
-      </c>
-      <c r="G22" s="18">
-        <v>50</v>
-      </c>
-      <c r="H22" s="18">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="I22" s="18">
-        <v>143</v>
-      </c>
-      <c r="J22" s="18">
-        <f t="shared" si="2"/>
-        <v>71.5</v>
-      </c>
-      <c r="K22" s="18">
-        <v>20.3</v>
-      </c>
-      <c r="L22" s="18">
-        <f t="shared" ref="L22:L43" si="3">G22*K22/100</f>
-        <v>10.15</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" s="16" customFormat="1">
-      <c r="C23" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="16">
-        <v>1</v>
-      </c>
-      <c r="G23" s="16">
-        <v>120</v>
-      </c>
-      <c r="H23" s="16">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="I23" s="16">
-        <v>133</v>
-      </c>
-      <c r="J23" s="16">
-        <f t="shared" si="2"/>
-        <v>159.6</v>
-      </c>
-      <c r="K23" s="16">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="L23" s="16">
-        <f t="shared" si="3"/>
-        <v>23.28</v>
       </c>
     </row>
     <row r="24" spans="3:12" s="18" customFormat="1">
@@ -3322,69 +3544,69 @@
         <v>43</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F24" s="18">
         <v>1</v>
       </c>
       <c r="G24" s="18">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H24" s="18">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I24" s="18">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="J24" s="18">
-        <f>H24*I24/100</f>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>71.5</v>
       </c>
       <c r="K24" s="18">
-        <v>11.6</v>
+        <v>20.3</v>
       </c>
       <c r="L24" s="18">
+        <f t="shared" ref="L24:L46" si="3">G24*K24/100</f>
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" s="16" customFormat="1">
+      <c r="C25" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="16">
+        <v>1</v>
+      </c>
+      <c r="G25" s="16">
+        <v>120</v>
+      </c>
+      <c r="H25" s="16">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="I25" s="16">
+        <v>133</v>
+      </c>
+      <c r="J25" s="16">
+        <f t="shared" si="2"/>
+        <v>159.6</v>
+      </c>
+      <c r="K25" s="16">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="L25" s="16">
         <f t="shared" si="3"/>
-        <v>3.48</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" s="18" customFormat="1">
-      <c r="C25" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="18">
-        <v>1</v>
-      </c>
-      <c r="G25" s="18">
-        <v>60</v>
-      </c>
-      <c r="H25" s="18">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="I25" s="18">
-        <v>199</v>
-      </c>
-      <c r="J25" s="18">
-        <f t="shared" si="2"/>
-        <v>119.4</v>
-      </c>
-      <c r="K25" s="18">
-        <v>13.5</v>
-      </c>
-      <c r="L25" s="18">
-        <f t="shared" si="3"/>
-        <v>8.1</v>
+        <v>23.28</v>
       </c>
     </row>
     <row r="26" spans="3:12" s="18" customFormat="1">
@@ -3392,34 +3614,34 @@
         <v>43</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F26" s="18">
         <v>1</v>
       </c>
       <c r="G26" s="18">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H26" s="18">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I26" s="18">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="J26" s="18">
-        <f t="shared" si="2"/>
-        <v>72</v>
+        <f>H26*I26/100</f>
+        <v>18</v>
       </c>
       <c r="K26" s="18">
-        <v>2.5</v>
+        <v>11.6</v>
       </c>
       <c r="L26" s="18">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="27" spans="3:12" s="18" customFormat="1">
@@ -3427,34 +3649,34 @@
         <v>43</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="F27" s="18">
         <v>1</v>
       </c>
       <c r="G27" s="18">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="H27" s="18">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="I27" s="18">
-        <v>54</v>
+        <v>199</v>
       </c>
       <c r="J27" s="18">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>119.4</v>
       </c>
       <c r="K27" s="18">
-        <v>3</v>
+        <v>13.5</v>
       </c>
       <c r="L27" s="18">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="28" spans="3:12" s="18" customFormat="1">
@@ -3462,317 +3684,397 @@
         <v>43</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F28" s="18">
         <v>1</v>
       </c>
       <c r="G28" s="18">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="H28" s="18">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I28" s="18">
-        <v>246</v>
+        <v>94</v>
       </c>
       <c r="J28" s="18">
         <f t="shared" si="2"/>
-        <v>36.9</v>
+        <v>94</v>
       </c>
       <c r="K28" s="18">
-        <v>31.4</v>
+        <v>2.9</v>
       </c>
       <c r="L28" s="18">
         <f t="shared" si="3"/>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" s="18" customFormat="1">
+      <c r="C29" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="18">
+        <v>1</v>
+      </c>
+      <c r="G29" s="18">
+        <v>200</v>
+      </c>
+      <c r="H29" s="18">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="I29" s="18">
+        <v>54</v>
+      </c>
+      <c r="J29" s="18">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="K29" s="18">
+        <v>3</v>
+      </c>
+      <c r="L29" s="18">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" s="18" customFormat="1">
+      <c r="C30" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="18">
+        <v>1</v>
+      </c>
+      <c r="G30" s="18">
+        <v>200</v>
+      </c>
+      <c r="H30" s="18">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="I30" s="18">
+        <v>97.58</v>
+      </c>
+      <c r="J30" s="18">
+        <f t="shared" si="2"/>
+        <v>195.16</v>
+      </c>
+      <c r="K30" s="18">
+        <v>13.09</v>
+      </c>
+      <c r="L30" s="18">
+        <f t="shared" si="3"/>
+        <v>26.18</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" s="18" customFormat="1">
+      <c r="C31" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="18">
+        <v>1</v>
+      </c>
+      <c r="G31" s="18">
+        <v>15</v>
+      </c>
+      <c r="H31" s="18">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I31" s="18">
+        <v>246</v>
+      </c>
+      <c r="J31" s="18">
+        <f t="shared" si="2"/>
+        <v>36.9</v>
+      </c>
+      <c r="K31" s="18">
+        <v>31.4</v>
+      </c>
+      <c r="L31" s="18">
+        <f t="shared" si="3"/>
         <v>4.71</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="16" customFormat="1">
-      <c r="D29" s="16" t="s">
+    <row r="32" spans="3:12" s="16" customFormat="1">
+      <c r="D32" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E32" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F29" s="16">
-        <v>1</v>
-      </c>
-      <c r="G29" s="16">
+      <c r="F32" s="16">
+        <v>1</v>
+      </c>
+      <c r="G32" s="16">
         <v>50</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H32" s="16">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I32" s="16">
         <v>106</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J32" s="16">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="K29" s="16">
+      <c r="K32" s="16">
         <v>20.2</v>
       </c>
-      <c r="L29" s="16">
+      <c r="L32" s="16">
         <f t="shared" si="3"/>
         <v>10.1</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="16" customFormat="1">
-      <c r="D30" s="16" t="s">
+    <row r="33" spans="1:12" s="16" customFormat="1">
+      <c r="D33" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E33" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F30" s="16">
-        <v>1</v>
-      </c>
-      <c r="G30" s="16">
+      <c r="F33" s="16">
+        <v>1</v>
+      </c>
+      <c r="G33" s="16">
         <v>450</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H33" s="16">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I33" s="16">
         <v>84</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J33" s="16">
         <f t="shared" si="2"/>
         <v>378</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K33" s="16">
         <v>6.6</v>
       </c>
-      <c r="L30" s="16">
+      <c r="L33" s="16">
         <f t="shared" si="3"/>
         <v>29.7</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="18" customFormat="1">
-      <c r="D31" s="18" t="s">
+    <row r="34" spans="1:12" s="18" customFormat="1">
+      <c r="D34" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E34" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F31" s="18">
-        <v>1</v>
-      </c>
-      <c r="G31" s="18">
+      <c r="F34" s="18">
+        <v>1</v>
+      </c>
+      <c r="G34" s="18">
         <v>10</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H34" s="18">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I34" s="18">
         <v>48</v>
       </c>
-      <c r="J31" s="18">
+      <c r="J34" s="18">
         <f t="shared" si="2"/>
         <v>4.8</v>
       </c>
-      <c r="K31" s="18">
+      <c r="K34" s="18">
         <v>10.4</v>
       </c>
-      <c r="L31" s="18">
+      <c r="L34" s="18">
         <f t="shared" si="3"/>
         <v>1.04</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="16" customFormat="1">
-      <c r="C32" s="16" t="s">
+    <row r="35" spans="1:12" s="16" customFormat="1">
+      <c r="C35" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D35" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E35" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F32" s="16">
-        <v>1</v>
-      </c>
-      <c r="G32" s="16">
+      <c r="F35" s="16">
+        <v>1</v>
+      </c>
+      <c r="G35" s="16">
         <v>106</v>
       </c>
-      <c r="H32" s="16">
+      <c r="H35" s="16">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I35" s="16">
         <v>53</v>
       </c>
-      <c r="J32" s="16">
+      <c r="J35" s="16">
         <f t="shared" si="2"/>
         <v>56.18</v>
       </c>
-      <c r="L32" s="16">
+      <c r="L35" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:12" s="18" customFormat="1">
-      <c r="F33" s="18">
-        <v>1</v>
-      </c>
-      <c r="H33" s="18">
+    <row r="36" spans="1:12" s="22" customFormat="1">
+      <c r="A36" s="43"/>
+      <c r="C36" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="22">
+        <v>1</v>
+      </c>
+      <c r="G36" s="22">
+        <v>89</v>
+      </c>
+      <c r="H36" s="22">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="I36" s="22">
+        <v>93</v>
+      </c>
+      <c r="J36" s="22">
+        <f t="shared" si="2"/>
+        <v>82.77</v>
+      </c>
+      <c r="K36" s="22">
+        <v>1.4</v>
+      </c>
+      <c r="L36" s="22">
+        <f t="shared" si="3"/>
+        <v>1.246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="45" customFormat="1">
+      <c r="A37" s="44"/>
+      <c r="C37" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="45">
+        <v>1</v>
+      </c>
+      <c r="G37" s="45">
+        <v>172</v>
+      </c>
+      <c r="H37" s="45">
+        <f t="shared" si="1"/>
+        <v>172</v>
+      </c>
+      <c r="I37" s="45">
+        <v>44</v>
+      </c>
+      <c r="J37" s="45">
+        <f t="shared" si="2"/>
+        <v>75.680000000000007</v>
+      </c>
+      <c r="K37" s="45">
+        <v>1.06</v>
+      </c>
+      <c r="L37" s="45">
+        <f t="shared" si="3"/>
+        <v>1.8232000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="18" customFormat="1">
+      <c r="D38" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" s="18">
+        <v>1</v>
+      </c>
+      <c r="H38" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J33" s="18">
+      <c r="I38" s="18">
+        <v>31</v>
+      </c>
+      <c r="J38" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
-      </c>
-      <c r="L33" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="4:12" s="18" customFormat="1">
-      <c r="F34" s="18">
-        <v>1</v>
-      </c>
-      <c r="H34" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="4:12" s="18" customFormat="1">
-      <c r="D35" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F35" s="18">
-        <v>1</v>
-      </c>
-      <c r="H35" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="18">
-        <v>31</v>
-      </c>
-      <c r="J35" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="4:12" s="18" customFormat="1">
-      <c r="D36" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F36" s="18">
-        <v>1</v>
-      </c>
-      <c r="G36" s="18">
-        <v>200</v>
-      </c>
-      <c r="H36" s="18">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="I36" s="18">
-        <v>30</v>
-      </c>
-      <c r="J36" s="18">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="K36" s="18">
-        <v>2.4</v>
-      </c>
-      <c r="L36" s="18">
-        <f t="shared" si="3"/>
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="37" spans="4:12" s="18" customFormat="1">
-      <c r="F37" s="18">
-        <v>1</v>
-      </c>
-      <c r="H37" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="4:12" s="18" customFormat="1">
-      <c r="D38" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F38" s="18">
-        <v>1</v>
-      </c>
-      <c r="G38" s="18">
-        <v>30</v>
-      </c>
-      <c r="H38" s="18">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="I38" s="18">
-        <v>615</v>
-      </c>
-      <c r="J38" s="18">
-        <f t="shared" si="2"/>
-        <v>184.5</v>
       </c>
       <c r="L38" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:12" s="18" customFormat="1">
+    <row r="39" spans="1:12" s="18" customFormat="1">
+      <c r="D39" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>85</v>
+      </c>
       <c r="F39" s="18">
         <v>1</v>
+      </c>
+      <c r="G39" s="18">
+        <v>200</v>
       </c>
       <c r="H39" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="I39" s="18">
+        <v>30</v>
       </c>
       <c r="J39" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="K39" s="18">
+        <v>2.4</v>
       </c>
       <c r="L39" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="4:12" s="18" customFormat="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="18" customFormat="1">
       <c r="F40" s="18">
         <v>1</v>
       </c>
@@ -3789,24 +4091,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="4:12" s="18" customFormat="1">
+    <row r="41" spans="1:12" s="18" customFormat="1">
+      <c r="C41" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="F41" s="18">
         <v>1</v>
+      </c>
+      <c r="G41" s="18">
+        <v>30</v>
       </c>
       <c r="H41" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="I41" s="18">
+        <v>615</v>
       </c>
       <c r="J41" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>184.5</v>
       </c>
       <c r="L41" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="4:12" s="18" customFormat="1">
+    <row r="42" spans="1:12" s="18" customFormat="1">
       <c r="F42" s="18">
         <v>1</v>
       </c>
@@ -3823,7 +4140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="4:12" s="18" customFormat="1">
+    <row r="43" spans="1:12" s="18" customFormat="1">
       <c r="F43" s="18">
         <v>1</v>
       </c>
@@ -3836,6 +4153,57 @@
         <v>0</v>
       </c>
       <c r="L43" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="18" customFormat="1">
+      <c r="F44" s="18">
+        <v>1</v>
+      </c>
+      <c r="H44" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="18" customFormat="1">
+      <c r="F45" s="18">
+        <v>1</v>
+      </c>
+      <c r="H45" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="18" customFormat="1">
+      <c r="F46" s="18">
+        <v>1</v>
+      </c>
+      <c r="H46" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3853,13 +4221,13 @@
   <dimension ref="A3:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="37"/>
-    <col min="2" max="2" width="10.5" style="37" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="36"/>
+    <col min="2" max="2" width="10.5" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9" style="15"/>
     <col min="6" max="6" width="9.125" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="15" customWidth="1"/>
@@ -3898,10 +4266,10 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="40">
         <v>43612</v>
       </c>
       <c r="C4" s="15" t="s">
@@ -3926,10 +4294,10 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.25" thickBot="1">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="36">
         <f>SUM(H4:H13)</f>
         <v>1656.33</v>
       </c>
@@ -3961,10 +4329,10 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="36">
         <f>SUM(H4:H7)</f>
         <v>1186.23</v>
       </c>
@@ -3989,10 +4357,10 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="36">
         <f>SUM(J4:J18)</f>
         <v>598.71</v>
       </c>
@@ -4018,7 +4386,7 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="36" t="s">
         <v>62</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -4133,46 +4501,46 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="17.25" thickBot="1"/>
-    <row r="15" spans="1:13" s="36" customFormat="1">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34" t="s">
+    <row r="15" spans="1:13" s="35" customFormat="1">
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="34" t="s">
+      <c r="J15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="34" t="s">
+      <c r="K15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="34" t="s">
+      <c r="L15" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="M15" s="35"/>
+      <c r="M15" s="34"/>
     </row>
     <row r="16" spans="1:13" ht="17.25" thickBot="1">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="42">
+      <c r="B16" s="41">
         <v>43613</v>
       </c>
       <c r="C16" s="25" t="s">
@@ -4211,227 +4579,388 @@
       <c r="M16" s="26"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="36">
-        <f>SUM(J16:J24)</f>
-        <v>549.71</v>
-      </c>
-      <c r="C17" s="28" t="s">
+      <c r="B17" s="35">
+        <f>SUM(J16:J26)</f>
+        <v>1224.5</v>
+      </c>
+      <c r="C17" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="27">
         <v>3</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="27">
         <v>45</v>
       </c>
-      <c r="H17" s="28">
-        <f t="shared" ref="H17:H18" si="7">F17*G17</f>
+      <c r="H17" s="27">
+        <f t="shared" ref="H17:H20" si="7">F17*G17</f>
         <v>135</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="27">
         <v>197</v>
       </c>
-      <c r="J17" s="28">
-        <f t="shared" ref="J17:J18" si="8">H17*I17/100</f>
+      <c r="J17" s="27">
+        <f t="shared" ref="J17:J20" si="8">H17*I17/100</f>
         <v>265.95</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="27">
         <v>8.52</v>
       </c>
-      <c r="L17" s="28">
+      <c r="L17" s="27">
         <f t="shared" si="6"/>
         <v>3.8339999999999996</v>
       </c>
       <c r="M17" s="26"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="35">
         <f>SUMIF(C16:C26,A18,J16:J26)</f>
-        <v>459.11</v>
-      </c>
-      <c r="C18" s="28" t="s">
+        <v>610.61</v>
+      </c>
+      <c r="C18" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="28">
-        <v>1</v>
-      </c>
-      <c r="G18" s="28">
+      <c r="F18" s="27">
+        <v>1</v>
+      </c>
+      <c r="G18" s="27">
         <v>60</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="27">
         <f t="shared" si="7"/>
         <v>60</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="27">
         <v>151</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="27">
         <f t="shared" si="8"/>
         <v>90.6</v>
       </c>
-      <c r="K18" s="28">
+      <c r="K18" s="27">
         <v>12.1</v>
       </c>
-      <c r="L18" s="28">
+      <c r="L18" s="27">
         <f>G18*K18/100</f>
         <v>7.26</v>
       </c>
       <c r="M18" s="26"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="35">
         <f>SUMIF(C16:C26,A19,J16:J26)</f>
-        <v>90.6</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
+        <v>379.76</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="18">
+        <v>1</v>
+      </c>
+      <c r="G19" s="18">
+        <v>100</v>
+      </c>
+      <c r="H19" s="18">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="I19" s="18">
+        <v>94</v>
+      </c>
+      <c r="J19" s="18">
+        <f t="shared" si="8"/>
+        <v>94</v>
+      </c>
+      <c r="K19" s="18">
+        <v>2.9</v>
+      </c>
+      <c r="L19" s="18">
+        <f t="shared" ref="L19:L20" si="9">G19*K19/100</f>
+        <v>2.9</v>
+      </c>
       <c r="M19" s="26"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="35">
         <f>SUMIF(C16:C26,A20,J16:J26)</f>
         <v>0</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
+      <c r="C20" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="18">
+        <v>1</v>
+      </c>
+      <c r="G20" s="18">
+        <v>100</v>
+      </c>
+      <c r="H20" s="18">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="I20" s="18">
+        <v>29.82</v>
+      </c>
+      <c r="J20" s="18">
+        <f t="shared" si="8"/>
+        <v>29.82</v>
+      </c>
+      <c r="K20" s="18">
+        <v>0.68</v>
+      </c>
+      <c r="L20" s="18">
+        <f t="shared" si="9"/>
+        <v>0.68</v>
+      </c>
       <c r="M20" s="26"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="39"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="45">
+        <v>1</v>
+      </c>
+      <c r="G21" s="45">
+        <v>172</v>
+      </c>
+      <c r="H21" s="45">
+        <f t="shared" ref="H21:H25" si="10">F21*G21</f>
+        <v>172</v>
+      </c>
+      <c r="I21" s="45">
+        <v>44</v>
+      </c>
+      <c r="J21" s="45">
+        <f t="shared" ref="J21:J25" si="11">H21*I21/100</f>
+        <v>75.680000000000007</v>
+      </c>
+      <c r="K21" s="45">
+        <v>1.06</v>
+      </c>
+      <c r="L21" s="45">
+        <f t="shared" ref="L21:L25" si="12">G21*K21/100</f>
+        <v>1.8232000000000002</v>
+      </c>
       <c r="M21" s="26"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="18">
+        <v>1</v>
+      </c>
+      <c r="G22" s="18">
+        <v>200</v>
+      </c>
+      <c r="H22" s="18">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="I22" s="18">
+        <v>97.58</v>
+      </c>
+      <c r="J22" s="18">
+        <f t="shared" si="11"/>
+        <v>195.16</v>
+      </c>
+      <c r="K22" s="18">
+        <v>13.09</v>
+      </c>
+      <c r="L22" s="18">
+        <f t="shared" si="12"/>
+        <v>26.18</v>
+      </c>
       <c r="M22" s="26"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="35">
         <f>SUM(L16:L26)</f>
-        <v>15.233999999999998</v>
-      </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
+        <v>51.098400000000005</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="45">
+        <v>1</v>
+      </c>
+      <c r="G23" s="45">
+        <v>172</v>
+      </c>
+      <c r="H23" s="45">
+        <f t="shared" si="10"/>
+        <v>172</v>
+      </c>
+      <c r="I23" s="45">
+        <v>44</v>
+      </c>
+      <c r="J23" s="45">
+        <f t="shared" si="11"/>
+        <v>75.680000000000007</v>
+      </c>
+      <c r="K23" s="45">
+        <v>1.06</v>
+      </c>
+      <c r="L23" s="45">
+        <f t="shared" si="12"/>
+        <v>1.8232000000000002</v>
+      </c>
       <c r="M23" s="26"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="38"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="22">
+        <v>1</v>
+      </c>
+      <c r="G24" s="22">
+        <v>89</v>
+      </c>
+      <c r="H24" s="22">
+        <f t="shared" si="10"/>
+        <v>89</v>
+      </c>
+      <c r="I24" s="22">
+        <v>93</v>
+      </c>
+      <c r="J24" s="22">
+        <f t="shared" si="11"/>
+        <v>82.77</v>
+      </c>
+      <c r="K24" s="22">
+        <v>1.4</v>
+      </c>
+      <c r="L24" s="22">
+        <f t="shared" si="12"/>
+        <v>1.246</v>
+      </c>
       <c r="M24" s="26"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="38"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="18">
+        <v>3</v>
+      </c>
+      <c r="G25" s="18">
+        <v>12</v>
+      </c>
+      <c r="H25" s="18">
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+      <c r="I25" s="18">
+        <v>338</v>
+      </c>
+      <c r="J25" s="18">
+        <f t="shared" si="11"/>
+        <v>121.68</v>
+      </c>
+      <c r="K25" s="18">
+        <v>10.1</v>
+      </c>
+      <c r="L25" s="18">
+        <f t="shared" si="12"/>
+        <v>1.212</v>
+      </c>
       <c r="M25" s="26"/>
     </row>
     <row r="26" spans="1:13" ht="17.25" thickBot="1">
-      <c r="A26" s="40"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="31"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>

--- a/减脂增肌.xlsx
+++ b/减脂增肌.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\健身\fitness\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525A2C1B-618F-48D8-A98C-3C5296F8B2A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +13,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$C$16:$C$23</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="2">Sheet3!$F$23:$F$26</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="2">Sheet3!$F$23:$F$27</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="95">
   <si>
     <t>单位</t>
   </si>
@@ -377,7 +371,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="24">
     <font>
       <sz val="11"/>
@@ -389,7 +383,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -398,7 +392,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Cambria"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -407,7 +401,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -416,7 +410,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -425,7 +419,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -433,7 +427,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -441,7 +435,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -449,7 +443,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -457,7 +451,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -466,7 +460,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -475,7 +469,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -483,7 +477,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -492,7 +486,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -500,7 +494,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -509,7 +503,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -518,7 +512,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -526,7 +520,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1129,7 +1123,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1210,12 +1204,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1264,49 +1252,49 @@
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="30" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="34" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="23" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="27" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="31" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="35" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="39" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="20" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="24" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="28" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="32" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="36" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="40" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="21" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="25" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="29" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="33" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="37" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="常规 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="注释 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="41"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="注释 2" xfId="42"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1341,7 +1329,7 @@
         <xdr:cNvPr id="2049" name="Picture 1" descr="http://s2.boohee.cn/food/star/mantou_junzhi-eebf1a1047a2c77b1611f7fa1530b522.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1387,7 +1375,7 @@
         <xdr:cNvPr id="2050" name="Picture 2" descr="http://s2.boohee.cn/food/star/mifen-5417640ffeef94b4890adc8f223575b6.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1433,7 +1421,7 @@
         <xdr:cNvPr id="2051" name="Picture 3" descr="http://s2.boohee.cn/food/star/lvdou-abb3662f6104fb8d05203374a6f71125.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1479,7 +1467,7 @@
         <xdr:cNvPr id="2052" name="Picture 4" descr="http://s2.boohee.cn/food/star/heimizhou-96bc011520f5fa9c449a0c04f462933a.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1525,7 +1513,7 @@
         <xdr:cNvPr id="2053" name="Picture 5" descr="http://s2.boohee.cn/food/star/jixiongfurou-838288502b3a279a85e51959b2625cbb.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1559,7 @@
         <xdr:cNvPr id="2054" name="Picture 6" descr="http://s2.boohee.cn/food/star/hebaodan_youjian-ecdd3bc2083df7d4f3f16c3f73b46ad1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1617,7 +1605,7 @@
         <xdr:cNvPr id="2055" name="Picture 7" descr="http://s2.boohee.cn/food/star/miantiao_fuqiangfen_zhu-f98e799ed60d85715309652831e34fb4.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1663,7 +1651,7 @@
         <xdr:cNvPr id="2056" name="Picture 8" descr="http://s2.boohee.cn/food/star/niuru_junzhi-a27fe2d98e468f5174cff506bd4ac30e.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1709,7 +1697,7 @@
         <xdr:cNvPr id="2057" name="Picture 9" descr="http://s2.boohee.cn/food/star/pingguo_junzhi-8a4b1966ee455751bdabeba92fe6aea7.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1755,7 +1743,7 @@
         <xdr:cNvPr id="2058" name="Picture 10" descr="http://s2.boohee.cn/food/star/niurou_shou-35b252e8a7dc82545fd8d0c682ab7634.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1801,7 +1789,7 @@
         <xdr:cNvPr id="2059" name="Picture 11" descr="http://s2.boohee.cn/food/star/dounai-afbb33b4205be58a6579cef0075cc635.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1847,7 +1835,7 @@
         <xdr:cNvPr id="2060" name="Picture 12" descr="http://s2.boohee.cn/food/star/kuihuaziren-35ecdeccf4b3ab68b27ed7fa3f370c88.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1893,7 +1881,7 @@
         <xdr:cNvPr id="2061" name="Picture 13" descr="http://s2.boohee.cn/food/star/doufu_junzhi-c00d094a7a0e51393cb567814df97922.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1939,7 +1927,7 @@
         <xdr:cNvPr id="2062" name="Picture 14" descr="http://s2.boohee.cn/food/star/lvdouzhou-a25d46fa0205ecd0a0f89b573bfc420d.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1985,7 +1973,7 @@
         <xdr:cNvPr id="16" name="Picture 15" descr="http://s2.boohee.cn/food/star/kaifengguantangbao-0c0a391c85d62d20f460de7ebd72d3fc.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4312ACCD-EF0B-4A94-B1CE-021C026EF154}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4312ACCD-EF0B-4A94-B1CE-021C026EF154}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1994,10 +1982,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2017,7 +2005,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2046,7 +2034,7 @@
         <xdr:cNvPr id="17" name="Picture 16" descr="http://s2.boohee.cn/food/star/xiangjiao-a02e0b0a9cc11382f89c023a0abe5c26.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FE50625-3D63-4967-8767-6A1B564C41AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7FE50625-3D63-4967-8767-6A1B564C41AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2055,10 +2043,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2078,7 +2066,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2107,7 +2095,7 @@
         <xdr:cNvPr id="18" name="Picture 17" descr="http://s2.boohee.cn/food/star/tao_junzhi-cfad8f99b49568df71206244fe6102a8.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0682AF74-6206-46CA-96E4-A2B234783D50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0682AF74-6206-46CA-96E4-A2B234783D50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2116,10 +2104,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2139,7 +2127,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2163,7 +2151,7 @@
         <xdr:cNvPr id="19" name="Picture 14" descr="http://s2.boohee.cn/food/star/lvdouzhou-a25d46fa0205ecd0a0f89b573bfc420d.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05C010EF-15F0-4F6E-BB88-2CC87D5D4A19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{05C010EF-15F0-4F6E-BB88-2CC87D5D4A19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2195,7 +2183,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2237,7 +2225,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2269,27 +2257,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2321,24 +2291,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2514,11 +2466,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2576,100 +2528,100 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="29">
         <f>0.5*(B3-B7)</f>
         <v>750</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29">
         <v>350</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="29">
         <v>200</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="29">
         <v>50</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="29">
         <v>150</v>
       </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31">
+      <c r="H4" s="29"/>
+      <c r="I4" s="29">
         <f>SUM(D4:H4)</f>
         <v>750</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="29">
         <f>0.3*(B3-B7)</f>
         <v>450</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31">
+      <c r="C5" s="29"/>
+      <c r="D5" s="29">
         <v>150</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="29">
         <v>150</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="29">
         <v>50</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="29">
         <v>100</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31">
+      <c r="H5" s="29"/>
+      <c r="I5" s="29">
         <f>SUM(D5:H5)</f>
         <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="29">
         <f>0.2*(B3-B7)</f>
         <v>300</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31">
+      <c r="C6" s="29"/>
+      <c r="D6" s="29">
         <v>100</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="29">
         <v>100</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31">
+      <c r="F6" s="29"/>
+      <c r="G6" s="29">
         <v>100</v>
       </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31">
+      <c r="H6" s="29"/>
+      <c r="I6" s="29">
         <f>SUM(D6:H6)</f>
         <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="29">
         <v>200</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
@@ -2757,12 +2709,12 @@
       </c>
       <c r="C18" s="12">
         <f>F18/F16</f>
-        <v>96.751075011944579</v>
+        <v>125.17916865742953</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13">
-        <v>405</v>
+        <v>524</v>
       </c>
       <c r="G18" s="14"/>
     </row>
@@ -2774,12 +2726,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L20" sqref="C20:L20"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3588,25 +3540,24 @@
         <v>1</v>
       </c>
       <c r="G25" s="16">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="H25" s="16">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="I25" s="16">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="J25" s="16">
         <f t="shared" si="2"/>
-        <v>159.6</v>
+        <v>126</v>
       </c>
       <c r="K25" s="16">
-        <v>19.399999999999999</v>
+        <v>22</v>
       </c>
       <c r="L25" s="16">
-        <f t="shared" si="3"/>
-        <v>23.28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="3:12" s="18" customFormat="1">
@@ -3948,7 +3899,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" s="22" customFormat="1">
-      <c r="A36" s="43"/>
+      <c r="A36" s="41"/>
       <c r="C36" s="22" t="s">
         <v>91</v>
       </c>
@@ -3983,38 +3934,38 @@
         <v>1.246</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="45" customFormat="1">
-      <c r="A37" s="44"/>
-      <c r="C37" s="45" t="s">
+    <row r="37" spans="1:12" s="43" customFormat="1">
+      <c r="A37" s="42"/>
+      <c r="C37" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="45" t="s">
+      <c r="D37" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="E37" s="45" t="s">
+      <c r="E37" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F37" s="45">
-        <v>1</v>
-      </c>
-      <c r="G37" s="45">
+      <c r="F37" s="43">
+        <v>1</v>
+      </c>
+      <c r="G37" s="43">
         <v>172</v>
       </c>
-      <c r="H37" s="45">
+      <c r="H37" s="43">
         <f t="shared" si="1"/>
         <v>172</v>
       </c>
-      <c r="I37" s="45">
+      <c r="I37" s="43">
         <v>44</v>
       </c>
-      <c r="J37" s="45">
+      <c r="J37" s="43">
         <f t="shared" si="2"/>
         <v>75.680000000000007</v>
       </c>
-      <c r="K37" s="45">
+      <c r="K37" s="43">
         <v>1.06</v>
       </c>
-      <c r="L37" s="45">
+      <c r="L37" s="43">
         <f t="shared" si="3"/>
         <v>1.8232000000000002</v>
       </c>
@@ -4217,17 +4168,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A3:M26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="36"/>
-    <col min="2" max="2" width="10.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="34"/>
+    <col min="2" max="2" width="10.5" style="34" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9" style="15"/>
     <col min="6" max="6" width="9.125" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="15" customWidth="1"/>
@@ -4266,10 +4217,10 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="38">
         <v>43612</v>
       </c>
       <c r="C4" s="15" t="s">
@@ -4294,10 +4245,10 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.25" thickBot="1">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="34">
         <f>SUM(H4:H13)</f>
         <v>1656.33</v>
       </c>
@@ -4329,10 +4280,10 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="34">
         <f>SUM(H4:H7)</f>
         <v>1186.23</v>
       </c>
@@ -4357,10 +4308,10 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="34">
         <f>SUM(J4:J18)</f>
         <v>598.71</v>
       </c>
@@ -4386,7 +4337,7 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="34" t="s">
         <v>62</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -4501,46 +4452,46 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="17.25" thickBot="1"/>
-    <row r="15" spans="1:13" s="35" customFormat="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33" t="s">
+    <row r="15" spans="1:13" s="33" customFormat="1">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="33" t="s">
+      <c r="I15" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="33" t="s">
+      <c r="J15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="33" t="s">
+      <c r="K15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="33" t="s">
+      <c r="L15" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="M15" s="34"/>
+      <c r="M15" s="32"/>
     </row>
     <row r="16" spans="1:13" ht="17.25" thickBot="1">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="39">
         <v>43613</v>
       </c>
       <c r="C16" s="25" t="s">
@@ -4579,12 +4530,12 @@
       <c r="M16" s="26"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="35">
-        <f>SUM(J16:J26)</f>
-        <v>1224.5</v>
+      <c r="B17" s="33">
+        <f>SUM(J16:J27)</f>
+        <v>1458.23</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>8</v>
@@ -4622,12 +4573,12 @@
       <c r="M17" s="26"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="35">
-        <f>SUMIF(C16:C26,A18,J16:J26)</f>
-        <v>610.61</v>
+      <c r="B18" s="33">
+        <f>SUMIF(C16:C27,A18,J16:J27)</f>
+        <v>655.34</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>43</v>
@@ -4665,12 +4616,12 @@
       <c r="M18" s="26"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="35">
-        <f>SUMIF(C16:C26,A19,J16:J26)</f>
-        <v>379.76</v>
+      <c r="B19" s="33">
+        <f>SUMIF(C16:C27,A19,J16:J27)</f>
+        <v>568.76</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>43</v>
@@ -4708,11 +4659,11 @@
       <c r="M19" s="26"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="35">
-        <f>SUMIF(C16:C26,A20,J16:J26)</f>
+      <c r="B20" s="33">
+        <f>SUMIF(C16:C27,A20,J16:J27)</f>
         <v>0</v>
       </c>
       <c r="C20" s="18" t="s">
@@ -4751,48 +4702,48 @@
       <c r="M20" s="26"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="38"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="45" t="s">
+      <c r="A21" s="36"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="45">
-        <v>1</v>
-      </c>
-      <c r="G21" s="45">
+      <c r="F21" s="43">
+        <v>1</v>
+      </c>
+      <c r="G21" s="43">
         <v>172</v>
       </c>
-      <c r="H21" s="45">
-        <f t="shared" ref="H21:H25" si="10">F21*G21</f>
+      <c r="H21" s="43">
+        <f t="shared" ref="H21:H27" si="10">F21*G21</f>
         <v>172</v>
       </c>
-      <c r="I21" s="45">
+      <c r="I21" s="43">
         <v>44</v>
       </c>
-      <c r="J21" s="45">
-        <f t="shared" ref="J21:J25" si="11">H21*I21/100</f>
+      <c r="J21" s="43">
+        <f t="shared" ref="J21:J27" si="11">H21*I21/100</f>
         <v>75.680000000000007</v>
       </c>
-      <c r="K21" s="45">
+      <c r="K21" s="43">
         <v>1.06</v>
       </c>
-      <c r="L21" s="45">
-        <f t="shared" ref="L21:L25" si="12">G21*K21/100</f>
+      <c r="L21" s="43">
+        <f t="shared" ref="L21:L26" si="12">G21*K21/100</f>
         <v>1.8232000000000002</v>
       </c>
       <c r="M21" s="26"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="18" t="s">
         <v>9</v>
       </c>
@@ -4829,51 +4780,51 @@
       <c r="M22" s="26"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="35">
-        <f>SUM(L16:L26)</f>
-        <v>51.098400000000005</v>
-      </c>
-      <c r="C23" s="45" t="s">
+      <c r="B23" s="33">
+        <f>SUM(L16:L27)</f>
+        <v>76.778400000000005</v>
+      </c>
+      <c r="C23" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="D23" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="E23" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="45">
-        <v>1</v>
-      </c>
-      <c r="G23" s="45">
+      <c r="F23" s="43">
+        <v>1</v>
+      </c>
+      <c r="G23" s="43">
         <v>172</v>
       </c>
-      <c r="H23" s="45">
+      <c r="H23" s="43">
         <f t="shared" si="10"/>
         <v>172</v>
       </c>
-      <c r="I23" s="45">
+      <c r="I23" s="43">
         <v>44</v>
       </c>
-      <c r="J23" s="45">
+      <c r="J23" s="43">
         <f t="shared" si="11"/>
         <v>75.680000000000007</v>
       </c>
-      <c r="K23" s="45">
+      <c r="K23" s="43">
         <v>1.06</v>
       </c>
-      <c r="L23" s="45">
+      <c r="L23" s="43">
         <f t="shared" si="12"/>
         <v>1.8232000000000002</v>
       </c>
       <c r="M23" s="26"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="37"/>
-      <c r="B24" s="35"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="22" t="s">
         <v>91</v>
       </c>
@@ -4910,8 +4861,8 @@
       <c r="M24" s="26"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="37"/>
-      <c r="B25" s="35"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="18" t="s">
         <v>8</v>
       </c>
@@ -4947,20 +4898,80 @@
       </c>
       <c r="M25" s="26"/>
     </row>
-    <row r="26" spans="1:13" ht="17.25" thickBot="1">
-      <c r="A26" s="39"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="30"/>
+    <row r="26" spans="1:13">
+      <c r="A26" s="35"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="G26" s="18">
+        <v>100</v>
+      </c>
+      <c r="H26" s="18">
+        <f t="shared" si="10"/>
+        <v>150</v>
+      </c>
+      <c r="I26" s="18">
+        <v>29.82</v>
+      </c>
+      <c r="J26" s="18">
+        <f t="shared" si="11"/>
+        <v>44.73</v>
+      </c>
+      <c r="K26" s="18">
+        <v>0.68</v>
+      </c>
+      <c r="L26" s="18">
+        <f t="shared" si="12"/>
+        <v>0.68</v>
+      </c>
+      <c r="M26" s="26"/>
+    </row>
+    <row r="27" spans="1:13" ht="17.25" thickBot="1">
+      <c r="A27" s="37"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="G27" s="16">
+        <v>100</v>
+      </c>
+      <c r="H27" s="16">
+        <f t="shared" si="10"/>
+        <v>150</v>
+      </c>
+      <c r="I27" s="16">
+        <v>126</v>
+      </c>
+      <c r="J27" s="16">
+        <f t="shared" si="11"/>
+        <v>189</v>
+      </c>
+      <c r="K27" s="16">
+        <v>22</v>
+      </c>
+      <c r="L27" s="16">
+        <v>25</v>
+      </c>
+      <c r="M27" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>

--- a/减脂增肌.xlsx
+++ b/减脂增肌.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\健身\fitness\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176759E9-84FE-469C-9E98-E8117AB84839}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15990" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$C$16:$C$23</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">Sheet3!$F$23:$F$27</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="96">
   <si>
     <t>单位</t>
   </si>
@@ -366,12 +372,15 @@
   </si>
   <si>
     <t>燕麦</t>
+  </si>
+  <si>
+    <t>烧麦</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="24">
     <font>
       <sz val="11"/>
@@ -383,7 +392,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -392,7 +401,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Cambria"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -401,7 +410,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -410,7 +419,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -419,7 +428,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -427,7 +436,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -435,7 +444,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -443,7 +452,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -451,7 +460,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -460,7 +469,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -469,7 +478,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -477,7 +486,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -486,7 +495,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -494,7 +503,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -503,7 +512,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -512,7 +521,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -520,7 +529,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1252,49 +1261,49 @@
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="18" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="22" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="26" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="30" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="19" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="23" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="27" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="35" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="39" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="20" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="24" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="28" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="32" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="36" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="40" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="41"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="16" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="15" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="21" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="25" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="29" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="33" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="37" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="注释 2" xfId="42"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="常规 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="注释 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1315,21 +1324,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2049" name="Picture 1" descr="http://s2.boohee.cn/food/star/mantou_junzhi-eebf1a1047a2c77b1611f7fa1530b522.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1346,7 +1355,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="1800225"/>
+          <a:off x="0" y="3333750"/>
           <a:ext cx="1285875" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1361,13 +1370,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1375,7 +1384,7 @@
         <xdr:cNvPr id="2050" name="Picture 2" descr="http://s2.boohee.cn/food/star/mifen-5417640ffeef94b4890adc8f223575b6.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1407,13 +1416,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1421,7 +1430,7 @@
         <xdr:cNvPr id="2051" name="Picture 3" descr="http://s2.boohee.cn/food/star/lvdou-abb3662f6104fb8d05203374a6f71125.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1453,13 +1462,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1467,7 +1476,7 @@
         <xdr:cNvPr id="2052" name="Picture 4" descr="http://s2.boohee.cn/food/star/heimizhou-96bc011520f5fa9c449a0c04f462933a.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1499,13 +1508,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>21166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>209549</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1513,7 +1522,7 @@
         <xdr:cNvPr id="2053" name="Picture 5" descr="http://s2.boohee.cn/food/star/jixiongfurou-838288502b3a279a85e51959b2625cbb.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1545,13 +1554,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>148167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1559,7 +1568,7 @@
         <xdr:cNvPr id="2054" name="Picture 6" descr="http://s2.boohee.cn/food/star/hebaodan_youjian-ecdd3bc2083df7d4f3f16c3f73b46ad1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1591,13 +1600,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>26458</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1605,7 +1614,7 @@
         <xdr:cNvPr id="2055" name="Picture 7" descr="http://s2.boohee.cn/food/star/miantiao_fuqiangfen_zhu-f98e799ed60d85715309652831e34fb4.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1637,13 +1646,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1651,7 +1660,7 @@
         <xdr:cNvPr id="2056" name="Picture 8" descr="http://s2.boohee.cn/food/star/niuru_junzhi-a27fe2d98e468f5174cff506bd4ac30e.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1683,13 +1692,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>150283</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1697,7 +1706,7 @@
         <xdr:cNvPr id="2057" name="Picture 9" descr="http://s2.boohee.cn/food/star/pingguo_junzhi-8a4b1966ee455751bdabeba92fe6aea7.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1729,13 +1738,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>242889</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1743,7 +1752,7 @@
         <xdr:cNvPr id="2058" name="Picture 10" descr="http://s2.boohee.cn/food/star/niurou_shou-35b252e8a7dc82545fd8d0c682ab7634.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1775,13 +1784,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1789,7 +1798,7 @@
         <xdr:cNvPr id="2059" name="Picture 11" descr="http://s2.boohee.cn/food/star/dounai-afbb33b4205be58a6579cef0075cc635.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1821,13 +1830,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>148167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1835,7 +1844,7 @@
         <xdr:cNvPr id="2060" name="Picture 12" descr="http://s2.boohee.cn/food/star/kuihuaziren-35ecdeccf4b3ab68b27ed7fa3f370c88.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1867,13 +1876,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1881,7 +1890,7 @@
         <xdr:cNvPr id="2061" name="Picture 13" descr="http://s2.boohee.cn/food/star/doufu_junzhi-c00d094a7a0e51393cb567814df97922.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1927,7 +1936,7 @@
         <xdr:cNvPr id="2062" name="Picture 14" descr="http://s2.boohee.cn/food/star/lvdouzhou-a25d46fa0205ecd0a0f89b573bfc420d.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1973,7 +1982,7 @@
         <xdr:cNvPr id="16" name="Picture 15" descr="http://s2.boohee.cn/food/star/kaifengguantangbao-0c0a391c85d62d20f460de7ebd72d3fc.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4312ACCD-EF0B-4A94-B1CE-021C026EF154}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4312ACCD-EF0B-4A94-B1CE-021C026EF154}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1985,7 +1994,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2005,7 +2014,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2020,13 +2029,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2034,7 +2043,7 @@
         <xdr:cNvPr id="17" name="Picture 16" descr="http://s2.boohee.cn/food/star/xiangjiao-a02e0b0a9cc11382f89c023a0abe5c26.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7FE50625-3D63-4967-8767-6A1B564C41AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FE50625-3D63-4967-8767-6A1B564C41AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2046,7 +2055,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2066,7 +2075,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2081,13 +2090,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>20108</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2095,7 +2104,7 @@
         <xdr:cNvPr id="18" name="Picture 17" descr="http://s2.boohee.cn/food/star/tao_junzhi-cfad8f99b49568df71206244fe6102a8.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0682AF74-6206-46CA-96E4-A2B234783D50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0682AF74-6206-46CA-96E4-A2B234783D50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2107,7 +2116,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2127,7 +2136,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2151,7 +2160,7 @@
         <xdr:cNvPr id="19" name="Picture 14" descr="http://s2.boohee.cn/food/star/lvdouzhou-a25d46fa0205ecd0a0f89b573bfc420d.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{05C010EF-15F0-4F6E-BB88-2CC87D5D4A19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05C010EF-15F0-4F6E-BB88-2CC87D5D4A19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2183,7 +2192,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2225,7 +2234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2257,9 +2266,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2291,6 +2318,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2466,11 +2511,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2726,12 +2771,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="C16:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2838,7 +2883,7 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="L3" s="16">
-        <f t="shared" ref="L3:L22" si="0">G3*K3/100</f>
+        <f t="shared" ref="L3:L23" si="0">G3*K3/100</f>
         <v>4.1399999999999997</v>
       </c>
     </row>
@@ -2859,14 +2904,14 @@
         <v>40</v>
       </c>
       <c r="H4" s="18">
-        <f t="shared" ref="H4:H46" si="1">F4*G4</f>
+        <f t="shared" ref="H4:H47" si="1">F4*G4</f>
         <v>40</v>
       </c>
       <c r="I4" s="18">
         <v>76</v>
       </c>
       <c r="J4" s="18">
-        <f t="shared" ref="J4:J46" si="2">H4*I4/100</f>
+        <f t="shared" ref="J4:J47" si="2">H4*I4/100</f>
         <v>30.4</v>
       </c>
       <c r="L4" s="18">
@@ -3240,255 +3285,255 @@
         <v>29</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="F16" s="18">
         <v>1</v>
       </c>
       <c r="G16" s="18">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H16" s="18">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I16" s="18">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J16" s="18">
         <f t="shared" si="2"/>
-        <v>223</v>
+        <v>154</v>
+      </c>
+      <c r="K16" s="18">
+        <v>7.98</v>
       </c>
       <c r="L16" s="18">
         <f t="shared" si="0"/>
+        <v>5.5860000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" s="18" customFormat="1">
+      <c r="C17" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="18">
+        <v>1</v>
+      </c>
+      <c r="G17" s="18">
+        <v>100</v>
+      </c>
+      <c r="H17" s="18">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I17" s="18">
+        <v>223</v>
+      </c>
+      <c r="J17" s="18">
+        <f t="shared" si="2"/>
+        <v>223</v>
+      </c>
+      <c r="L17" s="18">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:12" s="16" customFormat="1">
-      <c r="C17" s="16" t="s">
+    <row r="18" spans="3:12" s="16" customFormat="1">
+      <c r="C18" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D18" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E18" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="16">
-        <v>1</v>
-      </c>
-      <c r="G17" s="16">
+      <c r="F18" s="16">
+        <v>1</v>
+      </c>
+      <c r="G18" s="16">
         <v>95</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H18" s="16">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I18" s="16">
         <v>106</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J18" s="16">
         <f t="shared" si="2"/>
         <v>100.7</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L18" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="19" customFormat="1">
-      <c r="C18" s="19" t="s">
+    <row r="19" spans="3:12" s="19" customFormat="1">
+      <c r="C19" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D19" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="19">
-        <v>1</v>
-      </c>
-      <c r="H18" s="19">
+      <c r="F19" s="19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I19" s="19">
         <v>349</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J19" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L19" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="18" customFormat="1">
-      <c r="C19" s="18" t="s">
+    <row r="20" spans="3:12" s="18" customFormat="1">
+      <c r="C20" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D20" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E20" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="18">
-        <v>1</v>
-      </c>
-      <c r="G19" s="18">
+      <c r="F20" s="18">
+        <v>1</v>
+      </c>
+      <c r="G20" s="18">
         <v>20</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H20" s="18">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I20" s="18">
         <v>329</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J20" s="18">
         <f t="shared" si="2"/>
         <v>65.8</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L20" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="18" customFormat="1">
-      <c r="C20" s="18" t="s">
+    <row r="21" spans="3:12" s="18" customFormat="1">
+      <c r="C21" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D21" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E21" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="18">
-        <v>1</v>
-      </c>
-      <c r="G20" s="18">
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" s="18">
         <v>12</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H21" s="18">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I21" s="18">
         <v>338</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J21" s="18">
         <f t="shared" si="2"/>
         <v>40.56</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K21" s="18">
         <v>10.1</v>
       </c>
-      <c r="L20" s="18">
+      <c r="L21" s="18">
         <f t="shared" si="0"/>
         <v>1.212</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="20" customFormat="1">
-      <c r="C21" s="20" t="s">
+    <row r="22" spans="3:12" s="20" customFormat="1">
+      <c r="C22" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D22" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E22" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="20">
-        <v>1</v>
-      </c>
-      <c r="G21" s="20">
+      <c r="F22" s="20">
+        <v>1</v>
+      </c>
+      <c r="G22" s="20">
         <v>350</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H22" s="20">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I22" s="20">
         <v>40</v>
       </c>
-      <c r="J21" s="20">
+      <c r="J22" s="20">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="L21" s="20">
+      <c r="L22" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="18" customFormat="1">
-      <c r="C22" s="18" t="s">
+    <row r="23" spans="3:12" s="18" customFormat="1">
+      <c r="C23" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D23" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E23" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F22" s="18">
-        <v>1</v>
-      </c>
-      <c r="G22" s="18">
+      <c r="F23" s="18">
+        <v>1</v>
+      </c>
+      <c r="G23" s="18">
         <v>350</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H23" s="18">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I23" s="18">
         <v>110</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J23" s="18">
         <f t="shared" si="2"/>
         <v>385</v>
       </c>
-      <c r="L22" s="18">
+      <c r="L23" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" s="18" customFormat="1">
-      <c r="C23" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="18">
-        <v>1</v>
-      </c>
-      <c r="G23" s="18">
-        <v>60</v>
-      </c>
-      <c r="H23" s="18">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="I23" s="18">
-        <v>151</v>
-      </c>
-      <c r="J23" s="18">
-        <f t="shared" si="2"/>
-        <v>90.6</v>
-      </c>
-      <c r="K23" s="18">
-        <v>12.1</v>
-      </c>
-      <c r="L23" s="18">
-        <f>G23*K23/100</f>
-        <v>7.26</v>
       </c>
     </row>
     <row r="24" spans="3:12" s="18" customFormat="1">
@@ -3496,103 +3541,103 @@
         <v>43</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F24" s="18">
         <v>1</v>
       </c>
       <c r="G24" s="18">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H24" s="18">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I24" s="18">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="J24" s="18">
         <f t="shared" si="2"/>
+        <v>90.6</v>
+      </c>
+      <c r="K24" s="18">
+        <v>12.1</v>
+      </c>
+      <c r="L24" s="18">
+        <f>G24*K24/100</f>
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" s="18" customFormat="1">
+      <c r="C25" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="18">
+        <v>1</v>
+      </c>
+      <c r="G25" s="18">
+        <v>50</v>
+      </c>
+      <c r="H25" s="18">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I25" s="18">
+        <v>143</v>
+      </c>
+      <c r="J25" s="18">
+        <f t="shared" si="2"/>
         <v>71.5</v>
       </c>
-      <c r="K24" s="18">
+      <c r="K25" s="18">
         <v>20.3</v>
       </c>
-      <c r="L24" s="18">
-        <f t="shared" ref="L24:L46" si="3">G24*K24/100</f>
+      <c r="L25" s="18">
+        <f t="shared" ref="L25:L47" si="3">G25*K25/100</f>
         <v>10.15</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="16" customFormat="1">
-      <c r="C25" s="16" t="s">
+    <row r="26" spans="3:12" s="16" customFormat="1">
+      <c r="C26" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D26" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E26" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F25" s="16">
-        <v>1</v>
-      </c>
-      <c r="G25" s="16">
+      <c r="F26" s="16">
+        <v>1</v>
+      </c>
+      <c r="G26" s="16">
         <v>100</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H26" s="16">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I26" s="16">
         <v>126</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J26" s="16">
         <f t="shared" si="2"/>
         <v>126</v>
       </c>
-      <c r="K25" s="16">
+      <c r="K26" s="16">
         <v>22</v>
       </c>
-      <c r="L25" s="16">
+      <c r="L26" s="16">
         <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="3:12" s="18" customFormat="1">
-      <c r="C26" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="18">
-        <v>1</v>
-      </c>
-      <c r="G26" s="18">
-        <v>30</v>
-      </c>
-      <c r="H26" s="18">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="I26" s="18">
-        <v>60</v>
-      </c>
-      <c r="J26" s="18">
-        <f>H26*I26/100</f>
-        <v>18</v>
-      </c>
-      <c r="K26" s="18">
-        <v>11.6</v>
-      </c>
-      <c r="L26" s="18">
-        <f t="shared" si="3"/>
-        <v>3.48</v>
       </c>
     </row>
     <row r="27" spans="3:12" s="18" customFormat="1">
@@ -3600,34 +3645,34 @@
         <v>43</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="F27" s="18">
         <v>1</v>
       </c>
       <c r="G27" s="18">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H27" s="18">
         <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I27" s="18">
         <v>60</v>
       </c>
-      <c r="I27" s="18">
-        <v>199</v>
-      </c>
       <c r="J27" s="18">
-        <f t="shared" si="2"/>
-        <v>119.4</v>
+        <f>H27*I27/100</f>
+        <v>18</v>
       </c>
       <c r="K27" s="18">
-        <v>13.5</v>
+        <v>11.6</v>
       </c>
       <c r="L27" s="18">
         <f t="shared" si="3"/>
-        <v>8.1</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="28" spans="3:12" s="18" customFormat="1">
@@ -3635,34 +3680,34 @@
         <v>43</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F28" s="18">
         <v>1</v>
       </c>
       <c r="G28" s="18">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H28" s="18">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I28" s="18">
-        <v>94</v>
+        <v>199</v>
       </c>
       <c r="J28" s="18">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>119.4</v>
       </c>
       <c r="K28" s="18">
-        <v>2.9</v>
+        <v>13.5</v>
       </c>
       <c r="L28" s="18">
         <f t="shared" si="3"/>
-        <v>2.9</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="29" spans="3:12" s="18" customFormat="1">
@@ -3670,45 +3715,45 @@
         <v>43</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F29" s="18">
         <v>1</v>
       </c>
       <c r="G29" s="18">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H29" s="18">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I29" s="18">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="J29" s="18">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="K29" s="18">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="L29" s="18">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="30" spans="3:12" s="18" customFormat="1">
       <c r="C30" s="18" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F30" s="18">
         <v>1</v>
@@ -3721,353 +3766,356 @@
         <v>200</v>
       </c>
       <c r="I30" s="18">
-        <v>97.58</v>
+        <v>54</v>
       </c>
       <c r="J30" s="18">
         <f t="shared" si="2"/>
-        <v>195.16</v>
+        <v>108</v>
       </c>
       <c r="K30" s="18">
-        <v>13.09</v>
+        <v>3</v>
       </c>
       <c r="L30" s="18">
         <f t="shared" si="3"/>
-        <v>26.18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="3:12" s="18" customFormat="1">
       <c r="C31" s="18" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F31" s="18">
         <v>1</v>
       </c>
       <c r="G31" s="18">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="H31" s="18">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="I31" s="18">
-        <v>246</v>
+        <v>97.58</v>
       </c>
       <c r="J31" s="18">
         <f t="shared" si="2"/>
-        <v>36.9</v>
+        <v>195.16</v>
       </c>
       <c r="K31" s="18">
-        <v>31.4</v>
+        <v>13.09</v>
       </c>
       <c r="L31" s="18">
         <f t="shared" si="3"/>
+        <v>26.18</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" s="18" customFormat="1">
+      <c r="C32" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="18">
+        <v>1</v>
+      </c>
+      <c r="G32" s="18">
+        <v>15</v>
+      </c>
+      <c r="H32" s="18">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I32" s="18">
+        <v>246</v>
+      </c>
+      <c r="J32" s="18">
+        <f t="shared" si="2"/>
+        <v>36.9</v>
+      </c>
+      <c r="K32" s="18">
+        <v>31.4</v>
+      </c>
+      <c r="L32" s="18">
+        <f t="shared" si="3"/>
         <v>4.71</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="16" customFormat="1">
-      <c r="D32" s="16" t="s">
+    <row r="33" spans="1:12" s="16" customFormat="1">
+      <c r="D33" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E33" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F32" s="16">
-        <v>1</v>
-      </c>
-      <c r="G32" s="16">
+      <c r="F33" s="16">
+        <v>1</v>
+      </c>
+      <c r="G33" s="16">
         <v>50</v>
       </c>
-      <c r="H32" s="16">
+      <c r="H33" s="16">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I33" s="16">
         <v>106</v>
       </c>
-      <c r="J32" s="16">
+      <c r="J33" s="16">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K33" s="16">
         <v>20.2</v>
       </c>
-      <c r="L32" s="16">
+      <c r="L33" s="16">
         <f t="shared" si="3"/>
         <v>10.1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="16" customFormat="1">
-      <c r="D33" s="16" t="s">
+    <row r="34" spans="1:12" s="16" customFormat="1">
+      <c r="D34" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E34" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F33" s="16">
-        <v>1</v>
-      </c>
-      <c r="G33" s="16">
+      <c r="F34" s="16">
+        <v>1</v>
+      </c>
+      <c r="G34" s="16">
         <v>450</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H34" s="16">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="I33" s="16">
+      <c r="I34" s="16">
         <v>84</v>
       </c>
-      <c r="J33" s="16">
+      <c r="J34" s="16">
         <f t="shared" si="2"/>
         <v>378</v>
       </c>
-      <c r="K33" s="16">
+      <c r="K34" s="16">
         <v>6.6</v>
       </c>
-      <c r="L33" s="16">
+      <c r="L34" s="16">
         <f t="shared" si="3"/>
         <v>29.7</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="18" customFormat="1">
-      <c r="D34" s="18" t="s">
+    <row r="35" spans="1:12" s="18" customFormat="1">
+      <c r="D35" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E35" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F34" s="18">
-        <v>1</v>
-      </c>
-      <c r="G34" s="18">
+      <c r="F35" s="18">
+        <v>1</v>
+      </c>
+      <c r="G35" s="18">
         <v>10</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H35" s="18">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I35" s="18">
         <v>48</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J35" s="18">
         <f t="shared" si="2"/>
         <v>4.8</v>
       </c>
-      <c r="K34" s="18">
+      <c r="K35" s="18">
         <v>10.4</v>
       </c>
-      <c r="L34" s="18">
+      <c r="L35" s="18">
         <f t="shared" si="3"/>
         <v>1.04</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="16" customFormat="1">
-      <c r="C35" s="16" t="s">
+    <row r="36" spans="1:12" s="16" customFormat="1">
+      <c r="C36" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D36" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E36" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F35" s="16">
-        <v>1</v>
-      </c>
-      <c r="G35" s="16">
+      <c r="F36" s="16">
+        <v>1</v>
+      </c>
+      <c r="G36" s="16">
         <v>106</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H36" s="16">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I36" s="16">
         <v>53</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J36" s="16">
         <f t="shared" si="2"/>
         <v>56.18</v>
       </c>
-      <c r="L35" s="16">
+      <c r="L36" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="22" customFormat="1">
-      <c r="A36" s="41"/>
-      <c r="C36" s="22" t="s">
+    <row r="37" spans="1:12" s="22" customFormat="1">
+      <c r="A37" s="41"/>
+      <c r="C37" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D37" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E37" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="22">
-        <v>1</v>
-      </c>
-      <c r="G36" s="22">
+      <c r="F37" s="22">
+        <v>1</v>
+      </c>
+      <c r="G37" s="22">
         <v>89</v>
       </c>
-      <c r="H36" s="22">
+      <c r="H37" s="22">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="I36" s="22">
+      <c r="I37" s="22">
         <v>93</v>
       </c>
-      <c r="J36" s="22">
+      <c r="J37" s="22">
         <f t="shared" si="2"/>
         <v>82.77</v>
       </c>
-      <c r="K36" s="22">
+      <c r="K37" s="22">
         <v>1.4</v>
       </c>
-      <c r="L36" s="22">
+      <c r="L37" s="22">
         <f t="shared" si="3"/>
         <v>1.246</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="43" customFormat="1">
-      <c r="A37" s="42"/>
-      <c r="C37" s="43" t="s">
+    <row r="38" spans="1:12" s="43" customFormat="1">
+      <c r="A38" s="42"/>
+      <c r="C38" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="43" t="s">
+      <c r="D38" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="E37" s="43" t="s">
+      <c r="E38" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F37" s="43">
-        <v>1</v>
-      </c>
-      <c r="G37" s="43">
+      <c r="F38" s="43">
+        <v>1</v>
+      </c>
+      <c r="G38" s="43">
         <v>172</v>
       </c>
-      <c r="H37" s="43">
+      <c r="H38" s="43">
         <f t="shared" si="1"/>
         <v>172</v>
       </c>
-      <c r="I37" s="43">
+      <c r="I38" s="43">
         <v>44</v>
       </c>
-      <c r="J37" s="43">
+      <c r="J38" s="43">
         <f t="shared" si="2"/>
         <v>75.680000000000007</v>
       </c>
-      <c r="K37" s="43">
+      <c r="K38" s="43">
         <v>1.06</v>
       </c>
-      <c r="L37" s="43">
+      <c r="L38" s="43">
         <f t="shared" si="3"/>
         <v>1.8232000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="18" customFormat="1">
-      <c r="D38" s="18" t="s">
+    <row r="39" spans="1:12" s="18" customFormat="1">
+      <c r="D39" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F38" s="18">
-        <v>1</v>
-      </c>
-      <c r="H38" s="18">
+      <c r="F39" s="18">
+        <v>1</v>
+      </c>
+      <c r="H39" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I38" s="18">
+      <c r="I39" s="18">
         <v>31</v>
       </c>
-      <c r="J38" s="18">
+      <c r="J39" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L38" s="18">
+      <c r="L39" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="18" customFormat="1">
-      <c r="D39" s="18" t="s">
+    <row r="40" spans="1:12" s="18" customFormat="1">
+      <c r="D40" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E40" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F39" s="18">
-        <v>1</v>
-      </c>
-      <c r="G39" s="18">
+      <c r="F40" s="18">
+        <v>1</v>
+      </c>
+      <c r="G40" s="18">
         <v>200</v>
       </c>
-      <c r="H39" s="18">
+      <c r="H40" s="18">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="I39" s="18">
+      <c r="I40" s="18">
         <v>30</v>
       </c>
-      <c r="J39" s="18">
+      <c r="J40" s="18">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="K39" s="18">
+      <c r="K40" s="18">
         <v>2.4</v>
       </c>
-      <c r="L39" s="18">
+      <c r="L40" s="18">
         <f t="shared" si="3"/>
         <v>4.8</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="18" customFormat="1">
-      <c r="F40" s="18">
-        <v>1</v>
-      </c>
-      <c r="H40" s="18">
+    <row r="41" spans="1:12" s="18" customFormat="1">
+      <c r="F41" s="18">
+        <v>1</v>
+      </c>
+      <c r="H41" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J40" s="18">
+      <c r="J41" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
-      </c>
-      <c r="L40" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="18" customFormat="1">
-      <c r="C41" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F41" s="18">
-        <v>1</v>
-      </c>
-      <c r="G41" s="18">
-        <v>30</v>
-      </c>
-      <c r="H41" s="18">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="I41" s="18">
-        <v>615</v>
-      </c>
-      <c r="J41" s="18">
-        <f t="shared" si="2"/>
-        <v>184.5</v>
       </c>
       <c r="L41" s="18">
         <f t="shared" si="3"/>
@@ -4075,16 +4123,31 @@
       </c>
     </row>
     <row r="42" spans="1:12" s="18" customFormat="1">
+      <c r="C42" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="F42" s="18">
         <v>1</v>
+      </c>
+      <c r="G42" s="18">
+        <v>30</v>
       </c>
       <c r="H42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="I42" s="18">
+        <v>615</v>
       </c>
       <c r="J42" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>184.5</v>
       </c>
       <c r="L42" s="18">
         <f t="shared" si="3"/>
@@ -4155,6 +4218,23 @@
         <v>0</v>
       </c>
       <c r="L46" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="18" customFormat="1">
+      <c r="F47" s="18">
+        <v>1</v>
+      </c>
+      <c r="H47" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4168,11 +4248,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:M27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A3:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4973,6 +5053,322 @@
       </c>
       <c r="M27" s="28"/>
     </row>
+    <row r="31" spans="1:13" ht="17.25" thickBot="1"/>
+    <row r="32" spans="1:13">
+      <c r="A32" s="30"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="M32" s="32"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="39">
+        <v>43614</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="20">
+        <v>1</v>
+      </c>
+      <c r="G33" s="20">
+        <v>350</v>
+      </c>
+      <c r="H33" s="20">
+        <f t="shared" ref="H33:H34" si="13">F33*G33</f>
+        <v>350</v>
+      </c>
+      <c r="I33" s="20">
+        <v>40</v>
+      </c>
+      <c r="J33" s="20">
+        <f t="shared" ref="J33:J34" si="14">H33*I33/100</f>
+        <v>140</v>
+      </c>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20">
+        <f t="shared" ref="L33:L34" si="15">G33*K33/100</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="26"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="33">
+        <f>SUM(J33:J44)</f>
+        <v>384.6</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="18">
+        <v>1</v>
+      </c>
+      <c r="G34" s="18">
+        <v>70</v>
+      </c>
+      <c r="H34" s="18">
+        <f t="shared" si="13"/>
+        <v>70</v>
+      </c>
+      <c r="I34" s="18">
+        <v>220</v>
+      </c>
+      <c r="J34" s="18">
+        <f t="shared" si="14"/>
+        <v>154</v>
+      </c>
+      <c r="K34" s="18">
+        <v>7.98</v>
+      </c>
+      <c r="L34" s="18">
+        <f t="shared" si="15"/>
+        <v>5.5860000000000003</v>
+      </c>
+      <c r="M34" s="26"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="33">
+        <f>SUMIF(C33:C44,A35,J33:J44)</f>
+        <v>294</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" s="27">
+        <v>1</v>
+      </c>
+      <c r="G35" s="27">
+        <v>60</v>
+      </c>
+      <c r="H35" s="27">
+        <f t="shared" ref="H34:H44" si="16">F35*G35</f>
+        <v>60</v>
+      </c>
+      <c r="I35" s="27">
+        <v>151</v>
+      </c>
+      <c r="J35" s="27">
+        <f t="shared" ref="J34:J44" si="17">H35*I35/100</f>
+        <v>90.6</v>
+      </c>
+      <c r="K35" s="27">
+        <v>12.1</v>
+      </c>
+      <c r="L35" s="27">
+        <f>G35*K35/100</f>
+        <v>7.26</v>
+      </c>
+      <c r="M35" s="26"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="33">
+        <f>SUMIF(C33:C44,A36,J33:J44)</f>
+        <v>90.6</v>
+      </c>
+      <c r="M36" s="26"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="33">
+        <f>SUMIF(C33:C44,A37,J33:J44)</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="26"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="36"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="26"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="33"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="26"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="33">
+        <f>SUM(L33:L44)</f>
+        <v>12.846</v>
+      </c>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="26"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="35"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="26"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="35"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="26"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="35"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="26"/>
+    </row>
+    <row r="44" spans="1:13" ht="17.25" thickBot="1">
+      <c r="A44" s="37"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="28"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/减脂增肌.xlsx
+++ b/减脂增肌.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\健身\fitness\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176759E9-84FE-469C-9E98-E8117AB84839}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$C$16:$C$23</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">Sheet3!$F$23:$F$27</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="105">
   <si>
     <t>单位</t>
   </si>
@@ -375,12 +369,48 @@
   </si>
   <si>
     <t>烧麦</t>
+  </si>
+  <si>
+    <t>碳水</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔬菜沙拉</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>1碗</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜汁</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>1杯</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>金枪鱼蔬菜沙拉</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙拉酱</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>1勺</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="24">
     <font>
       <sz val="11"/>
@@ -392,7 +422,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -401,7 +431,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Cambria"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -410,7 +440,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -419,7 +449,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -428,7 +458,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -436,7 +466,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -444,7 +474,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -452,7 +482,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -460,7 +490,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -469,7 +499,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -478,7 +508,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -486,7 +516,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -495,7 +525,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -503,7 +533,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -512,7 +542,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -521,7 +551,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -529,7 +559,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1132,7 +1162,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1259,51 +1289,52 @@
     <xf numFmtId="0" fontId="21" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="30" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="34" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="23" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="27" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="31" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="35" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="39" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="20" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="24" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="28" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="32" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="36" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="40" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="21" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="25" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="29" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="33" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="37" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="常规 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="注释 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="41"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="注释 2" xfId="42"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1338,7 +1369,7 @@
         <xdr:cNvPr id="2049" name="Picture 1" descr="http://s2.boohee.cn/food/star/mantou_junzhi-eebf1a1047a2c77b1611f7fa1530b522.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1384,7 +1415,7 @@
         <xdr:cNvPr id="2050" name="Picture 2" descr="http://s2.boohee.cn/food/star/mifen-5417640ffeef94b4890adc8f223575b6.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1430,7 +1461,7 @@
         <xdr:cNvPr id="2051" name="Picture 3" descr="http://s2.boohee.cn/food/star/lvdou-abb3662f6104fb8d05203374a6f71125.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1462,13 +1493,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1476,7 +1507,7 @@
         <xdr:cNvPr id="2052" name="Picture 4" descr="http://s2.boohee.cn/food/star/heimizhou-96bc011520f5fa9c449a0c04f462933a.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1508,13 +1539,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>21166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>209549</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1522,7 +1553,7 @@
         <xdr:cNvPr id="2053" name="Picture 5" descr="http://s2.boohee.cn/food/star/jixiongfurou-838288502b3a279a85e51959b2625cbb.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1554,13 +1585,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>148167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1568,7 +1599,7 @@
         <xdr:cNvPr id="2054" name="Picture 6" descr="http://s2.boohee.cn/food/star/hebaodan_youjian-ecdd3bc2083df7d4f3f16c3f73b46ad1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1600,13 +1631,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>26458</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1614,7 +1645,7 @@
         <xdr:cNvPr id="2055" name="Picture 7" descr="http://s2.boohee.cn/food/star/miantiao_fuqiangfen_zhu-f98e799ed60d85715309652831e34fb4.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1646,13 +1677,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1660,7 +1691,7 @@
         <xdr:cNvPr id="2056" name="Picture 8" descr="http://s2.boohee.cn/food/star/niuru_junzhi-a27fe2d98e468f5174cff506bd4ac30e.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1692,13 +1723,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>150283</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1706,7 +1737,7 @@
         <xdr:cNvPr id="2057" name="Picture 9" descr="http://s2.boohee.cn/food/star/pingguo_junzhi-8a4b1966ee455751bdabeba92fe6aea7.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1738,13 +1769,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>242889</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1752,7 +1783,7 @@
         <xdr:cNvPr id="2058" name="Picture 10" descr="http://s2.boohee.cn/food/star/niurou_shou-35b252e8a7dc82545fd8d0c682ab7634.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1784,13 +1815,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1798,7 +1829,7 @@
         <xdr:cNvPr id="2059" name="Picture 11" descr="http://s2.boohee.cn/food/star/dounai-afbb33b4205be58a6579cef0075cc635.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1830,13 +1861,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>148167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1844,7 +1875,7 @@
         <xdr:cNvPr id="2060" name="Picture 12" descr="http://s2.boohee.cn/food/star/kuihuaziren-35ecdeccf4b3ab68b27ed7fa3f370c88.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1876,13 +1907,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1890,7 +1921,7 @@
         <xdr:cNvPr id="2061" name="Picture 13" descr="http://s2.boohee.cn/food/star/doufu_junzhi-c00d094a7a0e51393cb567814df97922.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1936,7 +1967,7 @@
         <xdr:cNvPr id="2062" name="Picture 14" descr="http://s2.boohee.cn/food/star/lvdouzhou-a25d46fa0205ecd0a0f89b573bfc420d.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1982,7 +2013,7 @@
         <xdr:cNvPr id="16" name="Picture 15" descr="http://s2.boohee.cn/food/star/kaifengguantangbao-0c0a391c85d62d20f460de7ebd72d3fc.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4312ACCD-EF0B-4A94-B1CE-021C026EF154}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4312ACCD-EF0B-4A94-B1CE-021C026EF154}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1994,7 +2025,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2014,7 +2045,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2029,13 +2060,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2043,7 +2074,7 @@
         <xdr:cNvPr id="17" name="Picture 16" descr="http://s2.boohee.cn/food/star/xiangjiao-a02e0b0a9cc11382f89c023a0abe5c26.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FE50625-3D63-4967-8767-6A1B564C41AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7FE50625-3D63-4967-8767-6A1B564C41AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2055,7 +2086,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2075,7 +2106,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2090,13 +2121,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>20108</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2104,7 +2135,7 @@
         <xdr:cNvPr id="18" name="Picture 17" descr="http://s2.boohee.cn/food/star/tao_junzhi-cfad8f99b49568df71206244fe6102a8.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0682AF74-6206-46CA-96E4-A2B234783D50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0682AF74-6206-46CA-96E4-A2B234783D50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2116,7 +2147,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2136,7 +2167,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2160,7 +2191,7 @@
         <xdr:cNvPr id="19" name="Picture 14" descr="http://s2.boohee.cn/food/star/lvdouzhou-a25d46fa0205ecd0a0f89b573bfc420d.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05C010EF-15F0-4F6E-BB88-2CC87D5D4A19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{05C010EF-15F0-4F6E-BB88-2CC87D5D4A19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2188,11 +2219,131 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>433389</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1" descr="http://s2.boohee.cn/food/star/shucaishala-5a8e9eb8cbb4194b4afffa720d2a0bf7.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="133351" y="4200525"/>
+          <a:ext cx="985838" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>201083</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2" descr="http://s2.boohee.cn/food/star/jinqiangyushucaishala_wushalajiang-ce4ca0c7cc32257f837c393f3050c877.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4200525"/>
+          <a:ext cx="904875" cy="201083"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>137583</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3" descr="http://s2.boohee.cn/food/star/shalajiang-bf0caecb9e24b8497fdfd42da8740fc4.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9439275"/>
+          <a:ext cx="619125" cy="137583"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2234,7 +2385,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2266,27 +2417,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2318,24 +2451,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2511,10 +2626,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -2771,17 +2886,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="C16:L16"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="8" width="9" style="15"/>
+    <col min="1" max="3" width="9" style="15"/>
+    <col min="4" max="4" width="15.875" style="15" customWidth="1"/>
+    <col min="5" max="8" width="9" style="15"/>
     <col min="9" max="9" width="19.875" style="15" customWidth="1"/>
     <col min="10" max="10" width="9" style="15"/>
     <col min="11" max="11" width="17.625" style="15" customWidth="1"/>
@@ -2883,7 +3000,7 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="L3" s="16">
-        <f t="shared" ref="L3:L23" si="0">G3*K3/100</f>
+        <f t="shared" ref="L3:L25" si="0">G3*K3/100</f>
         <v>4.1399999999999997</v>
       </c>
     </row>
@@ -2904,14 +3021,14 @@
         <v>40</v>
       </c>
       <c r="H4" s="18">
-        <f t="shared" ref="H4:H47" si="1">F4*G4</f>
+        <f t="shared" ref="H4:H50" si="1">F4*G4</f>
         <v>40</v>
       </c>
       <c r="I4" s="18">
         <v>76</v>
       </c>
       <c r="J4" s="18">
-        <f t="shared" ref="J4:J47" si="2">H4*I4/100</f>
+        <f t="shared" ref="J4:J50" si="2">H4*I4/100</f>
         <v>30.4</v>
       </c>
       <c r="L4" s="18">
@@ -3315,7 +3432,7 @@
         <v>5.5860000000000003</v>
       </c>
     </row>
-    <row r="17" spans="3:12" s="18" customFormat="1">
+    <row r="17" spans="1:12" s="18" customFormat="1">
       <c r="C17" s="18" t="s">
         <v>29</v>
       </c>
@@ -3347,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="16" customFormat="1">
+    <row r="18" spans="1:12" s="16" customFormat="1">
       <c r="C18" s="16" t="s">
         <v>29</v>
       </c>
@@ -3379,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="19" customFormat="1">
+    <row r="19" spans="1:12" s="19" customFormat="1">
       <c r="C19" s="19" t="s">
         <v>29</v>
       </c>
@@ -3405,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="18" customFormat="1">
+    <row r="20" spans="1:12" s="18" customFormat="1">
       <c r="C20" s="18" t="s">
         <v>29</v>
       </c>
@@ -3437,738 +3554,786 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="18" customFormat="1">
+    <row r="21" spans="1:12" s="18" customFormat="1">
+      <c r="A21"/>
       <c r="C21" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" s="18">
+        <v>300</v>
+      </c>
+      <c r="H21" s="18">
+        <f t="shared" ref="H21" si="3">F21*G21</f>
+        <v>300</v>
+      </c>
+      <c r="I21" s="18">
+        <v>66.8</v>
+      </c>
+      <c r="J21" s="18">
+        <f t="shared" ref="J21" si="4">H21*I21/100</f>
+        <v>200.4</v>
+      </c>
+      <c r="K21" s="18">
+        <v>4.93</v>
+      </c>
+      <c r="L21" s="18">
+        <f t="shared" ref="L21" si="5">G21*K21/100</f>
+        <v>14.79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="18" customFormat="1">
+      <c r="A22"/>
+      <c r="C22" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="18">
+        <v>1</v>
+      </c>
+      <c r="G22" s="18">
+        <v>300</v>
+      </c>
+      <c r="H22" s="18">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="I22" s="18">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="J22" s="18">
+        <f t="shared" si="2"/>
+        <v>120.9</v>
+      </c>
+      <c r="K22" s="18">
+        <v>1.18</v>
+      </c>
+      <c r="L22" s="18">
+        <f t="shared" si="0"/>
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="18" customFormat="1">
+      <c r="C23" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D23" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E23" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="18">
-        <v>1</v>
-      </c>
-      <c r="G21" s="18">
+      <c r="F23" s="18">
+        <v>1</v>
+      </c>
+      <c r="G23" s="18">
         <v>12</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H23" s="18">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I23" s="18">
         <v>338</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J23" s="18">
         <f t="shared" si="2"/>
         <v>40.56</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K23" s="18">
         <v>10.1</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L23" s="18">
         <f t="shared" si="0"/>
         <v>1.212</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="20" customFormat="1">
-      <c r="C22" s="20" t="s">
+    <row r="24" spans="1:12" s="20" customFormat="1">
+      <c r="C24" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D24" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E24" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="20">
-        <v>1</v>
-      </c>
-      <c r="G22" s="20">
+      <c r="F24" s="20">
+        <v>1</v>
+      </c>
+      <c r="G24" s="20">
         <v>350</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H24" s="20">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I24" s="20">
         <v>40</v>
       </c>
-      <c r="J22" s="20">
+      <c r="J24" s="20">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="L22" s="20">
+      <c r="L24" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="18" customFormat="1">
-      <c r="C23" s="18" t="s">
+    <row r="25" spans="1:12" s="18" customFormat="1">
+      <c r="C25" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D25" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E25" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="18">
-        <v>1</v>
-      </c>
-      <c r="G23" s="18">
+      <c r="F25" s="18">
+        <v>1</v>
+      </c>
+      <c r="G25" s="18">
         <v>350</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H25" s="18">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I25" s="18">
         <v>110</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J25" s="18">
         <f t="shared" si="2"/>
         <v>385</v>
       </c>
-      <c r="L23" s="18">
+      <c r="L25" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="18" customFormat="1">
-      <c r="C24" s="18" t="s">
+    <row r="26" spans="1:12" s="18" customFormat="1">
+      <c r="C26" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D26" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E26" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="18">
-        <v>1</v>
-      </c>
-      <c r="G24" s="18">
+      <c r="F26" s="18">
+        <v>1</v>
+      </c>
+      <c r="G26" s="18">
         <v>60</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H26" s="18">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I26" s="18">
         <v>151</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J26" s="18">
         <f t="shared" si="2"/>
         <v>90.6</v>
       </c>
-      <c r="K24" s="18">
+      <c r="K26" s="18">
         <v>12.1</v>
       </c>
-      <c r="L24" s="18">
-        <f>G24*K24/100</f>
+      <c r="L26" s="18">
+        <f>G26*K26/100</f>
         <v>7.26</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="18" customFormat="1">
-      <c r="C25" s="18" t="s">
+    <row r="27" spans="1:12" s="18" customFormat="1">
+      <c r="C27" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D27" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E27" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="18">
-        <v>1</v>
-      </c>
-      <c r="G25" s="18">
+      <c r="F27" s="18">
+        <v>1</v>
+      </c>
+      <c r="G27" s="18">
         <v>50</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H27" s="18">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I27" s="18">
         <v>143</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J27" s="18">
         <f t="shared" si="2"/>
         <v>71.5</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K27" s="18">
         <v>20.3</v>
       </c>
-      <c r="L25" s="18">
-        <f t="shared" ref="L25:L47" si="3">G25*K25/100</f>
+      <c r="L27" s="18">
+        <f t="shared" ref="L27:L50" si="6">G27*K27/100</f>
         <v>10.15</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="16" customFormat="1">
-      <c r="C26" s="16" t="s">
+    <row r="28" spans="1:12" s="16" customFormat="1">
+      <c r="C28" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D28" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E28" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F26" s="16">
-        <v>1</v>
-      </c>
-      <c r="G26" s="16">
+      <c r="F28" s="16">
+        <v>1</v>
+      </c>
+      <c r="G28" s="16">
         <v>100</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H28" s="16">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I28" s="16">
         <v>126</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J28" s="16">
         <f t="shared" si="2"/>
         <v>126</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K28" s="16">
         <v>22</v>
       </c>
-      <c r="L26" s="16">
+      <c r="L28" s="16">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="18" customFormat="1">
-      <c r="C27" s="18" t="s">
+    <row r="29" spans="1:12" s="18" customFormat="1">
+      <c r="C29" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D29" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E29" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="18">
-        <v>1</v>
-      </c>
-      <c r="G27" s="18">
+      <c r="F29" s="18">
+        <v>1</v>
+      </c>
+      <c r="G29" s="18">
         <v>30</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H29" s="18">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I29" s="18">
         <v>60</v>
       </c>
-      <c r="J27" s="18">
-        <f>H27*I27/100</f>
+      <c r="J29" s="18">
+        <f>H29*I29/100</f>
         <v>18</v>
       </c>
-      <c r="K27" s="18">
+      <c r="K29" s="18">
         <v>11.6</v>
       </c>
-      <c r="L27" s="18">
-        <f t="shared" si="3"/>
+      <c r="L29" s="18">
+        <f t="shared" si="6"/>
         <v>3.48</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="18" customFormat="1">
-      <c r="C28" s="18" t="s">
+    <row r="30" spans="1:12" s="18" customFormat="1">
+      <c r="C30" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D30" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E30" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="18">
-        <v>1</v>
-      </c>
-      <c r="G28" s="18">
+      <c r="F30" s="18">
+        <v>1</v>
+      </c>
+      <c r="G30" s="18">
         <v>60</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H30" s="18">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I30" s="18">
         <v>199</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J30" s="18">
         <f t="shared" si="2"/>
         <v>119.4</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K30" s="18">
         <v>13.5</v>
       </c>
-      <c r="L28" s="18">
-        <f t="shared" si="3"/>
+      <c r="L30" s="18">
+        <f t="shared" si="6"/>
         <v>8.1</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="18" customFormat="1">
-      <c r="C29" s="18" t="s">
+    <row r="31" spans="1:12" s="18" customFormat="1">
+      <c r="C31" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D31" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E31" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="18">
-        <v>1</v>
-      </c>
-      <c r="G29" s="18">
+      <c r="F31" s="18">
+        <v>1</v>
+      </c>
+      <c r="G31" s="18">
         <v>100</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H31" s="18">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I31" s="18">
         <v>94</v>
       </c>
-      <c r="J29" s="18">
+      <c r="J31" s="18">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="K29" s="18">
+      <c r="K31" s="18">
         <v>2.9</v>
       </c>
-      <c r="L29" s="18">
-        <f t="shared" si="3"/>
+      <c r="L31" s="18">
+        <f t="shared" si="6"/>
         <v>2.9</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="18" customFormat="1">
-      <c r="C30" s="18" t="s">
+    <row r="32" spans="1:12" s="18" customFormat="1">
+      <c r="C32" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D32" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E32" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="18">
-        <v>1</v>
-      </c>
-      <c r="G30" s="18">
+      <c r="F32" s="18">
+        <v>1</v>
+      </c>
+      <c r="G32" s="18">
         <v>200</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H32" s="18">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I32" s="18">
         <v>54</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J32" s="18">
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="K30" s="18">
+      <c r="K32" s="18">
         <v>3</v>
       </c>
-      <c r="L30" s="18">
-        <f t="shared" si="3"/>
+      <c r="L32" s="18">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="18" customFormat="1">
-      <c r="C31" s="18" t="s">
+    <row r="33" spans="1:12" s="18" customFormat="1">
+      <c r="C33" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D33" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E33" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F31" s="18">
-        <v>1</v>
-      </c>
-      <c r="G31" s="18">
+      <c r="F33" s="18">
+        <v>1</v>
+      </c>
+      <c r="G33" s="18">
         <v>200</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H33" s="18">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I33" s="18">
         <v>97.58</v>
       </c>
-      <c r="J31" s="18">
+      <c r="J33" s="18">
         <f t="shared" si="2"/>
         <v>195.16</v>
       </c>
-      <c r="K31" s="18">
+      <c r="K33" s="18">
         <v>13.09</v>
       </c>
-      <c r="L31" s="18">
-        <f t="shared" si="3"/>
+      <c r="L33" s="18">
+        <f t="shared" si="6"/>
         <v>26.18</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="18" customFormat="1">
-      <c r="C32" s="18" t="s">
+    <row r="34" spans="1:12" s="18" customFormat="1">
+      <c r="C34" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D34" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E34" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F32" s="18">
-        <v>1</v>
-      </c>
-      <c r="G32" s="18">
+      <c r="F34" s="18">
+        <v>1</v>
+      </c>
+      <c r="G34" s="18">
         <v>15</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H34" s="18">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I34" s="18">
         <v>246</v>
       </c>
-      <c r="J32" s="18">
+      <c r="J34" s="18">
         <f t="shared" si="2"/>
         <v>36.9</v>
       </c>
-      <c r="K32" s="18">
+      <c r="K34" s="18">
         <v>31.4</v>
       </c>
-      <c r="L32" s="18">
-        <f t="shared" si="3"/>
+      <c r="L34" s="18">
+        <f t="shared" si="6"/>
         <v>4.71</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="16" customFormat="1">
-      <c r="D33" s="16" t="s">
+    <row r="35" spans="1:12" s="16" customFormat="1">
+      <c r="C35" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E35" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F33" s="16">
-        <v>1</v>
-      </c>
-      <c r="G33" s="16">
+      <c r="F35" s="16">
+        <v>1</v>
+      </c>
+      <c r="G35" s="16">
         <v>50</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H35" s="16">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="I33" s="16">
+      <c r="I35" s="16">
         <v>106</v>
       </c>
-      <c r="J33" s="16">
+      <c r="J35" s="16">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="K33" s="16">
+      <c r="K35" s="16">
         <v>20.2</v>
       </c>
-      <c r="L33" s="16">
-        <f t="shared" si="3"/>
+      <c r="L35" s="16">
+        <f t="shared" si="6"/>
         <v>10.1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="16" customFormat="1">
-      <c r="D34" s="16" t="s">
+    <row r="36" spans="1:12" s="16" customFormat="1">
+      <c r="C36" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E36" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F34" s="16">
-        <v>1</v>
-      </c>
-      <c r="G34" s="16">
+      <c r="F36" s="16">
+        <v>1</v>
+      </c>
+      <c r="G36" s="16">
         <v>450</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H36" s="16">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I36" s="16">
         <v>84</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J36" s="16">
         <f t="shared" si="2"/>
         <v>378</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K36" s="16">
         <v>6.6</v>
       </c>
-      <c r="L34" s="16">
-        <f t="shared" si="3"/>
+      <c r="L36" s="16">
+        <f t="shared" si="6"/>
         <v>29.7</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="18" customFormat="1">
-      <c r="D35" s="18" t="s">
+    <row r="37" spans="1:12" s="18" customFormat="1">
+      <c r="C37" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E37" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F35" s="18">
-        <v>1</v>
-      </c>
-      <c r="G35" s="18">
+      <c r="F37" s="18">
+        <v>1</v>
+      </c>
+      <c r="G37" s="18">
         <v>10</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H37" s="18">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I37" s="18">
         <v>48</v>
       </c>
-      <c r="J35" s="18">
+      <c r="J37" s="18">
         <f t="shared" si="2"/>
         <v>4.8</v>
       </c>
-      <c r="K35" s="18">
+      <c r="K37" s="18">
         <v>10.4</v>
       </c>
-      <c r="L35" s="18">
-        <f t="shared" si="3"/>
+      <c r="L37" s="18">
+        <f t="shared" si="6"/>
         <v>1.04</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="16" customFormat="1">
-      <c r="C36" s="16" t="s">
+    <row r="38" spans="1:12" s="16" customFormat="1">
+      <c r="C38" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D38" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E38" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="16">
-        <v>1</v>
-      </c>
-      <c r="G36" s="16">
+      <c r="F38" s="16">
+        <v>1</v>
+      </c>
+      <c r="G38" s="16">
         <v>106</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H38" s="16">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I38" s="16">
         <v>53</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J38" s="16">
         <f t="shared" si="2"/>
         <v>56.18</v>
       </c>
-      <c r="L36" s="16">
-        <f t="shared" si="3"/>
+      <c r="L38" s="16">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="22" customFormat="1">
-      <c r="A37" s="41"/>
-      <c r="C37" s="22" t="s">
+    <row r="39" spans="1:12" s="22" customFormat="1">
+      <c r="A39" s="41"/>
+      <c r="C39" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D39" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E39" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F37" s="22">
-        <v>1</v>
-      </c>
-      <c r="G37" s="22">
+      <c r="F39" s="22">
+        <v>1</v>
+      </c>
+      <c r="G39" s="22">
         <v>89</v>
       </c>
-      <c r="H37" s="22">
+      <c r="H39" s="22">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="I37" s="22">
+      <c r="I39" s="22">
         <v>93</v>
       </c>
-      <c r="J37" s="22">
+      <c r="J39" s="22">
         <f t="shared" si="2"/>
         <v>82.77</v>
       </c>
-      <c r="K37" s="22">
+      <c r="K39" s="22">
         <v>1.4</v>
       </c>
-      <c r="L37" s="22">
-        <f t="shared" si="3"/>
+      <c r="L39" s="22">
+        <f t="shared" si="6"/>
         <v>1.246</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="43" customFormat="1">
-      <c r="A38" s="42"/>
-      <c r="C38" s="43" t="s">
+    <row r="40" spans="1:12" s="43" customFormat="1">
+      <c r="A40" s="42"/>
+      <c r="C40" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="43" t="s">
+      <c r="D40" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="E38" s="43" t="s">
+      <c r="E40" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F38" s="43">
-        <v>1</v>
-      </c>
-      <c r="G38" s="43">
+      <c r="F40" s="43">
+        <v>1</v>
+      </c>
+      <c r="G40" s="43">
         <v>172</v>
       </c>
-      <c r="H38" s="43">
+      <c r="H40" s="43">
         <f t="shared" si="1"/>
         <v>172</v>
       </c>
-      <c r="I38" s="43">
+      <c r="I40" s="43">
         <v>44</v>
       </c>
-      <c r="J38" s="43">
+      <c r="J40" s="43">
         <f t="shared" si="2"/>
         <v>75.680000000000007</v>
       </c>
-      <c r="K38" s="43">
+      <c r="K40" s="43">
         <v>1.06</v>
       </c>
-      <c r="L38" s="43">
-        <f t="shared" si="3"/>
+      <c r="L40" s="43">
+        <f t="shared" si="6"/>
         <v>1.8232000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="18" customFormat="1">
-      <c r="D39" s="18" t="s">
+    <row r="41" spans="1:12" s="18" customFormat="1">
+      <c r="A41" s="44"/>
+      <c r="C41" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" s="18">
+        <v>1</v>
+      </c>
+      <c r="G41" s="18">
+        <v>100</v>
+      </c>
+      <c r="H41" s="18">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I41" s="18">
+        <v>47</v>
+      </c>
+      <c r="J41" s="18">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="L41" s="18">
+        <f t="shared" ref="L41" si="7">G41*K41/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="18" customFormat="1">
+      <c r="D42" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F39" s="18">
-        <v>1</v>
-      </c>
-      <c r="H39" s="18">
+      <c r="F42" s="18">
+        <v>1</v>
+      </c>
+      <c r="H42" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I39" s="18">
+      <c r="I42" s="18">
         <v>31</v>
       </c>
-      <c r="J39" s="18">
+      <c r="J42" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L39" s="18">
-        <f t="shared" si="3"/>
+      <c r="L42" s="18">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="18" customFormat="1">
-      <c r="D40" s="18" t="s">
+    <row r="43" spans="1:12" s="18" customFormat="1">
+      <c r="D43" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E43" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F40" s="18">
-        <v>1</v>
-      </c>
-      <c r="G40" s="18">
+      <c r="F43" s="18">
+        <v>1</v>
+      </c>
+      <c r="G43" s="18">
         <v>200</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H43" s="18">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="I40" s="18">
+      <c r="I43" s="18">
         <v>30</v>
       </c>
-      <c r="J40" s="18">
+      <c r="J43" s="18">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="K40" s="18">
+      <c r="K43" s="18">
         <v>2.4</v>
       </c>
-      <c r="L40" s="18">
-        <f t="shared" si="3"/>
+      <c r="L43" s="18">
+        <f t="shared" si="6"/>
         <v>4.8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="18" customFormat="1">
-      <c r="F41" s="18">
-        <v>1</v>
-      </c>
-      <c r="H41" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="18" customFormat="1">
-      <c r="C42" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F42" s="18">
-        <v>1</v>
-      </c>
-      <c r="G42" s="18">
-        <v>30</v>
-      </c>
-      <c r="H42" s="18">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="I42" s="18">
-        <v>615</v>
-      </c>
-      <c r="J42" s="18">
-        <f t="shared" si="2"/>
-        <v>184.5</v>
-      </c>
-      <c r="L42" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="18" customFormat="1">
-      <c r="F43" s="18">
-        <v>1</v>
-      </c>
-      <c r="H43" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:12" s="18" customFormat="1">
@@ -4184,42 +4349,76 @@
         <v>0</v>
       </c>
       <c r="L44" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:12" s="18" customFormat="1">
+      <c r="C45" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="F45" s="18">
         <v>1</v>
+      </c>
+      <c r="G45" s="18">
+        <v>30</v>
       </c>
       <c r="H45" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="I45" s="18">
+        <v>615</v>
       </c>
       <c r="J45" s="18">
         <f t="shared" si="2"/>
+        <v>184.5</v>
+      </c>
+      <c r="L45" s="18">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L45" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="46" spans="1:12" s="18" customFormat="1">
+      <c r="A46"/>
+      <c r="C46" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>104</v>
+      </c>
       <c r="F46" s="18">
         <v>1</v>
+      </c>
+      <c r="G46" s="18">
+        <v>10</v>
       </c>
       <c r="H46" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I46" s="18">
+        <v>724</v>
       </c>
       <c r="J46" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>72.400000000000006</v>
+      </c>
+      <c r="K46" s="18">
+        <v>2.8</v>
       </c>
       <c r="L46" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="47" spans="1:12" s="18" customFormat="1">
@@ -4235,7 +4434,58 @@
         <v>0</v>
       </c>
       <c r="L47" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="18" customFormat="1">
+      <c r="F48" s="18">
+        <v>1</v>
+      </c>
+      <c r="H48" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="6:12" s="18" customFormat="1">
+      <c r="F49" s="18">
+        <v>1</v>
+      </c>
+      <c r="H49" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="6:12" s="18" customFormat="1">
+      <c r="F50" s="18">
+        <v>1</v>
+      </c>
+      <c r="H50" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="18">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4248,18 +4498,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:M46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="34"/>
     <col min="2" max="2" width="10.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9" style="15"/>
+    <col min="3" max="3" width="9" style="15"/>
+    <col min="4" max="4" width="18.875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="9" style="15"/>
     <col min="6" max="6" width="9.125" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="15" customWidth="1"/>
     <col min="8" max="8" width="15.875" style="15" customWidth="1"/>
@@ -5106,21 +5358,21 @@
         <v>71</v>
       </c>
       <c r="F33" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" s="20">
         <v>350</v>
       </c>
       <c r="H33" s="20">
         <f t="shared" ref="H33:H34" si="13">F33*G33</f>
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="I33" s="20">
         <v>40</v>
       </c>
       <c r="J33" s="20">
         <f t="shared" ref="J33:J34" si="14">H33*I33/100</f>
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="K33" s="20"/>
       <c r="L33" s="20">
@@ -5135,7 +5387,7 @@
       </c>
       <c r="B34" s="33">
         <f>SUM(J33:J44)</f>
-        <v>384.6</v>
+        <v>1499.16</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>29</v>
@@ -5178,7 +5430,7 @@
       </c>
       <c r="B35" s="33">
         <f>SUMIF(C33:C44,A35,J33:J44)</f>
-        <v>294</v>
+        <v>876.19999999999993</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>43</v>
@@ -5196,14 +5448,14 @@
         <v>60</v>
       </c>
       <c r="H35" s="27">
-        <f t="shared" ref="H34:H44" si="16">F35*G35</f>
+        <f t="shared" ref="H35:H42" si="16">F35*G35</f>
         <v>60</v>
       </c>
       <c r="I35" s="27">
         <v>151</v>
       </c>
       <c r="J35" s="27">
-        <f t="shared" ref="J34:J44" si="17">H35*I35/100</f>
+        <f t="shared" ref="J35:J42" si="17">H35*I35/100</f>
         <v>90.6</v>
       </c>
       <c r="K35" s="27">
@@ -5221,7 +5473,40 @@
       </c>
       <c r="B36" s="33">
         <f>SUMIF(C33:C44,A36,J33:J44)</f>
-        <v>90.6</v>
+        <v>503.56</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="18">
+        <v>2</v>
+      </c>
+      <c r="G36" s="18">
+        <v>300</v>
+      </c>
+      <c r="H36" s="18">
+        <f t="shared" si="16"/>
+        <v>600</v>
+      </c>
+      <c r="I36" s="18">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="J36" s="18">
+        <f t="shared" si="17"/>
+        <v>241.8</v>
+      </c>
+      <c r="K36" s="18">
+        <v>1.18</v>
+      </c>
+      <c r="L36" s="18">
+        <f t="shared" ref="L36:L41" si="18">G36*K36/100</f>
+        <v>3.54</v>
       </c>
       <c r="M36" s="26"/>
     </row>
@@ -5231,33 +5516,77 @@
       </c>
       <c r="B37" s="33">
         <f>SUMIF(C33:C44,A37,J33:J44)</f>
-        <v>0</v>
-      </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
+        <v>72.400000000000006</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" s="18">
+        <v>1</v>
+      </c>
+      <c r="G37" s="18">
+        <v>200</v>
+      </c>
+      <c r="H37" s="18">
+        <f t="shared" si="16"/>
+        <v>200</v>
+      </c>
+      <c r="I37" s="18">
+        <v>97.58</v>
+      </c>
+      <c r="J37" s="18">
+        <f t="shared" si="17"/>
+        <v>195.16</v>
+      </c>
+      <c r="K37" s="18">
+        <v>13.09</v>
+      </c>
+      <c r="L37" s="18">
+        <f t="shared" si="18"/>
+        <v>26.18</v>
+      </c>
       <c r="M37" s="26"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="36"/>
       <c r="B38" s="33"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
+      <c r="C38" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" s="18">
+        <v>1</v>
+      </c>
+      <c r="G38" s="18">
+        <v>100</v>
+      </c>
+      <c r="H38" s="18">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="I38" s="18">
+        <v>47</v>
+      </c>
+      <c r="J38" s="18">
+        <f t="shared" si="17"/>
+        <v>47</v>
+      </c>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="M38" s="26"/>
     </row>
     <row r="39" spans="1:13">
@@ -5265,16 +5594,39 @@
         <v>88</v>
       </c>
       <c r="B39" s="33"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
+      <c r="C39" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" s="18">
+        <v>1</v>
+      </c>
+      <c r="G39" s="18">
+        <v>300</v>
+      </c>
+      <c r="H39" s="18">
+        <f t="shared" si="16"/>
+        <v>300</v>
+      </c>
+      <c r="I39" s="18">
+        <v>66.8</v>
+      </c>
+      <c r="J39" s="18">
+        <f t="shared" si="17"/>
+        <v>200.4</v>
+      </c>
+      <c r="K39" s="18">
+        <v>4.93</v>
+      </c>
+      <c r="L39" s="18">
+        <f t="shared" si="18"/>
+        <v>14.79</v>
+      </c>
       <c r="M39" s="26"/>
     </row>
     <row r="40" spans="1:13">
@@ -5283,48 +5635,116 @@
       </c>
       <c r="B40" s="33">
         <f>SUM(L33:L44)</f>
-        <v>12.846</v>
-      </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
+        <v>83.676000000000002</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40" s="18">
+        <v>1</v>
+      </c>
+      <c r="G40" s="18">
+        <v>10</v>
+      </c>
+      <c r="H40" s="18">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="I40" s="18">
+        <v>724</v>
+      </c>
+      <c r="J40" s="18">
+        <f t="shared" si="17"/>
+        <v>72.400000000000006</v>
+      </c>
+      <c r="K40" s="18">
+        <v>2.8</v>
+      </c>
+      <c r="L40" s="18">
+        <f t="shared" si="18"/>
+        <v>0.28000000000000003</v>
+      </c>
       <c r="M40" s="26"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="35"/>
       <c r="B41" s="33"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
+      <c r="C41" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="18">
+        <v>6</v>
+      </c>
+      <c r="G41" s="18">
+        <v>10</v>
+      </c>
+      <c r="H41" s="18">
+        <f t="shared" si="16"/>
+        <v>60</v>
+      </c>
+      <c r="I41" s="18">
+        <v>48</v>
+      </c>
+      <c r="J41" s="18">
+        <f t="shared" si="17"/>
+        <v>28.8</v>
+      </c>
+      <c r="K41" s="18">
+        <v>10.4</v>
+      </c>
+      <c r="L41" s="18">
+        <f t="shared" si="18"/>
+        <v>1.04</v>
+      </c>
       <c r="M41" s="26"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="35"/>
       <c r="B42" s="33"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
+      <c r="C42" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="G42" s="16">
+        <v>100</v>
+      </c>
+      <c r="H42" s="16">
+        <f t="shared" si="16"/>
+        <v>150</v>
+      </c>
+      <c r="I42" s="16">
+        <v>126</v>
+      </c>
+      <c r="J42" s="16">
+        <f t="shared" si="17"/>
+        <v>189</v>
+      </c>
+      <c r="K42" s="16">
+        <v>22</v>
+      </c>
+      <c r="L42" s="16">
+        <v>25</v>
+      </c>
       <c r="M42" s="26"/>
     </row>
     <row r="43" spans="1:13">

--- a/减脂增肌.xlsx
+++ b/减脂增肌.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\健身\fitness\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1A807D-E19D-486A-9294-913A29877997}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15990" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$C$16:$C$23</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">Sheet3!$F$23:$F$27</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="112">
   <si>
     <t>单位</t>
   </si>
@@ -242,10 +248,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>豆奶</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>瓜子</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -405,12 +407,36 @@
   <si>
     <t>1勺</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瓜粥</t>
+  </si>
+  <si>
+    <t>猪肉包</t>
+  </si>
+  <si>
+    <t>鸡蛋饼</t>
+  </si>
+  <si>
+    <t>黄瓜</t>
+  </si>
+  <si>
+    <t>豆奶</t>
+  </si>
+  <si>
+    <t>腊肠</t>
+  </si>
+  <si>
+    <t>100g</t>
+  </si>
+  <si>
+    <t>清炖排骨</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="24">
     <font>
       <sz val="11"/>
@@ -422,7 +448,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -431,7 +457,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Cambria"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -440,7 +466,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -449,7 +475,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -458,7 +484,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -466,7 +492,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -474,7 +500,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -482,7 +508,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -490,7 +516,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -499,7 +525,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -508,7 +534,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -516,7 +542,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -525,7 +551,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -533,7 +559,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -542,7 +568,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -551,7 +577,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -559,7 +585,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1292,49 +1318,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="18" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="22" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="26" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="30" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="19" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="23" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="27" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="35" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="39" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="20" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="24" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="28" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="32" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="36" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="40" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="41"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="16" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="15" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="21" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="25" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="29" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="33" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="37" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="注释 2" xfId="42"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="常规 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="注释 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1355,13 +1381,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1369,7 +1395,7 @@
         <xdr:cNvPr id="2049" name="Picture 1" descr="http://s2.boohee.cn/food/star/mantou_junzhi-eebf1a1047a2c77b1611f7fa1530b522.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1401,13 +1427,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1415,7 +1441,7 @@
         <xdr:cNvPr id="2050" name="Picture 2" descr="http://s2.boohee.cn/food/star/mifen-5417640ffeef94b4890adc8f223575b6.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1447,13 +1473,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1461,7 +1487,7 @@
         <xdr:cNvPr id="2051" name="Picture 3" descr="http://s2.boohee.cn/food/star/lvdou-abb3662f6104fb8d05203374a6f71125.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1493,13 +1519,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1507,7 +1533,7 @@
         <xdr:cNvPr id="2052" name="Picture 4" descr="http://s2.boohee.cn/food/star/heimizhou-96bc011520f5fa9c449a0c04f462933a.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1539,13 +1565,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>21166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>209549</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1553,7 +1579,7 @@
         <xdr:cNvPr id="2053" name="Picture 5" descr="http://s2.boohee.cn/food/star/jixiongfurou-838288502b3a279a85e51959b2625cbb.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1585,13 +1611,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>148167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1599,7 +1625,7 @@
         <xdr:cNvPr id="2054" name="Picture 6" descr="http://s2.boohee.cn/food/star/hebaodan_youjian-ecdd3bc2083df7d4f3f16c3f73b46ad1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1631,13 +1657,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>26458</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1645,7 +1671,7 @@
         <xdr:cNvPr id="2055" name="Picture 7" descr="http://s2.boohee.cn/food/star/miantiao_fuqiangfen_zhu-f98e799ed60d85715309652831e34fb4.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1677,13 +1703,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1691,7 +1717,7 @@
         <xdr:cNvPr id="2056" name="Picture 8" descr="http://s2.boohee.cn/food/star/niuru_junzhi-a27fe2d98e468f5174cff506bd4ac30e.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1723,13 +1749,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>150283</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1737,7 +1763,7 @@
         <xdr:cNvPr id="2057" name="Picture 9" descr="http://s2.boohee.cn/food/star/pingguo_junzhi-8a4b1966ee455751bdabeba92fe6aea7.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1769,13 +1795,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>242889</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1783,7 +1809,7 @@
         <xdr:cNvPr id="2058" name="Picture 10" descr="http://s2.boohee.cn/food/star/niurou_shou-35b252e8a7dc82545fd8d0c682ab7634.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1815,13 +1841,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1829,7 +1855,7 @@
         <xdr:cNvPr id="2059" name="Picture 11" descr="http://s2.boohee.cn/food/star/dounai-afbb33b4205be58a6579cef0075cc635.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1861,13 +1887,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>148167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1875,7 +1901,7 @@
         <xdr:cNvPr id="2060" name="Picture 12" descr="http://s2.boohee.cn/food/star/kuihuaziren-35ecdeccf4b3ab68b27ed7fa3f370c88.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1907,13 +1933,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1921,7 +1947,7 @@
         <xdr:cNvPr id="2061" name="Picture 13" descr="http://s2.boohee.cn/food/star/doufu_junzhi-c00d094a7a0e51393cb567814df97922.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1967,7 +1993,7 @@
         <xdr:cNvPr id="2062" name="Picture 14" descr="http://s2.boohee.cn/food/star/lvdouzhou-a25d46fa0205ecd0a0f89b573bfc420d.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1998,22 +2024,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>342901</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="16" name="Picture 15" descr="http://s2.boohee.cn/food/star/kaifengguantangbao-0c0a391c85d62d20f460de7ebd72d3fc.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4312ACCD-EF0B-4A94-B1CE-021C026EF154}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2025,7 +2051,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2036,7 +2062,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1" y="733425"/>
+          <a:off x="0" y="1038225"/>
           <a:ext cx="1028700" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2045,7 +2071,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2060,13 +2086,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2074,7 +2100,7 @@
         <xdr:cNvPr id="17" name="Picture 16" descr="http://s2.boohee.cn/food/star/xiangjiao-a02e0b0a9cc11382f89c023a0abe5c26.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7FE50625-3D63-4967-8767-6A1B564C41AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2086,7 +2112,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2106,7 +2132,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2121,13 +2147,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>20108</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2135,7 +2161,7 @@
         <xdr:cNvPr id="18" name="Picture 17" descr="http://s2.boohee.cn/food/star/tao_junzhi-cfad8f99b49568df71206244fe6102a8.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0682AF74-6206-46CA-96E4-A2B234783D50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2147,7 +2173,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2167,7 +2193,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2191,7 +2217,7 @@
         <xdr:cNvPr id="19" name="Picture 14" descr="http://s2.boohee.cn/food/star/lvdouzhou-a25d46fa0205ecd0a0f89b573bfc420d.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{05C010EF-15F0-4F6E-BB88-2CC87D5D4A19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2223,18 +2249,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>433389</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1" descr="http://s2.boohee.cn/food/star/shucaishala-5a8e9eb8cbb4194b4afffa720d2a0bf7.png"/>
+        <xdr:cNvPr id="1025" name="Picture 1" descr="http://s2.boohee.cn/food/star/shucaishala-5a8e9eb8cbb4194b4afffa720d2a0bf7.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2263,18 +2295,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>201083</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2" descr="http://s2.boohee.cn/food/star/jinqiangyushucaishala_wushalajiang-ce4ca0c7cc32257f837c393f3050c877.png"/>
+        <xdr:cNvPr id="1026" name="Picture 2" descr="http://s2.boohee.cn/food/star/jinqiangyushucaishala_wushalajiang-ce4ca0c7cc32257f837c393f3050c877.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2303,18 +2341,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>137583</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1027" name="Picture 3" descr="http://s2.boohee.cn/food/star/shalajiang-bf0caecb9e24b8497fdfd42da8740fc4.png"/>
+        <xdr:cNvPr id="1027" name="Picture 3" descr="http://s2.boohee.cn/food/star/shalajiang-bf0caecb9e24b8497fdfd42da8740fc4.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2339,11 +2383,133 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>300039</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22" descr="http://s2.boohee.cn/food/star/jidanbing-aae559b0f1fdc016e0c99bd0e9f52834.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97787869-7725-4C86-B61D-87096A6A8E65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="1266825"/>
+          <a:ext cx="985838" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24" descr="http://s2.boohee.cn/food/star/qingdunpaigu-9d0bb3a3c28831ec6c8752a9267b7d9b.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9931887-2AF9-4310-A53A-E502E4D6DD7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="7134225"/>
+          <a:ext cx="857250" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2385,7 +2551,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2417,9 +2583,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2451,6 +2635,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2626,11 +2828,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2886,12 +3088,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28:L28"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2905,7 +3107,7 @@
     <col min="12" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12">
+    <row r="1" spans="1:12">
       <c r="C1" s="15" t="s">
         <v>13</v>
       </c>
@@ -2916,13 +3118,13 @@
         <v>15</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>24</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>25</v>
@@ -2937,7 +3139,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="3:12">
+    <row r="2" spans="1:12">
       <c r="C2" s="15" t="s">
         <v>13</v>
       </c>
@@ -2948,13 +3150,13 @@
         <v>15</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>24</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>25</v>
@@ -2969,15 +3171,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="3:12" s="16" customFormat="1" ht="17.25" thickBot="1">
+    <row r="3" spans="1:12" s="16" customFormat="1" ht="17.25" thickBot="1">
       <c r="C3" s="16" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" s="16">
         <v>1</v>
@@ -3000,11 +3202,11 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="L3" s="16">
-        <f t="shared" ref="L3:L25" si="0">G3*K3/100</f>
+        <f t="shared" ref="L3:L27" si="0">G3*K3/100</f>
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="4" spans="3:12" s="18" customFormat="1">
+    <row r="4" spans="1:12" s="18" customFormat="1">
       <c r="C4" s="18" t="s">
         <v>29</v>
       </c>
@@ -3012,7 +3214,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="18">
         <v>1</v>
@@ -3021,14 +3223,14 @@
         <v>40</v>
       </c>
       <c r="H4" s="18">
-        <f t="shared" ref="H4:H50" si="1">F4*G4</f>
+        <f t="shared" ref="H4:H54" si="1">F4*G4</f>
         <v>40</v>
       </c>
       <c r="I4" s="18">
         <v>76</v>
       </c>
       <c r="J4" s="18">
-        <f t="shared" ref="J4:J50" si="2">H4*I4/100</f>
+        <f t="shared" ref="J4:J54" si="2">H4*I4/100</f>
         <v>30.4</v>
       </c>
       <c r="L4" s="18">
@@ -3036,15 +3238,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:12" s="18" customFormat="1">
+    <row r="5" spans="1:12" s="18" customFormat="1">
       <c r="C5" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="F5" s="18">
         <v>1</v>
@@ -3071,15 +3273,15 @@
         <v>3.8339999999999996</v>
       </c>
     </row>
-    <row r="6" spans="3:12" s="18" customFormat="1">
+    <row r="6" spans="1:12" s="18" customFormat="1">
       <c r="C6" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" s="18">
         <v>1</v>
@@ -3103,333 +3305,337 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:12" s="18" customFormat="1">
+    <row r="7" spans="1:12" s="18" customFormat="1">
+      <c r="A7"/>
       <c r="C7" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F7" s="18">
         <v>1</v>
       </c>
       <c r="G7" s="18">
+        <v>200</v>
+      </c>
+      <c r="H7" s="18">
+        <f t="shared" ref="H7" si="3">F7*G7</f>
+        <v>200</v>
+      </c>
+      <c r="I7" s="18">
+        <v>244</v>
+      </c>
+      <c r="J7" s="18">
+        <f t="shared" ref="J7" si="4">H7*I7/100</f>
+        <v>488</v>
+      </c>
+      <c r="K7" s="18">
+        <v>9.92</v>
+      </c>
+      <c r="L7" s="18">
+        <f t="shared" ref="L7" si="5">G7*K7/100</f>
+        <v>19.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="18" customFormat="1">
+      <c r="C8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="18">
+        <v>1</v>
+      </c>
+      <c r="G8" s="18">
         <v>300</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H8" s="18">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I8" s="18">
         <v>121.5</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J8" s="18">
         <f t="shared" si="2"/>
         <v>364.5</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K8" s="18">
         <v>2.25</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L8" s="18">
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
     </row>
-    <row r="8" spans="3:12" s="18" customFormat="1">
-      <c r="C8" s="18" t="s">
+    <row r="9" spans="1:12" s="18" customFormat="1">
+      <c r="C9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="18">
-        <v>1</v>
-      </c>
-      <c r="G8" s="18">
+      <c r="E9" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1</v>
+      </c>
+      <c r="G9" s="18">
         <v>140</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H9" s="18">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I9" s="18">
         <v>106</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J9" s="18">
         <f t="shared" si="2"/>
         <v>148.4</v>
-      </c>
-      <c r="L8" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" s="18" customFormat="1">
-      <c r="C9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="18">
-        <v>1</v>
-      </c>
-      <c r="G9" s="18">
-        <v>40</v>
-      </c>
-      <c r="H9" s="18">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="I9" s="18">
-        <v>361</v>
-      </c>
-      <c r="J9" s="18">
-        <f t="shared" si="2"/>
-        <v>144.4</v>
       </c>
       <c r="L9" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:12" s="18" customFormat="1">
+    <row r="10" spans="1:12" s="18" customFormat="1">
       <c r="C10" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F10" s="18">
         <v>1</v>
       </c>
       <c r="G10" s="18">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="H10" s="18">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="I10" s="18">
-        <v>46</v>
+        <v>361</v>
       </c>
       <c r="J10" s="18">
         <f t="shared" si="2"/>
-        <v>138</v>
+        <v>144.4</v>
       </c>
       <c r="L10" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:12" s="18" customFormat="1">
+    <row r="11" spans="1:12" s="18" customFormat="1">
       <c r="C11" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F11" s="18">
         <v>1</v>
       </c>
       <c r="G11" s="18">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H11" s="18">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I11" s="18">
-        <v>29.82</v>
+        <v>46</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" si="2"/>
-        <v>29.82</v>
-      </c>
-      <c r="K11" s="18">
-        <v>0.68</v>
+        <v>138</v>
       </c>
       <c r="L11" s="18">
         <f t="shared" si="0"/>
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="12" spans="3:12" s="18" customFormat="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="18" customFormat="1">
       <c r="C12" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F12" s="18">
         <v>1</v>
       </c>
       <c r="G12" s="18">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H12" s="18">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="I12" s="18">
-        <v>116</v>
+        <v>29.82</v>
       </c>
       <c r="J12" s="18">
         <f t="shared" si="2"/>
-        <v>174</v>
+        <v>29.82</v>
+      </c>
+      <c r="K12" s="18">
+        <v>0.68</v>
       </c>
       <c r="L12" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="3:12" s="18" customFormat="1">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="18" customFormat="1">
       <c r="C13" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F13" s="18">
         <v>1</v>
       </c>
       <c r="G13" s="18">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="H13" s="18">
         <f t="shared" si="1"/>
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="I13" s="18">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="J13" s="18">
         <f t="shared" si="2"/>
-        <v>324.8</v>
+        <v>159</v>
+      </c>
+      <c r="K13" s="18">
+        <v>1.21</v>
       </c>
       <c r="L13" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="3:12" s="18" customFormat="1">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="18" customFormat="1">
       <c r="C14" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F14" s="18">
         <v>1</v>
       </c>
       <c r="G14" s="18">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H14" s="18">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I14" s="18">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="J14" s="18">
         <f t="shared" si="2"/>
-        <v>227</v>
+        <v>174</v>
       </c>
       <c r="L14" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:12" s="18" customFormat="1">
+    <row r="15" spans="1:12" s="18" customFormat="1">
       <c r="C15" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F15" s="18">
         <v>1</v>
       </c>
       <c r="G15" s="18">
-        <v>36</v>
+        <v>280</v>
       </c>
       <c r="H15" s="18">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>280</v>
       </c>
       <c r="I15" s="18">
-        <v>246</v>
+        <v>116</v>
       </c>
       <c r="J15" s="18">
         <f t="shared" si="2"/>
-        <v>88.56</v>
+        <v>324.8</v>
       </c>
       <c r="L15" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:12" s="18" customFormat="1">
+    <row r="16" spans="1:12" s="18" customFormat="1">
       <c r="C16" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F16" s="18">
         <v>1</v>
       </c>
       <c r="G16" s="18">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H16" s="18">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="I16" s="18">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="J16" s="18">
         <f t="shared" si="2"/>
-        <v>154</v>
-      </c>
-      <c r="K16" s="18">
-        <v>7.98</v>
+        <v>227</v>
       </c>
       <c r="L16" s="18">
         <f t="shared" si="0"/>
-        <v>5.5860000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="18" customFormat="1">
@@ -3437,396 +3643,397 @@
         <v>29</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="F17" s="18">
         <v>1</v>
       </c>
       <c r="G17" s="18">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="H17" s="18">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="I17" s="18">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="J17" s="18">
         <f t="shared" si="2"/>
-        <v>223</v>
+        <v>88.56</v>
       </c>
       <c r="L17" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="16" customFormat="1">
-      <c r="C18" s="16" t="s">
+    <row r="18" spans="1:12" s="18" customFormat="1">
+      <c r="C18" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="18">
+        <v>70</v>
+      </c>
+      <c r="H18" s="18">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="I18" s="18">
+        <v>220</v>
+      </c>
+      <c r="J18" s="18">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="K18" s="18">
+        <v>7.98</v>
+      </c>
+      <c r="L18" s="18">
+        <f t="shared" si="0"/>
+        <v>5.5860000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="18" customFormat="1">
+      <c r="C19" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="18">
+        <v>1</v>
+      </c>
+      <c r="G19" s="18">
+        <v>100</v>
+      </c>
+      <c r="H19" s="18">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I19" s="18">
+        <v>223</v>
+      </c>
+      <c r="J19" s="18">
+        <f t="shared" si="2"/>
+        <v>223</v>
+      </c>
+      <c r="L19" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="16" customFormat="1">
+      <c r="C20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="16">
-        <v>1</v>
-      </c>
-      <c r="G18" s="16">
+      <c r="E20" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="16">
+        <v>1</v>
+      </c>
+      <c r="G20" s="16">
         <v>95</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H20" s="16">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I20" s="16">
         <v>106</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J20" s="16">
         <f t="shared" si="2"/>
         <v>100.7</v>
       </c>
-      <c r="L18" s="16">
+      <c r="K20" s="16">
+        <v>1.59</v>
+      </c>
+      <c r="L20" s="16">
+        <f t="shared" si="0"/>
+        <v>1.5105000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="19" customFormat="1">
+      <c r="C21" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="19">
+        <v>1</v>
+      </c>
+      <c r="H21" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="19">
+        <v>349</v>
+      </c>
+      <c r="J21" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="19" customFormat="1">
-      <c r="C19" s="19" t="s">
+    <row r="22" spans="1:12" s="18" customFormat="1">
+      <c r="C22" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="19">
-        <v>1</v>
-      </c>
-      <c r="H19" s="19">
+      <c r="D22" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="18">
+        <v>1</v>
+      </c>
+      <c r="G22" s="18">
+        <v>20</v>
+      </c>
+      <c r="H22" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="19">
-        <v>349</v>
-      </c>
-      <c r="J19" s="19">
+        <v>20</v>
+      </c>
+      <c r="I22" s="18">
+        <v>329</v>
+      </c>
+      <c r="J22" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="19">
+        <v>65.8</v>
+      </c>
+      <c r="L22" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="18" customFormat="1">
-      <c r="C20" s="18" t="s">
+    <row r="23" spans="1:12" s="18" customFormat="1">
+      <c r="A23"/>
+      <c r="C23" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="18">
+        <v>1</v>
+      </c>
+      <c r="G23" s="18">
+        <v>300</v>
+      </c>
+      <c r="H23" s="18">
+        <f t="shared" ref="H23" si="6">F23*G23</f>
+        <v>300</v>
+      </c>
+      <c r="I23" s="18">
+        <v>66.8</v>
+      </c>
+      <c r="J23" s="18">
+        <f t="shared" ref="J23" si="7">H23*I23/100</f>
+        <v>200.4</v>
+      </c>
+      <c r="K23" s="18">
+        <v>4.93</v>
+      </c>
+      <c r="L23" s="18">
+        <f t="shared" ref="L23" si="8">G23*K23/100</f>
+        <v>14.79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="18" customFormat="1">
+      <c r="A24"/>
+      <c r="C24" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="18">
+        <v>1</v>
+      </c>
+      <c r="G24" s="18">
+        <v>300</v>
+      </c>
+      <c r="H24" s="18">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="I24" s="18">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="J24" s="18">
+        <f t="shared" si="2"/>
+        <v>120.9</v>
+      </c>
+      <c r="K24" s="18">
+        <v>1.18</v>
+      </c>
+      <c r="L24" s="18">
+        <f t="shared" si="0"/>
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="18" customFormat="1">
+      <c r="C25" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="18">
+        <v>1</v>
+      </c>
+      <c r="G25" s="18">
+        <v>12</v>
+      </c>
+      <c r="H25" s="18">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I25" s="18">
+        <v>338</v>
+      </c>
+      <c r="J25" s="18">
+        <f t="shared" si="2"/>
+        <v>40.56</v>
+      </c>
+      <c r="K25" s="18">
+        <v>10.1</v>
+      </c>
+      <c r="L25" s="18">
+        <f t="shared" si="0"/>
+        <v>1.212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="20" customFormat="1">
+      <c r="C26" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="18">
-        <v>1</v>
-      </c>
-      <c r="G20" s="18">
-        <v>20</v>
-      </c>
-      <c r="H20" s="18">
+      <c r="D26" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="20">
+        <v>1</v>
+      </c>
+      <c r="G26" s="20">
+        <v>350</v>
+      </c>
+      <c r="H26" s="20">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="I20" s="18">
-        <v>329</v>
-      </c>
-      <c r="J20" s="18">
+        <v>350</v>
+      </c>
+      <c r="I26" s="20">
+        <v>40</v>
+      </c>
+      <c r="J26" s="20">
         <f t="shared" si="2"/>
-        <v>65.8</v>
-      </c>
-      <c r="L20" s="18">
+        <v>140</v>
+      </c>
+      <c r="L26" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="18" customFormat="1">
-      <c r="A21"/>
-      <c r="C21" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="18">
-        <v>1</v>
-      </c>
-      <c r="G21" s="18">
-        <v>300</v>
-      </c>
-      <c r="H21" s="18">
-        <f t="shared" ref="H21" si="3">F21*G21</f>
-        <v>300</v>
-      </c>
-      <c r="I21" s="18">
-        <v>66.8</v>
-      </c>
-      <c r="J21" s="18">
-        <f t="shared" ref="J21" si="4">H21*I21/100</f>
-        <v>200.4</v>
-      </c>
-      <c r="K21" s="18">
-        <v>4.93</v>
-      </c>
-      <c r="L21" s="18">
-        <f t="shared" ref="L21" si="5">G21*K21/100</f>
-        <v>14.79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="18" customFormat="1">
-      <c r="A22"/>
-      <c r="C22" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="18">
-        <v>1</v>
-      </c>
-      <c r="G22" s="18">
-        <v>300</v>
-      </c>
-      <c r="H22" s="18">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="I22" s="18">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="J22" s="18">
-        <f t="shared" si="2"/>
-        <v>120.9</v>
-      </c>
-      <c r="K22" s="18">
-        <v>1.18</v>
-      </c>
-      <c r="L22" s="18">
-        <f t="shared" si="0"/>
-        <v>3.54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="18" customFormat="1">
-      <c r="C23" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="18">
-        <v>1</v>
-      </c>
-      <c r="G23" s="18">
-        <v>12</v>
-      </c>
-      <c r="H23" s="18">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="I23" s="18">
-        <v>338</v>
-      </c>
-      <c r="J23" s="18">
-        <f t="shared" si="2"/>
-        <v>40.56</v>
-      </c>
-      <c r="K23" s="18">
-        <v>10.1</v>
-      </c>
-      <c r="L23" s="18">
-        <f t="shared" si="0"/>
-        <v>1.212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="20" customFormat="1">
-      <c r="C24" s="20" t="s">
+    <row r="27" spans="1:12" s="18" customFormat="1">
+      <c r="C27" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="20">
-        <v>1</v>
-      </c>
-      <c r="G24" s="20">
+      <c r="D27" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="18">
+        <v>1</v>
+      </c>
+      <c r="G27" s="18">
         <v>350</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H27" s="18">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="I24" s="20">
-        <v>40</v>
-      </c>
-      <c r="J24" s="20">
+      <c r="I27" s="18">
+        <v>110</v>
+      </c>
+      <c r="J27" s="18">
         <f t="shared" si="2"/>
-        <v>140</v>
-      </c>
-      <c r="L24" s="20">
+        <v>385</v>
+      </c>
+      <c r="L27" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="18" customFormat="1">
-      <c r="C25" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="18">
-        <v>1</v>
-      </c>
-      <c r="G25" s="18">
-        <v>350</v>
-      </c>
-      <c r="H25" s="18">
-        <f t="shared" si="1"/>
-        <v>350</v>
-      </c>
-      <c r="I25" s="18">
-        <v>110</v>
-      </c>
-      <c r="J25" s="18">
-        <f t="shared" si="2"/>
-        <v>385</v>
-      </c>
-      <c r="L25" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="18" customFormat="1">
-      <c r="C26" s="18" t="s">
+    <row r="28" spans="1:12" s="18" customFormat="1">
+      <c r="C28" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D28" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="18">
-        <v>1</v>
-      </c>
-      <c r="G26" s="18">
+      <c r="E28" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="18">
+        <v>1</v>
+      </c>
+      <c r="G28" s="18">
         <v>60</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H28" s="18">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I28" s="18">
         <v>151</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J28" s="18">
         <f t="shared" si="2"/>
         <v>90.6</v>
       </c>
-      <c r="K26" s="18">
+      <c r="K28" s="18">
         <v>12.1</v>
       </c>
-      <c r="L26" s="18">
-        <f>G26*K26/100</f>
+      <c r="L28" s="18">
+        <f>G28*K28/100</f>
         <v>7.26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="18" customFormat="1">
-      <c r="C27" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="18">
-        <v>1</v>
-      </c>
-      <c r="G27" s="18">
-        <v>50</v>
-      </c>
-      <c r="H27" s="18">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="I27" s="18">
-        <v>143</v>
-      </c>
-      <c r="J27" s="18">
-        <f t="shared" si="2"/>
-        <v>71.5</v>
-      </c>
-      <c r="K27" s="18">
-        <v>20.3</v>
-      </c>
-      <c r="L27" s="18">
-        <f t="shared" ref="L27:L50" si="6">G27*K27/100</f>
-        <v>10.15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="16" customFormat="1">
-      <c r="C28" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28" s="16">
-        <v>1</v>
-      </c>
-      <c r="G28" s="16">
-        <v>100</v>
-      </c>
-      <c r="H28" s="16">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="I28" s="16">
-        <v>126</v>
-      </c>
-      <c r="J28" s="16">
-        <f t="shared" si="2"/>
-        <v>126</v>
-      </c>
-      <c r="K28" s="16">
-        <v>22</v>
-      </c>
-      <c r="L28" s="16">
-        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="18" customFormat="1">
@@ -3834,69 +4041,68 @@
         <v>43</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F29" s="18">
         <v>1</v>
       </c>
       <c r="G29" s="18">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H29" s="18">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I29" s="18">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="J29" s="18">
-        <f>H29*I29/100</f>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>71.5</v>
       </c>
       <c r="K29" s="18">
-        <v>11.6</v>
+        <v>20.3</v>
       </c>
       <c r="L29" s="18">
-        <f t="shared" si="6"/>
-        <v>3.48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="18" customFormat="1">
-      <c r="C30" s="18" t="s">
+        <f t="shared" ref="L29:L54" si="9">G29*K29/100</f>
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="16" customFormat="1">
+      <c r="C30" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="18">
-        <v>1</v>
-      </c>
-      <c r="G30" s="18">
-        <v>60</v>
-      </c>
-      <c r="H30" s="18">
+      <c r="D30" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="16">
+        <v>1</v>
+      </c>
+      <c r="G30" s="16">
+        <v>100</v>
+      </c>
+      <c r="H30" s="16">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="I30" s="18">
-        <v>199</v>
-      </c>
-      <c r="J30" s="18">
+        <v>100</v>
+      </c>
+      <c r="I30" s="16">
+        <v>126</v>
+      </c>
+      <c r="J30" s="16">
         <f t="shared" si="2"/>
-        <v>119.4</v>
-      </c>
-      <c r="K30" s="18">
-        <v>13.5</v>
-      </c>
-      <c r="L30" s="18">
-        <f t="shared" si="6"/>
-        <v>8.1</v>
+        <v>126</v>
+      </c>
+      <c r="K30" s="16">
+        <v>22</v>
+      </c>
+      <c r="L30" s="16">
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="18" customFormat="1">
@@ -3904,34 +4110,34 @@
         <v>43</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F31" s="18">
         <v>1</v>
       </c>
       <c r="G31" s="18">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H31" s="18">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I31" s="18">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="J31" s="18">
-        <f t="shared" si="2"/>
-        <v>94</v>
+        <f>H31*I31/100</f>
+        <v>18</v>
       </c>
       <c r="K31" s="18">
-        <v>2.9</v>
+        <v>11.6</v>
       </c>
       <c r="L31" s="18">
-        <f t="shared" si="6"/>
-        <v>2.9</v>
+        <f t="shared" si="9"/>
+        <v>3.48</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="18" customFormat="1">
@@ -3939,69 +4145,69 @@
         <v>43</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F32" s="18">
         <v>1</v>
       </c>
       <c r="G32" s="18">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="H32" s="18">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="I32" s="18">
-        <v>54</v>
+        <v>199</v>
       </c>
       <c r="J32" s="18">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>119.4</v>
       </c>
       <c r="K32" s="18">
-        <v>3</v>
+        <v>13.5</v>
       </c>
       <c r="L32" s="18">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f t="shared" si="9"/>
+        <v>8.1</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="18" customFormat="1">
       <c r="C33" s="18" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F33" s="18">
         <v>1</v>
       </c>
       <c r="G33" s="18">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H33" s="18">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I33" s="18">
-        <v>97.58</v>
+        <v>94</v>
       </c>
       <c r="J33" s="18">
         <f t="shared" si="2"/>
-        <v>195.16</v>
+        <v>94</v>
       </c>
       <c r="K33" s="18">
-        <v>13.09</v>
+        <v>2.9</v>
       </c>
       <c r="L33" s="18">
-        <f t="shared" si="6"/>
-        <v>26.18</v>
+        <f t="shared" si="9"/>
+        <v>2.9</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="18" customFormat="1">
@@ -4009,104 +4215,105 @@
         <v>43</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F34" s="18">
         <v>1</v>
       </c>
       <c r="G34" s="18">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="H34" s="18">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="I34" s="18">
-        <v>246</v>
+        <v>54</v>
       </c>
       <c r="J34" s="18">
         <f t="shared" si="2"/>
-        <v>36.9</v>
+        <v>108</v>
       </c>
       <c r="K34" s="18">
-        <v>31.4</v>
+        <v>3</v>
       </c>
       <c r="L34" s="18">
-        <f t="shared" si="6"/>
-        <v>4.71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="16" customFormat="1">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="18" customFormat="1">
+      <c r="A35"/>
       <c r="C35" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F35" s="16">
-        <v>1</v>
-      </c>
-      <c r="G35" s="16">
-        <v>50</v>
-      </c>
-      <c r="H35" s="16">
+      <c r="D35" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="18">
+        <v>1</v>
+      </c>
+      <c r="G35" s="18">
+        <v>35</v>
+      </c>
+      <c r="H35" s="18">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="I35" s="16">
-        <v>106</v>
-      </c>
-      <c r="J35" s="16">
+        <v>35</v>
+      </c>
+      <c r="I35" s="18">
+        <v>184.87</v>
+      </c>
+      <c r="J35" s="18">
+        <f t="shared" ref="J35" si="10">H35*I35/100</f>
+        <v>64.704499999999996</v>
+      </c>
+      <c r="K35" s="18">
+        <v>10.58</v>
+      </c>
+      <c r="L35" s="18">
+        <f t="shared" ref="L35" si="11">G35*K35/100</f>
+        <v>3.7030000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="18" customFormat="1">
+      <c r="C36" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="18">
+        <v>1</v>
+      </c>
+      <c r="G36" s="18">
+        <v>200</v>
+      </c>
+      <c r="H36" s="18">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="I36" s="18">
+        <v>97.58</v>
+      </c>
+      <c r="J36" s="18">
         <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="K35" s="16">
-        <v>20.2</v>
-      </c>
-      <c r="L35" s="16">
-        <f t="shared" si="6"/>
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="16" customFormat="1">
-      <c r="C36" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F36" s="16">
-        <v>1</v>
-      </c>
-      <c r="G36" s="16">
-        <v>450</v>
-      </c>
-      <c r="H36" s="16">
-        <f t="shared" si="1"/>
-        <v>450</v>
-      </c>
-      <c r="I36" s="16">
-        <v>84</v>
-      </c>
-      <c r="J36" s="16">
-        <f t="shared" si="2"/>
-        <v>378</v>
-      </c>
-      <c r="K36" s="16">
-        <v>6.6</v>
-      </c>
-      <c r="L36" s="16">
-        <f t="shared" si="6"/>
-        <v>29.7</v>
+        <v>195.16</v>
+      </c>
+      <c r="K36" s="18">
+        <v>13.09</v>
+      </c>
+      <c r="L36" s="18">
+        <f t="shared" si="9"/>
+        <v>26.18</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="18" customFormat="1">
@@ -4114,328 +4321,373 @@
         <v>43</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F37" s="18">
         <v>1</v>
       </c>
       <c r="G37" s="18">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H37" s="18">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I37" s="18">
-        <v>48</v>
+        <v>246</v>
       </c>
       <c r="J37" s="18">
         <f t="shared" si="2"/>
-        <v>4.8</v>
+        <v>36.9</v>
       </c>
       <c r="K37" s="18">
-        <v>10.4</v>
+        <v>31.4</v>
       </c>
       <c r="L37" s="18">
-        <f t="shared" si="6"/>
-        <v>1.04</v>
+        <f t="shared" si="9"/>
+        <v>4.71</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="16" customFormat="1">
-      <c r="C38" s="16" t="s">
-        <v>51</v>
+      <c r="C38" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F38" s="16">
         <v>1</v>
       </c>
       <c r="G38" s="16">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="H38" s="16">
         <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I38" s="16">
         <v>106</v>
-      </c>
-      <c r="I38" s="16">
-        <v>53</v>
       </c>
       <c r="J38" s="16">
         <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="K38" s="16">
+        <v>20.2</v>
+      </c>
+      <c r="L38" s="16">
+        <f t="shared" si="9"/>
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="16" customFormat="1">
+      <c r="C39" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="16">
+        <v>1</v>
+      </c>
+      <c r="G39" s="16">
+        <v>450</v>
+      </c>
+      <c r="H39" s="16">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="I39" s="16">
+        <v>84</v>
+      </c>
+      <c r="J39" s="16">
+        <f t="shared" si="2"/>
+        <v>378</v>
+      </c>
+      <c r="K39" s="16">
+        <v>6.6</v>
+      </c>
+      <c r="L39" s="16">
+        <f t="shared" si="9"/>
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="18" customFormat="1">
+      <c r="C40" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="18">
+        <v>1</v>
+      </c>
+      <c r="G40" s="18">
+        <v>10</v>
+      </c>
+      <c r="H40" s="18">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I40" s="18">
+        <v>48</v>
+      </c>
+      <c r="J40" s="18">
+        <f t="shared" si="2"/>
+        <v>4.8</v>
+      </c>
+      <c r="K40" s="18">
+        <v>10.4</v>
+      </c>
+      <c r="L40" s="18">
+        <f t="shared" si="9"/>
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="16" customFormat="1">
+      <c r="C41" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="16">
+        <v>1</v>
+      </c>
+      <c r="G41" s="16">
+        <v>106</v>
+      </c>
+      <c r="H41" s="16">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="I41" s="16">
+        <v>53</v>
+      </c>
+      <c r="J41" s="16">
+        <f t="shared" si="2"/>
         <v>56.18</v>
       </c>
-      <c r="L38" s="16">
-        <f t="shared" si="6"/>
+      <c r="L41" s="16">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="22" customFormat="1">
-      <c r="A39" s="41"/>
-      <c r="C39" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="22" t="s">
+    <row r="42" spans="1:12" s="22" customFormat="1">
+      <c r="A42" s="41"/>
+      <c r="C42" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="22">
+        <v>1</v>
+      </c>
+      <c r="G42" s="22">
         <v>89</v>
       </c>
-      <c r="E39" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="F39" s="22">
-        <v>1</v>
-      </c>
-      <c r="G39" s="22">
-        <v>89</v>
-      </c>
-      <c r="H39" s="22">
+      <c r="H42" s="22">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="I39" s="22">
+      <c r="I42" s="22">
         <v>93</v>
       </c>
-      <c r="J39" s="22">
+      <c r="J42" s="22">
         <f t="shared" si="2"/>
         <v>82.77</v>
       </c>
-      <c r="K39" s="22">
+      <c r="K42" s="22">
         <v>1.4</v>
       </c>
-      <c r="L39" s="22">
-        <f t="shared" si="6"/>
+      <c r="L42" s="22">
+        <f t="shared" si="9"/>
         <v>1.246</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="43" customFormat="1">
-      <c r="A40" s="42"/>
-      <c r="C40" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="43" t="s">
+    <row r="43" spans="1:12" s="43" customFormat="1">
+      <c r="A43" s="42"/>
+      <c r="C43" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="E40" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="F40" s="43">
-        <v>1</v>
-      </c>
-      <c r="G40" s="43">
+      <c r="D43" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" s="43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="43">
         <v>172</v>
       </c>
-      <c r="H40" s="43">
+      <c r="H43" s="43">
         <f t="shared" si="1"/>
         <v>172</v>
       </c>
-      <c r="I40" s="43">
+      <c r="I43" s="43">
         <v>44</v>
       </c>
-      <c r="J40" s="43">
+      <c r="J43" s="43">
         <f t="shared" si="2"/>
         <v>75.680000000000007</v>
       </c>
-      <c r="K40" s="43">
+      <c r="K43" s="43">
         <v>1.06</v>
       </c>
-      <c r="L40" s="43">
-        <f t="shared" si="6"/>
+      <c r="L43" s="43">
+        <f t="shared" si="9"/>
         <v>1.8232000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="18" customFormat="1">
-      <c r="A41" s="44"/>
-      <c r="C41" s="18" t="s">
+    <row r="44" spans="1:12" s="43" customFormat="1">
+      <c r="A44" s="42"/>
+      <c r="C44" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" s="43">
+        <v>1</v>
+      </c>
+      <c r="G44" s="43">
+        <v>120</v>
+      </c>
+      <c r="H44" s="43">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="I44" s="43">
+        <v>16</v>
+      </c>
+      <c r="J44" s="43">
+        <f t="shared" ref="J44" si="12">H44*I44/100</f>
+        <v>19.2</v>
+      </c>
+      <c r="K44" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="L44" s="43">
+        <f t="shared" ref="L44" si="13">G44*K44/100</f>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="18" customFormat="1">
+      <c r="A45" s="44"/>
+      <c r="C45" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="E45" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E41" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="F41" s="18">
-        <v>1</v>
-      </c>
-      <c r="G41" s="18">
+      <c r="F45" s="18">
+        <v>1</v>
+      </c>
+      <c r="G45" s="18">
         <v>100</v>
       </c>
-      <c r="H41" s="18">
+      <c r="H45" s="18">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I41" s="18">
+      <c r="I45" s="18">
         <v>47</v>
       </c>
-      <c r="J41" s="18">
+      <c r="J45" s="18">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="L41" s="18">
-        <f t="shared" ref="L41" si="7">G41*K41/100</f>
+      <c r="L45" s="18">
+        <f t="shared" ref="L45" si="14">G45*K45/100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="18" customFormat="1">
-      <c r="D42" s="18" t="s">
+    <row r="46" spans="1:12" s="18" customFormat="1">
+      <c r="C46" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F42" s="18">
-        <v>1</v>
-      </c>
-      <c r="H42" s="18">
+      <c r="F46" s="18">
+        <v>1</v>
+      </c>
+      <c r="H46" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I42" s="18">
+      <c r="I46" s="18">
         <v>31</v>
       </c>
-      <c r="J42" s="18">
+      <c r="J46" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L42" s="18">
-        <f t="shared" si="6"/>
+      <c r="L46" s="18">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="18" customFormat="1">
-      <c r="D43" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F43" s="18">
-        <v>1</v>
-      </c>
-      <c r="G43" s="18">
+    <row r="47" spans="1:12" s="18" customFormat="1">
+      <c r="C47" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" s="18">
+        <v>1</v>
+      </c>
+      <c r="G47" s="18">
         <v>200</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H47" s="18">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="I43" s="18">
+      <c r="I47" s="18">
         <v>30</v>
       </c>
-      <c r="J43" s="18">
+      <c r="J47" s="18">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="K43" s="18">
+      <c r="K47" s="18">
         <v>2.4</v>
       </c>
-      <c r="L43" s="18">
-        <f t="shared" si="6"/>
+      <c r="L47" s="18">
+        <f t="shared" si="9"/>
         <v>4.8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" s="18" customFormat="1">
-      <c r="F44" s="18">
-        <v>1</v>
-      </c>
-      <c r="H44" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" s="18" customFormat="1">
-      <c r="C45" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F45" s="18">
-        <v>1</v>
-      </c>
-      <c r="G45" s="18">
-        <v>30</v>
-      </c>
-      <c r="H45" s="18">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="I45" s="18">
-        <v>615</v>
-      </c>
-      <c r="J45" s="18">
-        <f t="shared" si="2"/>
-        <v>184.5</v>
-      </c>
-      <c r="L45" s="18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" s="18" customFormat="1">
-      <c r="A46"/>
-      <c r="C46" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="F46" s="18">
-        <v>1</v>
-      </c>
-      <c r="G46" s="18">
-        <v>10</v>
-      </c>
-      <c r="H46" s="18">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I46" s="18">
-        <v>724</v>
-      </c>
-      <c r="J46" s="18">
-        <f t="shared" si="2"/>
-        <v>72.400000000000006</v>
-      </c>
-      <c r="K46" s="18">
-        <v>2.8</v>
-      </c>
-      <c r="L46" s="18">
-        <f t="shared" si="6"/>
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" s="18" customFormat="1">
-      <c r="F47" s="18">
-        <v>1</v>
-      </c>
-      <c r="H47" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L47" s="18">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="18" customFormat="1">
@@ -4451,41 +4703,161 @@
         <v>0</v>
       </c>
       <c r="L48" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="6:12" s="18" customFormat="1">
+    <row r="49" spans="1:12" s="18" customFormat="1">
+      <c r="C49" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>74</v>
+      </c>
       <c r="F49" s="18">
         <v>1</v>
+      </c>
+      <c r="G49" s="18">
+        <v>30</v>
       </c>
       <c r="H49" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="I49" s="18">
+        <v>615</v>
       </c>
       <c r="J49" s="18">
         <f t="shared" si="2"/>
+        <v>184.5</v>
+      </c>
+      <c r="L49" s="18">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L49" s="18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="6:12" s="18" customFormat="1">
+    </row>
+    <row r="50" spans="1:12" s="18" customFormat="1">
+      <c r="A50"/>
+      <c r="C50" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>103</v>
+      </c>
       <c r="F50" s="18">
         <v>1</v>
+      </c>
+      <c r="G50" s="18">
+        <v>10</v>
       </c>
       <c r="H50" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I50" s="18">
+        <v>724</v>
       </c>
       <c r="J50" s="18">
         <f t="shared" si="2"/>
+        <v>72.400000000000006</v>
+      </c>
+      <c r="K50" s="18">
+        <v>2.8</v>
+      </c>
+      <c r="L50" s="18">
+        <f t="shared" si="9"/>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="18" customFormat="1">
+      <c r="F51" s="18">
+        <v>1</v>
+      </c>
+      <c r="H51" s="18">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L50" s="18">
-        <f t="shared" si="6"/>
+      <c r="J51" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="18" customFormat="1">
+      <c r="C52" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F52" s="18">
+        <v>1</v>
+      </c>
+      <c r="G52" s="18">
+        <v>100</v>
+      </c>
+      <c r="H52" s="18">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I52" s="18">
+        <v>584</v>
+      </c>
+      <c r="J52" s="18">
+        <f t="shared" si="2"/>
+        <v>584</v>
+      </c>
+      <c r="K52" s="18">
+        <v>22</v>
+      </c>
+      <c r="L52" s="18">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="18" customFormat="1">
+      <c r="F53" s="18">
+        <v>1</v>
+      </c>
+      <c r="H53" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="18" customFormat="1">
+      <c r="F54" s="18">
+        <v>1</v>
+      </c>
+      <c r="H54" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="18">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4498,11 +4870,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:M46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A3:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4550,7 +4922,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="38">
         <v>43612</v>
@@ -4562,7 +4934,7 @@
         <v>48</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="15">
         <f>350*2</f>
@@ -4578,7 +4950,7 @@
     </row>
     <row r="5" spans="1:13" ht="17.25" thickBot="1">
       <c r="A5" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="34">
         <f>SUM(H4:H13)</f>
@@ -4588,10 +4960,10 @@
         <v>29</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" s="23">
         <v>200</v>
@@ -4623,10 +4995,10 @@
         <v>29</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" s="15">
         <v>80</v>
@@ -4651,10 +5023,10 @@
         <v>29</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="15">
         <f>300*0.1</f>
@@ -4670,7 +5042,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>43</v>
@@ -4679,7 +5051,7 @@
         <v>44</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" s="15">
         <v>60</v>
@@ -4707,7 +5079,7 @@
         <v>49</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" s="15">
         <v>100</v>
@@ -4735,7 +5107,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F10" s="15">
         <v>200</v>
@@ -4763,7 +5135,7 @@
         <v>45</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" s="23">
         <v>150</v>
@@ -4797,13 +5169,13 @@
         <v>15</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" s="31" t="s">
         <v>24</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I15" s="31" t="s">
         <v>25</v>
@@ -4821,7 +5193,7 @@
     </row>
     <row r="16" spans="1:13" ht="17.25" thickBot="1">
       <c r="A16" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="39">
         <v>43613</v>
@@ -4830,10 +5202,10 @@
         <v>29</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F16" s="25">
         <v>2</v>
@@ -4863,7 +5235,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="33">
         <f>SUM(J16:J27)</f>
@@ -4873,10 +5245,10 @@
         <v>8</v>
       </c>
       <c r="D17" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="27" t="s">
         <v>67</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>68</v>
       </c>
       <c r="F17" s="27">
         <v>3</v>
@@ -4919,7 +5291,7 @@
         <v>44</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F18" s="27">
         <v>1</v>
@@ -4962,7 +5334,7 @@
         <v>49</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F19" s="18">
         <v>1</v>
@@ -5002,10 +5374,10 @@
         <v>29</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F20" s="18">
         <v>1</v>
@@ -5037,13 +5409,13 @@
       <c r="A21" s="36"/>
       <c r="B21" s="33"/>
       <c r="C21" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F21" s="43">
         <v>1</v>
@@ -5073,17 +5445,17 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="18" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F22" s="18">
         <v>1</v>
@@ -5120,13 +5492,13 @@
         <v>76.778400000000005</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F23" s="43">
         <v>1</v>
@@ -5158,13 +5530,13 @@
       <c r="A24" s="35"/>
       <c r="B24" s="33"/>
       <c r="C24" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F24" s="22">
         <v>1</v>
@@ -5199,10 +5571,10 @@
         <v>8</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F25" s="18">
         <v>3</v>
@@ -5237,10 +5609,10 @@
         <v>29</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F26" s="18">
         <v>1.5</v>
@@ -5278,7 +5650,7 @@
         <v>45</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F27" s="16">
         <v>1.5</v>
@@ -5319,13 +5691,13 @@
         <v>15</v>
       </c>
       <c r="F32" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G32" s="31" t="s">
         <v>24</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I32" s="31" t="s">
         <v>25</v>
@@ -5343,7 +5715,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" s="39">
         <v>43614</v>
@@ -5355,7 +5727,7 @@
         <v>42</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F33" s="20">
         <v>2</v>
@@ -5383,7 +5755,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34" s="33">
         <f>SUM(J33:J44)</f>
@@ -5393,10 +5765,10 @@
         <v>29</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F34" s="18">
         <v>1</v>
@@ -5439,7 +5811,7 @@
         <v>44</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F35" s="27">
         <v>1</v>
@@ -5476,13 +5848,13 @@
         <v>503.56</v>
       </c>
       <c r="C36" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="E36" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="F36" s="18">
         <v>2</v>
@@ -5522,10 +5894,10 @@
         <v>9</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F37" s="18">
         <v>1</v>
@@ -5557,13 +5929,13 @@
       <c r="A38" s="36"/>
       <c r="B38" s="33"/>
       <c r="C38" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="E38" s="18" t="s">
         <v>100</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>101</v>
       </c>
       <c r="F38" s="18">
         <v>1</v>
@@ -5591,17 +5963,17 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B39" s="33"/>
       <c r="C39" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F39" s="18">
         <v>1</v>
@@ -5641,10 +6013,10 @@
         <v>10</v>
       </c>
       <c r="D40" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="18" t="s">
         <v>103</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>104</v>
       </c>
       <c r="F40" s="18">
         <v>1</v>
@@ -5679,10 +6051,10 @@
         <v>9</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F41" s="18">
         <v>6</v>
@@ -5720,7 +6092,7 @@
         <v>45</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F42" s="16">
         <v>1.5</v>
@@ -5789,6 +6161,458 @@
       <c r="K46" s="18"/>
       <c r="L46" s="18"/>
     </row>
+    <row r="47" spans="1:13" ht="17.25" thickBot="1"/>
+    <row r="48" spans="1:13">
+      <c r="A48" s="30"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="I48" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="J48" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="K48" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L48" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="M48" s="32"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="39">
+        <v>43615</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F49" s="18">
+        <v>2</v>
+      </c>
+      <c r="G49" s="18">
+        <v>300</v>
+      </c>
+      <c r="H49" s="18">
+        <f t="shared" ref="H49:H50" si="19">F49*G49</f>
+        <v>600</v>
+      </c>
+      <c r="I49" s="18">
+        <v>53</v>
+      </c>
+      <c r="J49" s="18">
+        <f t="shared" ref="J49:J50" si="20">H49*I49/100</f>
+        <v>318</v>
+      </c>
+      <c r="K49" s="18">
+        <v>1.21</v>
+      </c>
+      <c r="L49" s="18">
+        <f t="shared" ref="L49:L50" si="21">G49*K49/100</f>
+        <v>3.63</v>
+      </c>
+      <c r="M49" s="26"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="33">
+        <f>SUM(J49:J60)</f>
+        <v>1650.0235</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" s="18">
+        <v>1</v>
+      </c>
+      <c r="G50" s="18">
+        <v>200</v>
+      </c>
+      <c r="H50" s="18">
+        <f t="shared" si="19"/>
+        <v>200</v>
+      </c>
+      <c r="I50" s="18">
+        <v>244</v>
+      </c>
+      <c r="J50" s="18">
+        <f t="shared" si="20"/>
+        <v>488</v>
+      </c>
+      <c r="K50" s="18">
+        <v>9.92</v>
+      </c>
+      <c r="L50" s="18">
+        <f t="shared" si="21"/>
+        <v>19.84</v>
+      </c>
+      <c r="M50" s="26"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="33">
+        <f>SUMIF(C49:C60,A51,J49:J60)</f>
+        <v>1170.9099999999999</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F51" s="27">
+        <v>1</v>
+      </c>
+      <c r="G51" s="27">
+        <v>60</v>
+      </c>
+      <c r="H51" s="27">
+        <f t="shared" ref="H51:H57" si="22">F51*G51</f>
+        <v>60</v>
+      </c>
+      <c r="I51" s="27">
+        <v>151</v>
+      </c>
+      <c r="J51" s="27">
+        <f t="shared" ref="J51:J57" si="23">H51*I51/100</f>
+        <v>90.6</v>
+      </c>
+      <c r="K51" s="27">
+        <v>12.1</v>
+      </c>
+      <c r="L51" s="27">
+        <f>G51*K51/100</f>
+        <v>7.26</v>
+      </c>
+      <c r="M51" s="26"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="33">
+        <f>SUMIF(C49:C60,A52,J49:J60)</f>
+        <v>284.71350000000001</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F52" s="16">
+        <v>1.3</v>
+      </c>
+      <c r="G52" s="16">
+        <v>95</v>
+      </c>
+      <c r="H52" s="16">
+        <f t="shared" si="22"/>
+        <v>123.5</v>
+      </c>
+      <c r="I52" s="16">
+        <v>106</v>
+      </c>
+      <c r="J52" s="16">
+        <f t="shared" si="23"/>
+        <v>130.91</v>
+      </c>
+      <c r="K52" s="16">
+        <v>1.59</v>
+      </c>
+      <c r="L52" s="16">
+        <f t="shared" ref="L52:L57" si="24">G52*K52/100</f>
+        <v>1.5105000000000002</v>
+      </c>
+      <c r="M52" s="26"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="33">
+        <f>SUMIF(C49:C60,A53,J49:J60)</f>
+        <v>175.2</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F53" s="43">
+        <v>1</v>
+      </c>
+      <c r="G53" s="43">
+        <v>120</v>
+      </c>
+      <c r="H53" s="43">
+        <f t="shared" si="22"/>
+        <v>120</v>
+      </c>
+      <c r="I53" s="43">
+        <v>16</v>
+      </c>
+      <c r="J53" s="43">
+        <f t="shared" si="23"/>
+        <v>19.2</v>
+      </c>
+      <c r="K53" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="L53" s="43">
+        <f t="shared" si="24"/>
+        <v>0.96</v>
+      </c>
+      <c r="M53" s="26"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="36"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54" s="18">
+        <v>1</v>
+      </c>
+      <c r="G54" s="18">
+        <v>200</v>
+      </c>
+      <c r="H54" s="18">
+        <f t="shared" si="22"/>
+        <v>200</v>
+      </c>
+      <c r="I54" s="18">
+        <v>30</v>
+      </c>
+      <c r="J54" s="18">
+        <f t="shared" si="23"/>
+        <v>60</v>
+      </c>
+      <c r="K54" s="18">
+        <v>2.4</v>
+      </c>
+      <c r="L54" s="18">
+        <f t="shared" si="24"/>
+        <v>4.8</v>
+      </c>
+      <c r="M54" s="26"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" s="33"/>
+      <c r="C55" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F55" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="G55" s="18">
+        <v>100</v>
+      </c>
+      <c r="H55" s="18">
+        <f t="shared" si="22"/>
+        <v>30</v>
+      </c>
+      <c r="I55" s="18">
+        <v>584</v>
+      </c>
+      <c r="J55" s="18">
+        <f t="shared" si="23"/>
+        <v>175.2</v>
+      </c>
+      <c r="K55" s="18">
+        <v>22</v>
+      </c>
+      <c r="L55" s="18">
+        <f t="shared" si="24"/>
+        <v>22</v>
+      </c>
+      <c r="M55" s="26"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="33">
+        <f>SUM(L49:L60)</f>
+        <v>63.703499999999998</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F56" s="18">
+        <v>3</v>
+      </c>
+      <c r="G56" s="18">
+        <v>35</v>
+      </c>
+      <c r="H56" s="18">
+        <f t="shared" si="22"/>
+        <v>105</v>
+      </c>
+      <c r="I56" s="18">
+        <v>184.87</v>
+      </c>
+      <c r="J56" s="18">
+        <f t="shared" si="23"/>
+        <v>194.11350000000002</v>
+      </c>
+      <c r="K56" s="18">
+        <v>10.58</v>
+      </c>
+      <c r="L56" s="18">
+        <f t="shared" si="24"/>
+        <v>3.7030000000000003</v>
+      </c>
+      <c r="M56" s="26"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="35"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F57" s="18">
+        <v>1</v>
+      </c>
+      <c r="G57" s="18">
+        <v>150</v>
+      </c>
+      <c r="H57" s="18">
+        <f t="shared" si="22"/>
+        <v>150</v>
+      </c>
+      <c r="I57" s="18">
+        <v>116</v>
+      </c>
+      <c r="J57" s="18">
+        <f t="shared" si="23"/>
+        <v>174</v>
+      </c>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="26"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="35"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="26"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="35"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="26"/>
+    </row>
+    <row r="60" spans="1:13" ht="17.25" thickBot="1">
+      <c r="A60" s="37"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="28"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/减脂增肌.xlsx
+++ b/减脂增肌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\健身\fitness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1A807D-E19D-486A-9294-913A29877997}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E110177-21AB-45FC-96AF-4FE590FB683C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="116">
   <si>
     <t>单位</t>
   </si>
@@ -431,6 +431,18 @@
   </si>
   <si>
     <t>清炖排骨</t>
+  </si>
+  <si>
+    <t>肉夹馍</t>
+  </si>
+  <si>
+    <t>莴笋炒蛋</t>
+  </si>
+  <si>
+    <t>蔬菜</t>
+  </si>
+  <si>
+    <t>炒青菜</t>
   </si>
 </sst>
 </file>
@@ -845,7 +857,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1058,6 +1070,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1188,7 +1220,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1316,6 +1348,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -1381,13 +1425,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1427,13 +1471,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1473,13 +1517,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1519,13 +1563,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1565,13 +1609,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>21166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>209549</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1611,13 +1655,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>148167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1657,13 +1701,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>26458</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1703,13 +1747,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1749,13 +1793,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>150283</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1795,13 +1839,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>242889</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1841,13 +1885,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1887,13 +1931,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>148167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1933,13 +1977,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2086,13 +2130,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2147,13 +2191,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>20108</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2249,13 +2293,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>433389</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2295,13 +2339,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>201083</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2341,13 +2385,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>137583</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2448,13 +2492,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3089,11 +3133,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14:L14"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3202,7 +3246,7 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="L3" s="16">
-        <f t="shared" ref="L3:L27" si="0">G3*K3/100</f>
+        <f t="shared" ref="L3:L28" si="0">G3*K3/100</f>
         <v>4.1399999999999997</v>
       </c>
     </row>
@@ -3223,14 +3267,14 @@
         <v>40</v>
       </c>
       <c r="H4" s="18">
-        <f t="shared" ref="H4:H54" si="1">F4*G4</f>
+        <f t="shared" ref="H4:H56" si="1">F4*G4</f>
         <v>40</v>
       </c>
       <c r="I4" s="18">
         <v>76</v>
       </c>
       <c r="J4" s="18">
-        <f t="shared" ref="J4:J54" si="2">H4*I4/100</f>
+        <f t="shared" ref="J4:J56" si="2">H4*I4/100</f>
         <v>30.4</v>
       </c>
       <c r="L4" s="18">
@@ -3611,7 +3655,7 @@
         <v>29</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>67</v>
@@ -3620,22 +3664,25 @@
         <v>1</v>
       </c>
       <c r="G16" s="18">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H16" s="18">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I16" s="18">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J16" s="18">
         <f t="shared" si="2"/>
-        <v>227</v>
+        <v>456</v>
+      </c>
+      <c r="K16" s="18">
+        <v>10.71</v>
       </c>
       <c r="L16" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.42</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="18" customFormat="1">
@@ -3643,27 +3690,27 @@
         <v>29</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F17" s="18">
         <v>1</v>
       </c>
       <c r="G17" s="18">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="H17" s="18">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="I17" s="18">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="J17" s="18">
         <f t="shared" si="2"/>
-        <v>88.56</v>
+        <v>227</v>
       </c>
       <c r="L17" s="18">
         <f t="shared" si="0"/>
@@ -3675,34 +3722,31 @@
         <v>29</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F18" s="18">
         <v>1</v>
       </c>
       <c r="G18" s="18">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="H18" s="18">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="I18" s="18">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" si="2"/>
-        <v>154</v>
-      </c>
-      <c r="K18" s="18">
-        <v>7.98</v>
+        <v>88.56</v>
       </c>
       <c r="L18" s="18">
         <f t="shared" si="0"/>
-        <v>5.5860000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="18" customFormat="1">
@@ -3710,160 +3754,159 @@
         <v>29</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="F19" s="18">
         <v>1</v>
       </c>
       <c r="G19" s="18">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H19" s="18">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I19" s="18">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J19" s="18">
         <f t="shared" si="2"/>
-        <v>223</v>
+        <v>154</v>
+      </c>
+      <c r="K19" s="18">
+        <v>7.98</v>
       </c>
       <c r="L19" s="18">
         <f t="shared" si="0"/>
+        <v>5.5860000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="18" customFormat="1">
+      <c r="C20" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="18">
+        <v>1</v>
+      </c>
+      <c r="G20" s="18">
+        <v>100</v>
+      </c>
+      <c r="H20" s="18">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I20" s="18">
+        <v>223</v>
+      </c>
+      <c r="J20" s="18">
+        <f t="shared" si="2"/>
+        <v>223</v>
+      </c>
+      <c r="L20" s="18">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="16" customFormat="1">
-      <c r="C20" s="16" t="s">
+    <row r="21" spans="1:12" s="16" customFormat="1">
+      <c r="C21" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D21" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E21" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="16">
-        <v>1</v>
-      </c>
-      <c r="G20" s="16">
+      <c r="F21" s="16">
+        <v>1</v>
+      </c>
+      <c r="G21" s="16">
         <v>95</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H21" s="16">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I21" s="16">
         <v>106</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J21" s="16">
         <f t="shared" si="2"/>
         <v>100.7</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K21" s="16">
         <v>1.59</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L21" s="16">
         <f t="shared" si="0"/>
         <v>1.5105000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="19" customFormat="1">
-      <c r="C21" s="19" t="s">
+    <row r="22" spans="1:12" s="19" customFormat="1">
+      <c r="C22" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D22" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="19">
-        <v>1</v>
-      </c>
-      <c r="H21" s="19">
+      <c r="F22" s="19">
+        <v>1</v>
+      </c>
+      <c r="H22" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I22" s="19">
         <v>349</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J22" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L22" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="18" customFormat="1">
-      <c r="C22" s="18" t="s">
+    <row r="23" spans="1:12" s="18" customFormat="1">
+      <c r="C23" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D23" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E23" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="18">
-        <v>1</v>
-      </c>
-      <c r="G22" s="18">
+      <c r="F23" s="18">
+        <v>1</v>
+      </c>
+      <c r="G23" s="18">
         <v>20</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H23" s="18">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I23" s="18">
         <v>329</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J23" s="18">
         <f t="shared" si="2"/>
         <v>65.8</v>
       </c>
-      <c r="L22" s="18">
+      <c r="L23" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="18" customFormat="1">
-      <c r="A23"/>
-      <c r="C23" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="18">
-        <v>1</v>
-      </c>
-      <c r="G23" s="18">
-        <v>300</v>
-      </c>
-      <c r="H23" s="18">
-        <f t="shared" ref="H23" si="6">F23*G23</f>
-        <v>300</v>
-      </c>
-      <c r="I23" s="18">
-        <v>66.8</v>
-      </c>
-      <c r="J23" s="18">
-        <f t="shared" ref="J23" si="7">H23*I23/100</f>
-        <v>200.4</v>
-      </c>
-      <c r="K23" s="18">
-        <v>4.93</v>
-      </c>
-      <c r="L23" s="18">
-        <f t="shared" ref="L23" si="8">G23*K23/100</f>
-        <v>14.79</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="18" customFormat="1">
@@ -3872,7 +3915,7 @@
         <v>95</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>97</v>
@@ -3884,156 +3927,157 @@
         <v>300</v>
       </c>
       <c r="H24" s="18">
+        <f t="shared" ref="H24" si="6">F24*G24</f>
+        <v>300</v>
+      </c>
+      <c r="I24" s="18">
+        <v>66.8</v>
+      </c>
+      <c r="J24" s="18">
+        <f t="shared" ref="J24" si="7">H24*I24/100</f>
+        <v>200.4</v>
+      </c>
+      <c r="K24" s="18">
+        <v>4.93</v>
+      </c>
+      <c r="L24" s="18">
+        <f t="shared" ref="L24" si="8">G24*K24/100</f>
+        <v>14.79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="18" customFormat="1">
+      <c r="A25"/>
+      <c r="C25" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="18">
+        <v>1</v>
+      </c>
+      <c r="G25" s="18">
+        <v>300</v>
+      </c>
+      <c r="H25" s="18">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I25" s="18">
         <v>40.299999999999997</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J25" s="18">
         <f t="shared" si="2"/>
         <v>120.9</v>
       </c>
-      <c r="K24" s="18">
+      <c r="K25" s="18">
         <v>1.18</v>
       </c>
-      <c r="L24" s="18">
+      <c r="L25" s="18">
         <f t="shared" si="0"/>
         <v>3.54</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="18" customFormat="1">
-      <c r="C25" s="18" t="s">
+    <row r="26" spans="1:12" s="18" customFormat="1">
+      <c r="C26" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D26" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E26" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="18">
-        <v>1</v>
-      </c>
-      <c r="G25" s="18">
+      <c r="F26" s="18">
+        <v>1</v>
+      </c>
+      <c r="G26" s="18">
         <v>12</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H26" s="18">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I26" s="18">
         <v>338</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J26" s="18">
         <f t="shared" si="2"/>
         <v>40.56</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K26" s="18">
         <v>10.1</v>
       </c>
-      <c r="L25" s="18">
+      <c r="L26" s="18">
         <f t="shared" si="0"/>
         <v>1.212</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="20" customFormat="1">
-      <c r="C26" s="20" t="s">
+    <row r="27" spans="1:12" s="20" customFormat="1">
+      <c r="C27" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D27" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E27" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="20">
-        <v>1</v>
-      </c>
-      <c r="G26" s="20">
+      <c r="F27" s="20">
+        <v>1</v>
+      </c>
+      <c r="G27" s="20">
         <v>350</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H27" s="20">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I27" s="20">
         <v>40</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J27" s="20">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L27" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="18" customFormat="1">
-      <c r="C27" s="18" t="s">
+    <row r="28" spans="1:12" s="18" customFormat="1">
+      <c r="C28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D28" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E28" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="18">
-        <v>1</v>
-      </c>
-      <c r="G27" s="18">
+      <c r="F28" s="18">
+        <v>1</v>
+      </c>
+      <c r="G28" s="18">
         <v>350</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H28" s="18">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I28" s="18">
         <v>110</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J28" s="18">
         <f t="shared" si="2"/>
         <v>385</v>
       </c>
-      <c r="L27" s="18">
+      <c r="L28" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="18" customFormat="1">
-      <c r="C28" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="18">
-        <v>1</v>
-      </c>
-      <c r="G28" s="18">
-        <v>60</v>
-      </c>
-      <c r="H28" s="18">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="I28" s="18">
-        <v>151</v>
-      </c>
-      <c r="J28" s="18">
-        <f t="shared" si="2"/>
-        <v>90.6</v>
-      </c>
-      <c r="K28" s="18">
-        <v>12.1</v>
-      </c>
-      <c r="L28" s="18">
-        <f>G28*K28/100</f>
-        <v>7.26</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="18" customFormat="1">
@@ -4041,103 +4085,103 @@
         <v>43</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F29" s="18">
         <v>1</v>
       </c>
       <c r="G29" s="18">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H29" s="18">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I29" s="18">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="J29" s="18">
         <f t="shared" si="2"/>
+        <v>90.6</v>
+      </c>
+      <c r="K29" s="18">
+        <v>12.1</v>
+      </c>
+      <c r="L29" s="18">
+        <f>G29*K29/100</f>
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="18" customFormat="1">
+      <c r="C30" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="18">
+        <v>1</v>
+      </c>
+      <c r="G30" s="18">
+        <v>50</v>
+      </c>
+      <c r="H30" s="18">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I30" s="18">
+        <v>143</v>
+      </c>
+      <c r="J30" s="18">
+        <f t="shared" si="2"/>
         <v>71.5</v>
       </c>
-      <c r="K29" s="18">
+      <c r="K30" s="18">
         <v>20.3</v>
       </c>
-      <c r="L29" s="18">
-        <f t="shared" ref="L29:L54" si="9">G29*K29/100</f>
+      <c r="L30" s="18">
+        <f t="shared" ref="L30:L56" si="9">G30*K30/100</f>
         <v>10.15</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="16" customFormat="1">
-      <c r="C30" s="16" t="s">
+    <row r="31" spans="1:12" s="16" customFormat="1">
+      <c r="C31" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D31" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E31" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F30" s="16">
-        <v>1</v>
-      </c>
-      <c r="G30" s="16">
+      <c r="F31" s="16">
+        <v>1</v>
+      </c>
+      <c r="G31" s="16">
         <v>100</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H31" s="16">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I31" s="16">
         <v>126</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J31" s="16">
         <f t="shared" si="2"/>
         <v>126</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K31" s="16">
         <v>22</v>
       </c>
-      <c r="L30" s="16">
+      <c r="L31" s="16">
         <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="18" customFormat="1">
-      <c r="C31" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="F31" s="18">
-        <v>1</v>
-      </c>
-      <c r="G31" s="18">
-        <v>30</v>
-      </c>
-      <c r="H31" s="18">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="I31" s="18">
-        <v>60</v>
-      </c>
-      <c r="J31" s="18">
-        <f>H31*I31/100</f>
-        <v>18</v>
-      </c>
-      <c r="K31" s="18">
-        <v>11.6</v>
-      </c>
-      <c r="L31" s="18">
-        <f t="shared" si="9"/>
-        <v>3.48</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="18" customFormat="1">
@@ -4145,34 +4189,34 @@
         <v>43</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F32" s="18">
         <v>1</v>
       </c>
       <c r="G32" s="18">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H32" s="18">
         <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I32" s="18">
         <v>60</v>
       </c>
-      <c r="I32" s="18">
-        <v>199</v>
-      </c>
       <c r="J32" s="18">
-        <f t="shared" si="2"/>
-        <v>119.4</v>
+        <f>H32*I32/100</f>
+        <v>18</v>
       </c>
       <c r="K32" s="18">
-        <v>13.5</v>
+        <v>11.6</v>
       </c>
       <c r="L32" s="18">
         <f t="shared" si="9"/>
-        <v>8.1</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="18" customFormat="1">
@@ -4180,34 +4224,34 @@
         <v>43</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F33" s="18">
         <v>1</v>
       </c>
       <c r="G33" s="18">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H33" s="18">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I33" s="18">
-        <v>94</v>
+        <v>199</v>
       </c>
       <c r="J33" s="18">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>119.4</v>
       </c>
       <c r="K33" s="18">
-        <v>2.9</v>
+        <v>13.5</v>
       </c>
       <c r="L33" s="18">
         <f t="shared" si="9"/>
-        <v>2.9</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="18" customFormat="1">
@@ -4215,175 +4259,175 @@
         <v>43</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F34" s="18">
         <v>1</v>
       </c>
       <c r="G34" s="18">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H34" s="18">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I34" s="18">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="J34" s="18">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="K34" s="18">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="L34" s="18">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="18" customFormat="1">
-      <c r="A35"/>
       <c r="C35" s="18" t="s">
         <v>43</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F35" s="18">
         <v>1</v>
       </c>
       <c r="G35" s="18">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="H35" s="18">
         <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="I35" s="18">
+        <v>54</v>
+      </c>
+      <c r="J35" s="18">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="K35" s="18">
+        <v>3</v>
+      </c>
+      <c r="L35" s="18">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="18" customFormat="1">
+      <c r="A36"/>
+      <c r="C36" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="18">
+        <v>1</v>
+      </c>
+      <c r="G36" s="18">
         <v>35</v>
-      </c>
-      <c r="I35" s="18">
-        <v>184.87</v>
-      </c>
-      <c r="J35" s="18">
-        <f t="shared" ref="J35" si="10">H35*I35/100</f>
-        <v>64.704499999999996</v>
-      </c>
-      <c r="K35" s="18">
-        <v>10.58</v>
-      </c>
-      <c r="L35" s="18">
-        <f t="shared" ref="L35" si="11">G35*K35/100</f>
-        <v>3.7030000000000003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="18" customFormat="1">
-      <c r="C36" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F36" s="18">
-        <v>1</v>
-      </c>
-      <c r="G36" s="18">
-        <v>200</v>
       </c>
       <c r="H36" s="18">
         <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="I36" s="18">
+        <v>184.87</v>
+      </c>
+      <c r="J36" s="18">
+        <f t="shared" ref="J36" si="10">H36*I36/100</f>
+        <v>64.704499999999996</v>
+      </c>
+      <c r="K36" s="18">
+        <v>10.58</v>
+      </c>
+      <c r="L36" s="18">
+        <f t="shared" ref="L36" si="11">G36*K36/100</f>
+        <v>3.7030000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="18" customFormat="1">
+      <c r="C37" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" s="18">
+        <v>1</v>
+      </c>
+      <c r="G37" s="18">
         <v>200</v>
       </c>
-      <c r="I36" s="18">
+      <c r="H37" s="18">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="I37" s="18">
         <v>97.58</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J37" s="18">
         <f t="shared" si="2"/>
         <v>195.16</v>
       </c>
-      <c r="K36" s="18">
+      <c r="K37" s="18">
         <v>13.09</v>
       </c>
-      <c r="L36" s="18">
+      <c r="L37" s="18">
         <f t="shared" si="9"/>
         <v>26.18</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="18" customFormat="1">
-      <c r="C37" s="18" t="s">
+    <row r="38" spans="1:12" s="18" customFormat="1">
+      <c r="C38" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D38" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E38" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F37" s="18">
-        <v>1</v>
-      </c>
-      <c r="G37" s="18">
+      <c r="F38" s="18">
+        <v>1</v>
+      </c>
+      <c r="G38" s="18">
         <v>15</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H38" s="18">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I37" s="18">
+      <c r="I38" s="18">
         <v>246</v>
       </c>
-      <c r="J37" s="18">
+      <c r="J38" s="18">
         <f t="shared" si="2"/>
         <v>36.9</v>
       </c>
-      <c r="K37" s="18">
+      <c r="K38" s="18">
         <v>31.4</v>
       </c>
-      <c r="L37" s="18">
+      <c r="L38" s="18">
         <f t="shared" si="9"/>
         <v>4.71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="16" customFormat="1">
-      <c r="C38" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F38" s="16">
-        <v>1</v>
-      </c>
-      <c r="G38" s="16">
-        <v>50</v>
-      </c>
-      <c r="H38" s="16">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="I38" s="16">
-        <v>106</v>
-      </c>
-      <c r="J38" s="16">
-        <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="K38" s="16">
-        <v>20.2</v>
-      </c>
-      <c r="L38" s="16">
-        <f t="shared" si="9"/>
-        <v>10.1</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="16" customFormat="1">
@@ -4391,7 +4435,7 @@
         <v>43</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>80</v>
@@ -4400,164 +4444,163 @@
         <v>1</v>
       </c>
       <c r="G39" s="16">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="I39" s="16">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="2"/>
-        <v>378</v>
+        <v>53</v>
       </c>
       <c r="K39" s="16">
-        <v>6.6</v>
+        <v>20.2</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="9"/>
-        <v>29.7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="18" customFormat="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="16" customFormat="1">
       <c r="C40" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="16">
+        <v>1</v>
+      </c>
+      <c r="G40" s="16">
+        <v>450</v>
+      </c>
+      <c r="H40" s="16">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="I40" s="16">
+        <v>84</v>
+      </c>
+      <c r="J40" s="16">
+        <f t="shared" si="2"/>
+        <v>378</v>
+      </c>
+      <c r="K40" s="16">
+        <v>6.6</v>
+      </c>
+      <c r="L40" s="16">
+        <f t="shared" si="9"/>
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="18" customFormat="1">
+      <c r="C41" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E41" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F40" s="18">
-        <v>1</v>
-      </c>
-      <c r="G40" s="18">
+      <c r="F41" s="18">
+        <v>1</v>
+      </c>
+      <c r="G41" s="18">
         <v>10</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H41" s="18">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I40" s="18">
+      <c r="I41" s="18">
         <v>48</v>
       </c>
-      <c r="J40" s="18">
+      <c r="J41" s="18">
         <f t="shared" si="2"/>
         <v>4.8</v>
       </c>
-      <c r="K40" s="18">
+      <c r="K41" s="18">
         <v>10.4</v>
       </c>
-      <c r="L40" s="18">
+      <c r="L41" s="18">
         <f t="shared" si="9"/>
         <v>1.04</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="16" customFormat="1">
-      <c r="C41" s="16" t="s">
+    <row r="42" spans="1:12" s="16" customFormat="1">
+      <c r="C42" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D42" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E42" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F41" s="16">
-        <v>1</v>
-      </c>
-      <c r="G41" s="16">
+      <c r="F42" s="16">
+        <v>1</v>
+      </c>
+      <c r="G42" s="16">
         <v>106</v>
       </c>
-      <c r="H41" s="16">
+      <c r="H42" s="16">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="I41" s="16">
+      <c r="I42" s="16">
         <v>53</v>
       </c>
-      <c r="J41" s="16">
+      <c r="J42" s="16">
         <f t="shared" si="2"/>
         <v>56.18</v>
       </c>
-      <c r="L41" s="16">
+      <c r="L42" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="22" customFormat="1">
-      <c r="A42" s="41"/>
-      <c r="C42" s="22" t="s">
+    <row r="43" spans="1:12" s="22" customFormat="1">
+      <c r="A43" s="41"/>
+      <c r="C43" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D43" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E43" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F42" s="22">
-        <v>1</v>
-      </c>
-      <c r="G42" s="22">
+      <c r="F43" s="22">
+        <v>1</v>
+      </c>
+      <c r="G43" s="22">
         <v>89</v>
       </c>
-      <c r="H42" s="22">
+      <c r="H43" s="22">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="I42" s="22">
+      <c r="I43" s="22">
         <v>93</v>
       </c>
-      <c r="J42" s="22">
+      <c r="J43" s="22">
         <f t="shared" si="2"/>
         <v>82.77</v>
       </c>
-      <c r="K42" s="22">
+      <c r="K43" s="22">
         <v>1.4</v>
       </c>
-      <c r="L42" s="22">
+      <c r="L43" s="22">
         <f t="shared" si="9"/>
         <v>1.246</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="43" customFormat="1">
-      <c r="A43" s="42"/>
-      <c r="C43" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="E43" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="F43" s="43">
-        <v>1</v>
-      </c>
-      <c r="G43" s="43">
-        <v>172</v>
-      </c>
-      <c r="H43" s="43">
-        <f t="shared" si="1"/>
-        <v>172</v>
-      </c>
-      <c r="I43" s="43">
-        <v>44</v>
-      </c>
-      <c r="J43" s="43">
-        <f t="shared" si="2"/>
-        <v>75.680000000000007</v>
-      </c>
-      <c r="K43" s="43">
-        <v>1.06</v>
-      </c>
-      <c r="L43" s="43">
-        <f t="shared" si="9"/>
-        <v>1.8232000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:12" s="43" customFormat="1">
@@ -4566,92 +4609,102 @@
         <v>90</v>
       </c>
       <c r="D44" s="43" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F44" s="43">
         <v>1</v>
       </c>
       <c r="G44" s="43">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="H44" s="43">
         <f t="shared" si="1"/>
+        <v>172</v>
+      </c>
+      <c r="I44" s="43">
+        <v>44</v>
+      </c>
+      <c r="J44" s="43">
+        <f t="shared" si="2"/>
+        <v>75.680000000000007</v>
+      </c>
+      <c r="K44" s="43">
+        <v>1.06</v>
+      </c>
+      <c r="L44" s="43">
+        <f t="shared" si="9"/>
+        <v>1.8232000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="43" customFormat="1">
+      <c r="A45" s="42"/>
+      <c r="C45" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45" s="43">
+        <v>1</v>
+      </c>
+      <c r="G45" s="43">
         <v>120</v>
       </c>
-      <c r="I44" s="43">
+      <c r="H45" s="43">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="I45" s="43">
         <v>16</v>
       </c>
-      <c r="J44" s="43">
-        <f t="shared" ref="J44" si="12">H44*I44/100</f>
+      <c r="J45" s="43">
+        <f t="shared" ref="J45" si="12">H45*I45/100</f>
         <v>19.2</v>
       </c>
-      <c r="K44" s="43">
+      <c r="K45" s="43">
         <v>0.8</v>
       </c>
-      <c r="L44" s="43">
-        <f t="shared" ref="L44" si="13">G44*K44/100</f>
+      <c r="L45" s="43">
+        <f t="shared" ref="L45" si="13">G45*K45/100</f>
         <v>0.96</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="18" customFormat="1">
-      <c r="A45" s="44"/>
-      <c r="C45" s="18" t="s">
+    <row r="46" spans="1:12" s="18" customFormat="1">
+      <c r="A46" s="44"/>
+      <c r="C46" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D46" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E46" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F45" s="18">
-        <v>1</v>
-      </c>
-      <c r="G45" s="18">
+      <c r="F46" s="18">
+        <v>1</v>
+      </c>
+      <c r="G46" s="18">
         <v>100</v>
       </c>
-      <c r="H45" s="18">
+      <c r="H46" s="18">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I45" s="18">
+      <c r="I46" s="18">
         <v>47</v>
       </c>
-      <c r="J45" s="18">
+      <c r="J46" s="18">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="L45" s="18">
-        <f t="shared" ref="L45" si="14">G45*K45/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" s="18" customFormat="1">
-      <c r="C46" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F46" s="18">
-        <v>1</v>
-      </c>
-      <c r="H46" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="18">
-        <v>31</v>
-      </c>
-      <c r="J46" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="L46" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="L46" si="14">G46*K46/100</f>
         <v>0</v>
       </c>
     </row>
@@ -4660,79 +4713,73 @@
         <v>8</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E47" s="18" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="F47" s="18">
         <v>1</v>
-      </c>
-      <c r="G47" s="18">
-        <v>200</v>
       </c>
       <c r="H47" s="18">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I47" s="18">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J47" s="18">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="K47" s="18">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="L47" s="18">
         <f t="shared" si="9"/>
-        <v>4.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="18" customFormat="1">
+      <c r="C48" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>84</v>
+      </c>
       <c r="F48" s="18">
         <v>1</v>
+      </c>
+      <c r="G48" s="18">
+        <v>200</v>
       </c>
       <c r="H48" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="I48" s="18">
+        <v>30</v>
       </c>
       <c r="J48" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="K48" s="18">
+        <v>2.4</v>
       </c>
       <c r="L48" s="18">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="49" spans="1:12" s="18" customFormat="1">
-      <c r="C49" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>74</v>
-      </c>
       <c r="F49" s="18">
         <v>1</v>
-      </c>
-      <c r="G49" s="18">
-        <v>30</v>
       </c>
       <c r="H49" s="18">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="I49" s="18">
-        <v>615</v>
+        <v>0</v>
       </c>
       <c r="J49" s="18">
         <f t="shared" si="2"/>
-        <v>184.5</v>
+        <v>0</v>
       </c>
       <c r="L49" s="18">
         <f t="shared" si="9"/>
@@ -4740,108 +4787,123 @@
       </c>
     </row>
     <row r="50" spans="1:12" s="18" customFormat="1">
-      <c r="A50"/>
       <c r="C50" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="F50" s="18">
         <v>1</v>
       </c>
       <c r="G50" s="18">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H50" s="18">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I50" s="18">
-        <v>724</v>
+        <v>615</v>
       </c>
       <c r="J50" s="18">
         <f t="shared" si="2"/>
-        <v>72.400000000000006</v>
-      </c>
-      <c r="K50" s="18">
-        <v>2.8</v>
+        <v>184.5</v>
       </c>
       <c r="L50" s="18">
         <f t="shared" si="9"/>
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:12" s="18" customFormat="1">
+      <c r="A51"/>
+      <c r="C51" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>103</v>
+      </c>
       <c r="F51" s="18">
         <v>1</v>
+      </c>
+      <c r="G51" s="18">
+        <v>10</v>
       </c>
       <c r="H51" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I51" s="18">
+        <v>724</v>
       </c>
       <c r="J51" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>72.400000000000006</v>
+      </c>
+      <c r="K51" s="18">
+        <v>2.8</v>
       </c>
       <c r="L51" s="18">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="18" customFormat="1">
-      <c r="C52" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>110</v>
-      </c>
       <c r="F52" s="18">
         <v>1</v>
-      </c>
-      <c r="G52" s="18">
-        <v>100</v>
       </c>
       <c r="H52" s="18">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="I52" s="18">
-        <v>584</v>
+        <v>0</v>
       </c>
       <c r="J52" s="18">
         <f t="shared" si="2"/>
-        <v>584</v>
-      </c>
-      <c r="K52" s="18">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L52" s="18">
         <f t="shared" si="9"/>
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:12" s="18" customFormat="1">
+      <c r="C53" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>110</v>
+      </c>
       <c r="F53" s="18">
         <v>1</v>
+      </c>
+      <c r="G53" s="18">
+        <v>100</v>
       </c>
       <c r="H53" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="I53" s="18">
+        <v>584</v>
       </c>
       <c r="J53" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>584</v>
+      </c>
+      <c r="K53" s="18">
+        <v>22</v>
       </c>
       <c r="L53" s="18">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:12" s="18" customFormat="1">
@@ -4859,6 +4921,76 @@
       <c r="L54" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="18" customFormat="1">
+      <c r="C55" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" s="18">
+        <v>1</v>
+      </c>
+      <c r="G55" s="18">
+        <v>150</v>
+      </c>
+      <c r="H55" s="18">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="I55" s="18">
+        <v>73</v>
+      </c>
+      <c r="J55" s="18">
+        <f t="shared" si="2"/>
+        <v>109.5</v>
+      </c>
+      <c r="K55" s="18">
+        <v>5.47</v>
+      </c>
+      <c r="L55" s="18">
+        <f t="shared" si="9"/>
+        <v>8.2050000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="C56" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F56" s="15">
+        <v>1</v>
+      </c>
+      <c r="G56" s="15">
+        <v>150</v>
+      </c>
+      <c r="H56" s="15">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="I56" s="15">
+        <v>41</v>
+      </c>
+      <c r="J56" s="15">
+        <f t="shared" si="2"/>
+        <v>61.5</v>
+      </c>
+      <c r="K56" s="15">
+        <v>1.44</v>
+      </c>
+      <c r="L56" s="15">
+        <f t="shared" si="9"/>
+        <v>2.16</v>
       </c>
     </row>
   </sheetData>
@@ -4871,10 +5003,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A3:M60"/>
+  <dimension ref="A3:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6613,6 +6745,482 @@
       <c r="L60" s="16"/>
       <c r="M60" s="28"/>
     </row>
+    <row r="63" spans="1:13" ht="17.25" thickBot="1"/>
+    <row r="64" spans="1:13">
+      <c r="A64" s="30"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="G64" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="I64" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="J64" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="K64" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L64" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="M64" s="32"/>
+    </row>
+    <row r="65" spans="1:13" ht="17.25" thickBot="1">
+      <c r="A65" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B65" s="39">
+        <v>43616</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E65" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F65" s="25">
+        <v>1</v>
+      </c>
+      <c r="G65" s="25">
+        <v>200</v>
+      </c>
+      <c r="H65" s="25">
+        <f>F65*G65</f>
+        <v>200</v>
+      </c>
+      <c r="I65" s="25">
+        <v>48.29</v>
+      </c>
+      <c r="J65" s="25">
+        <f>H65*I65/100</f>
+        <v>96.58</v>
+      </c>
+      <c r="K65" s="25">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="L65" s="25">
+        <f t="shared" ref="L65:L66" si="25">G65*K65/100</f>
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="M65" s="26"/>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="33">
+        <f>SUM(J65:J76)</f>
+        <v>1338.3600000000001</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F66" s="18">
+        <v>1</v>
+      </c>
+      <c r="G66" s="18">
+        <v>200</v>
+      </c>
+      <c r="H66" s="18">
+        <f t="shared" ref="H66" si="26">F66*G66</f>
+        <v>200</v>
+      </c>
+      <c r="I66" s="18">
+        <v>228</v>
+      </c>
+      <c r="J66" s="18">
+        <f t="shared" ref="J66" si="27">H66*I66/100</f>
+        <v>456</v>
+      </c>
+      <c r="K66" s="18">
+        <v>10.71</v>
+      </c>
+      <c r="L66" s="18">
+        <f t="shared" si="25"/>
+        <v>21.42</v>
+      </c>
+      <c r="M66" s="26"/>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" s="33">
+        <f>SUMIF(C65:C76,A67,J65:J76)</f>
+        <v>642.40000000000009</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F67" s="27">
+        <v>1</v>
+      </c>
+      <c r="G67" s="27">
+        <v>60</v>
+      </c>
+      <c r="H67" s="27">
+        <f t="shared" ref="H67:H73" si="28">F67*G67</f>
+        <v>60</v>
+      </c>
+      <c r="I67" s="27">
+        <v>151</v>
+      </c>
+      <c r="J67" s="27">
+        <f t="shared" ref="J67:J73" si="29">H67*I67/100</f>
+        <v>90.6</v>
+      </c>
+      <c r="K67" s="27">
+        <v>12.1</v>
+      </c>
+      <c r="L67" s="27">
+        <f>G67*K67/100</f>
+        <v>7.26</v>
+      </c>
+      <c r="M67" s="26"/>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="33">
+        <f>SUMIF(C65:C76,A68,J65:J76)</f>
+        <v>373.6</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F68" s="18">
+        <v>1</v>
+      </c>
+      <c r="G68" s="18">
+        <v>100</v>
+      </c>
+      <c r="H68" s="18">
+        <f t="shared" si="28"/>
+        <v>100</v>
+      </c>
+      <c r="I68" s="18">
+        <v>29.82</v>
+      </c>
+      <c r="J68" s="18">
+        <f t="shared" si="29"/>
+        <v>29.82</v>
+      </c>
+      <c r="K68" s="18">
+        <v>0.68</v>
+      </c>
+      <c r="L68" s="18">
+        <f t="shared" ref="L68:L73" si="30">G68*K68/100</f>
+        <v>0.68</v>
+      </c>
+      <c r="M68" s="26"/>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="33">
+        <f>SUMIF(C65:C76,A69,J65:J76)</f>
+        <v>0</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F69" s="18">
+        <v>1</v>
+      </c>
+      <c r="G69" s="18">
+        <v>150</v>
+      </c>
+      <c r="H69" s="18">
+        <f t="shared" si="28"/>
+        <v>150</v>
+      </c>
+      <c r="I69" s="18">
+        <v>73</v>
+      </c>
+      <c r="J69" s="18">
+        <f t="shared" si="29"/>
+        <v>109.5</v>
+      </c>
+      <c r="K69" s="18">
+        <v>5.47</v>
+      </c>
+      <c r="L69" s="18">
+        <f t="shared" si="30"/>
+        <v>8.2050000000000001</v>
+      </c>
+      <c r="M69" s="26"/>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="36"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F70" s="15">
+        <v>1</v>
+      </c>
+      <c r="G70" s="15">
+        <v>150</v>
+      </c>
+      <c r="H70" s="15">
+        <f t="shared" si="28"/>
+        <v>150</v>
+      </c>
+      <c r="I70" s="15">
+        <v>41</v>
+      </c>
+      <c r="J70" s="15">
+        <f t="shared" si="29"/>
+        <v>61.5</v>
+      </c>
+      <c r="K70" s="15">
+        <v>1.44</v>
+      </c>
+      <c r="L70" s="15">
+        <f t="shared" si="30"/>
+        <v>2.16</v>
+      </c>
+      <c r="M70" s="26"/>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" s="33"/>
+      <c r="C71" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E71" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="F71" s="43">
+        <v>2</v>
+      </c>
+      <c r="G71" s="43">
+        <v>172</v>
+      </c>
+      <c r="H71" s="43">
+        <f t="shared" si="28"/>
+        <v>344</v>
+      </c>
+      <c r="I71" s="43">
+        <v>44</v>
+      </c>
+      <c r="J71" s="43">
+        <f t="shared" si="29"/>
+        <v>151.36000000000001</v>
+      </c>
+      <c r="K71" s="43">
+        <v>1.06</v>
+      </c>
+      <c r="L71" s="43">
+        <f t="shared" si="30"/>
+        <v>1.8232000000000002</v>
+      </c>
+      <c r="M71" s="26"/>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="33">
+        <f>SUM(L65:L76)</f>
+        <v>78.388199999999983</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F72" s="18">
+        <v>1</v>
+      </c>
+      <c r="G72" s="18">
+        <v>100</v>
+      </c>
+      <c r="H72" s="18">
+        <f t="shared" si="28"/>
+        <v>100</v>
+      </c>
+      <c r="I72" s="18">
+        <v>94</v>
+      </c>
+      <c r="J72" s="18">
+        <f t="shared" si="29"/>
+        <v>94</v>
+      </c>
+      <c r="K72" s="18">
+        <v>2.9</v>
+      </c>
+      <c r="L72" s="18">
+        <f t="shared" si="30"/>
+        <v>2.9</v>
+      </c>
+      <c r="M72" s="26"/>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="35"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F73" s="18">
+        <v>1</v>
+      </c>
+      <c r="G73" s="18">
+        <v>200</v>
+      </c>
+      <c r="H73" s="18">
+        <f t="shared" si="28"/>
+        <v>200</v>
+      </c>
+      <c r="I73" s="18">
+        <v>30</v>
+      </c>
+      <c r="J73" s="18">
+        <f t="shared" si="29"/>
+        <v>60</v>
+      </c>
+      <c r="K73" s="18">
+        <v>2.4</v>
+      </c>
+      <c r="L73" s="18">
+        <f t="shared" si="30"/>
+        <v>4.8</v>
+      </c>
+      <c r="M73" s="47"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="35"/>
+      <c r="B74" s="45"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="45"/>
+      <c r="J74" s="45"/>
+      <c r="K74" s="45"/>
+      <c r="L74" s="45"/>
+      <c r="M74" s="47"/>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="35"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F75" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="G75" s="16">
+        <v>100</v>
+      </c>
+      <c r="H75" s="16">
+        <f t="shared" ref="H75" si="31">F75*G75</f>
+        <v>150</v>
+      </c>
+      <c r="I75" s="16">
+        <v>126</v>
+      </c>
+      <c r="J75" s="16">
+        <f t="shared" ref="J75" si="32">H75*I75/100</f>
+        <v>189</v>
+      </c>
+      <c r="K75" s="16">
+        <v>22</v>
+      </c>
+      <c r="L75" s="16">
+        <v>25</v>
+      </c>
+      <c r="M75" s="47"/>
+    </row>
+    <row r="76" spans="1:13" ht="17.25" thickBot="1">
+      <c r="A76" s="37"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="46"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="46"/>
+      <c r="H76" s="46"/>
+      <c r="I76" s="46"/>
+      <c r="J76" s="46"/>
+      <c r="K76" s="46"/>
+      <c r="L76" s="46"/>
+      <c r="M76" s="48"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/减脂增肌.xlsx
+++ b/减脂增肌.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\健身\fitness\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E110177-21AB-45FC-96AF-4FE590FB683C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,22 +15,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$C$16:$C$23</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">Sheet3!$F$23:$F$27</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="131">
   <si>
     <t>单位</t>
   </si>
@@ -78,209 +62,209 @@
   </si>
   <si>
     <t>类别</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>食物</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>日常计量</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>大卡</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>千焦（KJ）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>大卡(KCAL)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>总和</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>约等于</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>千焦</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>输入大卡</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>输入千焦</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>质量g</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>单位热量Kcal/100g</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>热量Kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>单位蛋白质g/100g</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>蛋白质g</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>碳水</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>土豆</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>玉米</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>意大利面</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>小米粥</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>米饭</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>猪肉包</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>全麦面包</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1个</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>馒头</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>紫薯</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>米粉</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>绿豆</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>黑米粥</t>
   </si>
   <si>
     <t>蛋白质</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>鸡蛋</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>鸡胸肉</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>蛋清</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>煎鸡蛋</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>面条</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>酸奶</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>牛奶</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>水果</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>苹果</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>豆浆</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>酱牛肉</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>牛肉</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>瓜子</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>虾仁</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>豆腐</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>总热量</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>脂肪</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>绿豆粥</t>
   </si>
   <si>
     <t>土豆丝</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>煎饼</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>2碗</t>
@@ -374,39 +358,39 @@
   </si>
   <si>
     <t>碳水</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>蔬菜沙拉</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1碗</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>水果</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>西瓜汁</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1杯</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>金枪鱼蔬菜沙拉</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>沙拉酱</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1勺</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>南瓜粥</t>
@@ -443,13 +427,72 @@
   </si>
   <si>
     <t>炒青菜</t>
+  </si>
+  <si>
+    <t>鸡胸肉</t>
+  </si>
+  <si>
+    <t>脉动</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛排</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>满月酒</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧饼</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳水</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1瓶</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1片</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋白质</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1块</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米汤</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1碗</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,7 +503,15 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -469,7 +520,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Cambria"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -478,7 +529,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -487,7 +538,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -496,7 +547,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -504,7 +555,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -512,7 +563,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -520,7 +571,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -528,7 +579,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -537,7 +588,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -546,7 +597,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -554,7 +605,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -563,7 +614,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -571,7 +622,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -580,7 +631,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -589,7 +640,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -597,7 +648,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1091,57 +1142,132 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1150,69 +1276,36 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1220,202 +1313,260 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="30" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="34" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="23" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="27" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="31" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="35" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="39" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="20" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="24" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="28" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="32" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="36" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="40" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="21" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="25" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="29" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="33" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="37" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="常规 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="注释 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+  <cellStyles count="57">
+    <cellStyle name="20% - 强调文字颜色 1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="43"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="45"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="47"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="49"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="51"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="53"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="44"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="46"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="48"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="50"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="52"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="54"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="41"/>
+    <cellStyle name="常规 2 2" xfId="55"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="注释 2" xfId="42"/>
+    <cellStyle name="注释 2 2" xfId="56"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1425,13 +1576,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1439,7 +1590,7 @@
         <xdr:cNvPr id="2049" name="Picture 1" descr="http://s2.boohee.cn/food/star/mantou_junzhi-eebf1a1047a2c77b1611f7fa1530b522.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1471,13 +1622,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1485,7 +1636,7 @@
         <xdr:cNvPr id="2050" name="Picture 2" descr="http://s2.boohee.cn/food/star/mifen-5417640ffeef94b4890adc8f223575b6.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1517,13 +1668,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1531,7 +1682,7 @@
         <xdr:cNvPr id="2051" name="Picture 3" descr="http://s2.boohee.cn/food/star/lvdou-abb3662f6104fb8d05203374a6f71125.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1563,13 +1714,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1577,7 +1728,7 @@
         <xdr:cNvPr id="2052" name="Picture 4" descr="http://s2.boohee.cn/food/star/heimizhou-96bc011520f5fa9c449a0c04f462933a.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1609,13 +1760,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>21166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>209549</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1623,7 +1774,7 @@
         <xdr:cNvPr id="2053" name="Picture 5" descr="http://s2.boohee.cn/food/star/jixiongfurou-838288502b3a279a85e51959b2625cbb.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1655,13 +1806,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>148167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1669,7 +1820,7 @@
         <xdr:cNvPr id="2054" name="Picture 6" descr="http://s2.boohee.cn/food/star/hebaodan_youjian-ecdd3bc2083df7d4f3f16c3f73b46ad1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1701,13 +1852,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>26458</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1715,7 +1866,7 @@
         <xdr:cNvPr id="2055" name="Picture 7" descr="http://s2.boohee.cn/food/star/miantiao_fuqiangfen_zhu-f98e799ed60d85715309652831e34fb4.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1747,13 +1898,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1761,7 +1912,7 @@
         <xdr:cNvPr id="2056" name="Picture 8" descr="http://s2.boohee.cn/food/star/niuru_junzhi-a27fe2d98e468f5174cff506bd4ac30e.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1793,13 +1944,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>150283</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1807,7 +1958,7 @@
         <xdr:cNvPr id="2057" name="Picture 9" descr="http://s2.boohee.cn/food/star/pingguo_junzhi-8a4b1966ee455751bdabeba92fe6aea7.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1839,13 +1990,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>242889</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1853,7 +2004,7 @@
         <xdr:cNvPr id="2058" name="Picture 10" descr="http://s2.boohee.cn/food/star/niurou_shou-35b252e8a7dc82545fd8d0c682ab7634.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1885,13 +2036,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1899,7 +2050,7 @@
         <xdr:cNvPr id="2059" name="Picture 11" descr="http://s2.boohee.cn/food/star/dounai-afbb33b4205be58a6579cef0075cc635.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1931,13 +2082,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>148167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1945,7 +2096,7 @@
         <xdr:cNvPr id="2060" name="Picture 12" descr="http://s2.boohee.cn/food/star/kuihuaziren-35ecdeccf4b3ab68b27ed7fa3f370c88.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1977,13 +2128,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1991,7 +2142,7 @@
         <xdr:cNvPr id="2061" name="Picture 13" descr="http://s2.boohee.cn/food/star/doufu_junzhi-c00d094a7a0e51393cb567814df97922.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2037,7 +2188,7 @@
         <xdr:cNvPr id="2062" name="Picture 14" descr="http://s2.boohee.cn/food/star/lvdouzhou-a25d46fa0205ecd0a0f89b573bfc420d.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2069,13 +2220,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2083,7 +2234,7 @@
         <xdr:cNvPr id="16" name="Picture 15" descr="http://s2.boohee.cn/food/star/kaifengguantangbao-0c0a391c85d62d20f460de7ebd72d3fc.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2095,7 +2246,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2115,7 +2266,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2130,13 +2281,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2144,7 +2295,7 @@
         <xdr:cNvPr id="17" name="Picture 16" descr="http://s2.boohee.cn/food/star/xiangjiao-a02e0b0a9cc11382f89c023a0abe5c26.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2156,7 +2307,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2176,7 +2327,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2191,13 +2342,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>20108</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2205,7 +2356,7 @@
         <xdr:cNvPr id="18" name="Picture 17" descr="http://s2.boohee.cn/food/star/tao_junzhi-cfad8f99b49568df71206244fe6102a8.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2217,7 +2368,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2237,7 +2388,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2261,7 +2412,7 @@
         <xdr:cNvPr id="19" name="Picture 14" descr="http://s2.boohee.cn/food/star/lvdouzhou-a25d46fa0205ecd0a0f89b573bfc420d.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2293,13 +2444,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>433389</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2307,7 +2458,7 @@
         <xdr:cNvPr id="1025" name="Picture 1" descr="http://s2.boohee.cn/food/star/shucaishala-5a8e9eb8cbb4194b4afffa720d2a0bf7.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2339,13 +2490,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>201083</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2353,7 +2504,7 @@
         <xdr:cNvPr id="1026" name="Picture 2" descr="http://s2.boohee.cn/food/star/jinqiangyushucaishala_wushalajiang-ce4ca0c7cc32257f837c393f3050c877.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2385,13 +2536,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>137583</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2399,7 +2550,7 @@
         <xdr:cNvPr id="1027" name="Picture 3" descr="http://s2.boohee.cn/food/star/shalajiang-bf0caecb9e24b8497fdfd42da8740fc4.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2431,13 +2582,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>300039</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2445,7 +2596,7 @@
         <xdr:cNvPr id="23" name="Picture 22" descr="http://s2.boohee.cn/food/star/jidanbing-aae559b0f1fdc016e0c99bd0e9f52834.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97787869-7725-4C86-B61D-87096A6A8E65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{97787869-7725-4C86-B61D-87096A6A8E65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2454,10 +2605,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2477,7 +2628,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2492,13 +2643,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2506,7 +2657,7 @@
         <xdr:cNvPr id="25" name="Picture 24" descr="http://s2.boohee.cn/food/star/qingdunpaigu-9d0bb3a3c28831ec6c8752a9267b7d9b.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9931887-2AF9-4310-A53A-E502E4D6DD7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9931887-2AF9-4310-A53A-E502E4D6DD7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2515,10 +2666,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2538,7 +2689,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2549,11 +2700,131 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="http://s2.boohee.cn/food/star/xigua_junzhi-21ca9c4ebf052c715635aee817282201.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9858375"/>
+          <a:ext cx="771525" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="http://s2.boohee.cn/food/star/yumitangxiaomizhou-24b50dc800209120bc96d8e0ef1bca74.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="12372975"/>
+          <a:ext cx="685800" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="http://s2.boohee.cn/food/star/heijiaoniupai-974c0876b4ab5c27293c84f299326ba1.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8667750"/>
+          <a:ext cx="685800" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2595,7 +2866,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2627,27 +2898,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2679,24 +2932,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2872,7 +3107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3125,19 +3360,19 @@
       <c r="G18" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L60" sqref="C60:L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3246,178 +3481,178 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="L3" s="16">
-        <f t="shared" ref="L3:L28" si="0">G3*K3/100</f>
+        <f t="shared" ref="L3:L29" si="0">G3*K3/100</f>
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="18" customFormat="1">
+    <row r="4" spans="1:12" s="51" customFormat="1">
       <c r="C4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="51">
+        <v>1</v>
+      </c>
+      <c r="G4" s="51">
+        <v>100</v>
+      </c>
+      <c r="H4" s="53">
+        <f t="shared" ref="H4:H61" si="1">F4*G4</f>
+        <v>100</v>
+      </c>
+      <c r="I4" s="51">
+        <v>466</v>
+      </c>
+      <c r="J4" s="51">
+        <f>H4*I4/100</f>
+        <v>466</v>
+      </c>
+      <c r="K4" s="51">
+        <v>19.3</v>
+      </c>
+      <c r="L4" s="51">
+        <f t="shared" si="0"/>
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="18" customFormat="1">
+      <c r="C5" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="18">
-        <v>1</v>
-      </c>
-      <c r="G4" s="18">
+      <c r="F5" s="18">
+        <v>1</v>
+      </c>
+      <c r="G5" s="18">
         <v>40</v>
       </c>
-      <c r="H4" s="18">
-        <f t="shared" ref="H4:H56" si="1">F4*G4</f>
+      <c r="H5" s="18">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I5" s="18">
         <v>76</v>
       </c>
-      <c r="J4" s="18">
-        <f t="shared" ref="J4:J56" si="2">H4*I4/100</f>
+      <c r="J5" s="18">
+        <f t="shared" ref="J5:J61" si="2">H5*I5/100</f>
         <v>30.4</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L5" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="18" customFormat="1">
-      <c r="C5" s="18" t="s">
+    <row r="6" spans="1:12" s="18" customFormat="1">
+      <c r="C6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D6" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="18">
-        <v>1</v>
-      </c>
-      <c r="G5" s="18">
+      <c r="F6" s="18">
+        <v>1</v>
+      </c>
+      <c r="G6" s="18">
         <v>45</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H6" s="18">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I6" s="18">
         <v>197</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J6" s="18">
         <f t="shared" si="2"/>
         <v>88.65</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K6" s="18">
         <v>8.52</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L6" s="18">
         <f t="shared" si="0"/>
         <v>3.8339999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="18" customFormat="1">
-      <c r="C6" s="18" t="s">
+    <row r="7" spans="1:12" s="18" customFormat="1">
+      <c r="C7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D7" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E7" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="18">
-        <v>1</v>
-      </c>
-      <c r="G6" s="18">
+      <c r="F7" s="18">
+        <v>1</v>
+      </c>
+      <c r="G7" s="18">
         <v>80</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H7" s="18">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I7" s="18">
         <v>354</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J7" s="18">
         <f t="shared" si="2"/>
         <v>283.2</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L7" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="18" customFormat="1">
-      <c r="A7"/>
-      <c r="C7" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="18">
-        <v>1</v>
-      </c>
-      <c r="G7" s="18">
-        <v>200</v>
-      </c>
-      <c r="H7" s="18">
-        <f t="shared" ref="H7" si="3">F7*G7</f>
-        <v>200</v>
-      </c>
-      <c r="I7" s="18">
-        <v>244</v>
-      </c>
-      <c r="J7" s="18">
-        <f t="shared" ref="J7" si="4">H7*I7/100</f>
-        <v>488</v>
-      </c>
-      <c r="K7" s="18">
-        <v>9.92</v>
-      </c>
-      <c r="L7" s="18">
-        <f t="shared" ref="L7" si="5">G7*K7/100</f>
-        <v>19.84</v>
-      </c>
-    </row>
     <row r="8" spans="1:12" s="18" customFormat="1">
+      <c r="A8"/>
       <c r="C8" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F8" s="18">
         <v>1</v>
       </c>
       <c r="G8" s="18">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H8" s="18">
-        <f t="shared" si="1"/>
-        <v>300</v>
+        <f t="shared" ref="H8" si="3">F8*G8</f>
+        <v>200</v>
       </c>
       <c r="I8" s="18">
-        <v>121.5</v>
+        <v>244</v>
       </c>
       <c r="J8" s="18">
-        <f t="shared" si="2"/>
-        <v>364.5</v>
+        <f t="shared" ref="J8" si="4">H8*I8/100</f>
+        <v>488</v>
       </c>
       <c r="K8" s="18">
-        <v>2.25</v>
+        <v>9.92</v>
       </c>
       <c r="L8" s="18">
-        <f t="shared" si="0"/>
-        <v>6.75</v>
+        <f t="shared" ref="L8" si="5">G8*K8/100</f>
+        <v>19.84</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="18" customFormat="1">
@@ -3425,31 +3660,34 @@
         <v>29</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="18">
         <v>1</v>
       </c>
       <c r="G9" s="18">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="H9" s="18">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="I9" s="18">
-        <v>106</v>
+        <v>121.5</v>
       </c>
       <c r="J9" s="18">
         <f t="shared" si="2"/>
-        <v>148.4</v>
+        <v>364.5</v>
+      </c>
+      <c r="K9" s="18">
+        <v>2.25</v>
       </c>
       <c r="L9" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="18" customFormat="1">
@@ -3457,27 +3695,27 @@
         <v>29</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" s="18">
         <v>1</v>
       </c>
       <c r="G10" s="18">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="H10" s="18">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="I10" s="18">
-        <v>361</v>
+        <v>106</v>
       </c>
       <c r="J10" s="18">
         <f t="shared" si="2"/>
-        <v>144.4</v>
+        <v>148.4</v>
       </c>
       <c r="L10" s="18">
         <f t="shared" si="0"/>
@@ -3489,27 +3727,27 @@
         <v>29</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F11" s="18">
         <v>1</v>
       </c>
       <c r="G11" s="18">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="H11" s="18">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="I11" s="18">
-        <v>46</v>
+        <v>361</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" si="2"/>
-        <v>138</v>
+        <v>144.4</v>
       </c>
       <c r="L11" s="18">
         <f t="shared" si="0"/>
@@ -3521,7 +3759,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>75</v>
@@ -3530,25 +3768,22 @@
         <v>1</v>
       </c>
       <c r="G12" s="18">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H12" s="18">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I12" s="18">
-        <v>29.82</v>
+        <v>46</v>
       </c>
       <c r="J12" s="18">
         <f t="shared" si="2"/>
-        <v>29.82</v>
-      </c>
-      <c r="K12" s="18">
-        <v>0.68</v>
+        <v>138</v>
       </c>
       <c r="L12" s="18">
         <f t="shared" si="0"/>
-        <v>0.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="18" customFormat="1">
@@ -3556,7 +3791,7 @@
         <v>29</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>75</v>
@@ -3565,25 +3800,25 @@
         <v>1</v>
       </c>
       <c r="G13" s="18">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H13" s="18">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I13" s="18">
-        <v>53</v>
+        <v>29.82</v>
       </c>
       <c r="J13" s="18">
         <f t="shared" si="2"/>
-        <v>159</v>
+        <v>29.82</v>
       </c>
       <c r="K13" s="18">
-        <v>1.21</v>
+        <v>0.68</v>
       </c>
       <c r="L13" s="18">
         <f t="shared" si="0"/>
-        <v>3.63</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="18" customFormat="1">
@@ -3591,31 +3826,34 @@
         <v>29</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F14" s="18">
         <v>1</v>
       </c>
       <c r="G14" s="18">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="H14" s="18">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="I14" s="18">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="J14" s="18">
         <f t="shared" si="2"/>
-        <v>174</v>
+        <v>159</v>
+      </c>
+      <c r="K14" s="18">
+        <v>1.21</v>
       </c>
       <c r="L14" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="18" customFormat="1">
@@ -3626,24 +3864,24 @@
         <v>34</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F15" s="18">
         <v>1</v>
       </c>
       <c r="G15" s="18">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="H15" s="18">
         <f t="shared" si="1"/>
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="I15" s="18">
         <v>116</v>
       </c>
       <c r="J15" s="18">
         <f t="shared" si="2"/>
-        <v>324.8</v>
+        <v>174</v>
       </c>
       <c r="L15" s="18">
         <f t="shared" si="0"/>
@@ -3655,34 +3893,31 @@
         <v>29</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F16" s="18">
         <v>1</v>
       </c>
       <c r="G16" s="18">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="H16" s="18">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="I16" s="18">
-        <v>228</v>
+        <v>116</v>
       </c>
       <c r="J16" s="18">
         <f t="shared" si="2"/>
-        <v>456</v>
-      </c>
-      <c r="K16" s="18">
-        <v>10.71</v>
+        <v>324.8</v>
       </c>
       <c r="L16" s="18">
         <f t="shared" si="0"/>
-        <v>21.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="18" customFormat="1">
@@ -3690,7 +3925,7 @@
         <v>29</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>67</v>
@@ -3699,22 +3934,25 @@
         <v>1</v>
       </c>
       <c r="G17" s="18">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H17" s="18">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I17" s="18">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J17" s="18">
         <f t="shared" si="2"/>
-        <v>227</v>
+        <v>456</v>
+      </c>
+      <c r="K17" s="18">
+        <v>10.71</v>
       </c>
       <c r="L17" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.42</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="18" customFormat="1">
@@ -3722,27 +3960,27 @@
         <v>29</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F18" s="18">
         <v>1</v>
       </c>
       <c r="G18" s="18">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="H18" s="18">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="I18" s="18">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" si="2"/>
-        <v>88.56</v>
+        <v>227</v>
       </c>
       <c r="L18" s="18">
         <f t="shared" si="0"/>
@@ -3754,34 +3992,31 @@
         <v>29</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F19" s="18">
         <v>1</v>
       </c>
       <c r="G19" s="18">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="H19" s="18">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="I19" s="18">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="J19" s="18">
         <f t="shared" si="2"/>
-        <v>154</v>
-      </c>
-      <c r="K19" s="18">
-        <v>7.98</v>
+        <v>88.56</v>
       </c>
       <c r="L19" s="18">
         <f t="shared" si="0"/>
-        <v>5.5860000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="18" customFormat="1">
@@ -3789,160 +4024,159 @@
         <v>29</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="F20" s="18">
         <v>1</v>
       </c>
       <c r="G20" s="18">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H20" s="18">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I20" s="18">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J20" s="18">
         <f t="shared" si="2"/>
-        <v>223</v>
+        <v>154</v>
+      </c>
+      <c r="K20" s="18">
+        <v>7.98</v>
       </c>
       <c r="L20" s="18">
         <f t="shared" si="0"/>
+        <v>5.5860000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="18" customFormat="1">
+      <c r="C21" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" s="18">
+        <v>100</v>
+      </c>
+      <c r="H21" s="18">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I21" s="18">
+        <v>223</v>
+      </c>
+      <c r="J21" s="18">
+        <f t="shared" si="2"/>
+        <v>223</v>
+      </c>
+      <c r="L21" s="18">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="16" customFormat="1">
-      <c r="C21" s="16" t="s">
+    <row r="22" spans="1:12" s="16" customFormat="1">
+      <c r="C22" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D22" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E22" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="16">
-        <v>1</v>
-      </c>
-      <c r="G21" s="16">
+      <c r="F22" s="16">
+        <v>1</v>
+      </c>
+      <c r="G22" s="16">
         <v>95</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H22" s="16">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I22" s="16">
         <v>106</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J22" s="16">
         <f t="shared" si="2"/>
         <v>100.7</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K22" s="16">
         <v>1.59</v>
       </c>
-      <c r="L21" s="16">
+      <c r="L22" s="16">
         <f t="shared" si="0"/>
         <v>1.5105000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="19" customFormat="1">
-      <c r="C22" s="19" t="s">
+    <row r="23" spans="1:12" s="19" customFormat="1">
+      <c r="C23" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D23" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="19">
-        <v>1</v>
-      </c>
-      <c r="H22" s="19">
+      <c r="F23" s="19">
+        <v>1</v>
+      </c>
+      <c r="H23" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I23" s="19">
         <v>349</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J23" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L23" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="18" customFormat="1">
-      <c r="C23" s="18" t="s">
+    <row r="24" spans="1:12" s="18" customFormat="1">
+      <c r="C24" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D24" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E24" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="18">
-        <v>1</v>
-      </c>
-      <c r="G23" s="18">
+      <c r="F24" s="18">
+        <v>1</v>
+      </c>
+      <c r="G24" s="18">
         <v>20</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H24" s="18">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I24" s="18">
         <v>329</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J24" s="18">
         <f t="shared" si="2"/>
         <v>65.8</v>
       </c>
-      <c r="L23" s="18">
+      <c r="L24" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="18" customFormat="1">
-      <c r="A24"/>
-      <c r="C24" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="18">
-        <v>1</v>
-      </c>
-      <c r="G24" s="18">
-        <v>300</v>
-      </c>
-      <c r="H24" s="18">
-        <f t="shared" ref="H24" si="6">F24*G24</f>
-        <v>300</v>
-      </c>
-      <c r="I24" s="18">
-        <v>66.8</v>
-      </c>
-      <c r="J24" s="18">
-        <f t="shared" ref="J24" si="7">H24*I24/100</f>
-        <v>200.4</v>
-      </c>
-      <c r="K24" s="18">
-        <v>4.93</v>
-      </c>
-      <c r="L24" s="18">
-        <f t="shared" ref="L24" si="8">G24*K24/100</f>
-        <v>14.79</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="18" customFormat="1">
@@ -3951,7 +4185,7 @@
         <v>95</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>97</v>
@@ -3963,156 +4197,157 @@
         <v>300</v>
       </c>
       <c r="H25" s="18">
+        <f t="shared" ref="H25" si="6">F25*G25</f>
+        <v>300</v>
+      </c>
+      <c r="I25" s="18">
+        <v>66.8</v>
+      </c>
+      <c r="J25" s="18">
+        <f t="shared" ref="J25" si="7">H25*I25/100</f>
+        <v>200.4</v>
+      </c>
+      <c r="K25" s="18">
+        <v>4.93</v>
+      </c>
+      <c r="L25" s="18">
+        <f t="shared" ref="L25" si="8">G25*K25/100</f>
+        <v>14.79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="18" customFormat="1">
+      <c r="A26"/>
+      <c r="C26" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="18">
+        <v>1</v>
+      </c>
+      <c r="G26" s="18">
+        <v>300</v>
+      </c>
+      <c r="H26" s="18">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I26" s="18">
         <v>40.299999999999997</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J26" s="18">
         <f t="shared" si="2"/>
         <v>120.9</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K26" s="18">
         <v>1.18</v>
       </c>
-      <c r="L25" s="18">
+      <c r="L26" s="18">
         <f t="shared" si="0"/>
         <v>3.54</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="18" customFormat="1">
-      <c r="C26" s="18" t="s">
+    <row r="27" spans="1:12" s="18" customFormat="1">
+      <c r="C27" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D27" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E27" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="18">
-        <v>1</v>
-      </c>
-      <c r="G26" s="18">
+      <c r="F27" s="18">
+        <v>1</v>
+      </c>
+      <c r="G27" s="18">
         <v>12</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H27" s="18">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I27" s="18">
         <v>338</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J27" s="18">
         <f t="shared" si="2"/>
         <v>40.56</v>
       </c>
-      <c r="K26" s="18">
+      <c r="K27" s="18">
         <v>10.1</v>
       </c>
-      <c r="L26" s="18">
+      <c r="L27" s="18">
         <f t="shared" si="0"/>
         <v>1.212</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="20" customFormat="1">
-      <c r="C27" s="20" t="s">
+    <row r="28" spans="1:12" s="20" customFormat="1">
+      <c r="C28" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D28" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E28" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="20">
-        <v>1</v>
-      </c>
-      <c r="G27" s="20">
+      <c r="F28" s="20">
+        <v>1</v>
+      </c>
+      <c r="G28" s="20">
         <v>350</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H28" s="20">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I28" s="20">
         <v>40</v>
       </c>
-      <c r="J27" s="20">
+      <c r="J28" s="20">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="L27" s="20">
+      <c r="L28" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="18" customFormat="1">
-      <c r="C28" s="18" t="s">
+    <row r="29" spans="1:12" s="18" customFormat="1">
+      <c r="C29" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D29" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E29" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="18">
-        <v>1</v>
-      </c>
-      <c r="G28" s="18">
+      <c r="F29" s="18">
+        <v>1</v>
+      </c>
+      <c r="G29" s="18">
         <v>350</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H29" s="18">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I29" s="18">
         <v>110</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J29" s="18">
         <f t="shared" si="2"/>
         <v>385</v>
       </c>
-      <c r="L28" s="18">
+      <c r="L29" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="18" customFormat="1">
-      <c r="C29" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="F29" s="18">
-        <v>1</v>
-      </c>
-      <c r="G29" s="18">
-        <v>60</v>
-      </c>
-      <c r="H29" s="18">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="I29" s="18">
-        <v>151</v>
-      </c>
-      <c r="J29" s="18">
-        <f t="shared" si="2"/>
-        <v>90.6</v>
-      </c>
-      <c r="K29" s="18">
-        <v>12.1</v>
-      </c>
-      <c r="L29" s="18">
-        <f>G29*K29/100</f>
-        <v>7.26</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="18" customFormat="1">
@@ -4120,103 +4355,103 @@
         <v>43</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F30" s="18">
         <v>1</v>
       </c>
       <c r="G30" s="18">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H30" s="18">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I30" s="18">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="J30" s="18">
         <f t="shared" si="2"/>
+        <v>90.6</v>
+      </c>
+      <c r="K30" s="18">
+        <v>12.1</v>
+      </c>
+      <c r="L30" s="18">
+        <f>G30*K30/100</f>
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="18" customFormat="1">
+      <c r="C31" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="18">
+        <v>1</v>
+      </c>
+      <c r="G31" s="18">
+        <v>50</v>
+      </c>
+      <c r="H31" s="18">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I31" s="18">
+        <v>143</v>
+      </c>
+      <c r="J31" s="18">
+        <f t="shared" si="2"/>
         <v>71.5</v>
       </c>
-      <c r="K30" s="18">
+      <c r="K31" s="18">
         <v>20.3</v>
       </c>
-      <c r="L30" s="18">
-        <f t="shared" ref="L30:L56" si="9">G30*K30/100</f>
+      <c r="L31" s="18">
+        <f t="shared" ref="L31:L59" si="9">G31*K31/100</f>
         <v>10.15</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="16" customFormat="1">
-      <c r="C31" s="16" t="s">
+    <row r="32" spans="1:12" s="16" customFormat="1">
+      <c r="C32" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D32" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E32" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F31" s="16">
-        <v>1</v>
-      </c>
-      <c r="G31" s="16">
+      <c r="F32" s="16">
+        <v>1</v>
+      </c>
+      <c r="G32" s="16">
         <v>100</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H32" s="16">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I32" s="16">
         <v>126</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J32" s="16">
         <f t="shared" si="2"/>
         <v>126</v>
       </c>
-      <c r="K31" s="16">
+      <c r="K32" s="16">
         <v>22</v>
       </c>
-      <c r="L31" s="16">
+      <c r="L32" s="16">
         <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="18" customFormat="1">
-      <c r="C32" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" s="18">
-        <v>1</v>
-      </c>
-      <c r="G32" s="18">
-        <v>30</v>
-      </c>
-      <c r="H32" s="18">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="I32" s="18">
-        <v>60</v>
-      </c>
-      <c r="J32" s="18">
-        <f>H32*I32/100</f>
-        <v>18</v>
-      </c>
-      <c r="K32" s="18">
-        <v>11.6</v>
-      </c>
-      <c r="L32" s="18">
-        <f t="shared" si="9"/>
-        <v>3.48</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="18" customFormat="1">
@@ -4224,34 +4459,34 @@
         <v>43</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F33" s="18">
         <v>1</v>
       </c>
       <c r="G33" s="18">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H33" s="18">
         <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I33" s="18">
         <v>60</v>
       </c>
-      <c r="I33" s="18">
-        <v>199</v>
-      </c>
       <c r="J33" s="18">
-        <f t="shared" si="2"/>
-        <v>119.4</v>
+        <f>H33*I33/100</f>
+        <v>18</v>
       </c>
       <c r="K33" s="18">
-        <v>13.5</v>
+        <v>11.6</v>
       </c>
       <c r="L33" s="18">
         <f t="shared" si="9"/>
-        <v>8.1</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="18" customFormat="1">
@@ -4259,34 +4494,34 @@
         <v>43</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F34" s="18">
         <v>1</v>
       </c>
       <c r="G34" s="18">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H34" s="18">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I34" s="18">
-        <v>94</v>
+        <v>199</v>
       </c>
       <c r="J34" s="18">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>119.4</v>
       </c>
       <c r="K34" s="18">
-        <v>2.9</v>
+        <v>13.5</v>
       </c>
       <c r="L34" s="18">
         <f t="shared" si="9"/>
-        <v>2.9</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="18" customFormat="1">
@@ -4294,175 +4529,175 @@
         <v>43</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F35" s="18">
         <v>1</v>
       </c>
       <c r="G35" s="18">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H35" s="18">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I35" s="18">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="J35" s="18">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="K35" s="18">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="L35" s="18">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="18" customFormat="1">
-      <c r="A36"/>
       <c r="C36" s="18" t="s">
         <v>43</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F36" s="18">
         <v>1</v>
       </c>
       <c r="G36" s="18">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="H36" s="18">
         <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="I36" s="18">
+        <v>54</v>
+      </c>
+      <c r="J36" s="18">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="K36" s="18">
+        <v>3</v>
+      </c>
+      <c r="L36" s="18">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="18" customFormat="1">
+      <c r="A37"/>
+      <c r="C37" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="18">
+        <v>1</v>
+      </c>
+      <c r="G37" s="18">
         <v>35</v>
-      </c>
-      <c r="I36" s="18">
-        <v>184.87</v>
-      </c>
-      <c r="J36" s="18">
-        <f t="shared" ref="J36" si="10">H36*I36/100</f>
-        <v>64.704499999999996</v>
-      </c>
-      <c r="K36" s="18">
-        <v>10.58</v>
-      </c>
-      <c r="L36" s="18">
-        <f t="shared" ref="L36" si="11">G36*K36/100</f>
-        <v>3.7030000000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="18" customFormat="1">
-      <c r="C37" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" s="18">
-        <v>1</v>
-      </c>
-      <c r="G37" s="18">
-        <v>200</v>
       </c>
       <c r="H37" s="18">
         <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="I37" s="18">
+        <v>184.87</v>
+      </c>
+      <c r="J37" s="18">
+        <f t="shared" ref="J37" si="10">H37*I37/100</f>
+        <v>64.704499999999996</v>
+      </c>
+      <c r="K37" s="18">
+        <v>10.58</v>
+      </c>
+      <c r="L37" s="18">
+        <f t="shared" ref="L37" si="11">G37*K37/100</f>
+        <v>3.7030000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="18" customFormat="1">
+      <c r="C38" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" s="18">
+        <v>1</v>
+      </c>
+      <c r="G38" s="18">
         <v>200</v>
       </c>
-      <c r="I37" s="18">
+      <c r="H38" s="18">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="I38" s="18">
         <v>97.58</v>
       </c>
-      <c r="J37" s="18">
+      <c r="J38" s="18">
         <f t="shared" si="2"/>
         <v>195.16</v>
       </c>
-      <c r="K37" s="18">
+      <c r="K38" s="18">
         <v>13.09</v>
       </c>
-      <c r="L37" s="18">
+      <c r="L38" s="18">
         <f t="shared" si="9"/>
         <v>26.18</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="18" customFormat="1">
-      <c r="C38" s="18" t="s">
+    <row r="39" spans="1:12" s="18" customFormat="1">
+      <c r="C39" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D39" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E39" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="18">
-        <v>1</v>
-      </c>
-      <c r="G38" s="18">
+      <c r="F39" s="18">
+        <v>1</v>
+      </c>
+      <c r="G39" s="18">
         <v>15</v>
       </c>
-      <c r="H38" s="18">
+      <c r="H39" s="18">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I38" s="18">
+      <c r="I39" s="18">
         <v>246</v>
       </c>
-      <c r="J38" s="18">
+      <c r="J39" s="18">
         <f t="shared" si="2"/>
         <v>36.9</v>
       </c>
-      <c r="K38" s="18">
+      <c r="K39" s="18">
         <v>31.4</v>
       </c>
-      <c r="L38" s="18">
+      <c r="L39" s="18">
         <f t="shared" si="9"/>
         <v>4.71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="16" customFormat="1">
-      <c r="C39" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F39" s="16">
-        <v>1</v>
-      </c>
-      <c r="G39" s="16">
-        <v>50</v>
-      </c>
-      <c r="H39" s="16">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="I39" s="16">
-        <v>106</v>
-      </c>
-      <c r="J39" s="16">
-        <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="K39" s="16">
-        <v>20.2</v>
-      </c>
-      <c r="L39" s="16">
-        <f t="shared" si="9"/>
-        <v>10.1</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="16" customFormat="1">
@@ -4470,7 +4705,7 @@
         <v>43</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>80</v>
@@ -4479,339 +4714,362 @@
         <v>1</v>
       </c>
       <c r="G40" s="16">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="H40" s="16">
         <f t="shared" si="1"/>
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="I40" s="16">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J40" s="16">
         <f t="shared" si="2"/>
-        <v>378</v>
+        <v>53</v>
       </c>
       <c r="K40" s="16">
-        <v>6.6</v>
+        <v>20.2</v>
       </c>
       <c r="L40" s="16">
         <f t="shared" si="9"/>
-        <v>29.7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="18" customFormat="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="16" customFormat="1">
       <c r="C41" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" s="16">
+        <v>1</v>
+      </c>
+      <c r="G41" s="16">
+        <v>450</v>
+      </c>
+      <c r="H41" s="16">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="I41" s="16">
+        <v>84</v>
+      </c>
+      <c r="J41" s="16">
+        <f t="shared" si="2"/>
+        <v>378</v>
+      </c>
+      <c r="K41" s="16">
+        <v>6.6</v>
+      </c>
+      <c r="L41" s="16">
+        <f t="shared" si="9"/>
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="53" customFormat="1">
+      <c r="A42" s="66"/>
+      <c r="C42" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" s="53">
+        <v>1</v>
+      </c>
+      <c r="G42" s="53">
+        <v>150</v>
+      </c>
+      <c r="H42" s="53">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="I42" s="53">
+        <v>170</v>
+      </c>
+      <c r="J42" s="53">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="K42" s="53">
+        <v>14.3</v>
+      </c>
+      <c r="L42" s="53">
+        <f t="shared" si="9"/>
+        <v>21.45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="18" customFormat="1">
+      <c r="C43" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E43" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F41" s="18">
-        <v>1</v>
-      </c>
-      <c r="G41" s="18">
+      <c r="F43" s="18">
+        <v>1</v>
+      </c>
+      <c r="G43" s="18">
         <v>10</v>
       </c>
-      <c r="H41" s="18">
+      <c r="H43" s="18">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I41" s="18">
+      <c r="I43" s="18">
         <v>48</v>
       </c>
-      <c r="J41" s="18">
+      <c r="J43" s="18">
         <f t="shared" si="2"/>
         <v>4.8</v>
       </c>
-      <c r="K41" s="18">
+      <c r="K43" s="18">
         <v>10.4</v>
       </c>
-      <c r="L41" s="18">
+      <c r="L43" s="18">
         <f t="shared" si="9"/>
         <v>1.04</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="16" customFormat="1">
-      <c r="C42" s="16" t="s">
+    <row r="44" spans="1:12" s="16" customFormat="1">
+      <c r="C44" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D44" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E44" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F42" s="16">
-        <v>1</v>
-      </c>
-      <c r="G42" s="16">
+      <c r="F44" s="16">
+        <v>1</v>
+      </c>
+      <c r="G44" s="16">
         <v>106</v>
       </c>
-      <c r="H42" s="16">
+      <c r="H44" s="16">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="I42" s="16">
+      <c r="I44" s="16">
         <v>53</v>
       </c>
-      <c r="J42" s="16">
+      <c r="J44" s="16">
         <f t="shared" si="2"/>
         <v>56.18</v>
       </c>
-      <c r="L42" s="16">
+      <c r="L44" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="22" customFormat="1">
-      <c r="A43" s="41"/>
-      <c r="C43" s="22" t="s">
+    <row r="45" spans="1:12" s="22" customFormat="1">
+      <c r="A45" s="41"/>
+      <c r="C45" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D45" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E45" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F43" s="22">
-        <v>1</v>
-      </c>
-      <c r="G43" s="22">
+      <c r="F45" s="22">
+        <v>1</v>
+      </c>
+      <c r="G45" s="22">
         <v>89</v>
       </c>
-      <c r="H43" s="22">
+      <c r="H45" s="22">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="I43" s="22">
+      <c r="I45" s="22">
         <v>93</v>
       </c>
-      <c r="J43" s="22">
+      <c r="J45" s="22">
         <f t="shared" si="2"/>
         <v>82.77</v>
       </c>
-      <c r="K43" s="22">
+      <c r="K45" s="22">
         <v>1.4</v>
       </c>
-      <c r="L43" s="22">
+      <c r="L45" s="22">
         <f t="shared" si="9"/>
         <v>1.246</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="43" customFormat="1">
-      <c r="A44" s="42"/>
-      <c r="C44" s="43" t="s">
+    <row r="46" spans="1:12" s="43" customFormat="1">
+      <c r="A46" s="42"/>
+      <c r="C46" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="43" t="s">
+      <c r="D46" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="43" t="s">
+      <c r="E46" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="F44" s="43">
-        <v>1</v>
-      </c>
-      <c r="G44" s="43">
+      <c r="F46" s="43">
+        <v>1</v>
+      </c>
+      <c r="G46" s="43">
         <v>172</v>
       </c>
-      <c r="H44" s="43">
+      <c r="H46" s="43">
         <f t="shared" si="1"/>
         <v>172</v>
       </c>
-      <c r="I44" s="43">
+      <c r="I46" s="43">
         <v>44</v>
       </c>
-      <c r="J44" s="43">
+      <c r="J46" s="43">
         <f t="shared" si="2"/>
         <v>75.680000000000007</v>
       </c>
-      <c r="K44" s="43">
+      <c r="K46" s="43">
         <v>1.06</v>
       </c>
-      <c r="L44" s="43">
+      <c r="L46" s="43">
         <f t="shared" si="9"/>
         <v>1.8232000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="43" customFormat="1">
-      <c r="A45" s="42"/>
-      <c r="C45" s="43" t="s">
+    <row r="47" spans="1:12" s="43" customFormat="1">
+      <c r="A47" s="42"/>
+      <c r="C47" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="D45" s="43" t="s">
+      <c r="D47" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="E45" s="43" t="s">
+      <c r="E47" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="F45" s="43">
-        <v>1</v>
-      </c>
-      <c r="G45" s="43">
+      <c r="F47" s="43">
+        <v>1</v>
+      </c>
+      <c r="G47" s="43">
         <v>120</v>
       </c>
-      <c r="H45" s="43">
+      <c r="H47" s="43">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="I45" s="43">
+      <c r="I47" s="43">
         <v>16</v>
       </c>
-      <c r="J45" s="43">
-        <f t="shared" ref="J45" si="12">H45*I45/100</f>
+      <c r="J47" s="43">
+        <f t="shared" ref="J47" si="12">H47*I47/100</f>
         <v>19.2</v>
       </c>
-      <c r="K45" s="43">
+      <c r="K47" s="43">
         <v>0.8</v>
       </c>
-      <c r="L45" s="43">
-        <f t="shared" ref="L45" si="13">G45*K45/100</f>
+      <c r="L47" s="43">
+        <f t="shared" ref="L47" si="13">G47*K47/100</f>
         <v>0.96</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="18" customFormat="1">
-      <c r="A46" s="44"/>
-      <c r="C46" s="18" t="s">
+    <row r="48" spans="1:12" s="65" customFormat="1">
+      <c r="A48"/>
+      <c r="C48" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="E48" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F48" s="65">
+        <v>1</v>
+      </c>
+      <c r="G48" s="65">
+        <v>140</v>
+      </c>
+      <c r="H48" s="65">
+        <f t="shared" ref="H48" si="14">F48*G48</f>
+        <v>140</v>
+      </c>
+      <c r="I48" s="65">
+        <v>31</v>
+      </c>
+      <c r="J48" s="65">
+        <f t="shared" ref="J48" si="15">H48*I48/100</f>
+        <v>43.4</v>
+      </c>
+      <c r="K48" s="65">
+        <v>1.8</v>
+      </c>
+      <c r="L48" s="65">
+        <f t="shared" ref="L48" si="16">G48*K48/100</f>
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="18" customFormat="1">
+      <c r="A49" s="44"/>
+      <c r="C49" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D49" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E49" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F46" s="18">
-        <v>1</v>
-      </c>
-      <c r="G46" s="18">
+      <c r="F49" s="18">
+        <v>1</v>
+      </c>
+      <c r="G49" s="18">
         <v>100</v>
       </c>
-      <c r="H46" s="18">
+      <c r="H49" s="18">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I46" s="18">
+      <c r="I49" s="18">
         <v>47</v>
       </c>
-      <c r="J46" s="18">
+      <c r="J49" s="18">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="L46" s="18">
-        <f t="shared" ref="L46" si="14">G46*K46/100</f>
+      <c r="L49" s="18">
+        <f t="shared" ref="L49" si="17">G49*K49/100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="18" customFormat="1">
-      <c r="C47" s="18" t="s">
+    <row r="50" spans="1:12" s="18" customFormat="1">
+      <c r="C50" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D50" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F47" s="18">
-        <v>1</v>
-      </c>
-      <c r="H47" s="18">
+      <c r="F50" s="18">
+        <v>1</v>
+      </c>
+      <c r="H50" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I47" s="18">
+      <c r="I50" s="18">
         <v>31</v>
       </c>
-      <c r="J47" s="18">
+      <c r="J50" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
-      </c>
-      <c r="L47" s="18">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" s="18" customFormat="1">
-      <c r="C48" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F48" s="18">
-        <v>1</v>
-      </c>
-      <c r="G48" s="18">
-        <v>200</v>
-      </c>
-      <c r="H48" s="18">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="I48" s="18">
-        <v>30</v>
-      </c>
-      <c r="J48" s="18">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="K48" s="18">
-        <v>2.4</v>
-      </c>
-      <c r="L48" s="18">
-        <f t="shared" si="9"/>
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" s="18" customFormat="1">
-      <c r="F49" s="18">
-        <v>1</v>
-      </c>
-      <c r="H49" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J49" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L49" s="18">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" s="18" customFormat="1">
-      <c r="C50" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F50" s="18">
-        <v>1</v>
-      </c>
-      <c r="G50" s="18">
-        <v>30</v>
-      </c>
-      <c r="H50" s="18">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="I50" s="18">
-        <v>615</v>
-      </c>
-      <c r="J50" s="18">
-        <f t="shared" si="2"/>
-        <v>184.5</v>
       </c>
       <c r="L50" s="18">
         <f t="shared" si="9"/>
@@ -4819,39 +5077,38 @@
       </c>
     </row>
     <row r="51" spans="1:12" s="18" customFormat="1">
-      <c r="A51"/>
       <c r="C51" s="18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="F51" s="18">
         <v>1</v>
       </c>
       <c r="G51" s="18">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="H51" s="18">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="I51" s="18">
-        <v>724</v>
+        <v>30</v>
       </c>
       <c r="J51" s="18">
         <f t="shared" si="2"/>
-        <v>72.400000000000006</v>
+        <v>60</v>
       </c>
       <c r="K51" s="18">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="L51" s="18">
         <f t="shared" si="9"/>
-        <v>0.28000000000000003</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="18" customFormat="1">
@@ -4876,125 +5133,281 @@
         <v>10</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="F53" s="18">
         <v>1</v>
       </c>
       <c r="G53" s="18">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H53" s="18">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I53" s="18">
-        <v>584</v>
+        <v>615</v>
       </c>
       <c r="J53" s="18">
         <f t="shared" si="2"/>
-        <v>584</v>
-      </c>
-      <c r="K53" s="18">
-        <v>22</v>
+        <v>184.5</v>
       </c>
       <c r="L53" s="18">
         <f t="shared" si="9"/>
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:12" s="18" customFormat="1">
+      <c r="A54"/>
+      <c r="C54" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>103</v>
+      </c>
       <c r="F54" s="18">
         <v>1</v>
+      </c>
+      <c r="G54" s="18">
+        <v>10</v>
       </c>
       <c r="H54" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I54" s="18">
+        <v>724</v>
       </c>
       <c r="J54" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>72.400000000000006</v>
+      </c>
+      <c r="K54" s="18">
+        <v>2.8</v>
       </c>
       <c r="L54" s="18">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="55" spans="1:12" s="18" customFormat="1">
-      <c r="C55" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>75</v>
-      </c>
       <c r="F55" s="18">
         <v>1</v>
-      </c>
-      <c r="G55" s="18">
-        <v>150</v>
       </c>
       <c r="H55" s="18">
         <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="I55" s="18">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="J55" s="18">
         <f t="shared" si="2"/>
-        <v>109.5</v>
-      </c>
-      <c r="K55" s="18">
-        <v>5.47</v>
+        <v>0</v>
       </c>
       <c r="L55" s="18">
         <f t="shared" si="9"/>
-        <v>8.2050000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="C56" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="18" customFormat="1">
+      <c r="C56" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" s="18">
+        <v>1</v>
+      </c>
+      <c r="G56" s="18">
+        <v>100</v>
+      </c>
+      <c r="H56" s="18">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I56" s="18">
+        <v>584</v>
+      </c>
+      <c r="J56" s="18">
+        <f t="shared" si="2"/>
+        <v>584</v>
+      </c>
+      <c r="K56" s="18">
+        <v>22</v>
+      </c>
+      <c r="L56" s="18">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" s="18" customFormat="1">
+      <c r="F57" s="18">
+        <v>1</v>
+      </c>
+      <c r="H57" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="18" customFormat="1">
+      <c r="C58" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="D56" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F56" s="15">
-        <v>1</v>
-      </c>
-      <c r="G56" s="15">
+      <c r="D58" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F58" s="18">
+        <v>1</v>
+      </c>
+      <c r="G58" s="18">
         <v>150</v>
       </c>
-      <c r="H56" s="15">
+      <c r="H58" s="18">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="I56" s="15">
+      <c r="I58" s="18">
+        <v>73</v>
+      </c>
+      <c r="J58" s="18">
+        <f t="shared" si="2"/>
+        <v>109.5</v>
+      </c>
+      <c r="K58" s="18">
+        <v>5.47</v>
+      </c>
+      <c r="L58" s="18">
+        <f t="shared" si="9"/>
+        <v>8.2050000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="C59" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F59" s="15">
+        <v>1</v>
+      </c>
+      <c r="G59" s="15">
+        <v>150</v>
+      </c>
+      <c r="H59" s="15">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="I59" s="15">
         <v>41</v>
       </c>
-      <c r="J56" s="15">
+      <c r="J59" s="15">
         <f t="shared" si="2"/>
         <v>61.5</v>
       </c>
-      <c r="K56" s="15">
+      <c r="K59" s="15">
         <v>1.44</v>
       </c>
-      <c r="L56" s="15">
+      <c r="L59" s="15">
         <f t="shared" si="9"/>
         <v>2.16</v>
       </c>
     </row>
+    <row r="60" spans="1:12">
+      <c r="A60"/>
+      <c r="C60" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="E60" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="F60" s="15">
+        <v>1</v>
+      </c>
+      <c r="G60" s="15">
+        <v>300</v>
+      </c>
+      <c r="H60" s="50">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="I60" s="15">
+        <v>36.380000000000003</v>
+      </c>
+      <c r="J60" s="50">
+        <f t="shared" si="2"/>
+        <v>109.14</v>
+      </c>
+      <c r="K60" s="50">
+        <v>1</v>
+      </c>
+      <c r="L60" s="50">
+        <f t="shared" ref="L60:L61" si="18">G60*K60/100</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="C61" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="E61" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="F61" s="15">
+        <v>1</v>
+      </c>
+      <c r="G61" s="15">
+        <v>400</v>
+      </c>
+      <c r="H61" s="50">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="I61" s="15">
+        <v>21.03</v>
+      </c>
+      <c r="J61" s="50">
+        <f t="shared" si="2"/>
+        <v>84.12</v>
+      </c>
+      <c r="K61" s="50">
+        <v>0</v>
+      </c>
+      <c r="L61" s="50">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5002,11 +5415,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A3:M76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:M108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6377,7 +6790,7 @@
       </c>
       <c r="B50" s="33">
         <f>SUM(J49:J60)</f>
-        <v>1650.0235</v>
+        <v>1839.0235</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>29</v>
@@ -6463,7 +6876,7 @@
       </c>
       <c r="B52" s="33">
         <f>SUMIF(C49:C60,A52,J49:J60)</f>
-        <v>284.71350000000001</v>
+        <v>473.71350000000001</v>
       </c>
       <c r="C52" s="16" t="s">
         <v>29</v>
@@ -6627,7 +7040,7 @@
       </c>
       <c r="B56" s="33">
         <f>SUM(L49:L60)</f>
-        <v>63.703499999999998</v>
+        <v>88.703499999999991</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>43</v>
@@ -6703,16 +7116,36 @@
     <row r="58" spans="1:13">
       <c r="A58" s="35"/>
       <c r="B58" s="33"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
+      <c r="C58" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="E58" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F58" s="51">
+        <v>1.5</v>
+      </c>
+      <c r="G58" s="51">
+        <v>100</v>
+      </c>
+      <c r="H58" s="51">
+        <v>150</v>
+      </c>
+      <c r="I58" s="51">
+        <v>126</v>
+      </c>
+      <c r="J58" s="51">
+        <v>189</v>
+      </c>
+      <c r="K58" s="51">
+        <v>22</v>
+      </c>
+      <c r="L58" s="51">
+        <v>25</v>
+      </c>
       <c r="M58" s="26"/>
     </row>
     <row r="59" spans="1:13">
@@ -7221,8 +7654,683 @@
       <c r="L76" s="46"/>
       <c r="M76" s="48"/>
     </row>
+    <row r="79" spans="1:13" ht="17.25" thickBot="1"/>
+    <row r="80" spans="1:13">
+      <c r="A80" s="57"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="G80" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="H80" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="I80" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="J80" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="K80" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="L80" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M80" s="59"/>
+    </row>
+    <row r="81" spans="1:13" ht="17.25" thickBot="1">
+      <c r="A81" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B81" s="64">
+        <v>43617</v>
+      </c>
+      <c r="C81" s="54"/>
+      <c r="D81" s="52"/>
+      <c r="E81" s="54"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="54"/>
+      <c r="H81" s="54"/>
+      <c r="I81" s="54"/>
+      <c r="J81" s="54"/>
+      <c r="K81" s="54"/>
+      <c r="L81" s="54"/>
+      <c r="M81" s="55"/>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B82" s="60">
+        <f>SUM(J81:J92)</f>
+        <v>0</v>
+      </c>
+      <c r="C82" s="53"/>
+      <c r="D82" s="53"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="53"/>
+      <c r="H82" s="53"/>
+      <c r="I82" s="53"/>
+      <c r="J82" s="53"/>
+      <c r="K82" s="53"/>
+      <c r="L82" s="53"/>
+      <c r="M82" s="55"/>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83" s="60">
+        <f>SUMIF(C81:C92,A83,J81:J92)</f>
+        <v>0</v>
+      </c>
+      <c r="C83" s="56"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="56"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="56"/>
+      <c r="I83" s="56"/>
+      <c r="J83" s="56"/>
+      <c r="K83" s="56"/>
+      <c r="L83" s="56"/>
+      <c r="M83" s="55"/>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="60">
+        <f>SUMIF(C81:C92,A84,J81:J92)</f>
+        <v>0</v>
+      </c>
+      <c r="C84" s="53"/>
+      <c r="D84" s="53"/>
+      <c r="E84" s="53"/>
+      <c r="F84" s="53"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="53"/>
+      <c r="I84" s="53"/>
+      <c r="J84" s="53"/>
+      <c r="K84" s="53"/>
+      <c r="L84" s="53"/>
+      <c r="M84" s="55"/>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="60">
+        <f>SUMIF(C81:C92,A85,J81:J92)</f>
+        <v>0</v>
+      </c>
+      <c r="C85" s="53"/>
+      <c r="D85" s="53"/>
+      <c r="E85" s="53"/>
+      <c r="F85" s="53"/>
+      <c r="G85" s="53"/>
+      <c r="H85" s="53"/>
+      <c r="I85" s="53"/>
+      <c r="J85" s="53"/>
+      <c r="K85" s="53"/>
+      <c r="L85" s="53"/>
+      <c r="M85" s="55"/>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="62"/>
+      <c r="B86" s="60"/>
+      <c r="C86" s="50"/>
+      <c r="D86" s="50"/>
+      <c r="E86" s="50"/>
+      <c r="F86" s="50"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="50"/>
+      <c r="I86" s="50"/>
+      <c r="J86" s="50"/>
+      <c r="K86" s="50"/>
+      <c r="L86" s="50"/>
+      <c r="M86" s="55"/>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" s="60"/>
+      <c r="C87" s="65"/>
+      <c r="D87" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="E87" s="65"/>
+      <c r="F87" s="65"/>
+      <c r="G87" s="65"/>
+      <c r="H87" s="65"/>
+      <c r="I87" s="65"/>
+      <c r="J87" s="65"/>
+      <c r="K87" s="65"/>
+      <c r="L87" s="65"/>
+      <c r="M87" s="55"/>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="60">
+        <f>SUM(L81:L92)</f>
+        <v>0</v>
+      </c>
+      <c r="C88" s="53"/>
+      <c r="D88" s="53"/>
+      <c r="E88" s="53"/>
+      <c r="F88" s="53"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="53"/>
+      <c r="I88" s="53"/>
+      <c r="J88" s="53"/>
+      <c r="K88" s="53"/>
+      <c r="L88" s="53"/>
+      <c r="M88" s="55"/>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="61"/>
+      <c r="B89" s="60"/>
+      <c r="C89" s="53"/>
+      <c r="D89" s="53"/>
+      <c r="E89" s="53"/>
+      <c r="F89" s="53"/>
+      <c r="G89" s="53"/>
+      <c r="H89" s="53"/>
+      <c r="I89" s="53"/>
+      <c r="J89" s="53"/>
+      <c r="K89" s="53"/>
+      <c r="L89" s="53"/>
+      <c r="M89" s="47"/>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="61"/>
+      <c r="B90" s="45"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="45"/>
+      <c r="E90" s="45"/>
+      <c r="F90" s="45"/>
+      <c r="G90" s="45"/>
+      <c r="H90" s="45"/>
+      <c r="I90" s="45"/>
+      <c r="J90" s="45"/>
+      <c r="K90" s="45"/>
+      <c r="L90" s="45"/>
+      <c r="M90" s="47"/>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="61"/>
+      <c r="B91" s="45"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="51"/>
+      <c r="E91" s="51"/>
+      <c r="F91" s="51"/>
+      <c r="G91" s="51"/>
+      <c r="H91" s="51"/>
+      <c r="I91" s="51"/>
+      <c r="J91" s="51"/>
+      <c r="K91" s="51"/>
+      <c r="L91" s="51"/>
+      <c r="M91" s="47"/>
+    </row>
+    <row r="92" spans="1:13" ht="17.25" thickBot="1">
+      <c r="A92" s="63"/>
+      <c r="B92" s="46"/>
+      <c r="C92" s="46"/>
+      <c r="D92" s="46"/>
+      <c r="E92" s="46"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="46"/>
+      <c r="H92" s="46"/>
+      <c r="I92" s="46"/>
+      <c r="J92" s="46"/>
+      <c r="K92" s="46"/>
+      <c r="L92" s="46"/>
+      <c r="M92" s="48"/>
+    </row>
+    <row r="95" spans="1:13" ht="17.25" thickBot="1"/>
+    <row r="96" spans="1:13">
+      <c r="A96" s="57"/>
+      <c r="B96" s="58"/>
+      <c r="C96" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="G96" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="H96" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="I96" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="J96" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="K96" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="L96" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M96" s="59"/>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B97" s="64">
+        <v>43618</v>
+      </c>
+      <c r="C97" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D97" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="E97" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="F97" s="51">
+        <v>1</v>
+      </c>
+      <c r="G97" s="51">
+        <v>100</v>
+      </c>
+      <c r="H97" s="53">
+        <f t="shared" ref="H97:H99" si="33">F97*G97</f>
+        <v>100</v>
+      </c>
+      <c r="I97" s="51">
+        <v>466</v>
+      </c>
+      <c r="J97" s="51">
+        <f>H97*I97/100</f>
+        <v>466</v>
+      </c>
+      <c r="K97" s="51">
+        <v>19.3</v>
+      </c>
+      <c r="L97" s="51">
+        <f t="shared" ref="L97:L99" si="34">G97*K97/100</f>
+        <v>19.3</v>
+      </c>
+      <c r="M97" s="55"/>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B98" s="60">
+        <f>SUM(J97:J108)</f>
+        <v>1816.0800000000002</v>
+      </c>
+      <c r="C98" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D98" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="E98" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="F98" s="50">
+        <v>1</v>
+      </c>
+      <c r="G98" s="50">
+        <v>400</v>
+      </c>
+      <c r="H98" s="50">
+        <f t="shared" si="33"/>
+        <v>400</v>
+      </c>
+      <c r="I98" s="50">
+        <v>21.03</v>
+      </c>
+      <c r="J98" s="50">
+        <f t="shared" ref="J98:J99" si="35">H98*I98/100</f>
+        <v>84.12</v>
+      </c>
+      <c r="K98" s="50">
+        <v>0</v>
+      </c>
+      <c r="L98" s="50">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="M98" s="55"/>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B99" s="60">
+        <f>SUMIF(C97:C108,A99,J97:J108)</f>
+        <v>689.08</v>
+      </c>
+      <c r="C99" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D99" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="E99" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="F99" s="53">
+        <v>1</v>
+      </c>
+      <c r="G99" s="53">
+        <v>100</v>
+      </c>
+      <c r="H99" s="53">
+        <f t="shared" si="33"/>
+        <v>100</v>
+      </c>
+      <c r="I99" s="53">
+        <v>29.82</v>
+      </c>
+      <c r="J99" s="53">
+        <f t="shared" si="35"/>
+        <v>29.82</v>
+      </c>
+      <c r="K99" s="53">
+        <v>0.68</v>
+      </c>
+      <c r="L99" s="53">
+        <f t="shared" si="34"/>
+        <v>0.68</v>
+      </c>
+      <c r="M99" s="55"/>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="60">
+        <f>SUMIF(C97:C108,A100,J97:J108)</f>
+        <v>1083.5999999999999</v>
+      </c>
+      <c r="C100" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D100" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="E100" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="F100" s="53">
+        <v>20</v>
+      </c>
+      <c r="G100" s="53">
+        <v>15</v>
+      </c>
+      <c r="H100" s="53">
+        <f t="shared" ref="H100:H104" si="36">F100*G100</f>
+        <v>300</v>
+      </c>
+      <c r="I100" s="53">
+        <v>246</v>
+      </c>
+      <c r="J100" s="53">
+        <f t="shared" ref="J100:J104" si="37">H100*I100/100</f>
+        <v>738</v>
+      </c>
+      <c r="K100" s="53">
+        <v>31.4</v>
+      </c>
+      <c r="L100" s="53">
+        <f t="shared" ref="L100:L101" si="38">G100*K100/100</f>
+        <v>4.71</v>
+      </c>
+      <c r="M100" s="55"/>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" s="60">
+        <f>SUMIF(C97:C108,A101,J97:J108)</f>
+        <v>0</v>
+      </c>
+      <c r="C101" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="D101" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="E101" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="F101" s="51">
+        <v>1</v>
+      </c>
+      <c r="G101" s="51">
+        <v>150</v>
+      </c>
+      <c r="H101" s="51">
+        <f t="shared" si="36"/>
+        <v>150</v>
+      </c>
+      <c r="I101" s="51">
+        <v>170</v>
+      </c>
+      <c r="J101" s="51">
+        <f t="shared" si="37"/>
+        <v>255</v>
+      </c>
+      <c r="K101" s="51">
+        <v>14.3</v>
+      </c>
+      <c r="L101" s="51">
+        <f t="shared" si="38"/>
+        <v>21.45</v>
+      </c>
+      <c r="M101" s="55"/>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="62"/>
+      <c r="B102" s="60"/>
+      <c r="C102" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="D102" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="E102" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F102" s="65">
+        <v>1</v>
+      </c>
+      <c r="G102" s="65">
+        <v>140</v>
+      </c>
+      <c r="H102" s="65">
+        <f t="shared" si="36"/>
+        <v>140</v>
+      </c>
+      <c r="I102" s="65">
+        <v>31</v>
+      </c>
+      <c r="J102" s="65">
+        <f t="shared" si="37"/>
+        <v>43.4</v>
+      </c>
+      <c r="K102" s="50"/>
+      <c r="L102" s="50"/>
+      <c r="M102" s="55"/>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B103" s="60"/>
+      <c r="C103" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D103" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E103" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="F103" s="53">
+        <v>1</v>
+      </c>
+      <c r="G103" s="53">
+        <v>60</v>
+      </c>
+      <c r="H103" s="53">
+        <f t="shared" si="36"/>
+        <v>60</v>
+      </c>
+      <c r="I103" s="53">
+        <v>151</v>
+      </c>
+      <c r="J103" s="53">
+        <f t="shared" si="37"/>
+        <v>90.6</v>
+      </c>
+      <c r="K103" s="53">
+        <v>12.1</v>
+      </c>
+      <c r="L103" s="53">
+        <f>G103*K103/100</f>
+        <v>7.26</v>
+      </c>
+      <c r="M103" s="55"/>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="60">
+        <f>SUM(L97:L108)</f>
+        <v>56.4</v>
+      </c>
+      <c r="C104" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D104" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="E104" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="F104" s="50">
+        <v>1</v>
+      </c>
+      <c r="G104" s="50">
+        <v>300</v>
+      </c>
+      <c r="H104" s="50">
+        <f t="shared" si="36"/>
+        <v>300</v>
+      </c>
+      <c r="I104" s="50">
+        <v>36.380000000000003</v>
+      </c>
+      <c r="J104" s="50">
+        <f t="shared" si="37"/>
+        <v>109.14</v>
+      </c>
+      <c r="K104" s="50">
+        <v>1</v>
+      </c>
+      <c r="L104" s="50">
+        <f t="shared" ref="L104" si="39">G104*K104/100</f>
+        <v>3</v>
+      </c>
+      <c r="M104" s="55"/>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" s="61"/>
+      <c r="B105" s="60"/>
+      <c r="C105" s="53"/>
+      <c r="D105" s="53"/>
+      <c r="E105" s="53"/>
+      <c r="F105" s="53"/>
+      <c r="G105" s="53"/>
+      <c r="H105" s="53"/>
+      <c r="I105" s="53"/>
+      <c r="J105" s="53"/>
+      <c r="K105" s="53"/>
+      <c r="L105" s="53"/>
+      <c r="M105" s="47"/>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" s="61"/>
+      <c r="B106" s="45"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="45"/>
+      <c r="E106" s="45"/>
+      <c r="F106" s="45"/>
+      <c r="G106" s="45"/>
+      <c r="H106" s="45"/>
+      <c r="I106" s="45"/>
+      <c r="J106" s="45"/>
+      <c r="K106" s="45"/>
+      <c r="L106" s="45"/>
+      <c r="M106" s="47"/>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107" s="61"/>
+      <c r="B107" s="45"/>
+      <c r="C107" s="51"/>
+      <c r="D107" s="51"/>
+      <c r="E107" s="51"/>
+      <c r="F107" s="51"/>
+      <c r="G107" s="51"/>
+      <c r="H107" s="51"/>
+      <c r="I107" s="51"/>
+      <c r="J107" s="51"/>
+      <c r="K107" s="51"/>
+      <c r="L107" s="51"/>
+      <c r="M107" s="47"/>
+    </row>
+    <row r="108" spans="1:13" ht="17.25" thickBot="1">
+      <c r="A108" s="63"/>
+      <c r="B108" s="46"/>
+      <c r="C108" s="46"/>
+      <c r="D108" s="46"/>
+      <c r="E108" s="46"/>
+      <c r="F108" s="46"/>
+      <c r="G108" s="46"/>
+      <c r="H108" s="46"/>
+      <c r="I108" s="46"/>
+      <c r="J108" s="46"/>
+      <c r="K108" s="46"/>
+      <c r="L108" s="46"/>
+      <c r="M108" s="48"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/减脂增肌.xlsx
+++ b/减脂增肌.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\健身\fitness\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E110177-21AB-45FC-96AF-4FE590FB683C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15990" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,12 +21,22 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$C$16:$C$23</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">Sheet3!$F$23:$F$27</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="116">
   <si>
     <t>单位</t>
   </si>
@@ -62,209 +78,209 @@
   </si>
   <si>
     <t>类别</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>食物</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>日常计量</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>大卡</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>千焦（KJ）</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>大卡(KCAL)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>总和</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>约等于</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>千焦</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>输入大卡</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>输入千焦</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>质量g</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>单位热量Kcal/100g</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>热量Kcal</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>单位蛋白质g/100g</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>蛋白质g</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>碳水</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>土豆</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>玉米</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>意大利面</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>小米粥</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>米饭</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>猪肉包</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>全麦面包</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1个</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>馒头</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>紫薯</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>米粉</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>绿豆</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>黑米粥</t>
   </si>
   <si>
     <t>蛋白质</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>鸡蛋</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>鸡胸肉</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>蛋清</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>煎鸡蛋</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>面条</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>酸奶</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>牛奶</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>水果</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>苹果</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>豆浆</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>酱牛肉</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>牛肉</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>瓜子</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>虾仁</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>豆腐</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>总热量</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>脂肪</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>绿豆粥</t>
   </si>
   <si>
     <t>土豆丝</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>煎饼</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2碗</t>
@@ -358,39 +374,39 @@
   </si>
   <si>
     <t>碳水</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>蔬菜沙拉</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1碗</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>水果</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>西瓜汁</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1杯</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>金枪鱼蔬菜沙拉</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>沙拉酱</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1勺</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>南瓜粥</t>
@@ -427,72 +443,13 @@
   </si>
   <si>
     <t>炒青菜</t>
-  </si>
-  <si>
-    <t>鸡胸肉</t>
-  </si>
-  <si>
-    <t>脉动</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛排</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>满月酒</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>烧饼</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>1个</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>碳水</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>1瓶</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>1片</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛋白质</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>1块</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>水果</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>西瓜</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉米汤</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>1碗</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,15 +460,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -520,7 +469,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Cambria"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -529,7 +478,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -538,7 +487,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -547,7 +496,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -555,7 +504,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -563,7 +512,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -571,7 +520,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -579,7 +528,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -588,7 +537,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -597,7 +546,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -605,7 +554,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -614,7 +563,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -622,7 +571,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -631,7 +580,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -640,7 +589,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -648,7 +597,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1142,132 +1091,57 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1276,36 +1150,69 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1313,260 +1220,202 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="57">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="18" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="43"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="22" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="45"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="26" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="47"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="30" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="49"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="51"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="53"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="19" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="44"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="23" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="46"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="27" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="48"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="50"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="35" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="52"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="39" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="54"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="20" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="24" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="28" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="32" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="36" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="40" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="41"/>
-    <cellStyle name="常规 2 2" xfId="55"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="16" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="15" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="21" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="25" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="29" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="33" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="37" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="注释 2" xfId="42"/>
-    <cellStyle name="注释 2 2" xfId="56"/>
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="常规 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="注释 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1576,13 +1425,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1590,7 +1439,7 @@
         <xdr:cNvPr id="2049" name="Picture 1" descr="http://s2.boohee.cn/food/star/mantou_junzhi-eebf1a1047a2c77b1611f7fa1530b522.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1622,13 +1471,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1636,7 +1485,7 @@
         <xdr:cNvPr id="2050" name="Picture 2" descr="http://s2.boohee.cn/food/star/mifen-5417640ffeef94b4890adc8f223575b6.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1668,13 +1517,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1682,7 +1531,7 @@
         <xdr:cNvPr id="2051" name="Picture 3" descr="http://s2.boohee.cn/food/star/lvdou-abb3662f6104fb8d05203374a6f71125.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1714,13 +1563,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1728,7 +1577,7 @@
         <xdr:cNvPr id="2052" name="Picture 4" descr="http://s2.boohee.cn/food/star/heimizhou-96bc011520f5fa9c449a0c04f462933a.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1760,13 +1609,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>21166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>209549</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1774,7 +1623,7 @@
         <xdr:cNvPr id="2053" name="Picture 5" descr="http://s2.boohee.cn/food/star/jixiongfurou-838288502b3a279a85e51959b2625cbb.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1806,13 +1655,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>148167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1820,7 +1669,7 @@
         <xdr:cNvPr id="2054" name="Picture 6" descr="http://s2.boohee.cn/food/star/hebaodan_youjian-ecdd3bc2083df7d4f3f16c3f73b46ad1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1852,13 +1701,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>26458</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1866,7 +1715,7 @@
         <xdr:cNvPr id="2055" name="Picture 7" descr="http://s2.boohee.cn/food/star/miantiao_fuqiangfen_zhu-f98e799ed60d85715309652831e34fb4.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1898,13 +1747,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1912,7 +1761,7 @@
         <xdr:cNvPr id="2056" name="Picture 8" descr="http://s2.boohee.cn/food/star/niuru_junzhi-a27fe2d98e468f5174cff506bd4ac30e.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1944,13 +1793,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>150283</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1958,7 +1807,7 @@
         <xdr:cNvPr id="2057" name="Picture 9" descr="http://s2.boohee.cn/food/star/pingguo_junzhi-8a4b1966ee455751bdabeba92fe6aea7.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1990,13 +1839,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>242889</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2004,7 +1853,7 @@
         <xdr:cNvPr id="2058" name="Picture 10" descr="http://s2.boohee.cn/food/star/niurou_shou-35b252e8a7dc82545fd8d0c682ab7634.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2036,13 +1885,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2050,7 +1899,7 @@
         <xdr:cNvPr id="2059" name="Picture 11" descr="http://s2.boohee.cn/food/star/dounai-afbb33b4205be58a6579cef0075cc635.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2082,13 +1931,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>148167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2096,7 +1945,7 @@
         <xdr:cNvPr id="2060" name="Picture 12" descr="http://s2.boohee.cn/food/star/kuihuaziren-35ecdeccf4b3ab68b27ed7fa3f370c88.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2128,13 +1977,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2142,7 +1991,7 @@
         <xdr:cNvPr id="2061" name="Picture 13" descr="http://s2.boohee.cn/food/star/doufu_junzhi-c00d094a7a0e51393cb567814df97922.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2188,7 +2037,7 @@
         <xdr:cNvPr id="2062" name="Picture 14" descr="http://s2.boohee.cn/food/star/lvdouzhou-a25d46fa0205ecd0a0f89b573bfc420d.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2220,13 +2069,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2234,7 +2083,7 @@
         <xdr:cNvPr id="16" name="Picture 15" descr="http://s2.boohee.cn/food/star/kaifengguantangbao-0c0a391c85d62d20f460de7ebd72d3fc.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2246,7 +2095,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2266,7 +2115,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2281,13 +2130,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2295,7 +2144,7 @@
         <xdr:cNvPr id="17" name="Picture 16" descr="http://s2.boohee.cn/food/star/xiangjiao-a02e0b0a9cc11382f89c023a0abe5c26.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,7 +2156,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2327,7 +2176,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2342,13 +2191,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>20108</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2356,7 +2205,7 @@
         <xdr:cNvPr id="18" name="Picture 17" descr="http://s2.boohee.cn/food/star/tao_junzhi-cfad8f99b49568df71206244fe6102a8.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2368,7 +2217,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2388,7 +2237,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2412,7 +2261,7 @@
         <xdr:cNvPr id="19" name="Picture 14" descr="http://s2.boohee.cn/food/star/lvdouzhou-a25d46fa0205ecd0a0f89b573bfc420d.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2444,13 +2293,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>433389</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2458,7 +2307,7 @@
         <xdr:cNvPr id="1025" name="Picture 1" descr="http://s2.boohee.cn/food/star/shucaishala-5a8e9eb8cbb4194b4afffa720d2a0bf7.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2490,13 +2339,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>201083</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2504,7 +2353,7 @@
         <xdr:cNvPr id="1026" name="Picture 2" descr="http://s2.boohee.cn/food/star/jinqiangyushucaishala_wushalajiang-ce4ca0c7cc32257f837c393f3050c877.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2536,13 +2385,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>137583</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2550,7 +2399,7 @@
         <xdr:cNvPr id="1027" name="Picture 3" descr="http://s2.boohee.cn/food/star/shalajiang-bf0caecb9e24b8497fdfd42da8740fc4.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2582,13 +2431,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>300039</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2596,7 +2445,7 @@
         <xdr:cNvPr id="23" name="Picture 22" descr="http://s2.boohee.cn/food/star/jidanbing-aae559b0f1fdc016e0c99bd0e9f52834.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{97787869-7725-4C86-B61D-87096A6A8E65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97787869-7725-4C86-B61D-87096A6A8E65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2605,10 +2454,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2628,7 +2477,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2643,13 +2492,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2657,7 +2506,7 @@
         <xdr:cNvPr id="25" name="Picture 24" descr="http://s2.boohee.cn/food/star/qingdunpaigu-9d0bb3a3c28831ec6c8752a9267b7d9b.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9931887-2AF9-4310-A53A-E502E4D6DD7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9931887-2AF9-4310-A53A-E502E4D6DD7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2666,10 +2515,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2689,7 +2538,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2700,131 +2549,11 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="http://s2.boohee.cn/food/star/xigua_junzhi-21ca9c4ebf052c715635aee817282201.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="9858375"/>
-          <a:ext cx="771525" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="http://s2.boohee.cn/food/star/yumitangxiaomizhou-24b50dc800209120bc96d8e0ef1bca74.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1" y="12372975"/>
-          <a:ext cx="685800" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="http://s2.boohee.cn/food/star/heijiaoniupai-974c0876b4ab5c27293c84f299326ba1.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="8667750"/>
-          <a:ext cx="685800" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2866,7 +2595,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2898,9 +2627,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2932,6 +2679,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3107,7 +2872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3360,19 +3125,19 @@
       <c r="G18" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L60" sqref="C60:L60"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3481,51 +3246,48 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="L3" s="16">
-        <f t="shared" ref="L3:L29" si="0">G3*K3/100</f>
+        <f t="shared" ref="L3:L28" si="0">G3*K3/100</f>
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="51" customFormat="1">
+    <row r="4" spans="1:12" s="18" customFormat="1">
       <c r="C4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" s="51">
-        <v>1</v>
-      </c>
-      <c r="G4" s="51">
-        <v>100</v>
-      </c>
-      <c r="H4" s="53">
-        <f t="shared" ref="H4:H61" si="1">F4*G4</f>
-        <v>100</v>
-      </c>
-      <c r="I4" s="51">
-        <v>466</v>
-      </c>
-      <c r="J4" s="51">
-        <f>H4*I4/100</f>
-        <v>466</v>
-      </c>
-      <c r="K4" s="51">
-        <v>19.3</v>
-      </c>
-      <c r="L4" s="51">
+      <c r="D4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="18">
+        <v>1</v>
+      </c>
+      <c r="G4" s="18">
+        <v>40</v>
+      </c>
+      <c r="H4" s="18">
+        <f t="shared" ref="H4:H56" si="1">F4*G4</f>
+        <v>40</v>
+      </c>
+      <c r="I4" s="18">
+        <v>76</v>
+      </c>
+      <c r="J4" s="18">
+        <f t="shared" ref="J4:J56" si="2">H4*I4/100</f>
+        <v>30.4</v>
+      </c>
+      <c r="L4" s="18">
         <f t="shared" si="0"/>
-        <v>19.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="18" customFormat="1">
-      <c r="C5" s="53" t="s">
-        <v>29</v>
+      <c r="C5" s="18" t="s">
+        <v>8</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>67</v>
@@ -3534,65 +3296,66 @@
         <v>1</v>
       </c>
       <c r="G5" s="18">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H5" s="18">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I5" s="18">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="J5" s="18">
-        <f t="shared" ref="J5:J61" si="2">H5*I5/100</f>
-        <v>30.4</v>
+        <f t="shared" si="2"/>
+        <v>88.65</v>
+      </c>
+      <c r="K5" s="18">
+        <v>8.52</v>
       </c>
       <c r="L5" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.8339999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="18" customFormat="1">
       <c r="C6" s="18" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F6" s="18">
         <v>1</v>
       </c>
       <c r="G6" s="18">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="H6" s="18">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="I6" s="18">
-        <v>197</v>
+        <v>354</v>
       </c>
       <c r="J6" s="18">
         <f t="shared" si="2"/>
-        <v>88.65</v>
-      </c>
-      <c r="K6" s="18">
-        <v>8.52</v>
+        <v>283.2</v>
       </c>
       <c r="L6" s="18">
         <f t="shared" si="0"/>
-        <v>3.8339999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="18" customFormat="1">
+      <c r="A7"/>
       <c r="C7" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>71</v>
@@ -3601,58 +3364,60 @@
         <v>1</v>
       </c>
       <c r="G7" s="18">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="H7" s="18">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <f t="shared" ref="H7" si="3">F7*G7</f>
+        <v>200</v>
       </c>
       <c r="I7" s="18">
-        <v>354</v>
+        <v>244</v>
       </c>
       <c r="J7" s="18">
-        <f t="shared" si="2"/>
-        <v>283.2</v>
+        <f t="shared" ref="J7" si="4">H7*I7/100</f>
+        <v>488</v>
+      </c>
+      <c r="K7" s="18">
+        <v>9.92</v>
       </c>
       <c r="L7" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="L7" si="5">G7*K7/100</f>
+        <v>19.84</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="18" customFormat="1">
-      <c r="A8"/>
       <c r="C8" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8" s="18">
         <v>1</v>
       </c>
       <c r="G8" s="18">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H8" s="18">
-        <f t="shared" ref="H8" si="3">F8*G8</f>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>300</v>
       </c>
       <c r="I8" s="18">
-        <v>244</v>
+        <v>121.5</v>
       </c>
       <c r="J8" s="18">
-        <f t="shared" ref="J8" si="4">H8*I8/100</f>
-        <v>488</v>
+        <f t="shared" si="2"/>
+        <v>364.5</v>
       </c>
       <c r="K8" s="18">
-        <v>9.92</v>
+        <v>2.25</v>
       </c>
       <c r="L8" s="18">
-        <f t="shared" ref="L8" si="5">G8*K8/100</f>
-        <v>19.84</v>
+        <f t="shared" si="0"/>
+        <v>6.75</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="18" customFormat="1">
@@ -3660,34 +3425,31 @@
         <v>29</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F9" s="18">
         <v>1</v>
       </c>
       <c r="G9" s="18">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="H9" s="18">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="I9" s="18">
-        <v>121.5</v>
+        <v>106</v>
       </c>
       <c r="J9" s="18">
         <f t="shared" si="2"/>
-        <v>364.5</v>
-      </c>
-      <c r="K9" s="18">
-        <v>2.25</v>
+        <v>148.4</v>
       </c>
       <c r="L9" s="18">
         <f t="shared" si="0"/>
-        <v>6.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="18" customFormat="1">
@@ -3695,27 +3457,27 @@
         <v>29</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F10" s="18">
         <v>1</v>
       </c>
       <c r="G10" s="18">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="H10" s="18">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="I10" s="18">
-        <v>106</v>
+        <v>361</v>
       </c>
       <c r="J10" s="18">
         <f t="shared" si="2"/>
-        <v>148.4</v>
+        <v>144.4</v>
       </c>
       <c r="L10" s="18">
         <f t="shared" si="0"/>
@@ -3727,27 +3489,27 @@
         <v>29</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F11" s="18">
         <v>1</v>
       </c>
       <c r="G11" s="18">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="H11" s="18">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="I11" s="18">
-        <v>361</v>
+        <v>46</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" si="2"/>
-        <v>144.4</v>
+        <v>138</v>
       </c>
       <c r="L11" s="18">
         <f t="shared" si="0"/>
@@ -3759,7 +3521,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>75</v>
@@ -3768,22 +3530,25 @@
         <v>1</v>
       </c>
       <c r="G12" s="18">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H12" s="18">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I12" s="18">
-        <v>46</v>
+        <v>29.82</v>
       </c>
       <c r="J12" s="18">
         <f t="shared" si="2"/>
-        <v>138</v>
+        <v>29.82</v>
+      </c>
+      <c r="K12" s="18">
+        <v>0.68</v>
       </c>
       <c r="L12" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="18" customFormat="1">
@@ -3791,7 +3556,7 @@
         <v>29</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>75</v>
@@ -3800,25 +3565,25 @@
         <v>1</v>
       </c>
       <c r="G13" s="18">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H13" s="18">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I13" s="18">
-        <v>29.82</v>
+        <v>53</v>
       </c>
       <c r="J13" s="18">
         <f t="shared" si="2"/>
-        <v>29.82</v>
+        <v>159</v>
       </c>
       <c r="K13" s="18">
-        <v>0.68</v>
+        <v>1.21</v>
       </c>
       <c r="L13" s="18">
         <f t="shared" si="0"/>
-        <v>0.68</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="18" customFormat="1">
@@ -3826,34 +3591,31 @@
         <v>29</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F14" s="18">
         <v>1</v>
       </c>
       <c r="G14" s="18">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="H14" s="18">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I14" s="18">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="J14" s="18">
         <f t="shared" si="2"/>
-        <v>159</v>
-      </c>
-      <c r="K14" s="18">
-        <v>1.21</v>
+        <v>174</v>
       </c>
       <c r="L14" s="18">
         <f t="shared" si="0"/>
-        <v>3.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="18" customFormat="1">
@@ -3864,24 +3626,24 @@
         <v>34</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F15" s="18">
         <v>1</v>
       </c>
       <c r="G15" s="18">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="H15" s="18">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="I15" s="18">
         <v>116</v>
       </c>
       <c r="J15" s="18">
         <f t="shared" si="2"/>
-        <v>174</v>
+        <v>324.8</v>
       </c>
       <c r="L15" s="18">
         <f t="shared" si="0"/>
@@ -3893,31 +3655,34 @@
         <v>29</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F16" s="18">
         <v>1</v>
       </c>
       <c r="G16" s="18">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="H16" s="18">
         <f t="shared" si="1"/>
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="I16" s="18">
-        <v>116</v>
+        <v>228</v>
       </c>
       <c r="J16" s="18">
         <f t="shared" si="2"/>
-        <v>324.8</v>
+        <v>456</v>
+      </c>
+      <c r="K16" s="18">
+        <v>10.71</v>
       </c>
       <c r="L16" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.42</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="18" customFormat="1">
@@ -3925,7 +3690,7 @@
         <v>29</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>67</v>
@@ -3934,25 +3699,22 @@
         <v>1</v>
       </c>
       <c r="G17" s="18">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H17" s="18">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I17" s="18">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J17" s="18">
         <f t="shared" si="2"/>
-        <v>456</v>
-      </c>
-      <c r="K17" s="18">
-        <v>10.71</v>
+        <v>227</v>
       </c>
       <c r="L17" s="18">
         <f t="shared" si="0"/>
-        <v>21.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="18" customFormat="1">
@@ -3960,27 +3722,27 @@
         <v>29</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F18" s="18">
         <v>1</v>
       </c>
       <c r="G18" s="18">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="H18" s="18">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="I18" s="18">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" si="2"/>
-        <v>227</v>
+        <v>88.56</v>
       </c>
       <c r="L18" s="18">
         <f t="shared" si="0"/>
@@ -3992,31 +3754,34 @@
         <v>29</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F19" s="18">
         <v>1</v>
       </c>
       <c r="G19" s="18">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H19" s="18">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I19" s="18">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="J19" s="18">
         <f t="shared" si="2"/>
-        <v>88.56</v>
+        <v>154</v>
+      </c>
+      <c r="K19" s="18">
+        <v>7.98</v>
       </c>
       <c r="L19" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.5860000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="18" customFormat="1">
@@ -4024,159 +3789,160 @@
         <v>29</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="F20" s="18">
         <v>1</v>
       </c>
       <c r="G20" s="18">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H20" s="18">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="I20" s="18">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J20" s="18">
         <f t="shared" si="2"/>
-        <v>154</v>
-      </c>
-      <c r="K20" s="18">
-        <v>7.98</v>
+        <v>223</v>
       </c>
       <c r="L20" s="18">
         <f t="shared" si="0"/>
-        <v>5.5860000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="18" customFormat="1">
-      <c r="C21" s="18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="16" customFormat="1">
+      <c r="C21" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="18">
-        <v>1</v>
-      </c>
-      <c r="G21" s="18">
-        <v>100</v>
-      </c>
-      <c r="H21" s="18">
+      <c r="D21" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="16">
+        <v>1</v>
+      </c>
+      <c r="G21" s="16">
+        <v>95</v>
+      </c>
+      <c r="H21" s="16">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="I21" s="18">
-        <v>223</v>
-      </c>
-      <c r="J21" s="18">
+        <v>95</v>
+      </c>
+      <c r="I21" s="16">
+        <v>106</v>
+      </c>
+      <c r="J21" s="16">
         <f t="shared" si="2"/>
-        <v>223</v>
-      </c>
-      <c r="L21" s="18">
+        <v>100.7</v>
+      </c>
+      <c r="K21" s="16">
+        <v>1.59</v>
+      </c>
+      <c r="L21" s="16">
+        <f t="shared" si="0"/>
+        <v>1.5105000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="19" customFormat="1">
+      <c r="C22" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="19">
+        <v>1</v>
+      </c>
+      <c r="H22" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="19">
+        <v>349</v>
+      </c>
+      <c r="J22" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="16" customFormat="1">
-      <c r="C22" s="16" t="s">
+    <row r="23" spans="1:12" s="18" customFormat="1">
+      <c r="C23" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="16">
-        <v>1</v>
-      </c>
-      <c r="G22" s="16">
-        <v>95</v>
-      </c>
-      <c r="H22" s="16">
+      <c r="D23" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="18">
+        <v>1</v>
+      </c>
+      <c r="G23" s="18">
+        <v>20</v>
+      </c>
+      <c r="H23" s="18">
         <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="I22" s="16">
-        <v>106</v>
-      </c>
-      <c r="J22" s="16">
+        <v>20</v>
+      </c>
+      <c r="I23" s="18">
+        <v>329</v>
+      </c>
+      <c r="J23" s="18">
         <f t="shared" si="2"/>
-        <v>100.7</v>
-      </c>
-      <c r="K22" s="16">
-        <v>1.59</v>
-      </c>
-      <c r="L22" s="16">
-        <f t="shared" si="0"/>
-        <v>1.5105000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="19" customFormat="1">
-      <c r="C23" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="19">
-        <v>1</v>
-      </c>
-      <c r="H23" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="19">
-        <v>349</v>
-      </c>
-      <c r="J23" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="19">
+        <v>65.8</v>
+      </c>
+      <c r="L23" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="18" customFormat="1">
+      <c r="A24"/>
       <c r="C24" s="18" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F24" s="18">
         <v>1</v>
       </c>
       <c r="G24" s="18">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="H24" s="18">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" ref="H24" si="6">F24*G24</f>
+        <v>300</v>
       </c>
       <c r="I24" s="18">
-        <v>329</v>
+        <v>66.8</v>
       </c>
       <c r="J24" s="18">
-        <f t="shared" si="2"/>
-        <v>65.8</v>
+        <f t="shared" ref="J24" si="7">H24*I24/100</f>
+        <v>200.4</v>
+      </c>
+      <c r="K24" s="18">
+        <v>4.93</v>
       </c>
       <c r="L24" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="L24" si="8">G24*K24/100</f>
+        <v>14.79</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="18" customFormat="1">
@@ -4185,7 +3951,7 @@
         <v>95</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>97</v>
@@ -4197,157 +3963,156 @@
         <v>300</v>
       </c>
       <c r="H25" s="18">
-        <f t="shared" ref="H25" si="6">F25*G25</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="I25" s="18">
-        <v>66.8</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="J25" s="18">
-        <f t="shared" ref="J25" si="7">H25*I25/100</f>
-        <v>200.4</v>
+        <f t="shared" si="2"/>
+        <v>120.9</v>
       </c>
       <c r="K25" s="18">
-        <v>4.93</v>
+        <v>1.18</v>
       </c>
       <c r="L25" s="18">
-        <f t="shared" ref="L25" si="8">G25*K25/100</f>
-        <v>14.79</v>
+        <f t="shared" si="0"/>
+        <v>3.54</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="18" customFormat="1">
-      <c r="A26"/>
       <c r="C26" s="18" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F26" s="18">
         <v>1</v>
       </c>
       <c r="G26" s="18">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="H26" s="18">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="I26" s="18">
-        <v>40.299999999999997</v>
+        <v>338</v>
       </c>
       <c r="J26" s="18">
         <f t="shared" si="2"/>
-        <v>120.9</v>
+        <v>40.56</v>
       </c>
       <c r="K26" s="18">
-        <v>1.18</v>
+        <v>10.1</v>
       </c>
       <c r="L26" s="18">
         <f t="shared" si="0"/>
-        <v>3.54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="18" customFormat="1">
-      <c r="C27" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F27" s="18">
-        <v>1</v>
-      </c>
-      <c r="G27" s="18">
-        <v>12</v>
-      </c>
-      <c r="H27" s="18">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="I27" s="18">
-        <v>338</v>
-      </c>
-      <c r="J27" s="18">
-        <f t="shared" si="2"/>
-        <v>40.56</v>
-      </c>
-      <c r="K27" s="18">
-        <v>10.1</v>
-      </c>
-      <c r="L27" s="18">
-        <f t="shared" si="0"/>
         <v>1.212</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="20" customFormat="1">
-      <c r="C28" s="20" t="s">
+    <row r="27" spans="1:12" s="20" customFormat="1">
+      <c r="C27" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D27" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E27" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="20">
-        <v>1</v>
-      </c>
-      <c r="G28" s="20">
+      <c r="F27" s="20">
+        <v>1</v>
+      </c>
+      <c r="G27" s="20">
         <v>350</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H27" s="20">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I27" s="20">
         <v>40</v>
       </c>
-      <c r="J28" s="20">
+      <c r="J27" s="20">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="L28" s="20">
+      <c r="L27" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:12" s="18" customFormat="1">
+      <c r="C28" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="18">
+        <v>1</v>
+      </c>
+      <c r="G28" s="18">
+        <v>350</v>
+      </c>
+      <c r="H28" s="18">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="I28" s="18">
+        <v>110</v>
+      </c>
+      <c r="J28" s="18">
+        <f t="shared" si="2"/>
+        <v>385</v>
+      </c>
+      <c r="L28" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="29" spans="1:12" s="18" customFormat="1">
       <c r="C29" s="18" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F29" s="18">
         <v>1</v>
       </c>
       <c r="G29" s="18">
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="H29" s="18">
         <f t="shared" si="1"/>
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="I29" s="18">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="J29" s="18">
         <f t="shared" si="2"/>
-        <v>385</v>
+        <v>90.6</v>
+      </c>
+      <c r="K29" s="18">
+        <v>12.1</v>
       </c>
       <c r="L29" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>G29*K29/100</f>
+        <v>7.26</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="18" customFormat="1">
@@ -4355,103 +4120,103 @@
         <v>43</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F30" s="18">
         <v>1</v>
       </c>
       <c r="G30" s="18">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H30" s="18">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I30" s="18">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="J30" s="18">
         <f t="shared" si="2"/>
-        <v>90.6</v>
+        <v>71.5</v>
       </c>
       <c r="K30" s="18">
-        <v>12.1</v>
+        <v>20.3</v>
       </c>
       <c r="L30" s="18">
-        <f>G30*K30/100</f>
-        <v>7.26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="18" customFormat="1">
-      <c r="C31" s="18" t="s">
+        <f t="shared" ref="L30:L56" si="9">G30*K30/100</f>
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="16" customFormat="1">
+      <c r="C31" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F31" s="18">
-        <v>1</v>
-      </c>
-      <c r="G31" s="18">
-        <v>50</v>
-      </c>
-      <c r="H31" s="18">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="I31" s="18">
-        <v>143</v>
-      </c>
-      <c r="J31" s="18">
-        <f t="shared" si="2"/>
-        <v>71.5</v>
-      </c>
-      <c r="K31" s="18">
-        <v>20.3</v>
-      </c>
-      <c r="L31" s="18">
-        <f t="shared" ref="L31:L59" si="9">G31*K31/100</f>
-        <v>10.15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="16" customFormat="1">
-      <c r="C32" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="16" t="s">
+      <c r="D31" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E31" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F32" s="16">
-        <v>1</v>
-      </c>
-      <c r="G32" s="16">
+      <c r="F31" s="16">
+        <v>1</v>
+      </c>
+      <c r="G31" s="16">
         <v>100</v>
       </c>
-      <c r="H32" s="16">
+      <c r="H31" s="16">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I31" s="16">
         <v>126</v>
       </c>
-      <c r="J32" s="16">
+      <c r="J31" s="16">
         <f t="shared" si="2"/>
         <v>126</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K31" s="16">
         <v>22</v>
       </c>
-      <c r="L32" s="16">
+      <c r="L31" s="16">
         <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="18" customFormat="1">
+      <c r="C32" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="18">
+        <v>1</v>
+      </c>
+      <c r="G32" s="18">
+        <v>30</v>
+      </c>
+      <c r="H32" s="18">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I32" s="18">
+        <v>60</v>
+      </c>
+      <c r="J32" s="18">
+        <f>H32*I32/100</f>
+        <v>18</v>
+      </c>
+      <c r="K32" s="18">
+        <v>11.6</v>
+      </c>
+      <c r="L32" s="18">
+        <f t="shared" si="9"/>
+        <v>3.48</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="18" customFormat="1">
@@ -4459,34 +4224,34 @@
         <v>43</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="F33" s="18">
         <v>1</v>
       </c>
       <c r="G33" s="18">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H33" s="18">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I33" s="18">
-        <v>60</v>
+        <v>199</v>
       </c>
       <c r="J33" s="18">
-        <f>H33*I33/100</f>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>119.4</v>
       </c>
       <c r="K33" s="18">
-        <v>11.6</v>
+        <v>13.5</v>
       </c>
       <c r="L33" s="18">
         <f t="shared" si="9"/>
-        <v>3.48</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="18" customFormat="1">
@@ -4494,34 +4259,34 @@
         <v>43</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F34" s="18">
         <v>1</v>
       </c>
       <c r="G34" s="18">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H34" s="18">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I34" s="18">
-        <v>199</v>
+        <v>94</v>
       </c>
       <c r="J34" s="18">
         <f t="shared" si="2"/>
-        <v>119.4</v>
+        <v>94</v>
       </c>
       <c r="K34" s="18">
-        <v>13.5</v>
+        <v>2.9</v>
       </c>
       <c r="L34" s="18">
         <f t="shared" si="9"/>
-        <v>8.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="18" customFormat="1">
@@ -4529,175 +4294,175 @@
         <v>43</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F35" s="18">
         <v>1</v>
       </c>
       <c r="G35" s="18">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H35" s="18">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I35" s="18">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="J35" s="18">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="K35" s="18">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="L35" s="18">
         <f t="shared" si="9"/>
-        <v>2.9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="18" customFormat="1">
+      <c r="A36"/>
       <c r="C36" s="18" t="s">
         <v>43</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F36" s="18">
         <v>1</v>
       </c>
       <c r="G36" s="18">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="H36" s="18">
         <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="I36" s="18">
+        <v>184.87</v>
+      </c>
+      <c r="J36" s="18">
+        <f t="shared" ref="J36" si="10">H36*I36/100</f>
+        <v>64.704499999999996</v>
+      </c>
+      <c r="K36" s="18">
+        <v>10.58</v>
+      </c>
+      <c r="L36" s="18">
+        <f t="shared" ref="L36" si="11">G36*K36/100</f>
+        <v>3.7030000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="18" customFormat="1">
+      <c r="C37" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" s="18">
+        <v>1</v>
+      </c>
+      <c r="G37" s="18">
         <v>200</v>
-      </c>
-      <c r="I36" s="18">
-        <v>54</v>
-      </c>
-      <c r="J36" s="18">
-        <f t="shared" si="2"/>
-        <v>108</v>
-      </c>
-      <c r="K36" s="18">
-        <v>3</v>
-      </c>
-      <c r="L36" s="18">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="18" customFormat="1">
-      <c r="A37"/>
-      <c r="C37" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F37" s="18">
-        <v>1</v>
-      </c>
-      <c r="G37" s="18">
-        <v>35</v>
       </c>
       <c r="H37" s="18">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="I37" s="18">
-        <v>184.87</v>
+        <v>97.58</v>
       </c>
       <c r="J37" s="18">
-        <f t="shared" ref="J37" si="10">H37*I37/100</f>
-        <v>64.704499999999996</v>
+        <f t="shared" si="2"/>
+        <v>195.16</v>
       </c>
       <c r="K37" s="18">
-        <v>10.58</v>
+        <v>13.09</v>
       </c>
       <c r="L37" s="18">
-        <f t="shared" ref="L37" si="11">G37*K37/100</f>
-        <v>3.7030000000000003</v>
+        <f t="shared" si="9"/>
+        <v>26.18</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="18" customFormat="1">
       <c r="C38" s="18" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F38" s="18">
         <v>1</v>
       </c>
       <c r="G38" s="18">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="H38" s="18">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="I38" s="18">
-        <v>97.58</v>
+        <v>246</v>
       </c>
       <c r="J38" s="18">
         <f t="shared" si="2"/>
-        <v>195.16</v>
+        <v>36.9</v>
       </c>
       <c r="K38" s="18">
-        <v>13.09</v>
+        <v>31.4</v>
       </c>
       <c r="L38" s="18">
         <f t="shared" si="9"/>
-        <v>26.18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="18" customFormat="1">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="16" customFormat="1">
       <c r="C39" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F39" s="18">
-        <v>1</v>
-      </c>
-      <c r="G39" s="18">
-        <v>15</v>
-      </c>
-      <c r="H39" s="18">
+      <c r="D39" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="16">
+        <v>1</v>
+      </c>
+      <c r="G39" s="16">
+        <v>50</v>
+      </c>
+      <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="I39" s="18">
-        <v>246</v>
-      </c>
-      <c r="J39" s="18">
+        <v>50</v>
+      </c>
+      <c r="I39" s="16">
+        <v>106</v>
+      </c>
+      <c r="J39" s="16">
         <f t="shared" si="2"/>
-        <v>36.9</v>
-      </c>
-      <c r="K39" s="18">
-        <v>31.4</v>
-      </c>
-      <c r="L39" s="18">
+        <v>53</v>
+      </c>
+      <c r="K39" s="16">
+        <v>20.2</v>
+      </c>
+      <c r="L39" s="16">
         <f t="shared" si="9"/>
-        <v>4.71</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="16" customFormat="1">
@@ -4705,7 +4470,7 @@
         <v>43</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>80</v>
@@ -4714,362 +4479,339 @@
         <v>1</v>
       </c>
       <c r="G40" s="16">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="H40" s="16">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="I40" s="16">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="J40" s="16">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>378</v>
       </c>
       <c r="K40" s="16">
-        <v>20.2</v>
+        <v>6.6</v>
       </c>
       <c r="L40" s="16">
         <f t="shared" si="9"/>
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="16" customFormat="1">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="18" customFormat="1">
       <c r="C41" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F41" s="16">
-        <v>1</v>
-      </c>
-      <c r="G41" s="16">
-        <v>450</v>
-      </c>
-      <c r="H41" s="16">
-        <f t="shared" si="1"/>
-        <v>450</v>
-      </c>
-      <c r="I41" s="16">
-        <v>84</v>
-      </c>
-      <c r="J41" s="16">
-        <f t="shared" si="2"/>
-        <v>378</v>
-      </c>
-      <c r="K41" s="16">
-        <v>6.6</v>
-      </c>
-      <c r="L41" s="16">
-        <f t="shared" si="9"/>
-        <v>29.7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="53" customFormat="1">
-      <c r="A42" s="66"/>
-      <c r="C42" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="E42" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="F42" s="53">
-        <v>1</v>
-      </c>
-      <c r="G42" s="53">
-        <v>150</v>
-      </c>
-      <c r="H42" s="53">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="I42" s="53">
-        <v>170</v>
-      </c>
-      <c r="J42" s="53">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-      <c r="K42" s="53">
-        <v>14.3</v>
-      </c>
-      <c r="L42" s="53">
-        <f t="shared" si="9"/>
-        <v>21.45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="18" customFormat="1">
-      <c r="C43" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="18" t="s">
+      <c r="D41" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E41" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F43" s="18">
-        <v>1</v>
-      </c>
-      <c r="G43" s="18">
+      <c r="F41" s="18">
+        <v>1</v>
+      </c>
+      <c r="G41" s="18">
         <v>10</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H41" s="18">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I43" s="18">
+      <c r="I41" s="18">
         <v>48</v>
       </c>
-      <c r="J43" s="18">
+      <c r="J41" s="18">
         <f t="shared" si="2"/>
         <v>4.8</v>
       </c>
-      <c r="K43" s="18">
+      <c r="K41" s="18">
         <v>10.4</v>
       </c>
-      <c r="L43" s="18">
+      <c r="L41" s="18">
         <f t="shared" si="9"/>
         <v>1.04</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="16" customFormat="1">
-      <c r="C44" s="16" t="s">
+    <row r="42" spans="1:12" s="16" customFormat="1">
+      <c r="C42" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D42" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E42" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F44" s="16">
-        <v>1</v>
-      </c>
-      <c r="G44" s="16">
+      <c r="F42" s="16">
+        <v>1</v>
+      </c>
+      <c r="G42" s="16">
         <v>106</v>
       </c>
-      <c r="H44" s="16">
+      <c r="H42" s="16">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="I44" s="16">
+      <c r="I42" s="16">
         <v>53</v>
       </c>
-      <c r="J44" s="16">
+      <c r="J42" s="16">
         <f t="shared" si="2"/>
         <v>56.18</v>
       </c>
-      <c r="L44" s="16">
+      <c r="L42" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="22" customFormat="1">
-      <c r="A45" s="41"/>
-      <c r="C45" s="22" t="s">
+    <row r="43" spans="1:12" s="22" customFormat="1">
+      <c r="A43" s="41"/>
+      <c r="C43" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D43" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E43" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F45" s="22">
-        <v>1</v>
-      </c>
-      <c r="G45" s="22">
+      <c r="F43" s="22">
+        <v>1</v>
+      </c>
+      <c r="G43" s="22">
         <v>89</v>
       </c>
-      <c r="H45" s="22">
+      <c r="H43" s="22">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="I45" s="22">
+      <c r="I43" s="22">
         <v>93</v>
       </c>
-      <c r="J45" s="22">
+      <c r="J43" s="22">
         <f t="shared" si="2"/>
         <v>82.77</v>
       </c>
-      <c r="K45" s="22">
+      <c r="K43" s="22">
         <v>1.4</v>
       </c>
-      <c r="L45" s="22">
+      <c r="L43" s="22">
         <f t="shared" si="9"/>
         <v>1.246</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="43" customFormat="1">
-      <c r="A46" s="42"/>
-      <c r="C46" s="43" t="s">
+    <row r="44" spans="1:12" s="43" customFormat="1">
+      <c r="A44" s="42"/>
+      <c r="C44" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="D46" s="43" t="s">
+      <c r="D44" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="E46" s="43" t="s">
+      <c r="E44" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="F46" s="43">
-        <v>1</v>
-      </c>
-      <c r="G46" s="43">
+      <c r="F44" s="43">
+        <v>1</v>
+      </c>
+      <c r="G44" s="43">
         <v>172</v>
       </c>
-      <c r="H46" s="43">
+      <c r="H44" s="43">
         <f t="shared" si="1"/>
         <v>172</v>
       </c>
-      <c r="I46" s="43">
+      <c r="I44" s="43">
         <v>44</v>
       </c>
-      <c r="J46" s="43">
+      <c r="J44" s="43">
         <f t="shared" si="2"/>
         <v>75.680000000000007</v>
       </c>
-      <c r="K46" s="43">
+      <c r="K44" s="43">
         <v>1.06</v>
       </c>
-      <c r="L46" s="43">
+      <c r="L44" s="43">
         <f t="shared" si="9"/>
         <v>1.8232000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="43" customFormat="1">
-      <c r="A47" s="42"/>
-      <c r="C47" s="43" t="s">
+    <row r="45" spans="1:12" s="43" customFormat="1">
+      <c r="A45" s="42"/>
+      <c r="C45" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="43" t="s">
+      <c r="D45" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="E47" s="43" t="s">
+      <c r="E45" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="F47" s="43">
-        <v>1</v>
-      </c>
-      <c r="G47" s="43">
+      <c r="F45" s="43">
+        <v>1</v>
+      </c>
+      <c r="G45" s="43">
         <v>120</v>
       </c>
-      <c r="H47" s="43">
+      <c r="H45" s="43">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="I47" s="43">
+      <c r="I45" s="43">
         <v>16</v>
       </c>
-      <c r="J47" s="43">
-        <f t="shared" ref="J47" si="12">H47*I47/100</f>
+      <c r="J45" s="43">
+        <f t="shared" ref="J45" si="12">H45*I45/100</f>
         <v>19.2</v>
       </c>
-      <c r="K47" s="43">
+      <c r="K45" s="43">
         <v>0.8</v>
       </c>
-      <c r="L47" s="43">
-        <f t="shared" ref="L47" si="13">G47*K47/100</f>
+      <c r="L45" s="43">
+        <f t="shared" ref="L45" si="13">G45*K45/100</f>
         <v>0.96</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="65" customFormat="1">
-      <c r="A48"/>
-      <c r="C48" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="D48" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="E48" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="F48" s="65">
-        <v>1</v>
-      </c>
-      <c r="G48" s="65">
-        <v>140</v>
-      </c>
-      <c r="H48" s="65">
-        <f t="shared" ref="H48" si="14">F48*G48</f>
-        <v>140</v>
-      </c>
-      <c r="I48" s="65">
+    <row r="46" spans="1:12" s="18" customFormat="1">
+      <c r="A46" s="44"/>
+      <c r="C46" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46" s="18">
+        <v>1</v>
+      </c>
+      <c r="G46" s="18">
+        <v>100</v>
+      </c>
+      <c r="H46" s="18">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I46" s="18">
+        <v>47</v>
+      </c>
+      <c r="J46" s="18">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="L46" s="18">
+        <f t="shared" ref="L46" si="14">G46*K46/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="18" customFormat="1">
+      <c r="C47" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F47" s="18">
+        <v>1</v>
+      </c>
+      <c r="H47" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="18">
         <v>31</v>
       </c>
-      <c r="J48" s="65">
-        <f t="shared" ref="J48" si="15">H48*I48/100</f>
-        <v>43.4</v>
-      </c>
-      <c r="K48" s="65">
-        <v>1.8</v>
-      </c>
-      <c r="L48" s="65">
-        <f t="shared" ref="L48" si="16">G48*K48/100</f>
-        <v>2.52</v>
+      <c r="J47" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="18" customFormat="1">
+      <c r="C48" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" s="18">
+        <v>1</v>
+      </c>
+      <c r="G48" s="18">
+        <v>200</v>
+      </c>
+      <c r="H48" s="18">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="I48" s="18">
+        <v>30</v>
+      </c>
+      <c r="J48" s="18">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="K48" s="18">
+        <v>2.4</v>
+      </c>
+      <c r="L48" s="18">
+        <f t="shared" si="9"/>
+        <v>4.8</v>
       </c>
     </row>
     <row r="49" spans="1:12" s="18" customFormat="1">
-      <c r="A49" s="44"/>
-      <c r="C49" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>100</v>
-      </c>
       <c r="F49" s="18">
         <v>1</v>
-      </c>
-      <c r="G49" s="18">
-        <v>100</v>
       </c>
       <c r="H49" s="18">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="I49" s="18">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="J49" s="18">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="L49" s="18">
-        <f t="shared" ref="L49" si="17">G49*K49/100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:12" s="18" customFormat="1">
       <c r="C50" s="18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="F50" s="18">
         <v>1</v>
+      </c>
+      <c r="G50" s="18">
+        <v>30</v>
       </c>
       <c r="H50" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I50" s="18">
-        <v>31</v>
+        <v>615</v>
       </c>
       <c r="J50" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>184.5</v>
       </c>
       <c r="L50" s="18">
         <f t="shared" si="9"/>
@@ -5077,38 +4819,39 @@
       </c>
     </row>
     <row r="51" spans="1:12" s="18" customFormat="1">
+      <c r="A51"/>
       <c r="C51" s="18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="F51" s="18">
         <v>1</v>
       </c>
       <c r="G51" s="18">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="H51" s="18">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="I51" s="18">
-        <v>30</v>
+        <v>724</v>
       </c>
       <c r="J51" s="18">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="K51" s="18">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="L51" s="18">
         <f t="shared" si="9"/>
-        <v>4.8</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="18" customFormat="1">
@@ -5133,281 +4876,125 @@
         <v>10</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="F53" s="18">
         <v>1</v>
       </c>
       <c r="G53" s="18">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H53" s="18">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="I53" s="18">
-        <v>615</v>
+        <v>584</v>
       </c>
       <c r="J53" s="18">
         <f t="shared" si="2"/>
-        <v>184.5</v>
+        <v>584</v>
+      </c>
+      <c r="K53" s="18">
+        <v>22</v>
       </c>
       <c r="L53" s="18">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:12" s="18" customFormat="1">
-      <c r="A54"/>
-      <c r="C54" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E54" s="18" t="s">
-        <v>103</v>
-      </c>
       <c r="F54" s="18">
         <v>1</v>
-      </c>
-      <c r="G54" s="18">
-        <v>10</v>
       </c>
       <c r="H54" s="18">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I54" s="18">
-        <v>724</v>
+        <v>0</v>
       </c>
       <c r="J54" s="18">
         <f t="shared" si="2"/>
-        <v>72.400000000000006</v>
-      </c>
-      <c r="K54" s="18">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="L54" s="18">
         <f t="shared" si="9"/>
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:12" s="18" customFormat="1">
+      <c r="C55" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="F55" s="18">
         <v>1</v>
+      </c>
+      <c r="G55" s="18">
+        <v>150</v>
       </c>
       <c r="H55" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>150</v>
+      </c>
+      <c r="I55" s="18">
+        <v>73</v>
       </c>
       <c r="J55" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>109.5</v>
+      </c>
+      <c r="K55" s="18">
+        <v>5.47</v>
       </c>
       <c r="L55" s="18">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" s="18" customFormat="1">
-      <c r="C56" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="F56" s="18">
-        <v>1</v>
-      </c>
-      <c r="G56" s="18">
-        <v>100</v>
-      </c>
-      <c r="H56" s="18">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="I56" s="18">
-        <v>584</v>
-      </c>
-      <c r="J56" s="18">
-        <f t="shared" si="2"/>
-        <v>584</v>
-      </c>
-      <c r="K56" s="18">
-        <v>22</v>
-      </c>
-      <c r="L56" s="18">
-        <f t="shared" si="9"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" s="18" customFormat="1">
-      <c r="F57" s="18">
-        <v>1</v>
-      </c>
-      <c r="H57" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J57" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L57" s="18">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" s="18" customFormat="1">
-      <c r="C58" s="18" t="s">
+        <v>8.2050000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="C56" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D58" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F58" s="18">
-        <v>1</v>
-      </c>
-      <c r="G58" s="18">
+      <c r="D56" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F56" s="15">
+        <v>1</v>
+      </c>
+      <c r="G56" s="15">
         <v>150</v>
       </c>
-      <c r="H58" s="18">
+      <c r="H56" s="15">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="I58" s="18">
-        <v>73</v>
-      </c>
-      <c r="J58" s="18">
-        <f t="shared" si="2"/>
-        <v>109.5</v>
-      </c>
-      <c r="K58" s="18">
-        <v>5.47</v>
-      </c>
-      <c r="L58" s="18">
-        <f t="shared" si="9"/>
-        <v>8.2050000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="C59" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F59" s="15">
-        <v>1</v>
-      </c>
-      <c r="G59" s="15">
-        <v>150</v>
-      </c>
-      <c r="H59" s="15">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="I59" s="15">
+      <c r="I56" s="15">
         <v>41</v>
       </c>
-      <c r="J59" s="15">
+      <c r="J56" s="15">
         <f t="shared" si="2"/>
         <v>61.5</v>
       </c>
-      <c r="K59" s="15">
+      <c r="K56" s="15">
         <v>1.44</v>
       </c>
-      <c r="L59" s="15">
+      <c r="L56" s="15">
         <f t="shared" si="9"/>
         <v>2.16</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
-      <c r="A60"/>
-      <c r="C60" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="D60" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="E60" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="F60" s="15">
-        <v>1</v>
-      </c>
-      <c r="G60" s="15">
-        <v>300</v>
-      </c>
-      <c r="H60" s="50">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="I60" s="15">
-        <v>36.380000000000003</v>
-      </c>
-      <c r="J60" s="50">
-        <f t="shared" si="2"/>
-        <v>109.14</v>
-      </c>
-      <c r="K60" s="50">
-        <v>1</v>
-      </c>
-      <c r="L60" s="50">
-        <f t="shared" ref="L60:L61" si="18">G60*K60/100</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="C61" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="D61" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="E61" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="F61" s="15">
-        <v>1</v>
-      </c>
-      <c r="G61" s="15">
-        <v>400</v>
-      </c>
-      <c r="H61" s="50">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="I61" s="15">
-        <v>21.03</v>
-      </c>
-      <c r="J61" s="50">
-        <f t="shared" si="2"/>
-        <v>84.12</v>
-      </c>
-      <c r="K61" s="50">
-        <v>0</v>
-      </c>
-      <c r="L61" s="50">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5415,11 +5002,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:M108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A3:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6790,7 +6377,7 @@
       </c>
       <c r="B50" s="33">
         <f>SUM(J49:J60)</f>
-        <v>1839.0235</v>
+        <v>1650.0235</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>29</v>
@@ -6876,7 +6463,7 @@
       </c>
       <c r="B52" s="33">
         <f>SUMIF(C49:C60,A52,J49:J60)</f>
-        <v>473.71350000000001</v>
+        <v>284.71350000000001</v>
       </c>
       <c r="C52" s="16" t="s">
         <v>29</v>
@@ -7040,7 +6627,7 @@
       </c>
       <c r="B56" s="33">
         <f>SUM(L49:L60)</f>
-        <v>88.703499999999991</v>
+        <v>63.703499999999998</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>43</v>
@@ -7116,36 +6703,16 @@
     <row r="58" spans="1:13">
       <c r="A58" s="35"/>
       <c r="B58" s="33"/>
-      <c r="C58" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="E58" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="F58" s="51">
-        <v>1.5</v>
-      </c>
-      <c r="G58" s="51">
-        <v>100</v>
-      </c>
-      <c r="H58" s="51">
-        <v>150</v>
-      </c>
-      <c r="I58" s="51">
-        <v>126</v>
-      </c>
-      <c r="J58" s="51">
-        <v>189</v>
-      </c>
-      <c r="K58" s="51">
-        <v>22</v>
-      </c>
-      <c r="L58" s="51">
-        <v>25</v>
-      </c>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
       <c r="M58" s="26"/>
     </row>
     <row r="59" spans="1:13">
@@ -7654,683 +7221,8 @@
       <c r="L76" s="46"/>
       <c r="M76" s="48"/>
     </row>
-    <row r="79" spans="1:13" ht="17.25" thickBot="1"/>
-    <row r="80" spans="1:13">
-      <c r="A80" s="57"/>
-      <c r="B80" s="58"/>
-      <c r="C80" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="F80" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="G80" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="H80" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="I80" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="J80" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="K80" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="L80" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="M80" s="59"/>
-    </row>
-    <row r="81" spans="1:13" ht="17.25" thickBot="1">
-      <c r="A81" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B81" s="64">
-        <v>43617</v>
-      </c>
-      <c r="C81" s="54"/>
-      <c r="D81" s="52"/>
-      <c r="E81" s="54"/>
-      <c r="F81" s="54"/>
-      <c r="G81" s="54"/>
-      <c r="H81" s="54"/>
-      <c r="I81" s="54"/>
-      <c r="J81" s="54"/>
-      <c r="K81" s="54"/>
-      <c r="L81" s="54"/>
-      <c r="M81" s="55"/>
-    </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B82" s="60">
-        <f>SUM(J81:J92)</f>
-        <v>0</v>
-      </c>
-      <c r="C82" s="53"/>
-      <c r="D82" s="53"/>
-      <c r="E82" s="53"/>
-      <c r="F82" s="53"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="53"/>
-      <c r="K82" s="53"/>
-      <c r="L82" s="53"/>
-      <c r="M82" s="55"/>
-    </row>
-    <row r="83" spans="1:13">
-      <c r="A83" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="B83" s="60">
-        <f>SUMIF(C81:C92,A83,J81:J92)</f>
-        <v>0</v>
-      </c>
-      <c r="C83" s="56"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="56"/>
-      <c r="F83" s="56"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="56"/>
-      <c r="K83" s="56"/>
-      <c r="L83" s="56"/>
-      <c r="M83" s="55"/>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="A84" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="B84" s="60">
-        <f>SUMIF(C81:C92,A84,J81:J92)</f>
-        <v>0</v>
-      </c>
-      <c r="C84" s="53"/>
-      <c r="D84" s="53"/>
-      <c r="E84" s="53"/>
-      <c r="F84" s="53"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="53"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="53"/>
-      <c r="K84" s="53"/>
-      <c r="L84" s="53"/>
-      <c r="M84" s="55"/>
-    </row>
-    <row r="85" spans="1:13">
-      <c r="A85" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B85" s="60">
-        <f>SUMIF(C81:C92,A85,J81:J92)</f>
-        <v>0</v>
-      </c>
-      <c r="C85" s="53"/>
-      <c r="D85" s="53"/>
-      <c r="E85" s="53"/>
-      <c r="F85" s="53"/>
-      <c r="G85" s="53"/>
-      <c r="H85" s="53"/>
-      <c r="I85" s="53"/>
-      <c r="J85" s="53"/>
-      <c r="K85" s="53"/>
-      <c r="L85" s="53"/>
-      <c r="M85" s="55"/>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="62"/>
-      <c r="B86" s="60"/>
-      <c r="C86" s="50"/>
-      <c r="D86" s="50"/>
-      <c r="E86" s="50"/>
-      <c r="F86" s="50"/>
-      <c r="G86" s="50"/>
-      <c r="H86" s="50"/>
-      <c r="I86" s="50"/>
-      <c r="J86" s="50"/>
-      <c r="K86" s="50"/>
-      <c r="L86" s="50"/>
-      <c r="M86" s="55"/>
-    </row>
-    <row r="87" spans="1:13">
-      <c r="A87" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87" s="60"/>
-      <c r="C87" s="65"/>
-      <c r="D87" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="E87" s="65"/>
-      <c r="F87" s="65"/>
-      <c r="G87" s="65"/>
-      <c r="H87" s="65"/>
-      <c r="I87" s="65"/>
-      <c r="J87" s="65"/>
-      <c r="K87" s="65"/>
-      <c r="L87" s="65"/>
-      <c r="M87" s="55"/>
-    </row>
-    <row r="88" spans="1:13">
-      <c r="A88" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="B88" s="60">
-        <f>SUM(L81:L92)</f>
-        <v>0</v>
-      </c>
-      <c r="C88" s="53"/>
-      <c r="D88" s="53"/>
-      <c r="E88" s="53"/>
-      <c r="F88" s="53"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="53"/>
-      <c r="K88" s="53"/>
-      <c r="L88" s="53"/>
-      <c r="M88" s="55"/>
-    </row>
-    <row r="89" spans="1:13">
-      <c r="A89" s="61"/>
-      <c r="B89" s="60"/>
-      <c r="C89" s="53"/>
-      <c r="D89" s="53"/>
-      <c r="E89" s="53"/>
-      <c r="F89" s="53"/>
-      <c r="G89" s="53"/>
-      <c r="H89" s="53"/>
-      <c r="I89" s="53"/>
-      <c r="J89" s="53"/>
-      <c r="K89" s="53"/>
-      <c r="L89" s="53"/>
-      <c r="M89" s="47"/>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="A90" s="61"/>
-      <c r="B90" s="45"/>
-      <c r="C90" s="45"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="45"/>
-      <c r="F90" s="45"/>
-      <c r="G90" s="45"/>
-      <c r="H90" s="45"/>
-      <c r="I90" s="45"/>
-      <c r="J90" s="45"/>
-      <c r="K90" s="45"/>
-      <c r="L90" s="45"/>
-      <c r="M90" s="47"/>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="A91" s="61"/>
-      <c r="B91" s="45"/>
-      <c r="C91" s="51"/>
-      <c r="D91" s="51"/>
-      <c r="E91" s="51"/>
-      <c r="F91" s="51"/>
-      <c r="G91" s="51"/>
-      <c r="H91" s="51"/>
-      <c r="I91" s="51"/>
-      <c r="J91" s="51"/>
-      <c r="K91" s="51"/>
-      <c r="L91" s="51"/>
-      <c r="M91" s="47"/>
-    </row>
-    <row r="92" spans="1:13" ht="17.25" thickBot="1">
-      <c r="A92" s="63"/>
-      <c r="B92" s="46"/>
-      <c r="C92" s="46"/>
-      <c r="D92" s="46"/>
-      <c r="E92" s="46"/>
-      <c r="F92" s="46"/>
-      <c r="G92" s="46"/>
-      <c r="H92" s="46"/>
-      <c r="I92" s="46"/>
-      <c r="J92" s="46"/>
-      <c r="K92" s="46"/>
-      <c r="L92" s="46"/>
-      <c r="M92" s="48"/>
-    </row>
-    <row r="95" spans="1:13" ht="17.25" thickBot="1"/>
-    <row r="96" spans="1:13">
-      <c r="A96" s="57"/>
-      <c r="B96" s="58"/>
-      <c r="C96" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="D96" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="E96" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="F96" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="G96" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="H96" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="I96" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="J96" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="K96" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="L96" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="M96" s="59"/>
-    </row>
-    <row r="97" spans="1:13">
-      <c r="A97" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B97" s="64">
-        <v>43618</v>
-      </c>
-      <c r="C97" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="D97" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="E97" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="F97" s="51">
-        <v>1</v>
-      </c>
-      <c r="G97" s="51">
-        <v>100</v>
-      </c>
-      <c r="H97" s="53">
-        <f t="shared" ref="H97:H99" si="33">F97*G97</f>
-        <v>100</v>
-      </c>
-      <c r="I97" s="51">
-        <v>466</v>
-      </c>
-      <c r="J97" s="51">
-        <f>H97*I97/100</f>
-        <v>466</v>
-      </c>
-      <c r="K97" s="51">
-        <v>19.3</v>
-      </c>
-      <c r="L97" s="51">
-        <f t="shared" ref="L97:L99" si="34">G97*K97/100</f>
-        <v>19.3</v>
-      </c>
-      <c r="M97" s="55"/>
-    </row>
-    <row r="98" spans="1:13">
-      <c r="A98" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B98" s="60">
-        <f>SUM(J97:J108)</f>
-        <v>1816.0800000000002</v>
-      </c>
-      <c r="C98" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="D98" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="E98" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="F98" s="50">
-        <v>1</v>
-      </c>
-      <c r="G98" s="50">
-        <v>400</v>
-      </c>
-      <c r="H98" s="50">
-        <f t="shared" si="33"/>
-        <v>400</v>
-      </c>
-      <c r="I98" s="50">
-        <v>21.03</v>
-      </c>
-      <c r="J98" s="50">
-        <f t="shared" ref="J98:J99" si="35">H98*I98/100</f>
-        <v>84.12</v>
-      </c>
-      <c r="K98" s="50">
-        <v>0</v>
-      </c>
-      <c r="L98" s="50">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="M98" s="55"/>
-    </row>
-    <row r="99" spans="1:13">
-      <c r="A99" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="B99" s="60">
-        <f>SUMIF(C97:C108,A99,J97:J108)</f>
-        <v>689.08</v>
-      </c>
-      <c r="C99" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="D99" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="E99" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="F99" s="53">
-        <v>1</v>
-      </c>
-      <c r="G99" s="53">
-        <v>100</v>
-      </c>
-      <c r="H99" s="53">
-        <f t="shared" si="33"/>
-        <v>100</v>
-      </c>
-      <c r="I99" s="53">
-        <v>29.82</v>
-      </c>
-      <c r="J99" s="53">
-        <f t="shared" si="35"/>
-        <v>29.82</v>
-      </c>
-      <c r="K99" s="53">
-        <v>0.68</v>
-      </c>
-      <c r="L99" s="53">
-        <f t="shared" si="34"/>
-        <v>0.68</v>
-      </c>
-      <c r="M99" s="55"/>
-    </row>
-    <row r="100" spans="1:13">
-      <c r="A100" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="B100" s="60">
-        <f>SUMIF(C97:C108,A100,J97:J108)</f>
-        <v>1083.5999999999999</v>
-      </c>
-      <c r="C100" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="D100" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="E100" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="F100" s="53">
-        <v>20</v>
-      </c>
-      <c r="G100" s="53">
-        <v>15</v>
-      </c>
-      <c r="H100" s="53">
-        <f t="shared" ref="H100:H104" si="36">F100*G100</f>
-        <v>300</v>
-      </c>
-      <c r="I100" s="53">
-        <v>246</v>
-      </c>
-      <c r="J100" s="53">
-        <f t="shared" ref="J100:J104" si="37">H100*I100/100</f>
-        <v>738</v>
-      </c>
-      <c r="K100" s="53">
-        <v>31.4</v>
-      </c>
-      <c r="L100" s="53">
-        <f t="shared" ref="L100:L101" si="38">G100*K100/100</f>
-        <v>4.71</v>
-      </c>
-      <c r="M100" s="55"/>
-    </row>
-    <row r="101" spans="1:13">
-      <c r="A101" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B101" s="60">
-        <f>SUMIF(C97:C108,A101,J97:J108)</f>
-        <v>0</v>
-      </c>
-      <c r="C101" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="D101" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="E101" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="F101" s="51">
-        <v>1</v>
-      </c>
-      <c r="G101" s="51">
-        <v>150</v>
-      </c>
-      <c r="H101" s="51">
-        <f t="shared" si="36"/>
-        <v>150</v>
-      </c>
-      <c r="I101" s="51">
-        <v>170</v>
-      </c>
-      <c r="J101" s="51">
-        <f t="shared" si="37"/>
-        <v>255</v>
-      </c>
-      <c r="K101" s="51">
-        <v>14.3</v>
-      </c>
-      <c r="L101" s="51">
-        <f t="shared" si="38"/>
-        <v>21.45</v>
-      </c>
-      <c r="M101" s="55"/>
-    </row>
-    <row r="102" spans="1:13">
-      <c r="A102" s="62"/>
-      <c r="B102" s="60"/>
-      <c r="C102" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="D102" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="E102" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="F102" s="65">
-        <v>1</v>
-      </c>
-      <c r="G102" s="65">
-        <v>140</v>
-      </c>
-      <c r="H102" s="65">
-        <f t="shared" si="36"/>
-        <v>140</v>
-      </c>
-      <c r="I102" s="65">
-        <v>31</v>
-      </c>
-      <c r="J102" s="65">
-        <f t="shared" si="37"/>
-        <v>43.4</v>
-      </c>
-      <c r="K102" s="50"/>
-      <c r="L102" s="50"/>
-      <c r="M102" s="55"/>
-    </row>
-    <row r="103" spans="1:13">
-      <c r="A103" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="B103" s="60"/>
-      <c r="C103" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="D103" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="E103" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="F103" s="53">
-        <v>1</v>
-      </c>
-      <c r="G103" s="53">
-        <v>60</v>
-      </c>
-      <c r="H103" s="53">
-        <f t="shared" si="36"/>
-        <v>60</v>
-      </c>
-      <c r="I103" s="53">
-        <v>151</v>
-      </c>
-      <c r="J103" s="53">
-        <f t="shared" si="37"/>
-        <v>90.6</v>
-      </c>
-      <c r="K103" s="53">
-        <v>12.1</v>
-      </c>
-      <c r="L103" s="53">
-        <f>G103*K103/100</f>
-        <v>7.26</v>
-      </c>
-      <c r="M103" s="55"/>
-    </row>
-    <row r="104" spans="1:13">
-      <c r="A104" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="B104" s="60">
-        <f>SUM(L97:L108)</f>
-        <v>56.4</v>
-      </c>
-      <c r="C104" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="D104" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="E104" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="F104" s="50">
-        <v>1</v>
-      </c>
-      <c r="G104" s="50">
-        <v>300</v>
-      </c>
-      <c r="H104" s="50">
-        <f t="shared" si="36"/>
-        <v>300</v>
-      </c>
-      <c r="I104" s="50">
-        <v>36.380000000000003</v>
-      </c>
-      <c r="J104" s="50">
-        <f t="shared" si="37"/>
-        <v>109.14</v>
-      </c>
-      <c r="K104" s="50">
-        <v>1</v>
-      </c>
-      <c r="L104" s="50">
-        <f t="shared" ref="L104" si="39">G104*K104/100</f>
-        <v>3</v>
-      </c>
-      <c r="M104" s="55"/>
-    </row>
-    <row r="105" spans="1:13">
-      <c r="A105" s="61"/>
-      <c r="B105" s="60"/>
-      <c r="C105" s="53"/>
-      <c r="D105" s="53"/>
-      <c r="E105" s="53"/>
-      <c r="F105" s="53"/>
-      <c r="G105" s="53"/>
-      <c r="H105" s="53"/>
-      <c r="I105" s="53"/>
-      <c r="J105" s="53"/>
-      <c r="K105" s="53"/>
-      <c r="L105" s="53"/>
-      <c r="M105" s="47"/>
-    </row>
-    <row r="106" spans="1:13">
-      <c r="A106" s="61"/>
-      <c r="B106" s="45"/>
-      <c r="C106" s="45"/>
-      <c r="D106" s="45"/>
-      <c r="E106" s="45"/>
-      <c r="F106" s="45"/>
-      <c r="G106" s="45"/>
-      <c r="H106" s="45"/>
-      <c r="I106" s="45"/>
-      <c r="J106" s="45"/>
-      <c r="K106" s="45"/>
-      <c r="L106" s="45"/>
-      <c r="M106" s="47"/>
-    </row>
-    <row r="107" spans="1:13">
-      <c r="A107" s="61"/>
-      <c r="B107" s="45"/>
-      <c r="C107" s="51"/>
-      <c r="D107" s="51"/>
-      <c r="E107" s="51"/>
-      <c r="F107" s="51"/>
-      <c r="G107" s="51"/>
-      <c r="H107" s="51"/>
-      <c r="I107" s="51"/>
-      <c r="J107" s="51"/>
-      <c r="K107" s="51"/>
-      <c r="L107" s="51"/>
-      <c r="M107" s="47"/>
-    </row>
-    <row r="108" spans="1:13" ht="17.25" thickBot="1">
-      <c r="A108" s="63"/>
-      <c r="B108" s="46"/>
-      <c r="C108" s="46"/>
-      <c r="D108" s="46"/>
-      <c r="E108" s="46"/>
-      <c r="F108" s="46"/>
-      <c r="G108" s="46"/>
-      <c r="H108" s="46"/>
-      <c r="I108" s="46"/>
-      <c r="J108" s="46"/>
-      <c r="K108" s="46"/>
-      <c r="L108" s="46"/>
-      <c r="M108" s="48"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/减脂增肌.xlsx
+++ b/减脂增肌.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15990" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15990" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="计划轮廓" sheetId="1" r:id="rId1"/>
+    <sheet name="食物列表" sheetId="2" r:id="rId2"/>
+    <sheet name="每日饮食" sheetId="3" r:id="rId3"/>
+    <sheet name="体重变化" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$C$16:$C$23</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="2">Sheet3!$F$23:$F$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日饮食!$C$16:$C$23</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="2">每日饮食!$F$23:$F$27</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="134">
   <si>
     <t>单位</t>
   </si>
@@ -485,6 +486,18 @@
   </si>
   <si>
     <t>1碗</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>早晨体重</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡前体重</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>腰围</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1313,7 +1326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1505,6 +1518,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="20% - 强调文字颜色 1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -1590,7 +1606,7 @@
         <xdr:cNvPr id="2049" name="Picture 1" descr="http://s2.boohee.cn/food/star/mantou_junzhi-eebf1a1047a2c77b1611f7fa1530b522.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1636,7 +1652,7 @@
         <xdr:cNvPr id="2050" name="Picture 2" descr="http://s2.boohee.cn/food/star/mifen-5417640ffeef94b4890adc8f223575b6.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1682,7 +1698,7 @@
         <xdr:cNvPr id="2051" name="Picture 3" descr="http://s2.boohee.cn/food/star/lvdou-abb3662f6104fb8d05203374a6f71125.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1728,7 +1744,7 @@
         <xdr:cNvPr id="2052" name="Picture 4" descr="http://s2.boohee.cn/food/star/heimizhou-96bc011520f5fa9c449a0c04f462933a.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1774,7 +1790,7 @@
         <xdr:cNvPr id="2053" name="Picture 5" descr="http://s2.boohee.cn/food/star/jixiongfurou-838288502b3a279a85e51959b2625cbb.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1820,7 +1836,7 @@
         <xdr:cNvPr id="2054" name="Picture 6" descr="http://s2.boohee.cn/food/star/hebaodan_youjian-ecdd3bc2083df7d4f3f16c3f73b46ad1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1866,7 +1882,7 @@
         <xdr:cNvPr id="2055" name="Picture 7" descr="http://s2.boohee.cn/food/star/miantiao_fuqiangfen_zhu-f98e799ed60d85715309652831e34fb4.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1912,7 +1928,7 @@
         <xdr:cNvPr id="2056" name="Picture 8" descr="http://s2.boohee.cn/food/star/niuru_junzhi-a27fe2d98e468f5174cff506bd4ac30e.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1958,7 +1974,7 @@
         <xdr:cNvPr id="2057" name="Picture 9" descr="http://s2.boohee.cn/food/star/pingguo_junzhi-8a4b1966ee455751bdabeba92fe6aea7.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2004,7 +2020,7 @@
         <xdr:cNvPr id="2058" name="Picture 10" descr="http://s2.boohee.cn/food/star/niurou_shou-35b252e8a7dc82545fd8d0c682ab7634.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2050,7 +2066,7 @@
         <xdr:cNvPr id="2059" name="Picture 11" descr="http://s2.boohee.cn/food/star/dounai-afbb33b4205be58a6579cef0075cc635.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2096,7 +2112,7 @@
         <xdr:cNvPr id="2060" name="Picture 12" descr="http://s2.boohee.cn/food/star/kuihuaziren-35ecdeccf4b3ab68b27ed7fa3f370c88.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2142,7 +2158,7 @@
         <xdr:cNvPr id="2061" name="Picture 13" descr="http://s2.boohee.cn/food/star/doufu_junzhi-c00d094a7a0e51393cb567814df97922.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2188,7 +2204,7 @@
         <xdr:cNvPr id="2062" name="Picture 14" descr="http://s2.boohee.cn/food/star/lvdouzhou-a25d46fa0205ecd0a0f89b573bfc420d.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2234,7 +2250,7 @@
         <xdr:cNvPr id="16" name="Picture 15" descr="http://s2.boohee.cn/food/star/kaifengguantangbao-0c0a391c85d62d20f460de7ebd72d3fc.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2246,7 +2262,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2266,7 +2282,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2295,7 +2311,7 @@
         <xdr:cNvPr id="17" name="Picture 16" descr="http://s2.boohee.cn/food/star/xiangjiao-a02e0b0a9cc11382f89c023a0abe5c26.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,7 +2323,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2327,7 +2343,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2356,7 +2372,7 @@
         <xdr:cNvPr id="18" name="Picture 17" descr="http://s2.boohee.cn/food/star/tao_junzhi-cfad8f99b49568df71206244fe6102a8.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2368,7 +2384,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2388,7 +2404,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2412,7 +2428,7 @@
         <xdr:cNvPr id="19" name="Picture 14" descr="http://s2.boohee.cn/food/star/lvdouzhou-a25d46fa0205ecd0a0f89b573bfc420d.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2458,7 +2474,7 @@
         <xdr:cNvPr id="1025" name="Picture 1" descr="http://s2.boohee.cn/food/star/shucaishala-5a8e9eb8cbb4194b4afffa720d2a0bf7.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2504,7 +2520,7 @@
         <xdr:cNvPr id="1026" name="Picture 2" descr="http://s2.boohee.cn/food/star/jinqiangyushucaishala_wushalajiang-ce4ca0c7cc32257f837c393f3050c877.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2550,7 +2566,7 @@
         <xdr:cNvPr id="1027" name="Picture 3" descr="http://s2.boohee.cn/food/star/shalajiang-bf0caecb9e24b8497fdfd42da8740fc4.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2596,7 +2612,7 @@
         <xdr:cNvPr id="23" name="Picture 22" descr="http://s2.boohee.cn/food/star/jidanbing-aae559b0f1fdc016e0c99bd0e9f52834.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{97787869-7725-4C86-B61D-87096A6A8E65}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97787869-7725-4C86-B61D-87096A6A8E65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2608,7 +2624,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2628,7 +2644,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2657,7 +2673,7 @@
         <xdr:cNvPr id="25" name="Picture 24" descr="http://s2.boohee.cn/food/star/qingdunpaigu-9d0bb3a3c28831ec6c8752a9267b7d9b.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9931887-2AF9-4310-A53A-E502E4D6DD7D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9931887-2AF9-4310-A53A-E502E4D6DD7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2669,7 +2685,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2689,7 +2705,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3111,7 +3127,7 @@
   <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5418,8 +5434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:M108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8334,4 +8350,226 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="11.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="C2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="67">
+        <v>43618</v>
+      </c>
+      <c r="D3" s="3">
+        <v>114.7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="67">
+        <v>43619</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="67">
+        <v>43620</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="67">
+        <v>43621</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="67">
+        <v>43622</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="67">
+        <v>43623</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="67">
+        <v>43624</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="67">
+        <v>43625</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="67">
+        <v>43626</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="67">
+        <v>43627</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="67">
+        <v>43628</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="67">
+        <v>43629</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="67">
+        <v>43630</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="67">
+        <v>43631</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="67">
+        <v>43632</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="67">
+        <v>43633</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="67">
+        <v>43634</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="67">
+        <v>43635</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="67">
+        <v>43636</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="67">
+        <v>43637</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="67">
+        <v>43638</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="67">
+        <v>43639</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="67">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="67">
+        <v>43641</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="67">
+        <v>43642</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="67">
+        <v>43643</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="67">
+        <v>43644</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="67">
+        <v>43645</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="67">
+        <v>43646</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="67">
+        <v>43647</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="67">
+        <v>43648</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="67">
+        <v>43649</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="67">
+        <v>43650</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="67">
+        <v>43651</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="67">
+        <v>43652</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="67">
+        <v>43653</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="67">
+        <v>43654</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/减脂增肌.xlsx
+++ b/减脂增肌.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\健身\fitness\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FEDB4B-17AA-4775-85CB-14DF01BEECA9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15990" activeTab="3"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="22620" windowHeight="14520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="计划轮廓" sheetId="1" r:id="rId1"/>
@@ -16,12 +22,22 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日饮食!$C$16:$C$23</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">每日饮食!$F$23:$F$27</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="136">
   <si>
     <t>单位</t>
   </si>
@@ -499,12 +515,18 @@
   <si>
     <t>腰围</t>
     <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>烙饼</t>
+  </si>
+  <si>
+    <t>哈密瓜</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="25">
     <font>
       <sz val="11"/>
@@ -516,7 +538,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -524,7 +546,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -533,7 +555,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Cambria"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -542,7 +564,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -551,7 +573,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -560,7 +582,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -568,7 +590,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -576,7 +598,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -584,7 +606,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -592,7 +614,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -601,7 +623,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -610,7 +632,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -618,7 +640,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -627,7 +649,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -635,7 +657,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -644,7 +666,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -653,7 +675,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -661,7 +683,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1523,66 +1545,74 @@
     </xf>
   </cellXfs>
   <cellStyles count="57">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="18" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="43"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="22" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="45"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="26" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="47"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="30" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="49"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="51"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="53"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="19" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="44"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="23" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="46"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="27" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="48"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="50"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="35" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="52"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="39" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="54"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="20" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="24" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="28" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="32" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="36" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="40" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="41"/>
-    <cellStyle name="常规 2 2" xfId="55"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="16" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="15" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="21" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="25" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="29" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="33" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="37" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="注释 2" xfId="42"/>
-    <cellStyle name="注释 2 2" xfId="56"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="60% - Accent1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="常规 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="常规 2 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="注释 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="注释 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1606,7 +1636,7 @@
         <xdr:cNvPr id="2049" name="Picture 1" descr="http://s2.boohee.cn/food/star/mantou_junzhi-eebf1a1047a2c77b1611f7fa1530b522.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1652,7 +1682,7 @@
         <xdr:cNvPr id="2050" name="Picture 2" descr="http://s2.boohee.cn/food/star/mifen-5417640ffeef94b4890adc8f223575b6.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1698,7 +1728,7 @@
         <xdr:cNvPr id="2051" name="Picture 3" descr="http://s2.boohee.cn/food/star/lvdou-abb3662f6104fb8d05203374a6f71125.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1744,7 +1774,7 @@
         <xdr:cNvPr id="2052" name="Picture 4" descr="http://s2.boohee.cn/food/star/heimizhou-96bc011520f5fa9c449a0c04f462933a.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1790,7 +1820,7 @@
         <xdr:cNvPr id="2053" name="Picture 5" descr="http://s2.boohee.cn/food/star/jixiongfurou-838288502b3a279a85e51959b2625cbb.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1836,7 +1866,7 @@
         <xdr:cNvPr id="2054" name="Picture 6" descr="http://s2.boohee.cn/food/star/hebaodan_youjian-ecdd3bc2083df7d4f3f16c3f73b46ad1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1882,7 +1912,7 @@
         <xdr:cNvPr id="2055" name="Picture 7" descr="http://s2.boohee.cn/food/star/miantiao_fuqiangfen_zhu-f98e799ed60d85715309652831e34fb4.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1928,7 +1958,7 @@
         <xdr:cNvPr id="2056" name="Picture 8" descr="http://s2.boohee.cn/food/star/niuru_junzhi-a27fe2d98e468f5174cff506bd4ac30e.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1974,7 +2004,7 @@
         <xdr:cNvPr id="2057" name="Picture 9" descr="http://s2.boohee.cn/food/star/pingguo_junzhi-8a4b1966ee455751bdabeba92fe6aea7.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2020,7 +2050,7 @@
         <xdr:cNvPr id="2058" name="Picture 10" descr="http://s2.boohee.cn/food/star/niurou_shou-35b252e8a7dc82545fd8d0c682ab7634.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2052,13 +2082,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2066,7 +2096,7 @@
         <xdr:cNvPr id="2059" name="Picture 11" descr="http://s2.boohee.cn/food/star/dounai-afbb33b4205be58a6579cef0075cc635.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2098,13 +2128,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>148167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2112,7 +2142,7 @@
         <xdr:cNvPr id="2060" name="Picture 12" descr="http://s2.boohee.cn/food/star/kuihuaziren-35ecdeccf4b3ab68b27ed7fa3f370c88.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2158,7 +2188,7 @@
         <xdr:cNvPr id="2061" name="Picture 13" descr="http://s2.boohee.cn/food/star/doufu_junzhi-c00d094a7a0e51393cb567814df97922.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2204,7 +2234,7 @@
         <xdr:cNvPr id="2062" name="Picture 14" descr="http://s2.boohee.cn/food/star/lvdouzhou-a25d46fa0205ecd0a0f89b573bfc420d.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2250,7 +2280,7 @@
         <xdr:cNvPr id="16" name="Picture 15" descr="http://s2.boohee.cn/food/star/kaifengguantangbao-0c0a391c85d62d20f460de7ebd72d3fc.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2262,7 +2292,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2282,7 +2312,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2311,7 +2341,7 @@
         <xdr:cNvPr id="17" name="Picture 16" descr="http://s2.boohee.cn/food/star/xiangjiao-a02e0b0a9cc11382f89c023a0abe5c26.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2323,7 +2353,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2343,7 +2373,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2372,7 +2402,7 @@
         <xdr:cNvPr id="18" name="Picture 17" descr="http://s2.boohee.cn/food/star/tao_junzhi-cfad8f99b49568df71206244fe6102a8.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2384,7 +2414,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2404,7 +2434,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2428,7 +2458,7 @@
         <xdr:cNvPr id="19" name="Picture 14" descr="http://s2.boohee.cn/food/star/lvdouzhou-a25d46fa0205ecd0a0f89b573bfc420d.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2474,7 +2504,7 @@
         <xdr:cNvPr id="1025" name="Picture 1" descr="http://s2.boohee.cn/food/star/shucaishala-5a8e9eb8cbb4194b4afffa720d2a0bf7.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2520,7 +2550,7 @@
         <xdr:cNvPr id="1026" name="Picture 2" descr="http://s2.boohee.cn/food/star/jinqiangyushucaishala_wushalajiang-ce4ca0c7cc32257f837c393f3050c877.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2552,13 +2582,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>137583</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2566,7 +2596,7 @@
         <xdr:cNvPr id="1027" name="Picture 3" descr="http://s2.boohee.cn/food/star/shalajiang-bf0caecb9e24b8497fdfd42da8740fc4.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2612,7 +2642,7 @@
         <xdr:cNvPr id="23" name="Picture 22" descr="http://s2.boohee.cn/food/star/jidanbing-aae559b0f1fdc016e0c99bd0e9f52834.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97787869-7725-4C86-B61D-87096A6A8E65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2624,7 +2654,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2644,7 +2674,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2673,7 +2703,7 @@
         <xdr:cNvPr id="25" name="Picture 24" descr="http://s2.boohee.cn/food/star/qingdunpaigu-9d0bb3a3c28831ec6c8752a9267b7d9b.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9931887-2AF9-4310-A53A-E502E4D6DD7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2685,7 +2715,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2705,7 +2735,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2720,18 +2750,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="http://s2.boohee.cn/food/star/xigua_junzhi-21ca9c4ebf052c715635aee817282201.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="http://s2.boohee.cn/food/star/xigua_junzhi-21ca9c4ebf052c715635aee817282201.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2760,18 +2796,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="http://s2.boohee.cn/food/star/yumitangxiaomizhou-24b50dc800209120bc96d8e0ef1bca74.png"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="http://s2.boohee.cn/food/star/yumitangxiaomizhou-24b50dc800209120bc96d8e0ef1bca74.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2811,7 +2853,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="http://s2.boohee.cn/food/star/heijiaoniupai-974c0876b4ab5c27293c84f299326ba1.png"/>
+        <xdr:cNvPr id="4" name="Picture 3" descr="http://s2.boohee.cn/food/star/heijiaoniupai-974c0876b4ab5c27293c84f299326ba1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2836,11 +2884,72 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27" descr="http://s2.boohee.cn/food/star/hamigua2-bb623c64e63a628e505152d1da65ce43.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB985375-54E7-4021-ABF8-CC4533D90F51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="9858375"/>
+          <a:ext cx="857250" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2882,7 +2991,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2914,9 +3023,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2948,6 +3075,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3123,7 +3268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3383,12 +3528,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L60" sqref="C60:L60"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3518,7 +3663,7 @@
         <v>100</v>
       </c>
       <c r="H4" s="53">
-        <f t="shared" ref="H4:H61" si="1">F4*G4</f>
+        <f t="shared" ref="H4:H62" si="1">F4*G4</f>
         <v>100</v>
       </c>
       <c r="I4" s="51">
@@ -3560,7 +3705,7 @@
         <v>76</v>
       </c>
       <c r="J5" s="18">
-        <f t="shared" ref="J5:J61" si="2">H5*I5/100</f>
+        <f t="shared" ref="J5:J62" si="2">H5*I5/100</f>
         <v>30.4</v>
       </c>
       <c r="L5" s="18">
@@ -3608,7 +3753,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>71</v>
@@ -3617,22 +3762,25 @@
         <v>1</v>
       </c>
       <c r="G7" s="18">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H7" s="18">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I7" s="18">
-        <v>354</v>
+        <v>215</v>
       </c>
       <c r="J7" s="18">
         <f t="shared" si="2"/>
-        <v>283.2</v>
+        <v>215</v>
+      </c>
+      <c r="K7" s="18">
+        <v>7</v>
       </c>
       <c r="L7" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="18" customFormat="1">
@@ -4432,7 +4580,7 @@
         <v>20.3</v>
       </c>
       <c r="L31" s="18">
-        <f t="shared" ref="L31:L59" si="9">G31*K31/100</f>
+        <f t="shared" ref="L31:L60" si="9">G31*K31/100</f>
         <v>10.15</v>
       </c>
     </row>
@@ -5000,95 +5148,105 @@
     <row r="48" spans="1:12" s="65" customFormat="1">
       <c r="A48"/>
       <c r="C48" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" s="65">
+        <v>1</v>
+      </c>
+      <c r="G48" s="65">
+        <v>30</v>
+      </c>
+      <c r="H48" s="65">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I48" s="65">
+        <v>34</v>
+      </c>
+      <c r="J48" s="65">
+        <f t="shared" ref="J48" si="14">H48*I48/100</f>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K48" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="L48" s="65">
+        <f t="shared" ref="L48" si="15">G48*K48/100</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="65" customFormat="1">
+      <c r="A49"/>
+      <c r="C49" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="D48" s="65" t="s">
+      <c r="D49" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="65" t="s">
+      <c r="E49" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="F48" s="65">
-        <v>1</v>
-      </c>
-      <c r="G48" s="65">
+      <c r="F49" s="65">
+        <v>1</v>
+      </c>
+      <c r="G49" s="65">
         <v>140</v>
       </c>
-      <c r="H48" s="65">
-        <f t="shared" ref="H48" si="14">F48*G48</f>
+      <c r="H49" s="65">
+        <f t="shared" ref="H49" si="16">F49*G49</f>
         <v>140</v>
       </c>
-      <c r="I48" s="65">
+      <c r="I49" s="65">
         <v>31</v>
       </c>
-      <c r="J48" s="65">
-        <f t="shared" ref="J48" si="15">H48*I48/100</f>
+      <c r="J49" s="65">
+        <f t="shared" ref="J49" si="17">H49*I49/100</f>
         <v>43.4</v>
       </c>
-      <c r="K48" s="65">
+      <c r="K49" s="65">
         <v>1.8</v>
       </c>
-      <c r="L48" s="65">
-        <f t="shared" ref="L48" si="16">G48*K48/100</f>
+      <c r="L49" s="65">
+        <f t="shared" ref="L49" si="18">G49*K49/100</f>
         <v>2.52</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="18" customFormat="1">
-      <c r="A49" s="44"/>
-      <c r="C49" s="18" t="s">
+    <row r="50" spans="1:12" s="18" customFormat="1">
+      <c r="A50" s="44"/>
+      <c r="C50" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D50" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E49" s="18" t="s">
+      <c r="E50" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F49" s="18">
-        <v>1</v>
-      </c>
-      <c r="G49" s="18">
+      <c r="F50" s="18">
+        <v>1</v>
+      </c>
+      <c r="G50" s="18">
         <v>100</v>
       </c>
-      <c r="H49" s="18">
+      <c r="H50" s="18">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I49" s="18">
+      <c r="I50" s="18">
         <v>47</v>
       </c>
-      <c r="J49" s="18">
+      <c r="J50" s="18">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="L49" s="18">
-        <f t="shared" ref="L49" si="17">G49*K49/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" s="18" customFormat="1">
-      <c r="C50" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F50" s="18">
-        <v>1</v>
-      </c>
-      <c r="H50" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="18">
-        <v>31</v>
-      </c>
-      <c r="J50" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="L50" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="L50" si="19">G50*K50/100</f>
         <v>0</v>
       </c>
     </row>
@@ -5097,79 +5255,73 @@
         <v>8</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="F51" s="18">
         <v>1</v>
-      </c>
-      <c r="G51" s="18">
-        <v>200</v>
       </c>
       <c r="H51" s="18">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I51" s="18">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J51" s="18">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="K51" s="18">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="L51" s="18">
         <f t="shared" si="9"/>
-        <v>4.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="18" customFormat="1">
+      <c r="C52" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>84</v>
+      </c>
       <c r="F52" s="18">
         <v>1</v>
+      </c>
+      <c r="G52" s="18">
+        <v>200</v>
       </c>
       <c r="H52" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="I52" s="18">
+        <v>30</v>
       </c>
       <c r="J52" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="K52" s="18">
+        <v>2.4</v>
       </c>
       <c r="L52" s="18">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="53" spans="1:12" s="18" customFormat="1">
-      <c r="C53" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>74</v>
-      </c>
       <c r="F53" s="18">
         <v>1</v>
-      </c>
-      <c r="G53" s="18">
-        <v>30</v>
       </c>
       <c r="H53" s="18">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="I53" s="18">
-        <v>615</v>
+        <v>0</v>
       </c>
       <c r="J53" s="18">
         <f t="shared" si="2"/>
-        <v>184.5</v>
+        <v>0</v>
       </c>
       <c r="L53" s="18">
         <f t="shared" si="9"/>
@@ -5177,248 +5329,280 @@
       </c>
     </row>
     <row r="54" spans="1:12" s="18" customFormat="1">
-      <c r="A54"/>
       <c r="C54" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="F54" s="18">
         <v>1</v>
       </c>
       <c r="G54" s="18">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H54" s="18">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I54" s="18">
-        <v>724</v>
+        <v>615</v>
       </c>
       <c r="J54" s="18">
         <f t="shared" si="2"/>
-        <v>72.400000000000006</v>
-      </c>
-      <c r="K54" s="18">
-        <v>2.8</v>
+        <v>184.5</v>
       </c>
       <c r="L54" s="18">
         <f t="shared" si="9"/>
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:12" s="18" customFormat="1">
+      <c r="A55"/>
+      <c r="C55" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>103</v>
+      </c>
       <c r="F55" s="18">
         <v>1</v>
+      </c>
+      <c r="G55" s="18">
+        <v>10</v>
       </c>
       <c r="H55" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I55" s="18">
+        <v>724</v>
       </c>
       <c r="J55" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>72.400000000000006</v>
+      </c>
+      <c r="K55" s="18">
+        <v>2.8</v>
       </c>
       <c r="L55" s="18">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="56" spans="1:12" s="18" customFormat="1">
-      <c r="C56" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>110</v>
-      </c>
       <c r="F56" s="18">
         <v>1</v>
-      </c>
-      <c r="G56" s="18">
-        <v>100</v>
       </c>
       <c r="H56" s="18">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="I56" s="18">
-        <v>584</v>
+        <v>0</v>
       </c>
       <c r="J56" s="18">
         <f t="shared" si="2"/>
-        <v>584</v>
-      </c>
-      <c r="K56" s="18">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L56" s="18">
         <f t="shared" si="9"/>
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:12" s="18" customFormat="1">
+      <c r="C57" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>110</v>
+      </c>
       <c r="F57" s="18">
         <v>1</v>
+      </c>
+      <c r="G57" s="18">
+        <v>100</v>
       </c>
       <c r="H57" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="I57" s="18">
+        <v>584</v>
       </c>
       <c r="J57" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>584</v>
+      </c>
+      <c r="K57" s="18">
+        <v>22</v>
       </c>
       <c r="L57" s="18">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:12" s="18" customFormat="1">
-      <c r="C58" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>75</v>
-      </c>
       <c r="F58" s="18">
         <v>1</v>
-      </c>
-      <c r="G58" s="18">
-        <v>150</v>
       </c>
       <c r="H58" s="18">
         <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="I58" s="18">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="J58" s="18">
         <f t="shared" si="2"/>
-        <v>109.5</v>
-      </c>
-      <c r="K58" s="18">
-        <v>5.47</v>
+        <v>0</v>
       </c>
       <c r="L58" s="18">
         <f t="shared" si="9"/>
-        <v>8.2050000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="C59" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="18" customFormat="1">
+      <c r="C59" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="D59" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F59" s="15">
-        <v>1</v>
-      </c>
-      <c r="G59" s="15">
+      <c r="D59" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F59" s="18">
+        <v>1</v>
+      </c>
+      <c r="G59" s="18">
         <v>150</v>
       </c>
-      <c r="H59" s="15">
+      <c r="H59" s="18">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="I59" s="15">
+      <c r="I59" s="18">
+        <v>73</v>
+      </c>
+      <c r="J59" s="18">
+        <f t="shared" si="2"/>
+        <v>109.5</v>
+      </c>
+      <c r="K59" s="18">
+        <v>5.47</v>
+      </c>
+      <c r="L59" s="18">
+        <f t="shared" si="9"/>
+        <v>8.2050000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="C60" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F60" s="15">
+        <v>1</v>
+      </c>
+      <c r="G60" s="15">
+        <v>150</v>
+      </c>
+      <c r="H60" s="15">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="I60" s="15">
         <v>41</v>
       </c>
-      <c r="J59" s="15">
+      <c r="J60" s="15">
         <f t="shared" si="2"/>
         <v>61.5</v>
       </c>
-      <c r="K59" s="15">
+      <c r="K60" s="15">
         <v>1.44</v>
       </c>
-      <c r="L59" s="15">
+      <c r="L60" s="15">
         <f t="shared" si="9"/>
         <v>2.16</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
-      <c r="A60"/>
-      <c r="C60" s="50" t="s">
+    <row r="61" spans="1:12">
+      <c r="A61"/>
+      <c r="C61" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="D60" s="50" t="s">
+      <c r="D61" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="E60" s="50" t="s">
+      <c r="E61" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="F60" s="15">
-        <v>1</v>
-      </c>
-      <c r="G60" s="15">
+      <c r="F61" s="15">
+        <v>1</v>
+      </c>
+      <c r="G61" s="15">
         <v>300</v>
       </c>
-      <c r="H60" s="50">
+      <c r="H61" s="50">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="I60" s="15">
+      <c r="I61" s="15">
         <v>36.380000000000003</v>
       </c>
-      <c r="J60" s="50">
+      <c r="J61" s="50">
         <f t="shared" si="2"/>
         <v>109.14</v>
       </c>
-      <c r="K60" s="50">
-        <v>1</v>
-      </c>
-      <c r="L60" s="50">
-        <f t="shared" ref="L60:L61" si="18">G60*K60/100</f>
+      <c r="K61" s="50">
+        <v>1</v>
+      </c>
+      <c r="L61" s="50">
+        <f t="shared" ref="L61:L62" si="20">G61*K61/100</f>
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
-      <c r="C61" s="50" t="s">
+    <row r="62" spans="1:12">
+      <c r="C62" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="D61" s="50" t="s">
+      <c r="D62" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="E61" s="50" t="s">
+      <c r="E62" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="F61" s="15">
-        <v>1</v>
-      </c>
-      <c r="G61" s="15">
+      <c r="F62" s="15">
+        <v>1</v>
+      </c>
+      <c r="G62" s="15">
         <v>400</v>
       </c>
-      <c r="H61" s="50">
+      <c r="H62" s="50">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="I61" s="15">
+      <c r="I62" s="15">
         <v>21.03</v>
       </c>
-      <c r="J61" s="50">
+      <c r="J62" s="50">
         <f t="shared" si="2"/>
         <v>84.12</v>
       </c>
-      <c r="K61" s="50">
+      <c r="K62" s="50">
         <v>0</v>
       </c>
-      <c r="L61" s="50">
-        <f t="shared" si="18"/>
+      <c r="L62" s="50">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -5431,11 +5615,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:M108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A3:M123"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8345,6 +8529,459 @@
       <c r="L108" s="46"/>
       <c r="M108" s="48"/>
     </row>
+    <row r="110" spans="1:13" ht="17.25" thickBot="1"/>
+    <row r="111" spans="1:13" s="50" customFormat="1">
+      <c r="A111" s="57"/>
+      <c r="B111" s="58"/>
+      <c r="C111" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F111" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="G111" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="H111" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="I111" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="J111" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="K111" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="L111" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M111" s="59"/>
+    </row>
+    <row r="112" spans="1:13" s="50" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A112" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B112" s="64">
+        <v>43619</v>
+      </c>
+      <c r="C112" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D112" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="E112" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="F112" s="51">
+        <v>1</v>
+      </c>
+      <c r="G112" s="51">
+        <v>200</v>
+      </c>
+      <c r="H112" s="51">
+        <f>F112*G112</f>
+        <v>200</v>
+      </c>
+      <c r="I112" s="51">
+        <v>48.29</v>
+      </c>
+      <c r="J112" s="51">
+        <f>H112*I112/100</f>
+        <v>96.58</v>
+      </c>
+      <c r="K112" s="51">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="L112" s="51">
+        <f t="shared" ref="L112" si="40">G112*K112/100</f>
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="M112" s="55"/>
+    </row>
+    <row r="113" spans="1:13" s="50" customFormat="1">
+      <c r="A113" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B113" s="60">
+        <f>SUM(J112:J123)</f>
+        <v>808.3900000000001</v>
+      </c>
+      <c r="C113" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D113" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E113" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="F113" s="53">
+        <v>1</v>
+      </c>
+      <c r="G113" s="53">
+        <v>60</v>
+      </c>
+      <c r="H113" s="53">
+        <f t="shared" ref="H113:H120" si="41">F113*G113</f>
+        <v>60</v>
+      </c>
+      <c r="I113" s="53">
+        <v>151</v>
+      </c>
+      <c r="J113" s="53">
+        <f t="shared" ref="J113:J120" si="42">H113*I113/100</f>
+        <v>90.6</v>
+      </c>
+      <c r="K113" s="53">
+        <v>12.1</v>
+      </c>
+      <c r="L113" s="53">
+        <f>G113*K113/100</f>
+        <v>7.26</v>
+      </c>
+      <c r="M113" s="55"/>
+    </row>
+    <row r="114" spans="1:13" s="50" customFormat="1">
+      <c r="A114" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B114" s="60">
+        <f>SUMIF(C112:C123,A114,J112:J123)</f>
+        <v>487.59</v>
+      </c>
+      <c r="C114" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D114" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="E114" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="F114" s="53">
+        <v>0.3</v>
+      </c>
+      <c r="G114" s="53">
+        <v>300</v>
+      </c>
+      <c r="H114" s="53">
+        <f t="shared" si="41"/>
+        <v>90</v>
+      </c>
+      <c r="I114" s="53">
+        <v>121.5</v>
+      </c>
+      <c r="J114" s="53">
+        <f t="shared" si="42"/>
+        <v>109.35</v>
+      </c>
+      <c r="K114" s="53">
+        <v>2.25</v>
+      </c>
+      <c r="L114" s="53">
+        <f t="shared" ref="L114:L116" si="43">G114*K114/100</f>
+        <v>6.75</v>
+      </c>
+      <c r="M114" s="55"/>
+    </row>
+    <row r="115" spans="1:13" s="50" customFormat="1">
+      <c r="A115" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" s="60">
+        <f>SUMIF(C112:C123,A115,J112:J123)</f>
+        <v>310.60000000000002</v>
+      </c>
+      <c r="C115" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D115" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="E115" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F115" s="53">
+        <v>1</v>
+      </c>
+      <c r="G115" s="53">
+        <v>100</v>
+      </c>
+      <c r="H115" s="53">
+        <f t="shared" si="41"/>
+        <v>100</v>
+      </c>
+      <c r="I115" s="53">
+        <v>215</v>
+      </c>
+      <c r="J115" s="53">
+        <f t="shared" si="42"/>
+        <v>215</v>
+      </c>
+      <c r="K115" s="53">
+        <v>7</v>
+      </c>
+      <c r="L115" s="53">
+        <f t="shared" si="43"/>
+        <v>7</v>
+      </c>
+      <c r="M115" s="55"/>
+    </row>
+    <row r="116" spans="1:13" s="50" customFormat="1">
+      <c r="A116" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" s="60">
+        <f>SUMIF(C112:C123,A116,J112:J123)</f>
+        <v>0</v>
+      </c>
+      <c r="C116" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D116" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E116" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="F116" s="53">
+        <v>1</v>
+      </c>
+      <c r="G116" s="53">
+        <v>100</v>
+      </c>
+      <c r="H116" s="53">
+        <f t="shared" si="41"/>
+        <v>100</v>
+      </c>
+      <c r="I116" s="53">
+        <v>94</v>
+      </c>
+      <c r="J116" s="53">
+        <f t="shared" si="42"/>
+        <v>94</v>
+      </c>
+      <c r="K116" s="53">
+        <v>2.9</v>
+      </c>
+      <c r="L116" s="53">
+        <f t="shared" si="43"/>
+        <v>2.9</v>
+      </c>
+      <c r="M116" s="55"/>
+    </row>
+    <row r="117" spans="1:13" s="50" customFormat="1">
+      <c r="A117" s="62"/>
+      <c r="B117" s="60"/>
+      <c r="C117" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D117" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E117" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F117" s="51">
+        <v>1</v>
+      </c>
+      <c r="G117" s="51">
+        <v>100</v>
+      </c>
+      <c r="H117" s="51">
+        <f t="shared" si="41"/>
+        <v>100</v>
+      </c>
+      <c r="I117" s="51">
+        <v>126</v>
+      </c>
+      <c r="J117" s="51">
+        <f t="shared" si="42"/>
+        <v>126</v>
+      </c>
+      <c r="K117" s="51">
+        <v>22</v>
+      </c>
+      <c r="L117" s="51">
+        <v>25</v>
+      </c>
+      <c r="M117" s="55"/>
+    </row>
+    <row r="118" spans="1:13" s="50" customFormat="1">
+      <c r="A118" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B118" s="60"/>
+      <c r="C118" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D118" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="E118" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="F118" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="G118" s="53">
+        <v>300</v>
+      </c>
+      <c r="H118" s="53">
+        <f t="shared" si="41"/>
+        <v>30</v>
+      </c>
+      <c r="I118" s="53">
+        <v>121.5</v>
+      </c>
+      <c r="J118" s="53">
+        <f t="shared" si="42"/>
+        <v>36.450000000000003</v>
+      </c>
+      <c r="K118" s="53">
+        <v>2.25</v>
+      </c>
+      <c r="L118" s="53">
+        <f t="shared" ref="L118:L120" si="44">G118*K118/100</f>
+        <v>6.75</v>
+      </c>
+      <c r="M118" s="55"/>
+    </row>
+    <row r="119" spans="1:13" s="50" customFormat="1">
+      <c r="A119" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" s="60">
+        <f>SUM(L112:L123)</f>
+        <v>61.460499999999996</v>
+      </c>
+      <c r="C119" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D119" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E119" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F119" s="51">
+        <v>0.3</v>
+      </c>
+      <c r="G119" s="51">
+        <v>95</v>
+      </c>
+      <c r="H119" s="51">
+        <f t="shared" si="41"/>
+        <v>28.5</v>
+      </c>
+      <c r="I119" s="51">
+        <v>106</v>
+      </c>
+      <c r="J119" s="51">
+        <f t="shared" si="42"/>
+        <v>30.21</v>
+      </c>
+      <c r="K119" s="51">
+        <v>1.59</v>
+      </c>
+      <c r="L119" s="51">
+        <f t="shared" si="44"/>
+        <v>1.5105000000000002</v>
+      </c>
+      <c r="M119" s="55"/>
+    </row>
+    <row r="120" spans="1:13" s="50" customFormat="1">
+      <c r="A120" s="61"/>
+      <c r="B120" s="60"/>
+      <c r="C120" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="D120" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="E120" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="F120" s="65">
+        <v>1</v>
+      </c>
+      <c r="G120" s="65">
+        <v>30</v>
+      </c>
+      <c r="H120" s="65">
+        <f t="shared" si="41"/>
+        <v>30</v>
+      </c>
+      <c r="I120" s="65">
+        <v>34</v>
+      </c>
+      <c r="J120" s="65">
+        <f t="shared" si="42"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K120" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="L120" s="65">
+        <f t="shared" si="44"/>
+        <v>0.15</v>
+      </c>
+      <c r="M120" s="47"/>
+    </row>
+    <row r="121" spans="1:13" s="50" customFormat="1">
+      <c r="A121" s="61"/>
+      <c r="B121" s="45"/>
+      <c r="C121" s="45"/>
+      <c r="D121" s="45"/>
+      <c r="E121" s="45"/>
+      <c r="F121" s="45"/>
+      <c r="G121" s="45"/>
+      <c r="H121" s="45"/>
+      <c r="I121" s="45"/>
+      <c r="J121" s="45"/>
+      <c r="K121" s="45"/>
+      <c r="L121" s="45"/>
+      <c r="M121" s="47"/>
+    </row>
+    <row r="122" spans="1:13" s="50" customFormat="1">
+      <c r="A122" s="61"/>
+      <c r="B122" s="45"/>
+      <c r="C122" s="51"/>
+      <c r="D122" s="51"/>
+      <c r="E122" s="51"/>
+      <c r="F122" s="51"/>
+      <c r="G122" s="51"/>
+      <c r="H122" s="51"/>
+      <c r="I122" s="51"/>
+      <c r="J122" s="51"/>
+      <c r="K122" s="51"/>
+      <c r="L122" s="51"/>
+      <c r="M122" s="47"/>
+    </row>
+    <row r="123" spans="1:13" s="50" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A123" s="63"/>
+      <c r="B123" s="46"/>
+      <c r="C123" s="46"/>
+      <c r="D123" s="46"/>
+      <c r="E123" s="46"/>
+      <c r="F123" s="46"/>
+      <c r="G123" s="46"/>
+      <c r="H123" s="46"/>
+      <c r="I123" s="46"/>
+      <c r="J123" s="46"/>
+      <c r="K123" s="46"/>
+      <c r="L123" s="46"/>
+      <c r="M123" s="48"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8353,11 +8990,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8386,10 +9023,16 @@
       <c r="D3" s="3">
         <v>114.7</v>
       </c>
+      <c r="E3" s="3">
+        <v>82</v>
+      </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="67">
         <v>43619</v>
+      </c>
+      <c r="C4" s="3">
+        <v>113.2</v>
       </c>
     </row>
     <row r="5" spans="2:5">

--- a/减脂增肌.xlsx
+++ b/减脂增肌.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\健身\fitness\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FEDB4B-17AA-4775-85CB-14DF01BEECA9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="22620" windowHeight="14520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="22620" windowHeight="14520" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="计划轮廓" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日饮食!$C$16:$C$23</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">每日饮食!$F$23:$F$27</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="141">
   <si>
     <t>单位</t>
   </si>
@@ -521,12 +515,32 @@
   </si>
   <si>
     <t>哈密瓜</t>
+  </si>
+  <si>
+    <t>脂肪</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦当劳甜筒</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳊鱼</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1块</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="25">
     <font>
       <sz val="11"/>
@@ -538,7 +552,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -546,7 +560,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -555,7 +569,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Cambria"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -564,7 +578,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -573,7 +587,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -582,7 +596,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -590,7 +604,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -598,7 +612,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -606,7 +620,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -614,7 +628,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -623,7 +637,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -632,7 +646,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -640,7 +654,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -649,7 +663,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -657,7 +671,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -666,7 +680,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -675,7 +689,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -683,7 +697,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1545,63 +1559,63 @@
     </xf>
   </cellXfs>
   <cellStyles count="57">
-    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="30" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="34" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="23" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="27" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="31" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="35" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="39" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="60% - Accent1" xfId="20" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="24" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="28" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="32" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="36" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="40" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="21" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="25" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="29" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="33" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="37" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="常规 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="常规 2 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="注释 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="注释 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="43"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="45"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="47"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="49"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="51"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="53"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="44"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="46"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="48"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="50"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="52"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="54"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="41"/>
+    <cellStyle name="常规 2 2" xfId="55"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="注释 2" xfId="42"/>
+    <cellStyle name="注释 2 2" xfId="56"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1636,7 +1650,7 @@
         <xdr:cNvPr id="2049" name="Picture 1" descr="http://s2.boohee.cn/food/star/mantou_junzhi-eebf1a1047a2c77b1611f7fa1530b522.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1682,7 +1696,7 @@
         <xdr:cNvPr id="2050" name="Picture 2" descr="http://s2.boohee.cn/food/star/mifen-5417640ffeef94b4890adc8f223575b6.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1728,7 +1742,7 @@
         <xdr:cNvPr id="2051" name="Picture 3" descr="http://s2.boohee.cn/food/star/lvdou-abb3662f6104fb8d05203374a6f71125.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1774,7 +1788,7 @@
         <xdr:cNvPr id="2052" name="Picture 4" descr="http://s2.boohee.cn/food/star/heimizhou-96bc011520f5fa9c449a0c04f462933a.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1820,7 +1834,7 @@
         <xdr:cNvPr id="2053" name="Picture 5" descr="http://s2.boohee.cn/food/star/jixiongfurou-838288502b3a279a85e51959b2625cbb.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1866,7 +1880,7 @@
         <xdr:cNvPr id="2054" name="Picture 6" descr="http://s2.boohee.cn/food/star/hebaodan_youjian-ecdd3bc2083df7d4f3f16c3f73b46ad1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1912,7 +1926,7 @@
         <xdr:cNvPr id="2055" name="Picture 7" descr="http://s2.boohee.cn/food/star/miantiao_fuqiangfen_zhu-f98e799ed60d85715309652831e34fb4.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1958,7 +1972,7 @@
         <xdr:cNvPr id="2056" name="Picture 8" descr="http://s2.boohee.cn/food/star/niuru_junzhi-a27fe2d98e468f5174cff506bd4ac30e.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1990,13 +2004,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>150283</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2004,7 +2018,7 @@
         <xdr:cNvPr id="2057" name="Picture 9" descr="http://s2.boohee.cn/food/star/pingguo_junzhi-8a4b1966ee455751bdabeba92fe6aea7.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2050,7 +2064,7 @@
         <xdr:cNvPr id="2058" name="Picture 10" descr="http://s2.boohee.cn/food/star/niurou_shou-35b252e8a7dc82545fd8d0c682ab7634.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2082,13 +2096,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2096,7 +2110,7 @@
         <xdr:cNvPr id="2059" name="Picture 11" descr="http://s2.boohee.cn/food/star/dounai-afbb33b4205be58a6579cef0075cc635.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2128,13 +2142,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>148167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2142,7 +2156,7 @@
         <xdr:cNvPr id="2060" name="Picture 12" descr="http://s2.boohee.cn/food/star/kuihuaziren-35ecdeccf4b3ab68b27ed7fa3f370c88.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2188,7 +2202,7 @@
         <xdr:cNvPr id="2061" name="Picture 13" descr="http://s2.boohee.cn/food/star/doufu_junzhi-c00d094a7a0e51393cb567814df97922.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2234,7 +2248,7 @@
         <xdr:cNvPr id="2062" name="Picture 14" descr="http://s2.boohee.cn/food/star/lvdouzhou-a25d46fa0205ecd0a0f89b573bfc420d.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2280,7 +2294,7 @@
         <xdr:cNvPr id="16" name="Picture 15" descr="http://s2.boohee.cn/food/star/kaifengguantangbao-0c0a391c85d62d20f460de7ebd72d3fc.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2292,7 +2306,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2312,7 +2326,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2327,13 +2341,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2341,7 +2355,7 @@
         <xdr:cNvPr id="17" name="Picture 16" descr="http://s2.boohee.cn/food/star/xiangjiao-a02e0b0a9cc11382f89c023a0abe5c26.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2353,7 +2367,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2373,7 +2387,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2388,13 +2402,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>20108</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2402,7 +2416,7 @@
         <xdr:cNvPr id="18" name="Picture 17" descr="http://s2.boohee.cn/food/star/tao_junzhi-cfad8f99b49568df71206244fe6102a8.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2414,7 +2428,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2434,7 +2448,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2458,7 +2472,7 @@
         <xdr:cNvPr id="19" name="Picture 14" descr="http://s2.boohee.cn/food/star/lvdouzhou-a25d46fa0205ecd0a0f89b573bfc420d.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2504,7 +2518,7 @@
         <xdr:cNvPr id="1025" name="Picture 1" descr="http://s2.boohee.cn/food/star/shucaishala-5a8e9eb8cbb4194b4afffa720d2a0bf7.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2550,7 +2564,7 @@
         <xdr:cNvPr id="1026" name="Picture 2" descr="http://s2.boohee.cn/food/star/jinqiangyushucaishala_wushalajiang-ce4ca0c7cc32257f837c393f3050c877.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2582,13 +2596,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>137583</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2596,7 +2610,7 @@
         <xdr:cNvPr id="1027" name="Picture 3" descr="http://s2.boohee.cn/food/star/shalajiang-bf0caecb9e24b8497fdfd42da8740fc4.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2642,7 +2656,7 @@
         <xdr:cNvPr id="23" name="Picture 22" descr="http://s2.boohee.cn/food/star/jidanbing-aae559b0f1fdc016e0c99bd0e9f52834.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2654,7 +2668,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2674,7 +2688,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2703,7 +2717,7 @@
         <xdr:cNvPr id="25" name="Picture 24" descr="http://s2.boohee.cn/food/star/qingdunpaigu-9d0bb3a3c28831ec6c8752a9267b7d9b.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2715,7 +2729,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2735,7 +2749,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2750,13 +2764,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2764,7 +2778,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="http://s2.boohee.cn/food/star/xigua_junzhi-21ca9c4ebf052c715635aee817282201.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2796,13 +2810,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2810,7 +2824,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="http://s2.boohee.cn/food/star/yumitangxiaomizhou-24b50dc800209120bc96d8e0ef1bca74.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2842,13 +2856,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2856,7 +2870,7 @@
         <xdr:cNvPr id="4" name="Picture 3" descr="http://s2.boohee.cn/food/star/heijiaoniupai-974c0876b4ab5c27293c84f299326ba1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2888,13 +2902,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2902,7 +2916,7 @@
         <xdr:cNvPr id="28" name="Picture 27" descr="http://s2.boohee.cn/food/star/hamigua2-bb623c64e63a628e505152d1da65ce43.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB985375-54E7-4021-ABF8-CC4533D90F51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB985375-54E7-4021-ABF8-CC4533D90F51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2911,10 +2925,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2934,7 +2948,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2945,11 +2959,136 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 1" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685801" y="11534775"/>
+          <a:ext cx="685800" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>160867</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 2" descr="http://s2.boohee.cn/food/star/jiachangbianyu-88c0bd723f724deae70a31371a4ea6b2.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8620125"/>
+          <a:ext cx="638175" cy="141817"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685801" y="11534775"/>
+          <a:ext cx="685800" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2991,7 +3130,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3023,27 +3162,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3075,24 +3196,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3268,7 +3371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3528,12 +3631,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M32" sqref="M32"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L42" sqref="C42:L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3663,7 +3766,7 @@
         <v>100</v>
       </c>
       <c r="H4" s="53">
-        <f t="shared" ref="H4:H62" si="1">F4*G4</f>
+        <f t="shared" ref="H4:H63" si="1">F4*G4</f>
         <v>100</v>
       </c>
       <c r="I4" s="51">
@@ -3705,7 +3808,7 @@
         <v>76</v>
       </c>
       <c r="J5" s="18">
-        <f t="shared" ref="J5:J62" si="2">H5*I5/100</f>
+        <f t="shared" ref="J5:J63" si="2">H5*I5/100</f>
         <v>30.4</v>
       </c>
       <c r="L5" s="18">
@@ -4580,7 +4683,7 @@
         <v>20.3</v>
       </c>
       <c r="L31" s="18">
-        <f t="shared" ref="L31:L60" si="9">G31*K31/100</f>
+        <f t="shared" ref="L31:L61" si="9">G31*K31/100</f>
         <v>10.15</v>
       </c>
     </row>
@@ -4934,179 +5037,178 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="53" customFormat="1">
-      <c r="A42" s="66"/>
+    <row r="42" spans="1:12" s="51" customFormat="1">
       <c r="C42" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="F42" s="51">
+        <v>1</v>
+      </c>
+      <c r="G42" s="51">
+        <v>10</v>
+      </c>
+      <c r="H42" s="51">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I42" s="51">
+        <v>135</v>
+      </c>
+      <c r="J42" s="51">
+        <f t="shared" si="2"/>
+        <v>13.5</v>
+      </c>
+      <c r="K42" s="51">
+        <v>18.3</v>
+      </c>
+      <c r="L42" s="51">
+        <f t="shared" si="9"/>
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="53" customFormat="1">
+      <c r="A43" s="66"/>
+      <c r="C43" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="D42" s="53" t="s">
+      <c r="D43" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="E42" s="53" t="s">
+      <c r="E43" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="53">
-        <v>1</v>
-      </c>
-      <c r="G42" s="53">
+      <c r="F43" s="53">
+        <v>1</v>
+      </c>
+      <c r="G43" s="53">
         <v>150</v>
       </c>
-      <c r="H42" s="53">
+      <c r="H43" s="53">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="I42" s="53">
+      <c r="I43" s="53">
         <v>170</v>
       </c>
-      <c r="J42" s="53">
+      <c r="J43" s="53">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="K42" s="53">
+      <c r="K43" s="53">
         <v>14.3</v>
       </c>
-      <c r="L42" s="53">
+      <c r="L43" s="53">
         <f t="shared" si="9"/>
         <v>21.45</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="18" customFormat="1">
-      <c r="C43" s="18" t="s">
+    <row r="44" spans="1:12" s="18" customFormat="1">
+      <c r="C44" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D44" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E44" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F43" s="18">
-        <v>1</v>
-      </c>
-      <c r="G43" s="18">
+      <c r="F44" s="18">
+        <v>1</v>
+      </c>
+      <c r="G44" s="18">
         <v>10</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H44" s="18">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I43" s="18">
+      <c r="I44" s="18">
         <v>48</v>
       </c>
-      <c r="J43" s="18">
+      <c r="J44" s="18">
         <f t="shared" si="2"/>
         <v>4.8</v>
       </c>
-      <c r="K43" s="18">
+      <c r="K44" s="18">
         <v>10.4</v>
       </c>
-      <c r="L43" s="18">
+      <c r="L44" s="18">
         <f t="shared" si="9"/>
         <v>1.04</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="16" customFormat="1">
-      <c r="C44" s="16" t="s">
+    <row r="45" spans="1:12" s="16" customFormat="1">
+      <c r="C45" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D45" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E45" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F44" s="16">
-        <v>1</v>
-      </c>
-      <c r="G44" s="16">
+      <c r="F45" s="16">
+        <v>1</v>
+      </c>
+      <c r="G45" s="16">
         <v>106</v>
       </c>
-      <c r="H44" s="16">
+      <c r="H45" s="16">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="I44" s="16">
+      <c r="I45" s="16">
         <v>53</v>
       </c>
-      <c r="J44" s="16">
+      <c r="J45" s="16">
         <f t="shared" si="2"/>
         <v>56.18</v>
       </c>
-      <c r="L44" s="16">
+      <c r="L45" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="22" customFormat="1">
-      <c r="A45" s="41"/>
-      <c r="C45" s="22" t="s">
+    <row r="46" spans="1:12" s="22" customFormat="1">
+      <c r="A46" s="41"/>
+      <c r="C46" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D46" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E46" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F45" s="22">
-        <v>1</v>
-      </c>
-      <c r="G45" s="22">
+      <c r="F46" s="22">
+        <v>1</v>
+      </c>
+      <c r="G46" s="22">
         <v>89</v>
       </c>
-      <c r="H45" s="22">
+      <c r="H46" s="22">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="I45" s="22">
+      <c r="I46" s="22">
         <v>93</v>
       </c>
-      <c r="J45" s="22">
+      <c r="J46" s="22">
         <f t="shared" si="2"/>
         <v>82.77</v>
       </c>
-      <c r="K45" s="22">
+      <c r="K46" s="22">
         <v>1.4</v>
       </c>
-      <c r="L45" s="22">
+      <c r="L46" s="22">
         <f t="shared" si="9"/>
         <v>1.246</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" s="43" customFormat="1">
-      <c r="A46" s="42"/>
-      <c r="C46" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="D46" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="F46" s="43">
-        <v>1</v>
-      </c>
-      <c r="G46" s="43">
-        <v>172</v>
-      </c>
-      <c r="H46" s="43">
-        <f t="shared" si="1"/>
-        <v>172</v>
-      </c>
-      <c r="I46" s="43">
-        <v>44</v>
-      </c>
-      <c r="J46" s="43">
-        <f t="shared" si="2"/>
-        <v>75.680000000000007</v>
-      </c>
-      <c r="K46" s="43">
-        <v>1.06</v>
-      </c>
-      <c r="L46" s="43">
-        <f t="shared" si="9"/>
-        <v>1.8232000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:12" s="43" customFormat="1">
@@ -5115,164 +5217,174 @@
         <v>90</v>
       </c>
       <c r="D47" s="43" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E47" s="43" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F47" s="43">
         <v>1</v>
       </c>
       <c r="G47" s="43">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="H47" s="43">
         <f t="shared" si="1"/>
+        <v>172</v>
+      </c>
+      <c r="I47" s="43">
+        <v>44</v>
+      </c>
+      <c r="J47" s="43">
+        <f t="shared" si="2"/>
+        <v>75.680000000000007</v>
+      </c>
+      <c r="K47" s="43">
+        <v>1.06</v>
+      </c>
+      <c r="L47" s="43">
+        <f t="shared" si="9"/>
+        <v>1.8232000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="43" customFormat="1">
+      <c r="A48" s="42"/>
+      <c r="C48" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48" s="43">
+        <v>1</v>
+      </c>
+      <c r="G48" s="43">
         <v>120</v>
       </c>
-      <c r="I47" s="43">
+      <c r="H48" s="43">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="I48" s="43">
         <v>16</v>
       </c>
-      <c r="J47" s="43">
-        <f t="shared" ref="J47" si="12">H47*I47/100</f>
+      <c r="J48" s="43">
+        <f t="shared" ref="J48" si="12">H48*I48/100</f>
         <v>19.2</v>
       </c>
-      <c r="K47" s="43">
+      <c r="K48" s="43">
         <v>0.8</v>
       </c>
-      <c r="L47" s="43">
-        <f t="shared" ref="L47" si="13">G47*K47/100</f>
+      <c r="L48" s="43">
+        <f t="shared" ref="L48" si="13">G48*K48/100</f>
         <v>0.96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" s="65" customFormat="1">
-      <c r="A48"/>
-      <c r="C48" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="D48" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="E48" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="F48" s="65">
-        <v>1</v>
-      </c>
-      <c r="G48" s="65">
-        <v>30</v>
-      </c>
-      <c r="H48" s="65">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="I48" s="65">
-        <v>34</v>
-      </c>
-      <c r="J48" s="65">
-        <f t="shared" ref="J48" si="14">H48*I48/100</f>
-        <v>10.199999999999999</v>
-      </c>
-      <c r="K48" s="65">
-        <v>0.5</v>
-      </c>
-      <c r="L48" s="65">
-        <f t="shared" ref="L48" si="15">G48*K48/100</f>
-        <v>0.15</v>
       </c>
     </row>
     <row r="49" spans="1:12" s="65" customFormat="1">
       <c r="A49"/>
       <c r="C49" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49" s="65">
+        <v>1</v>
+      </c>
+      <c r="G49" s="65">
+        <v>30</v>
+      </c>
+      <c r="H49" s="65">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I49" s="65">
+        <v>34</v>
+      </c>
+      <c r="J49" s="65">
+        <f t="shared" ref="J49" si="14">H49*I49/100</f>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K49" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="L49" s="65">
+        <f t="shared" ref="L49" si="15">G49*K49/100</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="65" customFormat="1">
+      <c r="A50"/>
+      <c r="C50" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="D49" s="65" t="s">
+      <c r="D50" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="E49" s="65" t="s">
+      <c r="E50" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="F49" s="65">
-        <v>1</v>
-      </c>
-      <c r="G49" s="65">
+      <c r="F50" s="65">
+        <v>1</v>
+      </c>
+      <c r="G50" s="65">
         <v>140</v>
       </c>
-      <c r="H49" s="65">
-        <f t="shared" ref="H49" si="16">F49*G49</f>
+      <c r="H50" s="65">
+        <f t="shared" ref="H50" si="16">F50*G50</f>
         <v>140</v>
       </c>
-      <c r="I49" s="65">
+      <c r="I50" s="65">
         <v>31</v>
       </c>
-      <c r="J49" s="65">
-        <f t="shared" ref="J49" si="17">H49*I49/100</f>
+      <c r="J50" s="65">
+        <f t="shared" ref="J50" si="17">H50*I50/100</f>
         <v>43.4</v>
       </c>
-      <c r="K49" s="65">
+      <c r="K50" s="65">
         <v>1.8</v>
       </c>
-      <c r="L49" s="65">
-        <f t="shared" ref="L49" si="18">G49*K49/100</f>
+      <c r="L50" s="65">
+        <f t="shared" ref="L50" si="18">G50*K50/100</f>
         <v>2.52</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="18" customFormat="1">
-      <c r="A50" s="44"/>
-      <c r="C50" s="18" t="s">
+    <row r="51" spans="1:12" s="18" customFormat="1">
+      <c r="A51" s="44"/>
+      <c r="C51" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D51" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E51" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F50" s="18">
-        <v>1</v>
-      </c>
-      <c r="G50" s="18">
+      <c r="F51" s="18">
+        <v>1</v>
+      </c>
+      <c r="G51" s="18">
         <v>100</v>
       </c>
-      <c r="H50" s="18">
+      <c r="H51" s="18">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I50" s="18">
+      <c r="I51" s="18">
         <v>47</v>
       </c>
-      <c r="J50" s="18">
+      <c r="J51" s="18">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="L50" s="18">
-        <f t="shared" ref="L50" si="19">G50*K50/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" s="18" customFormat="1">
-      <c r="C51" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F51" s="18">
-        <v>1</v>
-      </c>
-      <c r="H51" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="18">
-        <v>31</v>
-      </c>
-      <c r="J51" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="L51" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="L51" si="19">G51*K51/100</f>
         <v>0</v>
       </c>
     </row>
@@ -5281,79 +5393,73 @@
         <v>8</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="F52" s="18">
         <v>1</v>
-      </c>
-      <c r="G52" s="18">
-        <v>200</v>
       </c>
       <c r="H52" s="18">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I52" s="18">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J52" s="18">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="K52" s="18">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="L52" s="18">
         <f t="shared" si="9"/>
-        <v>4.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:12" s="18" customFormat="1">
+      <c r="C53" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>84</v>
+      </c>
       <c r="F53" s="18">
         <v>1</v>
+      </c>
+      <c r="G53" s="18">
+        <v>200</v>
       </c>
       <c r="H53" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="I53" s="18">
+        <v>30</v>
       </c>
       <c r="J53" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="K53" s="18">
+        <v>2.4</v>
       </c>
       <c r="L53" s="18">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="54" spans="1:12" s="18" customFormat="1">
-      <c r="C54" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E54" s="18" t="s">
-        <v>74</v>
-      </c>
       <c r="F54" s="18">
         <v>1</v>
-      </c>
-      <c r="G54" s="18">
-        <v>30</v>
       </c>
       <c r="H54" s="18">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="I54" s="18">
-        <v>615</v>
+        <v>0</v>
       </c>
       <c r="J54" s="18">
         <f t="shared" si="2"/>
-        <v>184.5</v>
+        <v>0</v>
       </c>
       <c r="L54" s="18">
         <f t="shared" si="9"/>
@@ -5361,247 +5467,298 @@
       </c>
     </row>
     <row r="55" spans="1:12" s="18" customFormat="1">
-      <c r="A55"/>
       <c r="C55" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="F55" s="18">
         <v>1</v>
       </c>
       <c r="G55" s="18">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H55" s="18">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I55" s="18">
-        <v>724</v>
+        <v>615</v>
       </c>
       <c r="J55" s="18">
         <f t="shared" si="2"/>
-        <v>72.400000000000006</v>
-      </c>
-      <c r="K55" s="18">
-        <v>2.8</v>
+        <v>184.5</v>
       </c>
       <c r="L55" s="18">
         <f t="shared" si="9"/>
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:12" s="18" customFormat="1">
+      <c r="A56"/>
+      <c r="C56" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>103</v>
+      </c>
       <c r="F56" s="18">
         <v>1</v>
+      </c>
+      <c r="G56" s="18">
+        <v>10</v>
       </c>
       <c r="H56" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I56" s="18">
+        <v>724</v>
       </c>
       <c r="J56" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>72.400000000000006</v>
+      </c>
+      <c r="K56" s="18">
+        <v>2.8</v>
       </c>
       <c r="L56" s="18">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="57" spans="1:12" s="18" customFormat="1">
-      <c r="C57" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>110</v>
+      <c r="B57"/>
+      <c r="C57" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="E57" s="53" t="s">
+        <v>138</v>
       </c>
       <c r="F57" s="18">
         <v>1</v>
       </c>
       <c r="G57" s="18">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H57" s="18">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I57" s="18">
-        <v>584</v>
+        <v>146</v>
       </c>
       <c r="J57" s="18">
         <f t="shared" si="2"/>
-        <v>584</v>
+        <v>116.8</v>
       </c>
       <c r="K57" s="18">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="L57" s="18">
         <f t="shared" si="9"/>
-        <v>22</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="58" spans="1:12" s="18" customFormat="1">
+      <c r="C58" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>110</v>
+      </c>
       <c r="F58" s="18">
         <v>1</v>
+      </c>
+      <c r="G58" s="18">
+        <v>100</v>
       </c>
       <c r="H58" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="I58" s="18">
+        <v>584</v>
       </c>
       <c r="J58" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>584</v>
+      </c>
+      <c r="K58" s="18">
+        <v>22</v>
       </c>
       <c r="L58" s="18">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:12" s="18" customFormat="1">
-      <c r="C59" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E59" s="18" t="s">
-        <v>75</v>
-      </c>
       <c r="F59" s="18">
         <v>1</v>
-      </c>
-      <c r="G59" s="18">
-        <v>150</v>
       </c>
       <c r="H59" s="18">
         <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="I59" s="18">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="J59" s="18">
         <f t="shared" si="2"/>
-        <v>109.5</v>
-      </c>
-      <c r="K59" s="18">
-        <v>5.47</v>
+        <v>0</v>
       </c>
       <c r="L59" s="18">
         <f t="shared" si="9"/>
-        <v>8.2050000000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="C60" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" s="18" customFormat="1">
+      <c r="C60" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="D60" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F60" s="15">
-        <v>1</v>
-      </c>
-      <c r="G60" s="15">
+      <c r="D60" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F60" s="18">
+        <v>1</v>
+      </c>
+      <c r="G60" s="18">
         <v>150</v>
       </c>
-      <c r="H60" s="15">
+      <c r="H60" s="18">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="I60" s="15">
+      <c r="I60" s="18">
+        <v>73</v>
+      </c>
+      <c r="J60" s="18">
+        <f t="shared" si="2"/>
+        <v>109.5</v>
+      </c>
+      <c r="K60" s="18">
+        <v>5.47</v>
+      </c>
+      <c r="L60" s="18">
+        <f t="shared" si="9"/>
+        <v>8.2050000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="C61" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F61" s="15">
+        <v>1</v>
+      </c>
+      <c r="G61" s="15">
+        <v>150</v>
+      </c>
+      <c r="H61" s="15">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="I61" s="15">
         <v>41</v>
       </c>
-      <c r="J60" s="15">
+      <c r="J61" s="15">
         <f t="shared" si="2"/>
         <v>61.5</v>
       </c>
-      <c r="K60" s="15">
+      <c r="K61" s="15">
         <v>1.44</v>
       </c>
-      <c r="L60" s="15">
+      <c r="L61" s="15">
         <f t="shared" si="9"/>
         <v>2.16</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
-      <c r="A61"/>
-      <c r="C61" s="50" t="s">
+    <row r="62" spans="1:12">
+      <c r="A62"/>
+      <c r="C62" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="D61" s="50" t="s">
+      <c r="D62" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="E61" s="50" t="s">
+      <c r="E62" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="F61" s="15">
-        <v>1</v>
-      </c>
-      <c r="G61" s="15">
+      <c r="F62" s="15">
+        <v>1</v>
+      </c>
+      <c r="G62" s="15">
         <v>300</v>
       </c>
-      <c r="H61" s="50">
+      <c r="H62" s="50">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="I61" s="15">
+      <c r="I62" s="15">
         <v>36.380000000000003</v>
       </c>
-      <c r="J61" s="50">
+      <c r="J62" s="50">
         <f t="shared" si="2"/>
         <v>109.14</v>
       </c>
-      <c r="K61" s="50">
-        <v>1</v>
-      </c>
-      <c r="L61" s="50">
-        <f t="shared" ref="L61:L62" si="20">G61*K61/100</f>
+      <c r="K62" s="50">
+        <v>1</v>
+      </c>
+      <c r="L62" s="50">
+        <f t="shared" ref="L62:L63" si="20">G62*K62/100</f>
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
-      <c r="C62" s="50" t="s">
+    <row r="63" spans="1:12">
+      <c r="C63" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="D62" s="50" t="s">
+      <c r="D63" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="E62" s="50" t="s">
+      <c r="E63" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="F62" s="15">
-        <v>1</v>
-      </c>
-      <c r="G62" s="15">
+      <c r="F63" s="15">
+        <v>1</v>
+      </c>
+      <c r="G63" s="15">
         <v>400</v>
       </c>
-      <c r="H62" s="50">
+      <c r="H63" s="50">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="I62" s="15">
+      <c r="I63" s="15">
         <v>21.03</v>
       </c>
-      <c r="J62" s="50">
+      <c r="J63" s="50">
         <f t="shared" si="2"/>
         <v>84.12</v>
       </c>
-      <c r="K62" s="50">
+      <c r="K63" s="50">
         <v>0</v>
       </c>
-      <c r="L62" s="50">
+      <c r="L63" s="50">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -5615,11 +5772,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:M123"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8613,7 +8770,7 @@
       </c>
       <c r="B113" s="60">
         <f>SUM(J112:J123)</f>
-        <v>808.3900000000001</v>
+        <v>1111.6100000000001</v>
       </c>
       <c r="C113" s="53" t="s">
         <v>43</v>
@@ -8631,14 +8788,14 @@
         <v>60</v>
       </c>
       <c r="H113" s="53">
-        <f t="shared" ref="H113:H120" si="41">F113*G113</f>
+        <f t="shared" ref="H113:H123" si="41">F113*G113</f>
         <v>60</v>
       </c>
       <c r="I113" s="53">
         <v>151</v>
       </c>
       <c r="J113" s="53">
-        <f t="shared" ref="J113:J120" si="42">H113*I113/100</f>
+        <f t="shared" ref="J113:J123" si="42">H113*I113/100</f>
         <v>90.6</v>
       </c>
       <c r="K113" s="53">
@@ -8699,7 +8856,7 @@
       </c>
       <c r="B115" s="60">
         <f>SUMIF(C112:C123,A115,J112:J123)</f>
-        <v>310.60000000000002</v>
+        <v>567.1</v>
       </c>
       <c r="C115" s="53" t="s">
         <v>29</v>
@@ -8742,7 +8899,7 @@
       </c>
       <c r="B116" s="60">
         <f>SUMIF(C112:C123,A116,J112:J123)</f>
-        <v>0</v>
+        <v>46.72</v>
       </c>
       <c r="C116" s="53" t="s">
         <v>43</v>
@@ -8862,7 +9019,7 @@
       </c>
       <c r="B119" s="60">
         <f>SUM(L112:L123)</f>
-        <v>61.460499999999996</v>
+        <v>90.6905</v>
       </c>
       <c r="C119" s="51" t="s">
         <v>29</v>
@@ -8940,61 +9097,130 @@
     <row r="121" spans="1:13" s="50" customFormat="1">
       <c r="A121" s="61"/>
       <c r="B121" s="45"/>
-      <c r="C121" s="45"/>
-      <c r="D121" s="45"/>
-      <c r="E121" s="45"/>
-      <c r="F121" s="45"/>
-      <c r="G121" s="45"/>
-      <c r="H121" s="45"/>
-      <c r="I121" s="45"/>
-      <c r="J121" s="45"/>
-      <c r="K121" s="45"/>
-      <c r="L121" s="45"/>
+      <c r="C121" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D121" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E121" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F121" s="51">
+        <v>1.5</v>
+      </c>
+      <c r="G121" s="51">
+        <v>100</v>
+      </c>
+      <c r="H121" s="51">
+        <f t="shared" si="41"/>
+        <v>150</v>
+      </c>
+      <c r="I121" s="51">
+        <v>126</v>
+      </c>
+      <c r="J121" s="51">
+        <f t="shared" si="42"/>
+        <v>189</v>
+      </c>
+      <c r="K121" s="51">
+        <v>22</v>
+      </c>
+      <c r="L121" s="51">
+        <v>25</v>
+      </c>
       <c r="M121" s="47"/>
     </row>
     <row r="122" spans="1:13" s="50" customFormat="1">
       <c r="A122" s="61"/>
       <c r="B122" s="45"/>
-      <c r="C122" s="51"/>
-      <c r="D122" s="51"/>
-      <c r="E122" s="51"/>
-      <c r="F122" s="51"/>
-      <c r="G122" s="51"/>
-      <c r="H122" s="51"/>
-      <c r="I122" s="51"/>
-      <c r="J122" s="51"/>
-      <c r="K122" s="51"/>
-      <c r="L122" s="51"/>
+      <c r="C122" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="D122" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="E122" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="F122" s="53">
+        <v>0.4</v>
+      </c>
+      <c r="G122" s="53">
+        <v>80</v>
+      </c>
+      <c r="H122" s="53">
+        <f t="shared" si="41"/>
+        <v>32</v>
+      </c>
+      <c r="I122" s="53">
+        <v>146</v>
+      </c>
+      <c r="J122" s="53">
+        <f t="shared" si="42"/>
+        <v>46.72</v>
+      </c>
+      <c r="K122" s="53">
+        <v>3</v>
+      </c>
+      <c r="L122" s="53">
+        <f t="shared" ref="L122:L123" si="45">G122*K122/100</f>
+        <v>2.4</v>
+      </c>
       <c r="M122" s="47"/>
     </row>
     <row r="123" spans="1:13" s="50" customFormat="1" ht="17.25" thickBot="1">
       <c r="A123" s="63"/>
       <c r="B123" s="46"/>
-      <c r="C123" s="46"/>
-      <c r="D123" s="46"/>
-      <c r="E123" s="46"/>
-      <c r="F123" s="46"/>
-      <c r="G123" s="46"/>
-      <c r="H123" s="46"/>
-      <c r="I123" s="46"/>
-      <c r="J123" s="46"/>
-      <c r="K123" s="46"/>
-      <c r="L123" s="46"/>
+      <c r="C123" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D123" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="E123" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="F123" s="51">
+        <v>5</v>
+      </c>
+      <c r="G123" s="51">
+        <v>10</v>
+      </c>
+      <c r="H123" s="51">
+        <f t="shared" si="41"/>
+        <v>50</v>
+      </c>
+      <c r="I123" s="51">
+        <v>135</v>
+      </c>
+      <c r="J123" s="51">
+        <f t="shared" si="42"/>
+        <v>67.5</v>
+      </c>
+      <c r="K123" s="51">
+        <v>18.3</v>
+      </c>
+      <c r="L123" s="51">
+        <f t="shared" si="45"/>
+        <v>1.83</v>
+      </c>
       <c r="M123" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9034,6 +9260,9 @@
       <c r="C4" s="3">
         <v>113.2</v>
       </c>
+      <c r="D4" s="3">
+        <v>114.3</v>
+      </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="67">

--- a/减脂增肌.xlsx
+++ b/减脂增肌.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\健身\fitness\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B527A387-2630-4B3B-93D8-E54937056326}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="22620" windowHeight="14520" activeTab="3"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="22620" windowHeight="14520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="计划轮廓" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日饮食!$C$16:$C$23</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">每日饮食!$F$23:$F$27</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="141">
   <si>
     <t>单位</t>
   </si>
@@ -540,7 +546,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="25">
     <font>
       <sz val="11"/>
@@ -552,7 +558,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -560,7 +566,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -569,7 +575,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Cambria"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -578,7 +584,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -587,7 +593,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -596,7 +602,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -604,7 +610,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -612,7 +618,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -620,7 +626,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -628,7 +634,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -637,7 +643,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -646,7 +652,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -654,7 +660,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -663,7 +669,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -671,7 +677,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -680,7 +686,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -689,7 +695,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -697,7 +703,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1559,63 +1565,63 @@
     </xf>
   </cellXfs>
   <cellStyles count="57">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="18" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="43"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="22" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="45"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="26" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="47"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="30" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="49"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="51"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="53"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="19" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="44"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="23" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="46"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="27" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="48"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="50"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="35" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="52"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="39" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="54"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="20" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="24" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="28" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="32" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="36" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="40" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="41"/>
-    <cellStyle name="常规 2 2" xfId="55"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="16" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="15" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="21" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="25" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="29" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="33" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="37" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="注释 2" xfId="42"/>
-    <cellStyle name="注释 2 2" xfId="56"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="60% - Accent1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="常规 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="常规 2 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="注释 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="注释 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1628,6 +1634,1194 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>体重变化!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>早晨体重</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>体重变化!$B$3:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>43618</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43620</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43621</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43622</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43623</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43624</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43626</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43627</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43628</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43629</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>体重变化!$C$3:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>113.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>112.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A57-4400-9C0F-63F26A10E2D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>体重变化!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>睡前体重</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>体重变化!$B$3:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>43618</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43620</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43621</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43622</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43623</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43624</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43626</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43627</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43628</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43629</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>体重变化!$D$3:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>114.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>114.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>112.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5A57-4400-9C0F-63F26A10E2D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2087102207"/>
+        <c:axId val="2087000175"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>体重变化!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>腰围</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>体重变化!$B$3:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>43618</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43620</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43621</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43622</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43623</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43624</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43626</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43627</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43628</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43629</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>体重变化!$E$3:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5A57-4400-9C0F-63F26A10E2D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2086296319"/>
+        <c:axId val="2086991855"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="2087102207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2087000175"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="2087000175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2087102207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2086991855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2086296319"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="2086296319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2086991855"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1650,7 +2844,7 @@
         <xdr:cNvPr id="2049" name="Picture 1" descr="http://s2.boohee.cn/food/star/mantou_junzhi-eebf1a1047a2c77b1611f7fa1530b522.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1696,7 +2890,7 @@
         <xdr:cNvPr id="2050" name="Picture 2" descr="http://s2.boohee.cn/food/star/mifen-5417640ffeef94b4890adc8f223575b6.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1742,7 +2936,7 @@
         <xdr:cNvPr id="2051" name="Picture 3" descr="http://s2.boohee.cn/food/star/lvdou-abb3662f6104fb8d05203374a6f71125.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1788,7 +2982,7 @@
         <xdr:cNvPr id="2052" name="Picture 4" descr="http://s2.boohee.cn/food/star/heimizhou-96bc011520f5fa9c449a0c04f462933a.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1834,7 +3028,7 @@
         <xdr:cNvPr id="2053" name="Picture 5" descr="http://s2.boohee.cn/food/star/jixiongfurou-838288502b3a279a85e51959b2625cbb.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1880,7 +3074,7 @@
         <xdr:cNvPr id="2054" name="Picture 6" descr="http://s2.boohee.cn/food/star/hebaodan_youjian-ecdd3bc2083df7d4f3f16c3f73b46ad1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1926,7 +3120,7 @@
         <xdr:cNvPr id="2055" name="Picture 7" descr="http://s2.boohee.cn/food/star/miantiao_fuqiangfen_zhu-f98e799ed60d85715309652831e34fb4.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1972,7 +3166,7 @@
         <xdr:cNvPr id="2056" name="Picture 8" descr="http://s2.boohee.cn/food/star/niuru_junzhi-a27fe2d98e468f5174cff506bd4ac30e.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2018,7 +3212,7 @@
         <xdr:cNvPr id="2057" name="Picture 9" descr="http://s2.boohee.cn/food/star/pingguo_junzhi-8a4b1966ee455751bdabeba92fe6aea7.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2064,7 +3258,7 @@
         <xdr:cNvPr id="2058" name="Picture 10" descr="http://s2.boohee.cn/food/star/niurou_shou-35b252e8a7dc82545fd8d0c682ab7634.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2110,7 +3304,7 @@
         <xdr:cNvPr id="2059" name="Picture 11" descr="http://s2.boohee.cn/food/star/dounai-afbb33b4205be58a6579cef0075cc635.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2156,7 +3350,7 @@
         <xdr:cNvPr id="2060" name="Picture 12" descr="http://s2.boohee.cn/food/star/kuihuaziren-35ecdeccf4b3ab68b27ed7fa3f370c88.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2202,7 +3396,7 @@
         <xdr:cNvPr id="2061" name="Picture 13" descr="http://s2.boohee.cn/food/star/doufu_junzhi-c00d094a7a0e51393cb567814df97922.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2248,7 +3442,7 @@
         <xdr:cNvPr id="2062" name="Picture 14" descr="http://s2.boohee.cn/food/star/lvdouzhou-a25d46fa0205ecd0a0f89b573bfc420d.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2294,7 +3488,7 @@
         <xdr:cNvPr id="16" name="Picture 15" descr="http://s2.boohee.cn/food/star/kaifengguantangbao-0c0a391c85d62d20f460de7ebd72d3fc.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2306,7 +3500,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2326,7 +3520,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2355,7 +3549,7 @@
         <xdr:cNvPr id="17" name="Picture 16" descr="http://s2.boohee.cn/food/star/xiangjiao-a02e0b0a9cc11382f89c023a0abe5c26.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2367,7 +3561,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2387,7 +3581,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2416,7 +3610,7 @@
         <xdr:cNvPr id="18" name="Picture 17" descr="http://s2.boohee.cn/food/star/tao_junzhi-cfad8f99b49568df71206244fe6102a8.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2428,7 +3622,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2448,7 +3642,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2472,7 +3666,7 @@
         <xdr:cNvPr id="19" name="Picture 14" descr="http://s2.boohee.cn/food/star/lvdouzhou-a25d46fa0205ecd0a0f89b573bfc420d.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2518,7 +3712,7 @@
         <xdr:cNvPr id="1025" name="Picture 1" descr="http://s2.boohee.cn/food/star/shucaishala-5a8e9eb8cbb4194b4afffa720d2a0bf7.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2564,7 +3758,7 @@
         <xdr:cNvPr id="1026" name="Picture 2" descr="http://s2.boohee.cn/food/star/jinqiangyushucaishala_wushalajiang-ce4ca0c7cc32257f837c393f3050c877.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +3804,7 @@
         <xdr:cNvPr id="1027" name="Picture 3" descr="http://s2.boohee.cn/food/star/shalajiang-bf0caecb9e24b8497fdfd42da8740fc4.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2656,7 +3850,7 @@
         <xdr:cNvPr id="23" name="Picture 22" descr="http://s2.boohee.cn/food/star/jidanbing-aae559b0f1fdc016e0c99bd0e9f52834.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2668,7 +3862,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2688,7 +3882,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2717,7 +3911,7 @@
         <xdr:cNvPr id="25" name="Picture 24" descr="http://s2.boohee.cn/food/star/qingdunpaigu-9d0bb3a3c28831ec6c8752a9267b7d9b.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2729,7 +3923,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2749,7 +3943,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2778,7 +3972,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="http://s2.boohee.cn/food/star/xigua_junzhi-21ca9c4ebf052c715635aee817282201.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2824,7 +4018,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="http://s2.boohee.cn/food/star/yumitangxiaomizhou-24b50dc800209120bc96d8e0ef1bca74.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2870,7 +4064,7 @@
         <xdr:cNvPr id="4" name="Picture 3" descr="http://s2.boohee.cn/food/star/heijiaoniupai-974c0876b4ab5c27293c84f299326ba1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2916,7 +4110,7 @@
         <xdr:cNvPr id="28" name="Picture 27" descr="http://s2.boohee.cn/food/star/hamigua2-bb623c64e63a628e505152d1da65ce43.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB985375-54E7-4021-ABF8-CC4533D90F51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2928,7 +4122,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2948,7 +4142,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2974,7 +4168,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 1" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png"/>
+        <xdr:cNvPr id="5" name="Picture 1" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3014,7 +4214,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 2" descr="http://s2.boohee.cn/food/star/jiachangbianyu-88c0bd723f724deae70a31371a4ea6b2.png"/>
+        <xdr:cNvPr id="6" name="Picture 2" descr="http://s2.boohee.cn/food/star/jiachangbianyu-88c0bd723f724deae70a31371a4ea6b2.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3059,7 +4265,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3087,8 +4299,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06277956-5E5E-4673-9F15-CB39F2F968E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3130,7 +4383,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3162,9 +4415,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3196,6 +4467,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3371,11 +4660,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3631,12 +4920,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L42" sqref="C42:L42"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37:L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4847,18 +6136,18 @@
         <v>200</v>
       </c>
       <c r="I36" s="18">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="J36" s="18">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="K36" s="18">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L36" s="18">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="18" customFormat="1">
@@ -5772,11 +7061,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:M123"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A3:M138"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F125" sqref="F125"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9207,6 +10496,457 @@
       </c>
       <c r="M123" s="48"/>
     </row>
+    <row r="125" spans="1:13" ht="17.25" thickBot="1"/>
+    <row r="126" spans="1:13" s="50" customFormat="1">
+      <c r="A126" s="57"/>
+      <c r="B126" s="58"/>
+      <c r="C126" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F126" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="G126" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="H126" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="I126" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="J126" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="K126" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="L126" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M126" s="59"/>
+    </row>
+    <row r="127" spans="1:13" s="50" customFormat="1">
+      <c r="A127" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B127" s="64">
+        <v>43620</v>
+      </c>
+      <c r="C127" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D127" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="E127" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="F127" s="53">
+        <v>2</v>
+      </c>
+      <c r="G127" s="53">
+        <v>300</v>
+      </c>
+      <c r="H127" s="53">
+        <f t="shared" ref="H127" si="46">F127*G127</f>
+        <v>600</v>
+      </c>
+      <c r="I127" s="53">
+        <v>53</v>
+      </c>
+      <c r="J127" s="53">
+        <f t="shared" ref="J127" si="47">H127*I127/100</f>
+        <v>318</v>
+      </c>
+      <c r="K127" s="53">
+        <v>1.21</v>
+      </c>
+      <c r="L127" s="53">
+        <f t="shared" ref="L127" si="48">G127*K127/100</f>
+        <v>3.63</v>
+      </c>
+      <c r="M127" s="55"/>
+    </row>
+    <row r="128" spans="1:13" s="50" customFormat="1">
+      <c r="A128" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B128" s="60">
+        <f>SUM(J127:J138)</f>
+        <v>1358.2180000000001</v>
+      </c>
+      <c r="C128" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D128" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E128" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="F128" s="53">
+        <v>1</v>
+      </c>
+      <c r="G128" s="53">
+        <v>60</v>
+      </c>
+      <c r="H128" s="53">
+        <f t="shared" ref="H128:H134" si="49">F128*G128</f>
+        <v>60</v>
+      </c>
+      <c r="I128" s="53">
+        <v>151</v>
+      </c>
+      <c r="J128" s="53">
+        <f t="shared" ref="J128:J134" si="50">H128*I128/100</f>
+        <v>90.6</v>
+      </c>
+      <c r="K128" s="53">
+        <v>12.1</v>
+      </c>
+      <c r="L128" s="53">
+        <f>G128*K128/100</f>
+        <v>7.26</v>
+      </c>
+      <c r="M128" s="55"/>
+    </row>
+    <row r="129" spans="1:13" s="50" customFormat="1">
+      <c r="A129" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B129" s="60">
+        <f>SUMIF(C127:C138,A129,J127:J138)</f>
+        <v>492</v>
+      </c>
+      <c r="C129" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D129" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="E129" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="F129" s="53">
+        <v>1</v>
+      </c>
+      <c r="G129" s="53">
+        <v>60</v>
+      </c>
+      <c r="H129" s="53">
+        <f t="shared" si="49"/>
+        <v>60</v>
+      </c>
+      <c r="I129" s="53">
+        <v>199</v>
+      </c>
+      <c r="J129" s="53">
+        <f t="shared" si="50"/>
+        <v>119.4</v>
+      </c>
+      <c r="K129" s="53">
+        <v>13.5</v>
+      </c>
+      <c r="L129" s="53">
+        <f t="shared" ref="L129:L133" si="51">G129*K129/100</f>
+        <v>8.1</v>
+      </c>
+      <c r="M129" s="55"/>
+    </row>
+    <row r="130" spans="1:13" s="50" customFormat="1">
+      <c r="A130" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" s="60">
+        <f>SUMIF(C127:C138,A130,J127:J138)</f>
+        <v>822.81799999999998</v>
+      </c>
+      <c r="C130" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D130" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="E130" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F130" s="53">
+        <v>1.25</v>
+      </c>
+      <c r="G130" s="53">
+        <v>200</v>
+      </c>
+      <c r="H130" s="53">
+        <f t="shared" si="49"/>
+        <v>250</v>
+      </c>
+      <c r="I130" s="53">
+        <v>66</v>
+      </c>
+      <c r="J130" s="53">
+        <f t="shared" si="50"/>
+        <v>165</v>
+      </c>
+      <c r="K130" s="53">
+        <v>3.2</v>
+      </c>
+      <c r="L130" s="53">
+        <f t="shared" si="51"/>
+        <v>6.4</v>
+      </c>
+      <c r="M130" s="55"/>
+    </row>
+    <row r="131" spans="1:13" s="50" customFormat="1">
+      <c r="A131" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B131" s="60">
+        <f>SUMIF(C127:C138,A131,J127:J138)</f>
+        <v>0</v>
+      </c>
+      <c r="C131" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D131" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="E131" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F131" s="53">
+        <v>1</v>
+      </c>
+      <c r="G131" s="53">
+        <v>150</v>
+      </c>
+      <c r="H131" s="53">
+        <f t="shared" si="49"/>
+        <v>150</v>
+      </c>
+      <c r="I131" s="53">
+        <v>116</v>
+      </c>
+      <c r="J131" s="53">
+        <f t="shared" si="50"/>
+        <v>174</v>
+      </c>
+      <c r="K131" s="53"/>
+      <c r="L131" s="53">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="M131" s="55"/>
+    </row>
+    <row r="132" spans="1:13" s="50" customFormat="1">
+      <c r="A132" s="62"/>
+      <c r="B132" s="60"/>
+      <c r="C132" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="D132" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="E132" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F132" s="65">
+        <v>1</v>
+      </c>
+      <c r="G132" s="65">
+        <v>140</v>
+      </c>
+      <c r="H132" s="65">
+        <f t="shared" si="49"/>
+        <v>140</v>
+      </c>
+      <c r="I132" s="65">
+        <v>31</v>
+      </c>
+      <c r="J132" s="65">
+        <f t="shared" si="50"/>
+        <v>43.4</v>
+      </c>
+      <c r="K132" s="65">
+        <v>1.8</v>
+      </c>
+      <c r="L132" s="65">
+        <f t="shared" si="51"/>
+        <v>2.52</v>
+      </c>
+      <c r="M132" s="55"/>
+    </row>
+    <row r="133" spans="1:13" s="50" customFormat="1">
+      <c r="A133" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B133" s="60"/>
+      <c r="C133" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D133" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="E133" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="F133" s="53">
+        <v>3</v>
+      </c>
+      <c r="G133" s="53">
+        <v>35</v>
+      </c>
+      <c r="H133" s="53">
+        <f t="shared" si="49"/>
+        <v>105</v>
+      </c>
+      <c r="I133" s="53">
+        <v>184.87</v>
+      </c>
+      <c r="J133" s="53">
+        <f t="shared" si="50"/>
+        <v>194.11350000000002</v>
+      </c>
+      <c r="K133" s="53">
+        <v>10.58</v>
+      </c>
+      <c r="L133" s="53">
+        <f t="shared" si="51"/>
+        <v>3.7030000000000003</v>
+      </c>
+      <c r="M133" s="55"/>
+    </row>
+    <row r="134" spans="1:13" s="50" customFormat="1">
+      <c r="A134" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" s="60">
+        <f>SUM(L127:L138)</f>
+        <v>60.316000000000003</v>
+      </c>
+      <c r="C134" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D134" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E134" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F134" s="51">
+        <v>1.5</v>
+      </c>
+      <c r="G134" s="51">
+        <v>100</v>
+      </c>
+      <c r="H134" s="51">
+        <f t="shared" si="49"/>
+        <v>150</v>
+      </c>
+      <c r="I134" s="51">
+        <v>126</v>
+      </c>
+      <c r="J134" s="51">
+        <f t="shared" si="50"/>
+        <v>189</v>
+      </c>
+      <c r="K134" s="51">
+        <v>22</v>
+      </c>
+      <c r="L134" s="51">
+        <v>25</v>
+      </c>
+      <c r="M134" s="55"/>
+    </row>
+    <row r="135" spans="1:13" s="50" customFormat="1">
+      <c r="A135" s="61"/>
+      <c r="B135" s="60"/>
+      <c r="C135" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D135" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="E135" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="F135" s="53">
+        <v>1</v>
+      </c>
+      <c r="G135" s="53">
+        <v>35</v>
+      </c>
+      <c r="H135" s="53">
+        <f t="shared" ref="H135" si="52">F135*G135</f>
+        <v>35</v>
+      </c>
+      <c r="I135" s="53">
+        <v>184.87</v>
+      </c>
+      <c r="J135" s="53">
+        <f t="shared" ref="J135" si="53">H135*I135/100</f>
+        <v>64.704499999999996</v>
+      </c>
+      <c r="K135" s="53">
+        <v>10.58</v>
+      </c>
+      <c r="L135" s="53">
+        <f t="shared" ref="L135" si="54">G135*K135/100</f>
+        <v>3.7030000000000003</v>
+      </c>
+      <c r="M135" s="47"/>
+    </row>
+    <row r="136" spans="1:13" s="50" customFormat="1">
+      <c r="A136" s="61"/>
+      <c r="B136" s="45"/>
+      <c r="C136" s="51"/>
+      <c r="D136" s="51"/>
+      <c r="E136" s="51"/>
+      <c r="F136" s="51"/>
+      <c r="G136" s="51"/>
+      <c r="H136" s="51"/>
+      <c r="I136" s="51"/>
+      <c r="J136" s="51"/>
+      <c r="K136" s="51"/>
+      <c r="L136" s="51"/>
+      <c r="M136" s="47"/>
+    </row>
+    <row r="137" spans="1:13" s="50" customFormat="1">
+      <c r="A137" s="61"/>
+      <c r="B137" s="45"/>
+      <c r="C137" s="53"/>
+      <c r="D137" s="53"/>
+      <c r="E137" s="53"/>
+      <c r="F137" s="53"/>
+      <c r="G137" s="53"/>
+      <c r="H137" s="53"/>
+      <c r="I137" s="53"/>
+      <c r="J137" s="53"/>
+      <c r="K137" s="53"/>
+      <c r="L137" s="53"/>
+      <c r="M137" s="47"/>
+    </row>
+    <row r="138" spans="1:13" s="50" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A138" s="63"/>
+      <c r="B138" s="46"/>
+      <c r="C138" s="53"/>
+      <c r="D138" s="51"/>
+      <c r="E138" s="51"/>
+      <c r="F138" s="51"/>
+      <c r="G138" s="51"/>
+      <c r="H138" s="51"/>
+      <c r="I138" s="51"/>
+      <c r="J138" s="51"/>
+      <c r="K138" s="51"/>
+      <c r="L138" s="51"/>
+      <c r="M138" s="48"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9216,11 +10956,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9263,10 +11003,19 @@
       <c r="D4" s="3">
         <v>114.3</v>
       </c>
+      <c r="E4" s="3">
+        <v>82.5</v>
+      </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="67">
         <v>43620</v>
+      </c>
+      <c r="C5" s="3">
+        <v>112.9</v>
+      </c>
+      <c r="D5" s="3">
+        <v>112.5</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -9443,5 +11192,6 @@
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/减脂增肌.xlsx
+++ b/减脂增肌.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\健身\fitness\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B527A387-2630-4B3B-93D8-E54937056326}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="22620" windowHeight="14520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="22620" windowHeight="14520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="计划轮廓" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日饮食!$C$16:$C$23</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">每日饮食!$F$23:$F$27</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="142">
   <si>
     <t>单位</t>
   </si>
@@ -540,13 +534,17 @@
   </si>
   <si>
     <t>1块</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="25">
     <font>
       <sz val="11"/>
@@ -558,7 +556,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -566,7 +564,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -575,7 +573,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Cambria"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -584,7 +582,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -593,7 +591,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -602,7 +600,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -610,7 +608,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -618,7 +616,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -626,7 +624,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -634,7 +632,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -643,7 +641,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -652,7 +650,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -660,7 +658,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -669,7 +667,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -677,7 +675,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -686,7 +684,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -695,7 +693,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -703,7 +701,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1565,63 +1563,63 @@
     </xf>
   </cellXfs>
   <cellStyles count="57">
-    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="30" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="34" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="23" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="27" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="31" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="35" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="39" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="60% - Accent1" xfId="20" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="24" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="28" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="32" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="36" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="40" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="21" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="25" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="29" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="33" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="37" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="常规 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="常规 2 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="注释 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="注释 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="43"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="45"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="47"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="49"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="51"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="53"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="44"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="46"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="48"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="50"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="52"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="54"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="41"/>
+    <cellStyle name="常规 2 2" xfId="55"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="注释 2" xfId="42"/>
+    <cellStyle name="注释 2 2" xfId="56"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1637,21 +1635,11 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1676,16 +1664,14 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1728,7 +1714,7 @@
             <c:numRef>
               <c:f>体重变化!$B$3:$B$14</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>43618</c:v>
@@ -1781,11 +1767,13 @@
                 <c:pt idx="2">
                   <c:v>112.9</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>111.8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5A57-4400-9C0F-63F26A10E2D2}"/>
             </c:ext>
@@ -1833,7 +1821,7 @@
             <c:numRef>
               <c:f>体重变化!$B$3:$B$14</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>43618</c:v>
@@ -1892,29 +1880,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5A57-4400-9C0F-63F26A10E2D2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2087102207"/>
-        <c:axId val="2087000175"/>
+        <c:axId val="81896960"/>
+        <c:axId val="81898496"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
@@ -1930,11 +1908,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="28575" cap="sq">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:round/>
+              <a:miter lim="800000"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1957,7 +1935,7 @@
             <c:numRef>
               <c:f>体重变化!$B$3:$B$14</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>43618</c:v>
@@ -2013,36 +1991,24 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5A57-4400-9C0F-63F26A10E2D2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2086296319"/>
-        <c:axId val="2086991855"/>
+        <c:axId val="81905920"/>
+        <c:axId val="81904384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2087102207"/>
+        <c:axId val="81896960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2074,21 +2040,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2087000175"/>
+        <c:crossAx val="81898496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2087000175"/>
+        <c:axId val="81898496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2106,7 +2071,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2132,23 +2096,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2087102207"/>
+        <c:crossAx val="81896960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2086991855"/>
+        <c:axId val="81904384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2174,25 +2135,23 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2086296319"/>
+        <c:crossAx val="81905920"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="2086296319"/>
+        <c:axId val="81905920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086991855"/>
+        <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="81904384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2208,7 +2167,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2233,20 +2192,19 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2270,12 +2228,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2844,7 +2802,7 @@
         <xdr:cNvPr id="2049" name="Picture 1" descr="http://s2.boohee.cn/food/star/mantou_junzhi-eebf1a1047a2c77b1611f7fa1530b522.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2890,7 +2848,7 @@
         <xdr:cNvPr id="2050" name="Picture 2" descr="http://s2.boohee.cn/food/star/mifen-5417640ffeef94b4890adc8f223575b6.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2936,7 +2894,7 @@
         <xdr:cNvPr id="2051" name="Picture 3" descr="http://s2.boohee.cn/food/star/lvdou-abb3662f6104fb8d05203374a6f71125.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2982,7 +2940,7 @@
         <xdr:cNvPr id="2052" name="Picture 4" descr="http://s2.boohee.cn/food/star/heimizhou-96bc011520f5fa9c449a0c04f462933a.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3028,7 +2986,7 @@
         <xdr:cNvPr id="2053" name="Picture 5" descr="http://s2.boohee.cn/food/star/jixiongfurou-838288502b3a279a85e51959b2625cbb.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3074,7 +3032,7 @@
         <xdr:cNvPr id="2054" name="Picture 6" descr="http://s2.boohee.cn/food/star/hebaodan_youjian-ecdd3bc2083df7d4f3f16c3f73b46ad1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3120,7 +3078,7 @@
         <xdr:cNvPr id="2055" name="Picture 7" descr="http://s2.boohee.cn/food/star/miantiao_fuqiangfen_zhu-f98e799ed60d85715309652831e34fb4.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3166,7 +3124,7 @@
         <xdr:cNvPr id="2056" name="Picture 8" descr="http://s2.boohee.cn/food/star/niuru_junzhi-a27fe2d98e468f5174cff506bd4ac30e.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3212,7 +3170,7 @@
         <xdr:cNvPr id="2057" name="Picture 9" descr="http://s2.boohee.cn/food/star/pingguo_junzhi-8a4b1966ee455751bdabeba92fe6aea7.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3258,7 +3216,7 @@
         <xdr:cNvPr id="2058" name="Picture 10" descr="http://s2.boohee.cn/food/star/niurou_shou-35b252e8a7dc82545fd8d0c682ab7634.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3304,7 +3262,7 @@
         <xdr:cNvPr id="2059" name="Picture 11" descr="http://s2.boohee.cn/food/star/dounai-afbb33b4205be58a6579cef0075cc635.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3350,7 +3308,7 @@
         <xdr:cNvPr id="2060" name="Picture 12" descr="http://s2.boohee.cn/food/star/kuihuaziren-35ecdeccf4b3ab68b27ed7fa3f370c88.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3396,7 +3354,7 @@
         <xdr:cNvPr id="2061" name="Picture 13" descr="http://s2.boohee.cn/food/star/doufu_junzhi-c00d094a7a0e51393cb567814df97922.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3442,7 +3400,7 @@
         <xdr:cNvPr id="2062" name="Picture 14" descr="http://s2.boohee.cn/food/star/lvdouzhou-a25d46fa0205ecd0a0f89b573bfc420d.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3488,7 +3446,7 @@
         <xdr:cNvPr id="16" name="Picture 15" descr="http://s2.boohee.cn/food/star/kaifengguantangbao-0c0a391c85d62d20f460de7ebd72d3fc.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3500,7 +3458,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3520,7 +3478,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3549,7 +3507,7 @@
         <xdr:cNvPr id="17" name="Picture 16" descr="http://s2.boohee.cn/food/star/xiangjiao-a02e0b0a9cc11382f89c023a0abe5c26.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3561,7 +3519,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3581,7 +3539,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3610,7 +3568,7 @@
         <xdr:cNvPr id="18" name="Picture 17" descr="http://s2.boohee.cn/food/star/tao_junzhi-cfad8f99b49568df71206244fe6102a8.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3622,7 +3580,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3642,7 +3600,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3666,7 +3624,7 @@
         <xdr:cNvPr id="19" name="Picture 14" descr="http://s2.boohee.cn/food/star/lvdouzhou-a25d46fa0205ecd0a0f89b573bfc420d.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3712,7 +3670,7 @@
         <xdr:cNvPr id="1025" name="Picture 1" descr="http://s2.boohee.cn/food/star/shucaishala-5a8e9eb8cbb4194b4afffa720d2a0bf7.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3758,7 +3716,7 @@
         <xdr:cNvPr id="1026" name="Picture 2" descr="http://s2.boohee.cn/food/star/jinqiangyushucaishala_wushalajiang-ce4ca0c7cc32257f837c393f3050c877.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3804,7 +3762,7 @@
         <xdr:cNvPr id="1027" name="Picture 3" descr="http://s2.boohee.cn/food/star/shalajiang-bf0caecb9e24b8497fdfd42da8740fc4.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3850,7 +3808,7 @@
         <xdr:cNvPr id="23" name="Picture 22" descr="http://s2.boohee.cn/food/star/jidanbing-aae559b0f1fdc016e0c99bd0e9f52834.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3862,7 +3820,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3882,7 +3840,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3911,7 +3869,7 @@
         <xdr:cNvPr id="25" name="Picture 24" descr="http://s2.boohee.cn/food/star/qingdunpaigu-9d0bb3a3c28831ec6c8752a9267b7d9b.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3923,7 +3881,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3943,7 +3901,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3972,7 +3930,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="http://s2.boohee.cn/food/star/xigua_junzhi-21ca9c4ebf052c715635aee817282201.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4018,7 +3976,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="http://s2.boohee.cn/food/star/yumitangxiaomizhou-24b50dc800209120bc96d8e0ef1bca74.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4064,7 +4022,7 @@
         <xdr:cNvPr id="4" name="Picture 3" descr="http://s2.boohee.cn/food/star/heijiaoniupai-974c0876b4ab5c27293c84f299326ba1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4110,7 +4068,7 @@
         <xdr:cNvPr id="28" name="Picture 27" descr="http://s2.boohee.cn/food/star/hamigua2-bb623c64e63a628e505152d1da65ce43.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4122,7 +4080,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4142,7 +4100,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4171,7 +4129,7 @@
         <xdr:cNvPr id="5" name="Picture 1" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4217,7 +4175,7 @@
         <xdr:cNvPr id="6" name="Picture 2" descr="http://s2.boohee.cn/food/star/jiachangbianyu-88c0bd723f724deae70a31371a4ea6b2.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4268,7 +4226,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4319,7 +4277,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06277956-5E5E-4673-9F15-CB39F2F968E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{06277956-5E5E-4673-9F15-CB39F2F968E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4341,7 +4299,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4383,7 +4341,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4415,27 +4373,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4467,24 +4407,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4660,7 +4582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -4920,7 +4842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
@@ -7061,11 +6983,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A3:M138"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:M142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="G142" sqref="G142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10947,6 +10869,11 @@
       <c r="L138" s="51"/>
       <c r="M138" s="48"/>
     </row>
+    <row r="142" spans="1:13">
+      <c r="G142" s="50" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10956,11 +10883,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11022,6 +10949,9 @@
       <c r="B6" s="67">
         <v>43621</v>
       </c>
+      <c r="C6" s="3">
+        <v>111.8</v>
+      </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="67">
